--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/Android-ShineLib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <definedName name="ListYN" localSheetId="5">#REF!</definedName>
     <definedName name="ListYN" localSheetId="4">#REF!</definedName>
     <definedName name="ListYN">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$H$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$G$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Document Introduction'!$A$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Introduction!$A$1:$M$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maturity Grid'!$A$1:$E$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maturity Grid'!$A$1:$E$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Revision History'!$A$1:$G$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Title Page'!$A$1:$G$19</definedName>
     <definedName name="SORT" localSheetId="5">#REF!</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
   <si>
     <t>1.1</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>Repository</t>
-  </si>
-  <si>
-    <t>&lt;John Doe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Product architect&gt;</t>
   </si>
   <si>
     <t>&lt;state document archive&gt;</t>
@@ -181,9 +175,6 @@
     <t xml:space="preserve">Template ID:  </t>
   </si>
   <si>
-    <t>&lt;approver name&gt;</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -191,15 +182,6 @@
   </si>
   <si>
     <t>Introduction</t>
-  </si>
-  <si>
-    <t>Workaround</t>
-  </si>
-  <si>
-    <t>Impact on device performance</t>
-  </si>
-  <si>
-    <t>To be solved?</t>
   </si>
   <si>
     <t>Severity</t>
@@ -245,40 +227,10 @@
     </r>
   </si>
   <si>
-    <t>Defect id</t>
-  </si>
-  <si>
-    <t>Problem description</t>
-  </si>
-  <si>
     <t>The list of residual anomalies can be found in tab "Anomalies". An overview is shown below.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Conclusion: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;no residual anomalies for &lt;(medical device) software name&gt;&gt; .</t>
-    </r>
-  </si>
-  <si>
     <t>BMS-REA-719, v1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;
-Before submitting a document for approval make sure all changes are accepted/rejected and all comments are deleted.
-This document shall be approved by E signature according local document management system or by signing the table below. 
-In case of E-signature state:  
-Approved by E-signature in local document management system
-&gt;
-</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -373,6 +325,111 @@
     <t>BG-208</t>
   </si>
   <si>
+    <t>BG-22</t>
+  </si>
+  <si>
+    <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
+  </si>
+  <si>
+    <t>BG-158</t>
+  </si>
+  <si>
+    <t>BG-241</t>
+  </si>
+  <si>
+    <t>BG-88</t>
+  </si>
+  <si>
+    <t>Crash , associating when bluetooth turned off</t>
+  </si>
+  <si>
+    <t>BG-246</t>
+  </si>
+  <si>
+    <t>BG-296</t>
+  </si>
+  <si>
+    <t>BG-238</t>
+  </si>
+  <si>
+    <t>Crash during association</t>
+  </si>
+  <si>
+    <t>Thijs Winter</t>
+  </si>
+  <si>
+    <t>Domain leader conenctivity</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Blocks development and/or testing work, production could not run.</t>
+  </si>
+  <si>
+    <t>Crashes, loss of data, severe memory leak.</t>
+  </si>
+  <si>
+    <t>Major loss of function.</t>
+  </si>
+  <si>
+    <t>Minor loss of function, or other problem where easy workaround is present.</t>
+  </si>
+  <si>
+    <t>Cosmetic problem like misspelt words or misaligned text.</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>[Android] Random Crash observed while syncing in samsung android device</t>
+  </si>
+  <si>
+    <t>Bug 30721:Moonshine pairing fails</t>
+  </si>
+  <si>
+    <t>BG-95</t>
+  </si>
+  <si>
+    <t>SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
+  </si>
+  <si>
+    <t>BG-145</t>
+  </si>
+  <si>
+    <t>Regression in association with thermometer</t>
+  </si>
+  <si>
+    <t>Bug 30096:[Android] Sync error observed in dashboard screen.</t>
+  </si>
+  <si>
+    <t>[Moonshine] [Bug#656] Moonshine pairing issues with Android phones</t>
+  </si>
+  <si>
+    <t>[Moonshot] TFS 32433 - Scale pairing issue Nexus [Support only]</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This list of residual anomalies for </t>
     </r>
@@ -390,8 +447,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is generated from the defect tracking database. See table below for an explanation of defect severities.
-The tab "Maturity Grid" gives an overview of the amount of residual anomalies per defect severity. The tab "Anomalies" gives an overview of the anomalous behavior and proposed workaround (when available).
+      <t xml:space="preserve"> is generated from the defect tracking database. The defet severity is decided in an analysis session where the defect is judged on the occurrence rate, its effect on application stability, possiblity of data loss, ability to recover from the defect and market share of phone on which the defect occurs. See the table below for the explanation of defect severities.
+The tab "Maturity Grid" gives an overview of the amount of residual anomalies per defect severity. The tab "Anomalies" gives an overview of the anomalous behavior.
 </t>
     </r>
     <r>
@@ -406,95 +463,26 @@
     </r>
   </si>
   <si>
-    <t>Unacceptable defect</t>
-  </si>
-  <si>
-    <t>Device will crash but after restart will continue to function</t>
-  </si>
-  <si>
-    <t>in future release</t>
-  </si>
-  <si>
-    <t>No workaround</t>
-  </si>
-  <si>
-    <t>BG-22</t>
-  </si>
-  <si>
-    <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
-  </si>
-  <si>
-    <t>BG-158</t>
-  </si>
-  <si>
-    <t>BG-283</t>
-  </si>
-  <si>
-    <t>BG-241</t>
-  </si>
-  <si>
-    <t>BG-209</t>
-  </si>
-  <si>
-    <t>Upperarm BPM doesn't sync with app</t>
-  </si>
-  <si>
-    <t>BG-88</t>
-  </si>
-  <si>
-    <t>Crash , associating when bluetooth turned off</t>
-  </si>
-  <si>
-    <t>BG-246</t>
-  </si>
-  <si>
-    <t>Requires multiple retries to get the device working</t>
-  </si>
-  <si>
-    <t>Undesirable Defect</t>
-  </si>
-  <si>
-    <t>BG-296</t>
-  </si>
-  <si>
-    <t>BG-238</t>
-  </si>
-  <si>
-    <t>Crash during association</t>
-  </si>
-  <si>
-    <t>Random Crash observed while syncing in samsung android device</t>
-  </si>
-  <si>
-    <t>Moonshine pairing issues with Android phones</t>
-  </si>
-  <si>
-    <t>Sync error observed in dashboard screen.</t>
-  </si>
-  <si>
-    <t>Moonshine pairing fails</t>
-  </si>
-  <si>
-    <t>Scale pairing issue Nexus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Association with the device is not possible with some phones. </t>
-  </si>
-  <si>
-    <t>Unacceptable Safety Defect</t>
-  </si>
-  <si>
-    <t>Unacceptable Defect</t>
-  </si>
-  <si>
-    <t>Minor Defect</t>
+    <t>Conclusion: The build cannot be released to clients due to 1 critical and 8 major  defects.</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2016-JUL-14</t>
+  </si>
+  <si>
+    <t>Changed severity classification</t>
+  </si>
+  <si>
+    <t>Review comments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,13 +589,6 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -663,12 +644,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -742,8 +717,40 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,18 +765,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -845,15 +876,149 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,9 +1028,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -911,19 +1076,19 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,16 +1100,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,7 +1125,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -971,12 +1136,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -985,20 +1144,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,7 +1160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,46 +1169,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,19 +1209,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1096,13 +1233,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1332,44 +1501,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488092</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1727</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1958340"/>
-          <a:ext cx="4755292" cy="2341067"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1445,6 +1576,256 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="https://atlas.natlab.research.philips.com/jira/images/icons/priorities/blocker.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="2959100"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="AutoShape 2" descr="https://atlas.natlab.research.philips.com/jira/images/icons/priorities/critical.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="3416300"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4099" name="AutoShape 3" descr="https://atlas.natlab.research.philips.com/jira/images/icons/priorities/major.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="3873500"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="AutoShape 4" descr="https://atlas.natlab.research.philips.com/jira/images/icons/priorities/minor.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="4330700"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4101" name="AutoShape 5" descr="https://atlas.natlab.research.philips.com/jira/images/icons/priorities/trivial.svg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1409700" y="4787900"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1980,8 +2361,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1997,10 +2378,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2010,7 +2391,7 @@
     <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2031,13 +2412,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2047,27 +2426,27 @@
       <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="59" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>25</v>
+      <c r="B8" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
@@ -2100,72 +2479,72 @@
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="80"/>
+      <c r="C12" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="70"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="68" t="s">
-        <v>60</v>
+      <c r="G12" s="64" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="81"/>
+      <c r="C13" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="71"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>61</v>
+      <c r="G13" s="64" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="C14" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>57</v>
+      <c r="C15" s="64" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2190,12 +2569,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E14"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -2213,8 +2592,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2229,8 +2608,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>55</v>
+      <c r="B1" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
@@ -2239,7 +2618,7 @@
     <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,7 +2628,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -2264,11 +2643,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
+      <c r="D6" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2277,13 +2656,13 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-    </row>
-    <row r="8" spans="2:6" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
@@ -2291,19 +2670,19 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
-      <c r="C9" s="69" t="s">
-        <v>65</v>
+      <c r="C9" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -2330,69 +2709,69 @@
       <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
-      <c r="D13" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="83"/>
+      <c r="D13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="51"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="51"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="51"/>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
+      <c r="A24" s="51"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="51"/>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
@@ -2424,12 +2803,12 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="E12:F12"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -2447,8 +2826,8 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2463,8 +2842,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
-        <v>55</v>
+      <c r="B1" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2490,7 +2869,7 @@
     </row>
     <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -2522,19 +2901,19 @@
     </row>
     <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>36</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2546,20 +2925,20 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B7" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>66</v>
+      <c r="F7" s="64" t="s">
+        <v>56</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -2571,11 +2950,21 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>98</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -5152,12 +5541,12 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -5172,15 +5561,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="6" width="9.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="67" t="s">
-        <v>55</v>
+      <c r="B1" s="63" t="s">
+        <v>45</v>
       </c>
       <c r="D1" s="37"/>
       <c r="E1" s="38"/>
@@ -5256,7 +5649,7 @@
     </row>
     <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5270,64 +5663,149 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="B4" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="57"/>
+      <c r="B6" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
+      <c r="B7" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="B8" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-    </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
+      <c r="B9" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12" s="86"/>
+    </row>
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="86"/>
+    </row>
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="86"/>
+    </row>
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="86"/>
+    </row>
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C16" s="86"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="57"/>
+      <c r="B20" s="53"/>
     </row>
     <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
@@ -5382,15 +5860,20 @@
       <c r="L26" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="B4:L4"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -5406,10 +5889,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ10"/>
+  <dimension ref="B1:AJ11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6121,82 +6604,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
-        <v>55</v>
+      <c r="B1" s="66" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="47">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="47">
+        <v>8</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="47">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="50">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="94"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="49">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="49">
-        <v>3</v>
-      </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="49">
-        <v>7</v>
-      </c>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="49">
-        <v>0</v>
-      </c>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -6212,1040 +6704,1014 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ29"/>
+  <dimension ref="B1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="120" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G7"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="36" customWidth="1"/>
-    <col min="2" max="2" width="19" style="37" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="38" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="38" customWidth="1"/>
-    <col min="27" max="27" width="10" style="38" customWidth="1"/>
-    <col min="28" max="36" width="8.83203125" style="38"/>
-    <col min="37" max="237" width="8.83203125" style="36"/>
-    <col min="238" max="238" width="1.5" style="36" customWidth="1"/>
-    <col min="239" max="239" width="1.33203125" style="36" customWidth="1"/>
-    <col min="240" max="240" width="42" style="36" customWidth="1"/>
-    <col min="241" max="241" width="5.5" style="36" customWidth="1"/>
-    <col min="242" max="243" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.6640625" style="36" customWidth="1"/>
-    <col min="245" max="280" width="3.33203125" style="36" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="36" customWidth="1"/>
-    <col min="282" max="282" width="25.6640625" style="36" customWidth="1"/>
-    <col min="283" max="283" width="31.33203125" style="36" customWidth="1"/>
-    <col min="284" max="493" width="8.83203125" style="36"/>
-    <col min="494" max="494" width="1.5" style="36" customWidth="1"/>
-    <col min="495" max="495" width="1.33203125" style="36" customWidth="1"/>
-    <col min="496" max="496" width="42" style="36" customWidth="1"/>
-    <col min="497" max="497" width="5.5" style="36" customWidth="1"/>
-    <col min="498" max="499" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.6640625" style="36" customWidth="1"/>
-    <col min="501" max="536" width="3.33203125" style="36" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="36" customWidth="1"/>
-    <col min="538" max="538" width="25.6640625" style="36" customWidth="1"/>
-    <col min="539" max="539" width="31.33203125" style="36" customWidth="1"/>
-    <col min="540" max="749" width="8.83203125" style="36"/>
-    <col min="750" max="750" width="1.5" style="36" customWidth="1"/>
-    <col min="751" max="751" width="1.33203125" style="36" customWidth="1"/>
-    <col min="752" max="752" width="42" style="36" customWidth="1"/>
-    <col min="753" max="753" width="5.5" style="36" customWidth="1"/>
-    <col min="754" max="755" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.6640625" style="36" customWidth="1"/>
-    <col min="757" max="792" width="3.33203125" style="36" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="36" customWidth="1"/>
-    <col min="794" max="794" width="25.6640625" style="36" customWidth="1"/>
-    <col min="795" max="795" width="31.33203125" style="36" customWidth="1"/>
-    <col min="796" max="1005" width="8.83203125" style="36"/>
-    <col min="1006" max="1006" width="1.5" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1008" max="1008" width="42" style="36" customWidth="1"/>
-    <col min="1009" max="1009" width="5.5" style="36" customWidth="1"/>
-    <col min="1010" max="1011" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1013" max="1048" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1050" max="1050" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1051" max="1051" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1052" max="1261" width="8.83203125" style="36"/>
-    <col min="1262" max="1262" width="1.5" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1264" max="1264" width="42" style="36" customWidth="1"/>
-    <col min="1265" max="1265" width="5.5" style="36" customWidth="1"/>
-    <col min="1266" max="1267" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1269" max="1304" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1306" max="1306" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1307" max="1307" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1308" max="1517" width="8.83203125" style="36"/>
-    <col min="1518" max="1518" width="1.5" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1520" max="1520" width="42" style="36" customWidth="1"/>
-    <col min="1521" max="1521" width="5.5" style="36" customWidth="1"/>
-    <col min="1522" max="1523" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1525" max="1560" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1562" max="1562" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1563" max="1563" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1564" max="1773" width="8.83203125" style="36"/>
-    <col min="1774" max="1774" width="1.5" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1776" max="1776" width="42" style="36" customWidth="1"/>
-    <col min="1777" max="1777" width="5.5" style="36" customWidth="1"/>
-    <col min="1778" max="1779" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1781" max="1816" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1818" max="1818" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1819" max="1819" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1820" max="2029" width="8.83203125" style="36"/>
-    <col min="2030" max="2030" width="1.5" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2032" max="2032" width="42" style="36" customWidth="1"/>
-    <col min="2033" max="2033" width="5.5" style="36" customWidth="1"/>
-    <col min="2034" max="2035" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2037" max="2072" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2074" max="2074" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2075" max="2075" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2076" max="2285" width="8.83203125" style="36"/>
-    <col min="2286" max="2286" width="1.5" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2288" max="2288" width="42" style="36" customWidth="1"/>
-    <col min="2289" max="2289" width="5.5" style="36" customWidth="1"/>
-    <col min="2290" max="2291" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2293" max="2328" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2330" max="2330" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2331" max="2331" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2332" max="2541" width="8.83203125" style="36"/>
-    <col min="2542" max="2542" width="1.5" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2544" max="2544" width="42" style="36" customWidth="1"/>
-    <col min="2545" max="2545" width="5.5" style="36" customWidth="1"/>
-    <col min="2546" max="2547" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2549" max="2584" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2586" max="2586" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2587" max="2587" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2588" max="2797" width="8.83203125" style="36"/>
-    <col min="2798" max="2798" width="1.5" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2800" max="2800" width="42" style="36" customWidth="1"/>
-    <col min="2801" max="2801" width="5.5" style="36" customWidth="1"/>
-    <col min="2802" max="2803" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2805" max="2840" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2842" max="2842" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2843" max="2843" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2844" max="3053" width="8.83203125" style="36"/>
-    <col min="3054" max="3054" width="1.5" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3056" max="3056" width="42" style="36" customWidth="1"/>
-    <col min="3057" max="3057" width="5.5" style="36" customWidth="1"/>
-    <col min="3058" max="3059" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3061" max="3096" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3098" max="3098" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3099" max="3099" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3100" max="3309" width="8.83203125" style="36"/>
-    <col min="3310" max="3310" width="1.5" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3312" max="3312" width="42" style="36" customWidth="1"/>
-    <col min="3313" max="3313" width="5.5" style="36" customWidth="1"/>
-    <col min="3314" max="3315" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3317" max="3352" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3354" max="3354" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3355" max="3355" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3356" max="3565" width="8.83203125" style="36"/>
-    <col min="3566" max="3566" width="1.5" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3568" max="3568" width="42" style="36" customWidth="1"/>
-    <col min="3569" max="3569" width="5.5" style="36" customWidth="1"/>
-    <col min="3570" max="3571" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3573" max="3608" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3610" max="3610" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3611" max="3611" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3612" max="3821" width="8.83203125" style="36"/>
-    <col min="3822" max="3822" width="1.5" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3824" max="3824" width="42" style="36" customWidth="1"/>
-    <col min="3825" max="3825" width="5.5" style="36" customWidth="1"/>
-    <col min="3826" max="3827" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3829" max="3864" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3866" max="3866" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3867" max="3867" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3868" max="4077" width="8.83203125" style="36"/>
-    <col min="4078" max="4078" width="1.5" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4080" max="4080" width="42" style="36" customWidth="1"/>
-    <col min="4081" max="4081" width="5.5" style="36" customWidth="1"/>
-    <col min="4082" max="4083" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4085" max="4120" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4122" max="4122" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4123" max="4123" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4124" max="4333" width="8.83203125" style="36"/>
-    <col min="4334" max="4334" width="1.5" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4336" max="4336" width="42" style="36" customWidth="1"/>
-    <col min="4337" max="4337" width="5.5" style="36" customWidth="1"/>
-    <col min="4338" max="4339" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4341" max="4376" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4378" max="4378" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4379" max="4379" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4380" max="4589" width="8.83203125" style="36"/>
-    <col min="4590" max="4590" width="1.5" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4592" max="4592" width="42" style="36" customWidth="1"/>
-    <col min="4593" max="4593" width="5.5" style="36" customWidth="1"/>
-    <col min="4594" max="4595" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4597" max="4632" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4634" max="4634" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4635" max="4635" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4636" max="4845" width="8.83203125" style="36"/>
-    <col min="4846" max="4846" width="1.5" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4848" max="4848" width="42" style="36" customWidth="1"/>
-    <col min="4849" max="4849" width="5.5" style="36" customWidth="1"/>
-    <col min="4850" max="4851" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4853" max="4888" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4890" max="4890" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4891" max="4891" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4892" max="5101" width="8.83203125" style="36"/>
-    <col min="5102" max="5102" width="1.5" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5104" max="5104" width="42" style="36" customWidth="1"/>
-    <col min="5105" max="5105" width="5.5" style="36" customWidth="1"/>
-    <col min="5106" max="5107" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5109" max="5144" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5146" max="5146" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5147" max="5147" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5148" max="5357" width="8.83203125" style="36"/>
-    <col min="5358" max="5358" width="1.5" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5360" max="5360" width="42" style="36" customWidth="1"/>
-    <col min="5361" max="5361" width="5.5" style="36" customWidth="1"/>
-    <col min="5362" max="5363" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5365" max="5400" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5402" max="5402" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5403" max="5403" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5404" max="5613" width="8.83203125" style="36"/>
-    <col min="5614" max="5614" width="1.5" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5616" max="5616" width="42" style="36" customWidth="1"/>
-    <col min="5617" max="5617" width="5.5" style="36" customWidth="1"/>
-    <col min="5618" max="5619" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5621" max="5656" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5658" max="5658" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5659" max="5659" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5660" max="5869" width="8.83203125" style="36"/>
-    <col min="5870" max="5870" width="1.5" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5872" max="5872" width="42" style="36" customWidth="1"/>
-    <col min="5873" max="5873" width="5.5" style="36" customWidth="1"/>
-    <col min="5874" max="5875" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5877" max="5912" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5914" max="5914" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5915" max="5915" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5916" max="6125" width="8.83203125" style="36"/>
-    <col min="6126" max="6126" width="1.5" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6128" max="6128" width="42" style="36" customWidth="1"/>
-    <col min="6129" max="6129" width="5.5" style="36" customWidth="1"/>
-    <col min="6130" max="6131" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6133" max="6168" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6170" max="6170" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6171" max="6171" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6172" max="6381" width="8.83203125" style="36"/>
-    <col min="6382" max="6382" width="1.5" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6384" max="6384" width="42" style="36" customWidth="1"/>
-    <col min="6385" max="6385" width="5.5" style="36" customWidth="1"/>
-    <col min="6386" max="6387" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6389" max="6424" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6426" max="6426" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6427" max="6427" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6428" max="6637" width="8.83203125" style="36"/>
-    <col min="6638" max="6638" width="1.5" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6640" max="6640" width="42" style="36" customWidth="1"/>
-    <col min="6641" max="6641" width="5.5" style="36" customWidth="1"/>
-    <col min="6642" max="6643" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6645" max="6680" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6682" max="6682" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6683" max="6683" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6684" max="6893" width="8.83203125" style="36"/>
-    <col min="6894" max="6894" width="1.5" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6896" max="6896" width="42" style="36" customWidth="1"/>
-    <col min="6897" max="6897" width="5.5" style="36" customWidth="1"/>
-    <col min="6898" max="6899" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6901" max="6936" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6938" max="6938" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6939" max="6939" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6940" max="7149" width="8.83203125" style="36"/>
-    <col min="7150" max="7150" width="1.5" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7152" max="7152" width="42" style="36" customWidth="1"/>
-    <col min="7153" max="7153" width="5.5" style="36" customWidth="1"/>
-    <col min="7154" max="7155" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7157" max="7192" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7194" max="7194" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7195" max="7195" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7196" max="7405" width="8.83203125" style="36"/>
-    <col min="7406" max="7406" width="1.5" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7408" max="7408" width="42" style="36" customWidth="1"/>
-    <col min="7409" max="7409" width="5.5" style="36" customWidth="1"/>
-    <col min="7410" max="7411" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7413" max="7448" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7450" max="7450" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7451" max="7451" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7452" max="7661" width="8.83203125" style="36"/>
-    <col min="7662" max="7662" width="1.5" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7664" max="7664" width="42" style="36" customWidth="1"/>
-    <col min="7665" max="7665" width="5.5" style="36" customWidth="1"/>
-    <col min="7666" max="7667" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7669" max="7704" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7706" max="7706" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7707" max="7707" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7708" max="7917" width="8.83203125" style="36"/>
-    <col min="7918" max="7918" width="1.5" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7920" max="7920" width="42" style="36" customWidth="1"/>
-    <col min="7921" max="7921" width="5.5" style="36" customWidth="1"/>
-    <col min="7922" max="7923" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7925" max="7960" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7962" max="7962" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7963" max="7963" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7964" max="8173" width="8.83203125" style="36"/>
-    <col min="8174" max="8174" width="1.5" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8176" max="8176" width="42" style="36" customWidth="1"/>
-    <col min="8177" max="8177" width="5.5" style="36" customWidth="1"/>
-    <col min="8178" max="8179" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8181" max="8216" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8218" max="8218" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8219" max="8219" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8220" max="8429" width="8.83203125" style="36"/>
-    <col min="8430" max="8430" width="1.5" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8432" max="8432" width="42" style="36" customWidth="1"/>
-    <col min="8433" max="8433" width="5.5" style="36" customWidth="1"/>
-    <col min="8434" max="8435" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8437" max="8472" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8474" max="8474" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8475" max="8475" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8476" max="8685" width="8.83203125" style="36"/>
-    <col min="8686" max="8686" width="1.5" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8688" max="8688" width="42" style="36" customWidth="1"/>
-    <col min="8689" max="8689" width="5.5" style="36" customWidth="1"/>
-    <col min="8690" max="8691" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8693" max="8728" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8730" max="8730" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8731" max="8731" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8732" max="8941" width="8.83203125" style="36"/>
-    <col min="8942" max="8942" width="1.5" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8944" max="8944" width="42" style="36" customWidth="1"/>
-    <col min="8945" max="8945" width="5.5" style="36" customWidth="1"/>
-    <col min="8946" max="8947" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8949" max="8984" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8986" max="8986" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8987" max="8987" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8988" max="9197" width="8.83203125" style="36"/>
-    <col min="9198" max="9198" width="1.5" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9200" max="9200" width="42" style="36" customWidth="1"/>
-    <col min="9201" max="9201" width="5.5" style="36" customWidth="1"/>
-    <col min="9202" max="9203" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9205" max="9240" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9242" max="9242" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9243" max="9243" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9244" max="9453" width="8.83203125" style="36"/>
-    <col min="9454" max="9454" width="1.5" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9456" max="9456" width="42" style="36" customWidth="1"/>
-    <col min="9457" max="9457" width="5.5" style="36" customWidth="1"/>
-    <col min="9458" max="9459" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9461" max="9496" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9498" max="9498" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9499" max="9499" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9500" max="9709" width="8.83203125" style="36"/>
-    <col min="9710" max="9710" width="1.5" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9712" max="9712" width="42" style="36" customWidth="1"/>
-    <col min="9713" max="9713" width="5.5" style="36" customWidth="1"/>
-    <col min="9714" max="9715" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9717" max="9752" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9754" max="9754" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9755" max="9755" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9756" max="9965" width="8.83203125" style="36"/>
-    <col min="9966" max="9966" width="1.5" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9968" max="9968" width="42" style="36" customWidth="1"/>
-    <col min="9969" max="9969" width="5.5" style="36" customWidth="1"/>
-    <col min="9970" max="9971" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9973" max="10008" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10010" max="10010" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10011" max="10011" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10012" max="10221" width="8.83203125" style="36"/>
-    <col min="10222" max="10222" width="1.5" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10224" max="10224" width="42" style="36" customWidth="1"/>
-    <col min="10225" max="10225" width="5.5" style="36" customWidth="1"/>
-    <col min="10226" max="10227" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10229" max="10264" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10266" max="10266" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10267" max="10267" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10268" max="10477" width="8.83203125" style="36"/>
-    <col min="10478" max="10478" width="1.5" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10480" max="10480" width="42" style="36" customWidth="1"/>
-    <col min="10481" max="10481" width="5.5" style="36" customWidth="1"/>
-    <col min="10482" max="10483" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10485" max="10520" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10522" max="10522" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10523" max="10523" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10524" max="10733" width="8.83203125" style="36"/>
-    <col min="10734" max="10734" width="1.5" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10736" max="10736" width="42" style="36" customWidth="1"/>
-    <col min="10737" max="10737" width="5.5" style="36" customWidth="1"/>
-    <col min="10738" max="10739" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10741" max="10776" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10778" max="10778" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10779" max="10779" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10780" max="10989" width="8.83203125" style="36"/>
-    <col min="10990" max="10990" width="1.5" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10992" max="10992" width="42" style="36" customWidth="1"/>
-    <col min="10993" max="10993" width="5.5" style="36" customWidth="1"/>
-    <col min="10994" max="10995" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10997" max="11032" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11034" max="11034" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11035" max="11035" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11036" max="11245" width="8.83203125" style="36"/>
-    <col min="11246" max="11246" width="1.5" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11248" max="11248" width="42" style="36" customWidth="1"/>
-    <col min="11249" max="11249" width="5.5" style="36" customWidth="1"/>
-    <col min="11250" max="11251" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11253" max="11288" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11290" max="11290" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11291" max="11291" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11292" max="11501" width="8.83203125" style="36"/>
-    <col min="11502" max="11502" width="1.5" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11504" max="11504" width="42" style="36" customWidth="1"/>
-    <col min="11505" max="11505" width="5.5" style="36" customWidth="1"/>
-    <col min="11506" max="11507" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11509" max="11544" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11546" max="11546" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11547" max="11547" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11548" max="11757" width="8.83203125" style="36"/>
-    <col min="11758" max="11758" width="1.5" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11760" max="11760" width="42" style="36" customWidth="1"/>
-    <col min="11761" max="11761" width="5.5" style="36" customWidth="1"/>
-    <col min="11762" max="11763" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11765" max="11800" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11802" max="11802" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11803" max="11803" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11804" max="12013" width="8.83203125" style="36"/>
-    <col min="12014" max="12014" width="1.5" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12016" max="12016" width="42" style="36" customWidth="1"/>
-    <col min="12017" max="12017" width="5.5" style="36" customWidth="1"/>
-    <col min="12018" max="12019" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12021" max="12056" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12058" max="12058" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12059" max="12059" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12060" max="12269" width="8.83203125" style="36"/>
-    <col min="12270" max="12270" width="1.5" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12272" max="12272" width="42" style="36" customWidth="1"/>
-    <col min="12273" max="12273" width="5.5" style="36" customWidth="1"/>
-    <col min="12274" max="12275" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12277" max="12312" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12314" max="12314" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12315" max="12315" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12316" max="12525" width="8.83203125" style="36"/>
-    <col min="12526" max="12526" width="1.5" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12528" max="12528" width="42" style="36" customWidth="1"/>
-    <col min="12529" max="12529" width="5.5" style="36" customWidth="1"/>
-    <col min="12530" max="12531" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12533" max="12568" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12570" max="12570" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12571" max="12571" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12572" max="12781" width="8.83203125" style="36"/>
-    <col min="12782" max="12782" width="1.5" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12784" max="12784" width="42" style="36" customWidth="1"/>
-    <col min="12785" max="12785" width="5.5" style="36" customWidth="1"/>
-    <col min="12786" max="12787" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12789" max="12824" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12826" max="12826" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12827" max="12827" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12828" max="13037" width="8.83203125" style="36"/>
-    <col min="13038" max="13038" width="1.5" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13040" max="13040" width="42" style="36" customWidth="1"/>
-    <col min="13041" max="13041" width="5.5" style="36" customWidth="1"/>
-    <col min="13042" max="13043" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13045" max="13080" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13082" max="13082" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13083" max="13083" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13084" max="13293" width="8.83203125" style="36"/>
-    <col min="13294" max="13294" width="1.5" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13296" max="13296" width="42" style="36" customWidth="1"/>
-    <col min="13297" max="13297" width="5.5" style="36" customWidth="1"/>
-    <col min="13298" max="13299" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13301" max="13336" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13338" max="13338" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13339" max="13339" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13340" max="13549" width="8.83203125" style="36"/>
-    <col min="13550" max="13550" width="1.5" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13552" max="13552" width="42" style="36" customWidth="1"/>
-    <col min="13553" max="13553" width="5.5" style="36" customWidth="1"/>
-    <col min="13554" max="13555" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13557" max="13592" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13594" max="13594" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13595" max="13595" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13596" max="13805" width="8.83203125" style="36"/>
-    <col min="13806" max="13806" width="1.5" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13808" max="13808" width="42" style="36" customWidth="1"/>
-    <col min="13809" max="13809" width="5.5" style="36" customWidth="1"/>
-    <col min="13810" max="13811" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13813" max="13848" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13850" max="13850" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13851" max="13851" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13852" max="14061" width="8.83203125" style="36"/>
-    <col min="14062" max="14062" width="1.5" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14064" max="14064" width="42" style="36" customWidth="1"/>
-    <col min="14065" max="14065" width="5.5" style="36" customWidth="1"/>
-    <col min="14066" max="14067" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14069" max="14104" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14106" max="14106" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14107" max="14107" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14108" max="14317" width="8.83203125" style="36"/>
-    <col min="14318" max="14318" width="1.5" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14320" max="14320" width="42" style="36" customWidth="1"/>
-    <col min="14321" max="14321" width="5.5" style="36" customWidth="1"/>
-    <col min="14322" max="14323" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14325" max="14360" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14362" max="14362" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14363" max="14363" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14364" max="14573" width="8.83203125" style="36"/>
-    <col min="14574" max="14574" width="1.5" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14576" max="14576" width="42" style="36" customWidth="1"/>
-    <col min="14577" max="14577" width="5.5" style="36" customWidth="1"/>
-    <col min="14578" max="14579" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14581" max="14616" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14618" max="14618" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14619" max="14619" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14620" max="14829" width="8.83203125" style="36"/>
-    <col min="14830" max="14830" width="1.5" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14832" max="14832" width="42" style="36" customWidth="1"/>
-    <col min="14833" max="14833" width="5.5" style="36" customWidth="1"/>
-    <col min="14834" max="14835" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14837" max="14872" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14874" max="14874" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14875" max="14875" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14876" max="15085" width="8.83203125" style="36"/>
-    <col min="15086" max="15086" width="1.5" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15088" max="15088" width="42" style="36" customWidth="1"/>
-    <col min="15089" max="15089" width="5.5" style="36" customWidth="1"/>
-    <col min="15090" max="15091" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15093" max="15128" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15130" max="15130" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15131" max="15131" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15132" max="15341" width="8.83203125" style="36"/>
-    <col min="15342" max="15342" width="1.5" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15344" max="15344" width="42" style="36" customWidth="1"/>
-    <col min="15345" max="15345" width="5.5" style="36" customWidth="1"/>
-    <col min="15346" max="15347" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15349" max="15384" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15386" max="15386" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15387" max="15387" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15388" max="15597" width="8.83203125" style="36"/>
-    <col min="15598" max="15598" width="1.5" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15600" max="15600" width="42" style="36" customWidth="1"/>
-    <col min="15601" max="15601" width="5.5" style="36" customWidth="1"/>
-    <col min="15602" max="15603" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15605" max="15640" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15642" max="15642" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15643" max="15643" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15644" max="15853" width="8.83203125" style="36"/>
-    <col min="15854" max="15854" width="1.5" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15856" max="15856" width="42" style="36" customWidth="1"/>
-    <col min="15857" max="15857" width="5.5" style="36" customWidth="1"/>
-    <col min="15858" max="15859" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15861" max="15896" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15898" max="15898" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15899" max="15899" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15900" max="16109" width="8.83203125" style="36"/>
-    <col min="16110" max="16110" width="1.5" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="1.33203125" style="36" customWidth="1"/>
-    <col min="16112" max="16112" width="42" style="36" customWidth="1"/>
-    <col min="16113" max="16113" width="5.5" style="36" customWidth="1"/>
-    <col min="16114" max="16115" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.6640625" style="36" customWidth="1"/>
-    <col min="16117" max="16152" width="3.33203125" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="36" customWidth="1"/>
-    <col min="16154" max="16154" width="25.6640625" style="36" customWidth="1"/>
-    <col min="16155" max="16155" width="31.33203125" style="36" customWidth="1"/>
-    <col min="16156" max="16384" width="8.83203125" style="36"/>
+    <col min="2" max="2" width="7.1640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="8" style="38" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="38" customWidth="1"/>
+    <col min="7" max="25" width="3.33203125" style="38" customWidth="1"/>
+    <col min="26" max="26" width="10" style="38" customWidth="1"/>
+    <col min="27" max="35" width="8.83203125" style="38"/>
+    <col min="36" max="236" width="8.83203125" style="36"/>
+    <col min="237" max="237" width="1.5" style="36" customWidth="1"/>
+    <col min="238" max="238" width="1.33203125" style="36" customWidth="1"/>
+    <col min="239" max="239" width="42" style="36" customWidth="1"/>
+    <col min="240" max="240" width="5.5" style="36" customWidth="1"/>
+    <col min="241" max="242" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="243" max="243" width="2.6640625" style="36" customWidth="1"/>
+    <col min="244" max="279" width="3.33203125" style="36" customWidth="1"/>
+    <col min="280" max="280" width="1.6640625" style="36" customWidth="1"/>
+    <col min="281" max="281" width="25.6640625" style="36" customWidth="1"/>
+    <col min="282" max="282" width="31.33203125" style="36" customWidth="1"/>
+    <col min="283" max="492" width="8.83203125" style="36"/>
+    <col min="493" max="493" width="1.5" style="36" customWidth="1"/>
+    <col min="494" max="494" width="1.33203125" style="36" customWidth="1"/>
+    <col min="495" max="495" width="42" style="36" customWidth="1"/>
+    <col min="496" max="496" width="5.5" style="36" customWidth="1"/>
+    <col min="497" max="498" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="499" max="499" width="2.6640625" style="36" customWidth="1"/>
+    <col min="500" max="535" width="3.33203125" style="36" customWidth="1"/>
+    <col min="536" max="536" width="1.6640625" style="36" customWidth="1"/>
+    <col min="537" max="537" width="25.6640625" style="36" customWidth="1"/>
+    <col min="538" max="538" width="31.33203125" style="36" customWidth="1"/>
+    <col min="539" max="748" width="8.83203125" style="36"/>
+    <col min="749" max="749" width="1.5" style="36" customWidth="1"/>
+    <col min="750" max="750" width="1.33203125" style="36" customWidth="1"/>
+    <col min="751" max="751" width="42" style="36" customWidth="1"/>
+    <col min="752" max="752" width="5.5" style="36" customWidth="1"/>
+    <col min="753" max="754" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="755" max="755" width="2.6640625" style="36" customWidth="1"/>
+    <col min="756" max="791" width="3.33203125" style="36" customWidth="1"/>
+    <col min="792" max="792" width="1.6640625" style="36" customWidth="1"/>
+    <col min="793" max="793" width="25.6640625" style="36" customWidth="1"/>
+    <col min="794" max="794" width="31.33203125" style="36" customWidth="1"/>
+    <col min="795" max="1004" width="8.83203125" style="36"/>
+    <col min="1005" max="1005" width="1.5" style="36" customWidth="1"/>
+    <col min="1006" max="1006" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1007" max="1007" width="42" style="36" customWidth="1"/>
+    <col min="1008" max="1008" width="5.5" style="36" customWidth="1"/>
+    <col min="1009" max="1010" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1011" max="1011" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1012" max="1047" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1048" max="1048" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1049" max="1049" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1050" max="1050" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1051" max="1260" width="8.83203125" style="36"/>
+    <col min="1261" max="1261" width="1.5" style="36" customWidth="1"/>
+    <col min="1262" max="1262" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1263" max="1263" width="42" style="36" customWidth="1"/>
+    <col min="1264" max="1264" width="5.5" style="36" customWidth="1"/>
+    <col min="1265" max="1266" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1267" max="1267" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1268" max="1303" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1304" max="1304" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1305" max="1305" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1306" max="1306" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1307" max="1516" width="8.83203125" style="36"/>
+    <col min="1517" max="1517" width="1.5" style="36" customWidth="1"/>
+    <col min="1518" max="1518" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1519" max="1519" width="42" style="36" customWidth="1"/>
+    <col min="1520" max="1520" width="5.5" style="36" customWidth="1"/>
+    <col min="1521" max="1522" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1523" max="1523" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1524" max="1559" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1560" max="1560" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1561" max="1561" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1562" max="1562" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1563" max="1772" width="8.83203125" style="36"/>
+    <col min="1773" max="1773" width="1.5" style="36" customWidth="1"/>
+    <col min="1774" max="1774" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1775" max="1775" width="42" style="36" customWidth="1"/>
+    <col min="1776" max="1776" width="5.5" style="36" customWidth="1"/>
+    <col min="1777" max="1778" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1779" max="1779" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1780" max="1815" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1816" max="1816" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1817" max="1817" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1818" max="1818" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1819" max="2028" width="8.83203125" style="36"/>
+    <col min="2029" max="2029" width="1.5" style="36" customWidth="1"/>
+    <col min="2030" max="2030" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2031" max="2031" width="42" style="36" customWidth="1"/>
+    <col min="2032" max="2032" width="5.5" style="36" customWidth="1"/>
+    <col min="2033" max="2034" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2035" max="2035" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2036" max="2071" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2072" max="2072" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2073" max="2073" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2074" max="2074" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2075" max="2284" width="8.83203125" style="36"/>
+    <col min="2285" max="2285" width="1.5" style="36" customWidth="1"/>
+    <col min="2286" max="2286" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2287" max="2287" width="42" style="36" customWidth="1"/>
+    <col min="2288" max="2288" width="5.5" style="36" customWidth="1"/>
+    <col min="2289" max="2290" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2291" max="2291" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2292" max="2327" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2328" max="2328" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2329" max="2329" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2330" max="2330" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2331" max="2540" width="8.83203125" style="36"/>
+    <col min="2541" max="2541" width="1.5" style="36" customWidth="1"/>
+    <col min="2542" max="2542" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2543" max="2543" width="42" style="36" customWidth="1"/>
+    <col min="2544" max="2544" width="5.5" style="36" customWidth="1"/>
+    <col min="2545" max="2546" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2547" max="2547" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2548" max="2583" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2584" max="2584" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2585" max="2585" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2586" max="2586" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2587" max="2796" width="8.83203125" style="36"/>
+    <col min="2797" max="2797" width="1.5" style="36" customWidth="1"/>
+    <col min="2798" max="2798" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2799" max="2799" width="42" style="36" customWidth="1"/>
+    <col min="2800" max="2800" width="5.5" style="36" customWidth="1"/>
+    <col min="2801" max="2802" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2803" max="2803" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2804" max="2839" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2840" max="2840" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2841" max="2841" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2842" max="2842" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2843" max="3052" width="8.83203125" style="36"/>
+    <col min="3053" max="3053" width="1.5" style="36" customWidth="1"/>
+    <col min="3054" max="3054" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3055" max="3055" width="42" style="36" customWidth="1"/>
+    <col min="3056" max="3056" width="5.5" style="36" customWidth="1"/>
+    <col min="3057" max="3058" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3059" max="3059" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3060" max="3095" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3096" max="3096" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3097" max="3097" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3098" max="3098" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3099" max="3308" width="8.83203125" style="36"/>
+    <col min="3309" max="3309" width="1.5" style="36" customWidth="1"/>
+    <col min="3310" max="3310" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3311" max="3311" width="42" style="36" customWidth="1"/>
+    <col min="3312" max="3312" width="5.5" style="36" customWidth="1"/>
+    <col min="3313" max="3314" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3315" max="3315" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3316" max="3351" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3352" max="3352" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3353" max="3353" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3354" max="3354" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3355" max="3564" width="8.83203125" style="36"/>
+    <col min="3565" max="3565" width="1.5" style="36" customWidth="1"/>
+    <col min="3566" max="3566" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3567" max="3567" width="42" style="36" customWidth="1"/>
+    <col min="3568" max="3568" width="5.5" style="36" customWidth="1"/>
+    <col min="3569" max="3570" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3571" max="3571" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3572" max="3607" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3608" max="3608" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3609" max="3609" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3610" max="3610" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3611" max="3820" width="8.83203125" style="36"/>
+    <col min="3821" max="3821" width="1.5" style="36" customWidth="1"/>
+    <col min="3822" max="3822" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3823" max="3823" width="42" style="36" customWidth="1"/>
+    <col min="3824" max="3824" width="5.5" style="36" customWidth="1"/>
+    <col min="3825" max="3826" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3827" max="3827" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3828" max="3863" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3864" max="3864" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3865" max="3865" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3866" max="3866" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3867" max="4076" width="8.83203125" style="36"/>
+    <col min="4077" max="4077" width="1.5" style="36" customWidth="1"/>
+    <col min="4078" max="4078" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4079" max="4079" width="42" style="36" customWidth="1"/>
+    <col min="4080" max="4080" width="5.5" style="36" customWidth="1"/>
+    <col min="4081" max="4082" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4083" max="4083" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4084" max="4119" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4120" max="4120" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4121" max="4121" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4122" max="4122" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4123" max="4332" width="8.83203125" style="36"/>
+    <col min="4333" max="4333" width="1.5" style="36" customWidth="1"/>
+    <col min="4334" max="4334" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4335" max="4335" width="42" style="36" customWidth="1"/>
+    <col min="4336" max="4336" width="5.5" style="36" customWidth="1"/>
+    <col min="4337" max="4338" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4339" max="4339" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4340" max="4375" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4376" max="4376" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4377" max="4377" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4378" max="4378" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4379" max="4588" width="8.83203125" style="36"/>
+    <col min="4589" max="4589" width="1.5" style="36" customWidth="1"/>
+    <col min="4590" max="4590" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4591" max="4591" width="42" style="36" customWidth="1"/>
+    <col min="4592" max="4592" width="5.5" style="36" customWidth="1"/>
+    <col min="4593" max="4594" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4595" max="4595" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4596" max="4631" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4632" max="4632" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4633" max="4633" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4634" max="4634" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4635" max="4844" width="8.83203125" style="36"/>
+    <col min="4845" max="4845" width="1.5" style="36" customWidth="1"/>
+    <col min="4846" max="4846" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4847" max="4847" width="42" style="36" customWidth="1"/>
+    <col min="4848" max="4848" width="5.5" style="36" customWidth="1"/>
+    <col min="4849" max="4850" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4851" max="4851" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4852" max="4887" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4888" max="4888" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4889" max="4889" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4890" max="4890" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4891" max="5100" width="8.83203125" style="36"/>
+    <col min="5101" max="5101" width="1.5" style="36" customWidth="1"/>
+    <col min="5102" max="5102" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5103" max="5103" width="42" style="36" customWidth="1"/>
+    <col min="5104" max="5104" width="5.5" style="36" customWidth="1"/>
+    <col min="5105" max="5106" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5107" max="5107" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5108" max="5143" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5144" max="5144" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5145" max="5145" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5146" max="5146" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5147" max="5356" width="8.83203125" style="36"/>
+    <col min="5357" max="5357" width="1.5" style="36" customWidth="1"/>
+    <col min="5358" max="5358" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5359" max="5359" width="42" style="36" customWidth="1"/>
+    <col min="5360" max="5360" width="5.5" style="36" customWidth="1"/>
+    <col min="5361" max="5362" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5363" max="5363" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5364" max="5399" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5400" max="5400" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5401" max="5401" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5402" max="5402" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5403" max="5612" width="8.83203125" style="36"/>
+    <col min="5613" max="5613" width="1.5" style="36" customWidth="1"/>
+    <col min="5614" max="5614" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5615" max="5615" width="42" style="36" customWidth="1"/>
+    <col min="5616" max="5616" width="5.5" style="36" customWidth="1"/>
+    <col min="5617" max="5618" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5619" max="5619" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5620" max="5655" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5656" max="5656" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5657" max="5657" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5658" max="5658" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5659" max="5868" width="8.83203125" style="36"/>
+    <col min="5869" max="5869" width="1.5" style="36" customWidth="1"/>
+    <col min="5870" max="5870" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5871" max="5871" width="42" style="36" customWidth="1"/>
+    <col min="5872" max="5872" width="5.5" style="36" customWidth="1"/>
+    <col min="5873" max="5874" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5875" max="5875" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5876" max="5911" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5912" max="5912" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5913" max="5913" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5914" max="5914" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5915" max="6124" width="8.83203125" style="36"/>
+    <col min="6125" max="6125" width="1.5" style="36" customWidth="1"/>
+    <col min="6126" max="6126" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6127" max="6127" width="42" style="36" customWidth="1"/>
+    <col min="6128" max="6128" width="5.5" style="36" customWidth="1"/>
+    <col min="6129" max="6130" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6131" max="6131" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6132" max="6167" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6168" max="6168" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6169" max="6169" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6170" max="6170" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6171" max="6380" width="8.83203125" style="36"/>
+    <col min="6381" max="6381" width="1.5" style="36" customWidth="1"/>
+    <col min="6382" max="6382" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6383" max="6383" width="42" style="36" customWidth="1"/>
+    <col min="6384" max="6384" width="5.5" style="36" customWidth="1"/>
+    <col min="6385" max="6386" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6387" max="6387" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6388" max="6423" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6424" max="6424" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6425" max="6425" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6426" max="6426" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6427" max="6636" width="8.83203125" style="36"/>
+    <col min="6637" max="6637" width="1.5" style="36" customWidth="1"/>
+    <col min="6638" max="6638" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6639" max="6639" width="42" style="36" customWidth="1"/>
+    <col min="6640" max="6640" width="5.5" style="36" customWidth="1"/>
+    <col min="6641" max="6642" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6643" max="6643" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6644" max="6679" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6680" max="6680" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6681" max="6681" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6682" max="6682" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6683" max="6892" width="8.83203125" style="36"/>
+    <col min="6893" max="6893" width="1.5" style="36" customWidth="1"/>
+    <col min="6894" max="6894" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6895" max="6895" width="42" style="36" customWidth="1"/>
+    <col min="6896" max="6896" width="5.5" style="36" customWidth="1"/>
+    <col min="6897" max="6898" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6899" max="6899" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6900" max="6935" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6936" max="6936" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6937" max="6937" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6938" max="6938" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6939" max="7148" width="8.83203125" style="36"/>
+    <col min="7149" max="7149" width="1.5" style="36" customWidth="1"/>
+    <col min="7150" max="7150" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7151" max="7151" width="42" style="36" customWidth="1"/>
+    <col min="7152" max="7152" width="5.5" style="36" customWidth="1"/>
+    <col min="7153" max="7154" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7155" max="7155" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7156" max="7191" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7192" max="7192" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7193" max="7193" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7194" max="7194" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7195" max="7404" width="8.83203125" style="36"/>
+    <col min="7405" max="7405" width="1.5" style="36" customWidth="1"/>
+    <col min="7406" max="7406" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7407" max="7407" width="42" style="36" customWidth="1"/>
+    <col min="7408" max="7408" width="5.5" style="36" customWidth="1"/>
+    <col min="7409" max="7410" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7411" max="7411" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7412" max="7447" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7448" max="7448" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7449" max="7449" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7450" max="7450" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7451" max="7660" width="8.83203125" style="36"/>
+    <col min="7661" max="7661" width="1.5" style="36" customWidth="1"/>
+    <col min="7662" max="7662" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7663" max="7663" width="42" style="36" customWidth="1"/>
+    <col min="7664" max="7664" width="5.5" style="36" customWidth="1"/>
+    <col min="7665" max="7666" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7667" max="7667" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7668" max="7703" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7704" max="7704" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7705" max="7705" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7706" max="7706" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7707" max="7916" width="8.83203125" style="36"/>
+    <col min="7917" max="7917" width="1.5" style="36" customWidth="1"/>
+    <col min="7918" max="7918" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7919" max="7919" width="42" style="36" customWidth="1"/>
+    <col min="7920" max="7920" width="5.5" style="36" customWidth="1"/>
+    <col min="7921" max="7922" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7923" max="7923" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7924" max="7959" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7960" max="7960" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7961" max="7961" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7962" max="7962" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7963" max="8172" width="8.83203125" style="36"/>
+    <col min="8173" max="8173" width="1.5" style="36" customWidth="1"/>
+    <col min="8174" max="8174" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8175" max="8175" width="42" style="36" customWidth="1"/>
+    <col min="8176" max="8176" width="5.5" style="36" customWidth="1"/>
+    <col min="8177" max="8178" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8179" max="8179" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8180" max="8215" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8216" max="8216" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8217" max="8217" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8218" max="8218" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8219" max="8428" width="8.83203125" style="36"/>
+    <col min="8429" max="8429" width="1.5" style="36" customWidth="1"/>
+    <col min="8430" max="8430" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8431" max="8431" width="42" style="36" customWidth="1"/>
+    <col min="8432" max="8432" width="5.5" style="36" customWidth="1"/>
+    <col min="8433" max="8434" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8435" max="8435" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8436" max="8471" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8472" max="8472" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8473" max="8473" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8474" max="8474" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8475" max="8684" width="8.83203125" style="36"/>
+    <col min="8685" max="8685" width="1.5" style="36" customWidth="1"/>
+    <col min="8686" max="8686" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8687" max="8687" width="42" style="36" customWidth="1"/>
+    <col min="8688" max="8688" width="5.5" style="36" customWidth="1"/>
+    <col min="8689" max="8690" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8691" max="8691" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8692" max="8727" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8728" max="8728" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8729" max="8729" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8730" max="8730" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8731" max="8940" width="8.83203125" style="36"/>
+    <col min="8941" max="8941" width="1.5" style="36" customWidth="1"/>
+    <col min="8942" max="8942" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8943" max="8943" width="42" style="36" customWidth="1"/>
+    <col min="8944" max="8944" width="5.5" style="36" customWidth="1"/>
+    <col min="8945" max="8946" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8947" max="8947" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8948" max="8983" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8984" max="8984" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8985" max="8985" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8986" max="8986" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8987" max="9196" width="8.83203125" style="36"/>
+    <col min="9197" max="9197" width="1.5" style="36" customWidth="1"/>
+    <col min="9198" max="9198" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9199" max="9199" width="42" style="36" customWidth="1"/>
+    <col min="9200" max="9200" width="5.5" style="36" customWidth="1"/>
+    <col min="9201" max="9202" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9203" max="9203" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9204" max="9239" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9240" max="9240" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9241" max="9241" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9242" max="9242" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9243" max="9452" width="8.83203125" style="36"/>
+    <col min="9453" max="9453" width="1.5" style="36" customWidth="1"/>
+    <col min="9454" max="9454" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9455" max="9455" width="42" style="36" customWidth="1"/>
+    <col min="9456" max="9456" width="5.5" style="36" customWidth="1"/>
+    <col min="9457" max="9458" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9459" max="9459" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9460" max="9495" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9496" max="9496" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9497" max="9497" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9498" max="9498" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9499" max="9708" width="8.83203125" style="36"/>
+    <col min="9709" max="9709" width="1.5" style="36" customWidth="1"/>
+    <col min="9710" max="9710" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9711" max="9711" width="42" style="36" customWidth="1"/>
+    <col min="9712" max="9712" width="5.5" style="36" customWidth="1"/>
+    <col min="9713" max="9714" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9715" max="9715" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9716" max="9751" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9752" max="9752" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9753" max="9753" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9754" max="9754" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9755" max="9964" width="8.83203125" style="36"/>
+    <col min="9965" max="9965" width="1.5" style="36" customWidth="1"/>
+    <col min="9966" max="9966" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9967" max="9967" width="42" style="36" customWidth="1"/>
+    <col min="9968" max="9968" width="5.5" style="36" customWidth="1"/>
+    <col min="9969" max="9970" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9971" max="9971" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9972" max="10007" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10008" max="10008" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10009" max="10009" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10010" max="10010" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10011" max="10220" width="8.83203125" style="36"/>
+    <col min="10221" max="10221" width="1.5" style="36" customWidth="1"/>
+    <col min="10222" max="10222" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10223" max="10223" width="42" style="36" customWidth="1"/>
+    <col min="10224" max="10224" width="5.5" style="36" customWidth="1"/>
+    <col min="10225" max="10226" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10227" max="10227" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10228" max="10263" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10264" max="10264" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10265" max="10265" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10266" max="10266" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10267" max="10476" width="8.83203125" style="36"/>
+    <col min="10477" max="10477" width="1.5" style="36" customWidth="1"/>
+    <col min="10478" max="10478" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10479" max="10479" width="42" style="36" customWidth="1"/>
+    <col min="10480" max="10480" width="5.5" style="36" customWidth="1"/>
+    <col min="10481" max="10482" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10483" max="10483" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10484" max="10519" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10520" max="10520" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10521" max="10521" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10522" max="10522" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10523" max="10732" width="8.83203125" style="36"/>
+    <col min="10733" max="10733" width="1.5" style="36" customWidth="1"/>
+    <col min="10734" max="10734" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10735" max="10735" width="42" style="36" customWidth="1"/>
+    <col min="10736" max="10736" width="5.5" style="36" customWidth="1"/>
+    <col min="10737" max="10738" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10739" max="10739" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10740" max="10775" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10776" max="10776" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10777" max="10777" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10778" max="10778" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10779" max="10988" width="8.83203125" style="36"/>
+    <col min="10989" max="10989" width="1.5" style="36" customWidth="1"/>
+    <col min="10990" max="10990" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10991" max="10991" width="42" style="36" customWidth="1"/>
+    <col min="10992" max="10992" width="5.5" style="36" customWidth="1"/>
+    <col min="10993" max="10994" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10995" max="10995" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10996" max="11031" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11032" max="11032" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11033" max="11033" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11034" max="11034" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11035" max="11244" width="8.83203125" style="36"/>
+    <col min="11245" max="11245" width="1.5" style="36" customWidth="1"/>
+    <col min="11246" max="11246" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11247" max="11247" width="42" style="36" customWidth="1"/>
+    <col min="11248" max="11248" width="5.5" style="36" customWidth="1"/>
+    <col min="11249" max="11250" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11251" max="11251" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11252" max="11287" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11288" max="11288" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11289" max="11289" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11290" max="11290" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11291" max="11500" width="8.83203125" style="36"/>
+    <col min="11501" max="11501" width="1.5" style="36" customWidth="1"/>
+    <col min="11502" max="11502" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11503" max="11503" width="42" style="36" customWidth="1"/>
+    <col min="11504" max="11504" width="5.5" style="36" customWidth="1"/>
+    <col min="11505" max="11506" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11507" max="11507" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11508" max="11543" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11544" max="11544" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11545" max="11545" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11546" max="11546" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11547" max="11756" width="8.83203125" style="36"/>
+    <col min="11757" max="11757" width="1.5" style="36" customWidth="1"/>
+    <col min="11758" max="11758" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11759" max="11759" width="42" style="36" customWidth="1"/>
+    <col min="11760" max="11760" width="5.5" style="36" customWidth="1"/>
+    <col min="11761" max="11762" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11763" max="11763" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11764" max="11799" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11800" max="11800" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11801" max="11801" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11802" max="11802" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11803" max="12012" width="8.83203125" style="36"/>
+    <col min="12013" max="12013" width="1.5" style="36" customWidth="1"/>
+    <col min="12014" max="12014" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12015" max="12015" width="42" style="36" customWidth="1"/>
+    <col min="12016" max="12016" width="5.5" style="36" customWidth="1"/>
+    <col min="12017" max="12018" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12019" max="12019" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12020" max="12055" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12056" max="12056" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12057" max="12057" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12058" max="12058" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12059" max="12268" width="8.83203125" style="36"/>
+    <col min="12269" max="12269" width="1.5" style="36" customWidth="1"/>
+    <col min="12270" max="12270" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12271" max="12271" width="42" style="36" customWidth="1"/>
+    <col min="12272" max="12272" width="5.5" style="36" customWidth="1"/>
+    <col min="12273" max="12274" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12275" max="12275" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12276" max="12311" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12312" max="12312" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12313" max="12313" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12314" max="12314" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12315" max="12524" width="8.83203125" style="36"/>
+    <col min="12525" max="12525" width="1.5" style="36" customWidth="1"/>
+    <col min="12526" max="12526" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12527" max="12527" width="42" style="36" customWidth="1"/>
+    <col min="12528" max="12528" width="5.5" style="36" customWidth="1"/>
+    <col min="12529" max="12530" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12531" max="12531" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12532" max="12567" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12568" max="12568" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12569" max="12569" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12570" max="12570" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12571" max="12780" width="8.83203125" style="36"/>
+    <col min="12781" max="12781" width="1.5" style="36" customWidth="1"/>
+    <col min="12782" max="12782" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12783" max="12783" width="42" style="36" customWidth="1"/>
+    <col min="12784" max="12784" width="5.5" style="36" customWidth="1"/>
+    <col min="12785" max="12786" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12787" max="12787" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12788" max="12823" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12824" max="12824" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12825" max="12825" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12826" max="12826" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12827" max="13036" width="8.83203125" style="36"/>
+    <col min="13037" max="13037" width="1.5" style="36" customWidth="1"/>
+    <col min="13038" max="13038" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13039" max="13039" width="42" style="36" customWidth="1"/>
+    <col min="13040" max="13040" width="5.5" style="36" customWidth="1"/>
+    <col min="13041" max="13042" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13043" max="13043" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13044" max="13079" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13080" max="13080" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13081" max="13081" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13082" max="13082" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13083" max="13292" width="8.83203125" style="36"/>
+    <col min="13293" max="13293" width="1.5" style="36" customWidth="1"/>
+    <col min="13294" max="13294" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13295" max="13295" width="42" style="36" customWidth="1"/>
+    <col min="13296" max="13296" width="5.5" style="36" customWidth="1"/>
+    <col min="13297" max="13298" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13299" max="13299" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13300" max="13335" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13336" max="13336" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13337" max="13337" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13338" max="13338" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13339" max="13548" width="8.83203125" style="36"/>
+    <col min="13549" max="13549" width="1.5" style="36" customWidth="1"/>
+    <col min="13550" max="13550" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13551" max="13551" width="42" style="36" customWidth="1"/>
+    <col min="13552" max="13552" width="5.5" style="36" customWidth="1"/>
+    <col min="13553" max="13554" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13555" max="13555" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13556" max="13591" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13592" max="13592" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13593" max="13593" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13594" max="13594" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13595" max="13804" width="8.83203125" style="36"/>
+    <col min="13805" max="13805" width="1.5" style="36" customWidth="1"/>
+    <col min="13806" max="13806" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13807" max="13807" width="42" style="36" customWidth="1"/>
+    <col min="13808" max="13808" width="5.5" style="36" customWidth="1"/>
+    <col min="13809" max="13810" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13811" max="13811" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13812" max="13847" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13848" max="13848" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13849" max="13849" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13850" max="13850" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13851" max="14060" width="8.83203125" style="36"/>
+    <col min="14061" max="14061" width="1.5" style="36" customWidth="1"/>
+    <col min="14062" max="14062" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14063" max="14063" width="42" style="36" customWidth="1"/>
+    <col min="14064" max="14064" width="5.5" style="36" customWidth="1"/>
+    <col min="14065" max="14066" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14067" max="14067" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14068" max="14103" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14104" max="14104" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14105" max="14105" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14106" max="14106" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14107" max="14316" width="8.83203125" style="36"/>
+    <col min="14317" max="14317" width="1.5" style="36" customWidth="1"/>
+    <col min="14318" max="14318" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14319" max="14319" width="42" style="36" customWidth="1"/>
+    <col min="14320" max="14320" width="5.5" style="36" customWidth="1"/>
+    <col min="14321" max="14322" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14323" max="14323" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14324" max="14359" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14360" max="14360" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14361" max="14361" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14362" max="14362" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14363" max="14572" width="8.83203125" style="36"/>
+    <col min="14573" max="14573" width="1.5" style="36" customWidth="1"/>
+    <col min="14574" max="14574" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14575" max="14575" width="42" style="36" customWidth="1"/>
+    <col min="14576" max="14576" width="5.5" style="36" customWidth="1"/>
+    <col min="14577" max="14578" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14579" max="14579" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14580" max="14615" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14616" max="14616" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14617" max="14617" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14618" max="14618" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14619" max="14828" width="8.83203125" style="36"/>
+    <col min="14829" max="14829" width="1.5" style="36" customWidth="1"/>
+    <col min="14830" max="14830" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14831" max="14831" width="42" style="36" customWidth="1"/>
+    <col min="14832" max="14832" width="5.5" style="36" customWidth="1"/>
+    <col min="14833" max="14834" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14835" max="14835" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14836" max="14871" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14872" max="14872" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14873" max="14873" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14874" max="14874" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14875" max="15084" width="8.83203125" style="36"/>
+    <col min="15085" max="15085" width="1.5" style="36" customWidth="1"/>
+    <col min="15086" max="15086" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15087" max="15087" width="42" style="36" customWidth="1"/>
+    <col min="15088" max="15088" width="5.5" style="36" customWidth="1"/>
+    <col min="15089" max="15090" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15091" max="15091" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15092" max="15127" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15128" max="15128" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15129" max="15129" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15130" max="15130" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15131" max="15340" width="8.83203125" style="36"/>
+    <col min="15341" max="15341" width="1.5" style="36" customWidth="1"/>
+    <col min="15342" max="15342" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15343" max="15343" width="42" style="36" customWidth="1"/>
+    <col min="15344" max="15344" width="5.5" style="36" customWidth="1"/>
+    <col min="15345" max="15346" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15347" max="15347" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15348" max="15383" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15384" max="15384" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15385" max="15385" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15386" max="15386" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15387" max="15596" width="8.83203125" style="36"/>
+    <col min="15597" max="15597" width="1.5" style="36" customWidth="1"/>
+    <col min="15598" max="15598" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15599" max="15599" width="42" style="36" customWidth="1"/>
+    <col min="15600" max="15600" width="5.5" style="36" customWidth="1"/>
+    <col min="15601" max="15602" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15603" max="15603" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15604" max="15639" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15640" max="15640" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15641" max="15641" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15642" max="15642" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15643" max="15852" width="8.83203125" style="36"/>
+    <col min="15853" max="15853" width="1.5" style="36" customWidth="1"/>
+    <col min="15854" max="15854" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15855" max="15855" width="42" style="36" customWidth="1"/>
+    <col min="15856" max="15856" width="5.5" style="36" customWidth="1"/>
+    <col min="15857" max="15858" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15859" max="15859" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15860" max="15895" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15896" max="15896" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15897" max="15897" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15898" max="15898" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15899" max="16108" width="8.83203125" style="36"/>
+    <col min="16109" max="16109" width="1.5" style="36" customWidth="1"/>
+    <col min="16110" max="16110" width="1.33203125" style="36" customWidth="1"/>
+    <col min="16111" max="16111" width="42" style="36" customWidth="1"/>
+    <col min="16112" max="16112" width="5.5" style="36" customWidth="1"/>
+    <col min="16113" max="16114" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="16115" max="16115" width="2.6640625" style="36" customWidth="1"/>
+    <col min="16116" max="16151" width="3.33203125" style="36" customWidth="1"/>
+    <col min="16152" max="16152" width="1.6640625" style="36" customWidth="1"/>
+    <col min="16153" max="16153" width="25.6640625" style="36" customWidth="1"/>
+    <col min="16154" max="16154" width="31.33203125" style="36" customWidth="1"/>
+    <col min="16155" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:35" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:35" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="2:7" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="B4" s="74" t="s">
+    <row r="3" spans="2:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+    </row>
+    <row r="4" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+      <c r="B4" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="88">
+        <v>42513.552083333336</v>
+      </c>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+    </row>
+    <row r="5" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B5" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="88">
+        <v>42524.337500000001</v>
+      </c>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+    </row>
+    <row r="6" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+      <c r="B6" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="88">
+        <v>42478.36041666667</v>
+      </c>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+    </row>
+    <row r="7" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B7" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="88">
+        <v>42473.386111111111</v>
+      </c>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+    </row>
+    <row r="8" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B8" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="88">
+        <v>42494.717361111114</v>
+      </c>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+    </row>
+    <row r="9" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B9" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="D9" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="B5" s="71" t="s">
+      <c r="E9" s="88">
+        <v>42522.482638888891</v>
+      </c>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+    </row>
+    <row r="10" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="88">
+        <v>42523.647222222222</v>
+      </c>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+    </row>
+    <row r="11" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B11" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="88">
+        <v>42503.751388888886</v>
+      </c>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+    </row>
+    <row r="12" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B12" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="88">
+        <v>42556.534722222219</v>
+      </c>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+    </row>
+    <row r="13" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+      <c r="B13" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="B6" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="48" x14ac:dyDescent="0.15">
-      <c r="B7" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="B8" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="B9" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="32" x14ac:dyDescent="0.15">
-      <c r="B10" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="26" x14ac:dyDescent="0.15">
-      <c r="B11" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="B12" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="16" x14ac:dyDescent="0.15">
-      <c r="B13" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="E13" s="88">
+        <v>42444.615972222222</v>
+      </c>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+    </row>
+    <row r="14" spans="2:35" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="2:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="2:7" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-    </row>
-    <row r="18" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-    </row>
-    <row r="19" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-    </row>
-    <row r="20" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-    </row>
-    <row r="21" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-    </row>
-    <row r="22" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-    </row>
-    <row r="23" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-    </row>
-    <row r="24" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-    </row>
-    <row r="25" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
-    </row>
-    <row r="27" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B27" s="55"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+    </row>
+    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+    </row>
+    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+    </row>
+    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+    </row>
+    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+    </row>
+    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+    </row>
+    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+    </row>
+    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+    </row>
+    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+    </row>
+    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B27" s="51"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="55"/>
-    </row>
-    <row r="29" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="55"/>
+    </row>
+    <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B28" s="51"/>
+    </row>
+    <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="B29" s="51"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
@@ -7259,10 +7725,10 @@
     <hyperlink ref="B13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="100" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="100" orientation="landscape" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.1&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId12"/>
   <extLst>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="67200" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>1.1</t>
   </si>
@@ -358,9 +358,6 @@
     <t>Thijs Winter</t>
   </si>
   <si>
-    <t>Domain leader conenctivity</t>
-  </si>
-  <si>
     <t>Blocker</t>
   </si>
   <si>
@@ -428,6 +425,30 @@
   </si>
   <si>
     <t>[Moonshot] TFS 32433 - Scale pairing issue Nexus [Support only]</t>
+  </si>
+  <si>
+    <t>Conclusion: The build cannot be released to clients due to 1 critical and 8 major  defects.</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2016-JUL-14</t>
+  </si>
+  <si>
+    <t>Changed severity classification</t>
+  </si>
+  <si>
+    <t>Domain leader connectivity</t>
+  </si>
+  <si>
+    <t>Review comments by Erik Gall</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>2016-JUL-15</t>
   </si>
   <si>
     <r>
@@ -447,7 +468,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is generated from the defect tracking database. The defet severity is decided in an analysis session where the defect is judged on the occurrence rate, its effect on application stability, possiblity of data loss, ability to recover from the defect and market share of phone on which the defect occurs. See the table below for the explanation of defect severities.
+      <t xml:space="preserve"> is generated from the defect tracking database. The defect severity is decided in an analysis session where the defect is judged on the occurrence rate, its effect on application stability, possibility of data loss, ability to recover from the defect and market share of phone on which the defect occurs. See the table below for the explanation of defect severities.
 The tab "Maturity Grid" gives an overview of the amount of residual anomalies per defect severity. The tab "Anomalies" gives an overview of the anomalous behavior.
 </t>
     </r>
@@ -463,19 +484,7 @@
     </r>
   </si>
   <si>
-    <t>Conclusion: The build cannot be released to clients due to 1 critical and 8 major  defects.</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>2016-JUL-14</t>
-  </si>
-  <si>
-    <t>Changed severity classification</t>
-  </si>
-  <si>
-    <t>Review comments</t>
+    <t>Cosmetic changes</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +805,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1136,7 +1151,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1186,6 +1200,42 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1224,24 +1274,18 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1251,27 +1295,15 @@
     <xf numFmtId="0" fontId="40" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -2361,8 +2393,8 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2380,7 +2412,7 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="6"/>
@@ -2412,11 +2444,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2426,10 +2458,10 @@
       <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="22"/>
@@ -2440,7 +2472,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2479,17 +2511,17 @@
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="70"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="63" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2497,17 +2529,17 @@
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="71"/>
+      <c r="E13" s="96"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="63" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2515,15 +2547,15 @@
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="C14" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="30" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2531,7 +2563,7 @@
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -2540,10 +2572,10 @@
       <c r="E15" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="60" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2574,7 +2606,7 @@
   <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -2592,7 +2624,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A6" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2608,7 +2640,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="6"/>
@@ -2643,11 +2675,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2656,11 +2688,11 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
@@ -2672,16 +2704,16 @@
       <c r="D8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="61" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="18"/>
@@ -2709,69 +2741,69 @@
       <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="82"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="73"/>
+      <c r="F13" s="98"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="50"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="50"/>
     </row>
     <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="50"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="50"/>
     </row>
     <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
@@ -2808,7 +2840,7 @@
   <pageSetup paperSize="9" scale="63" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -2826,8 +2858,8 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2842,7 +2874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="6"/>
@@ -2925,19 +2957,19 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="17"/>
@@ -2951,19 +2983,19 @@
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>98</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2974,12 +3006,22 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+      <c r="B9" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>97</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -5546,7 +5588,7 @@
   <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -5562,7 +5604,7 @@
   <dimension ref="B1:AK26"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5572,7 +5614,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="37"/>
@@ -5663,124 +5705,124 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
+      <c r="B4" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C8" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="95" t="s">
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C9" s="111" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="99" t="s">
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C10" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="103" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C11" s="108" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>79</v>
       </c>
       <c r="D11" s="109"/>
       <c r="E11" s="109"/>
@@ -5790,22 +5832,22 @@
       <c r="I11" s="110"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C12" s="86"/>
+      <c r="C12" s="68"/>
     </row>
     <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="86"/>
+      <c r="C13" s="68"/>
     </row>
     <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="86"/>
+      <c r="C14" s="68"/>
     </row>
     <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="86"/>
+      <c r="C15" s="68"/>
     </row>
     <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C16" s="86"/>
+      <c r="C16" s="68"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
@@ -5873,7 +5915,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -5892,7 +5934,7 @@
   <dimension ref="B1:AJ11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6604,17 +6646,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
@@ -6622,58 +6664,58 @@
       <c r="D4" s="39"/>
     </row>
     <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="82">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="47">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="C6" s="84">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="87" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="47">
+      <c r="C7" s="86">
         <v>8</v>
       </c>
       <c r="D7" s="39"/>
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="88">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="47">
-        <v>1</v>
-      </c>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="50">
+      <c r="C9" s="90">
         <v>0</v>
       </c>
       <c r="D9" s="41"/>
     </row>
     <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="94"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6688,7 +6730,7 @@
   <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
@@ -6706,8 +6748,8 @@
   </sheetPr>
   <dimension ref="B1:AI29"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7418,7 +7460,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7426,17 +7468,17 @@
       <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="D3" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="70" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>83</v>
       </c>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
@@ -7445,16 +7487,16 @@
       <c r="AI3" s="36"/>
     </row>
     <row r="4" spans="2:35" ht="32" x14ac:dyDescent="0.15">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="88">
+      <c r="C4" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="69">
         <v>42513.552083333336</v>
       </c>
       <c r="AE4" s="36"/>
@@ -7464,16 +7506,16 @@
       <c r="AI4" s="36"/>
     </row>
     <row r="5" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="88">
+      <c r="C5" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="69">
         <v>42524.337500000001</v>
       </c>
       <c r="AE5" s="36"/>
@@ -7483,16 +7525,16 @@
       <c r="AI5" s="36"/>
     </row>
     <row r="6" spans="2:35" ht="32" x14ac:dyDescent="0.15">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="88">
+      <c r="D6" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="69">
         <v>42478.36041666667</v>
       </c>
       <c r="AE6" s="36"/>
@@ -7502,16 +7544,16 @@
       <c r="AI6" s="36"/>
     </row>
     <row r="7" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="88">
+      <c r="D7" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="69">
         <v>42473.386111111111</v>
       </c>
       <c r="AE7" s="36"/>
@@ -7521,16 +7563,16 @@
       <c r="AI7" s="36"/>
     </row>
     <row r="8" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="D8" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="69">
         <v>42494.717361111114</v>
       </c>
       <c r="AE8" s="36"/>
@@ -7540,16 +7582,16 @@
       <c r="AI8" s="36"/>
     </row>
     <row r="9" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="88">
+      <c r="D9" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="69">
         <v>42522.482638888891</v>
       </c>
       <c r="AE9" s="36"/>
@@ -7559,16 +7601,16 @@
       <c r="AI9" s="36"/>
     </row>
     <row r="10" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="88">
+      <c r="C10" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="69">
         <v>42523.647222222222</v>
       </c>
       <c r="AE10" s="36"/>
@@ -7578,16 +7620,16 @@
       <c r="AI10" s="36"/>
     </row>
     <row r="11" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="88">
+      <c r="C11" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="69">
         <v>42503.751388888886</v>
       </c>
       <c r="AE11" s="36"/>
@@ -7597,16 +7639,16 @@
       <c r="AI11" s="36"/>
     </row>
     <row r="12" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="88">
+      <c r="C12" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="69">
         <v>42556.534722222219</v>
       </c>
       <c r="AE12" s="36"/>
@@ -7615,17 +7657,17 @@
       <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
     </row>
-    <row r="13" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B13" s="67" t="s">
+    <row r="13" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+      <c r="B13" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="88">
+      <c r="D13" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="69">
         <v>42444.615972222222</v>
       </c>
       <c r="AE13" s="36"/>
@@ -7636,78 +7678,78 @@
     </row>
     <row r="14" spans="2:35" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="2:35" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
     </row>
     <row r="16" spans="2:35" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
     </row>
     <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
     </row>
     <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
     </row>
     <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
     </row>
     <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B27" s="51"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="20"/>
     </row>
     <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="51"/>
+      <c r="B28" s="50"/>
     </row>
     <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="51"/>
+      <c r="B29" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -7728,7 +7770,7 @@
   <pageSetup paperSize="9" scale="98" fitToHeight="100" orientation="landscape" r:id="rId11"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.2&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId12"/>
   <extLst>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>1.1</t>
   </si>
@@ -322,18 +322,12 @@
     <t>Document creation</t>
   </si>
   <si>
-    <t>BG-208</t>
-  </si>
-  <si>
     <t>BG-22</t>
   </si>
   <si>
     <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
   </si>
   <si>
-    <t>BG-158</t>
-  </si>
-  <si>
     <t>BG-241</t>
   </si>
   <si>
@@ -400,9 +394,6 @@
     <t>Created</t>
   </si>
   <si>
-    <t>[Android] Random Crash observed while syncing in samsung android device</t>
-  </si>
-  <si>
     <t>Bug 30721:Moonshine pairing fails</t>
   </si>
   <si>
@@ -421,13 +412,7 @@
     <t>Bug 30096:[Android] Sync error observed in dashboard screen.</t>
   </si>
   <si>
-    <t>[Moonshine] [Bug#656] Moonshine pairing issues with Android phones</t>
-  </si>
-  <si>
     <t>[Moonshot] TFS 32433 - Scale pairing issue Nexus [Support only]</t>
-  </si>
-  <si>
-    <t>Conclusion: The build cannot be released to clients due to 1 critical and 8 major  defects.</t>
   </si>
   <si>
     <t>0.2</t>
@@ -485,6 +470,9 @@
   </si>
   <si>
     <t>Cosmetic changes</t>
+  </si>
+  <si>
+    <t>Conclusion: The build cannot be released to clients due to 7 major  defects.</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1227,9 +1215,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2444,11 +2429,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2469,10 +2454,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2514,10 +2499,10 @@
       <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2532,10 +2517,10 @@
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="96"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2548,15 +2533,15 @@
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
+        <v>93</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2675,11 +2660,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2688,11 +2673,11 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
@@ -2744,27 +2729,27 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="107"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="97"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -2777,8 +2762,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -2859,7 +2844,7 @@
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2983,19 +2968,19 @@
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3008,19 +2993,19 @@
     </row>
     <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -5705,19 +5690,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="114" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
+      <c r="B4" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
@@ -5736,29 +5721,29 @@
       <c r="B6" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
+        <v>67</v>
+      </c>
+      <c r="C7" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
@@ -5767,17 +5752,17 @@
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
+        <v>68</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
@@ -5786,17 +5771,17 @@
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
+        <v>69</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
@@ -5805,10 +5790,10 @@
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -5819,17 +5804,17 @@
     </row>
     <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+        <v>71</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="68"/>
@@ -5934,7 +5919,7 @@
   <dimension ref="B1:AJ11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6652,11 +6637,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
@@ -6665,7 +6650,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="82">
         <v>0</v>
@@ -6674,7 +6659,7 @@
     </row>
     <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="83" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="84">
         <v>1</v>
@@ -6683,7 +6668,7 @@
     </row>
     <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="86">
         <v>8</v>
@@ -6692,7 +6677,7 @@
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="88">
         <v>1</v>
@@ -6701,7 +6686,7 @@
     </row>
     <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" s="90">
         <v>0</v>
@@ -6715,7 +6700,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6746,10 +6731,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AI29"/>
+  <dimension ref="B1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7469,16 +7454,16 @@
     </row>
     <row r="3" spans="2:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>82</v>
       </c>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
@@ -7486,18 +7471,18 @@
       <c r="AH3" s="36"/>
       <c r="AI3" s="36"/>
     </row>
-    <row r="4" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="69">
-        <v>42513.552083333336</v>
+        <v>42524.337500000001</v>
       </c>
       <c r="AE4" s="36"/>
       <c r="AF4" s="36"/>
@@ -7505,18 +7490,18 @@
       <c r="AH4" s="36"/>
       <c r="AI4" s="36"/>
     </row>
-    <row r="5" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:35" ht="32" x14ac:dyDescent="0.15">
       <c r="B5" s="66" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="92" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E5" s="69">
-        <v>42524.337500000001</v>
+        <v>42478.36041666667</v>
       </c>
       <c r="AE5" s="36"/>
       <c r="AF5" s="36"/>
@@ -7524,18 +7509,18 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="36"/>
     </row>
-    <row r="6" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="66" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="92" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E6" s="69">
-        <v>42478.36041666667</v>
+        <v>42473.386111111111</v>
       </c>
       <c r="AE6" s="36"/>
       <c r="AF6" s="36"/>
@@ -7545,16 +7530,16 @@
     </row>
     <row r="7" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="92" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E7" s="69">
-        <v>42473.386111111111</v>
+        <v>42494.717361111114</v>
       </c>
       <c r="AE7" s="36"/>
       <c r="AF7" s="36"/>
@@ -7564,16 +7549,16 @@
     </row>
     <row r="8" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B8" s="66" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="69">
-        <v>42494.717361111114</v>
+        <v>42522.482638888891</v>
       </c>
       <c r="AE8" s="36"/>
       <c r="AF8" s="36"/>
@@ -7583,16 +7568,16 @@
     </row>
     <row r="9" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B9" s="66" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="92" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="69">
-        <v>42522.482638888891</v>
+        <v>42523.647222222222</v>
       </c>
       <c r="AE9" s="36"/>
       <c r="AF9" s="36"/>
@@ -7602,16 +7587,16 @@
     </row>
     <row r="10" spans="2:35" ht="16" x14ac:dyDescent="0.15">
       <c r="B10" s="66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="E10" s="69">
-        <v>42523.647222222222</v>
+        <v>42556.534722222219</v>
       </c>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
@@ -7619,18 +7604,18 @@
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
     </row>
-    <row r="11" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:35" ht="32" x14ac:dyDescent="0.15">
       <c r="B11" s="66" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="69">
-        <v>42503.751388888886</v>
+        <v>42444.615972222222</v>
       </c>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
@@ -7638,38 +7623,20 @@
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
     </row>
-    <row r="12" spans="2:35" ht="16" x14ac:dyDescent="0.15">
-      <c r="B12" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="69">
-        <v>42556.534722222219</v>
-      </c>
+    <row r="12" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
     </row>
-    <row r="13" spans="2:35" ht="32" x14ac:dyDescent="0.15">
-      <c r="B13" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="69">
-        <v>42444.615972222222</v>
-      </c>
+    <row r="13" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
       <c r="AE13" s="36"/>
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
@@ -7677,7 +7644,7 @@
       <c r="AI13" s="36"/>
     </row>
     <row r="14" spans="2:35" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="20"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
@@ -7733,23 +7700,13 @@
     </row>
     <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="50"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
-    </row>
-    <row r="29" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B29" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -7763,16 +7720,14 @@
     <hyperlink ref="B9" r:id="rId6"/>
     <hyperlink ref="B10" r:id="rId7"/>
     <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="100" orientation="landscape" r:id="rId11"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="100" orientation="landscape" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>Domain leader connectivity</t>
   </si>
   <si>
-    <t>Review comments by Erik Gall</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
@@ -473,6 +470,9 @@
   </si>
   <si>
     <t>Conclusion: The build cannot be released to clients due to 7 major  defects.</t>
+  </si>
+  <si>
+    <t>Review comments by Erik Gaal</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2533,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="95"/>
       <c r="E14" s="95"/>
@@ -2844,7 +2844,7 @@
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2980,7 +2980,7 @@
         <v>90</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2993,19 +2993,19 @@
     </row>
     <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>94</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="114"/>
       <c r="D4" s="114"/>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6743,7 +6743,7 @@
     <col min="2" max="2" width="7.1640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="68.5" style="37" customWidth="1"/>
     <col min="4" max="4" width="8" style="38" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="38" customWidth="1"/>
     <col min="7" max="25" width="3.33203125" style="38" customWidth="1"/>
     <col min="26" max="26" width="10" style="38" customWidth="1"/>
@@ -7722,7 +7722,7 @@
     <hyperlink ref="B11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="100" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="100" orientation="landscape" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/Android-ShineLib/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\bluelib_testing\source\android-shinelib\Documents\External\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="ListYN" localSheetId="5">#REF!</definedName>
     <definedName name="ListYN" localSheetId="4">#REF!</definedName>
     <definedName name="ListYN">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$G$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$F$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Document Introduction'!$A$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Introduction!$A$1:$M$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Maturity Grid'!$A$1:$E$23</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>1.1</t>
   </si>
@@ -322,30 +322,12 @@
     <t>Document creation</t>
   </si>
   <si>
-    <t>BG-22</t>
-  </si>
-  <si>
     <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
   </si>
   <si>
-    <t>BG-241</t>
-  </si>
-  <si>
-    <t>BG-88</t>
-  </si>
-  <si>
     <t>Crash , associating when bluetooth turned off</t>
   </si>
   <si>
-    <t>BG-246</t>
-  </si>
-  <si>
-    <t>BG-296</t>
-  </si>
-  <si>
-    <t>BG-238</t>
-  </si>
-  <si>
     <t>Crash during association</t>
   </si>
   <si>
@@ -391,19 +373,10 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>Bug 30721:Moonshine pairing fails</t>
   </si>
   <si>
-    <t>BG-95</t>
-  </si>
-  <si>
     <t>SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
-  </si>
-  <si>
-    <t>BG-145</t>
   </si>
   <si>
     <t>Regression in association with thermometer</t>
@@ -473,6 +446,46 @@
   </si>
   <si>
     <t>Review comments by Erik Gaal</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>2016-JUL-22</t>
+  </si>
+  <si>
+    <t>Paul Janssen</t>
+  </si>
+  <si>
+    <t>Review by Paul Janssen</t>
+  </si>
+  <si>
+    <t>Removed creation data column in anamolies list: not required and in wrong format.
+Fixed links to new naming.</t>
+  </si>
+  <si>
+    <t>BL-95</t>
+  </si>
+  <si>
+    <t>BL-88</t>
+  </si>
+  <si>
+    <t>BL-145</t>
+  </si>
+  <si>
+    <t>BL-238</t>
+  </si>
+  <si>
+    <t>BL-241</t>
+  </si>
+  <si>
+    <t>BL-296</t>
+  </si>
+  <si>
+    <t>BL-22</t>
+  </si>
+  <si>
+    <t>BL-246</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1046,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1189,9 +1202,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2373,27 +2383,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2405,21 +2415,21 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2428,15 +2438,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2452,12 +2462,12 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2468,7 +2478,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2476,7 +2486,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2484,7 +2494,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2492,17 +2502,17 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="94"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2510,17 +2520,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="94"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2528,23 +2538,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+        <v>83</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2572,7 +2582,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2604,27 +2614,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="99" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
@@ -2632,54 +2642,54 @@
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="104"/>
-    </row>
-    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+    </row>
+    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-    </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="64" t="s">
         <v>55</v>
@@ -2705,21 +2715,21 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="C10" s="31"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="33"/>
       <c r="C11" s="31"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>19</v>
       </c>
@@ -2729,83 +2739,83 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="106"/>
-    </row>
-    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="105"/>
+    </row>
+    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="96" t="s">
+      <c r="E13" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="97"/>
-    </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="F13" s="96"/>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="50"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="50"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="50"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="50"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -2838,27 +2848,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
@@ -2868,7 +2878,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2876,7 +2886,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2884,7 +2894,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -2901,7 +2911,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2916,7 +2926,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>32</v>
       </c>
@@ -2941,7 +2951,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B7" s="63" t="s">
         <v>49</v>
       </c>
@@ -2966,21 +2976,21 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2991,21 +3001,21 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="35" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3016,12 +3026,22 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+    <row r="10" spans="2:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="B10" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -3031,7 +3051,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -3046,7 +3066,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3061,7 +3081,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3076,7 +3096,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3091,7 +3111,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3106,7 +3126,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3121,7 +3141,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3136,7 +3156,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3151,7 +3171,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3166,7 +3186,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3181,7 +3201,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3196,7 +3216,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3211,7 +3231,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3226,7 +3246,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3241,7 +3261,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3256,7 +3276,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3271,7 +3291,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3286,7 +3306,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3301,7 +3321,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3316,7 +3336,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3331,7 +3351,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3346,7 +3366,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3361,7 +3381,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3376,7 +3396,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3391,7 +3411,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3406,7 +3426,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3421,7 +3441,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3436,7 +3456,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3451,7 +3471,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3466,7 +3486,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3481,7 +3501,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3496,7 +3516,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3511,7 +3531,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3526,7 +3546,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3541,7 +3561,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3556,7 +3576,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3571,7 +3591,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3586,7 +3606,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3601,7 +3621,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3616,7 +3636,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3631,7 +3651,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3646,7 +3666,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3661,7 +3681,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3676,7 +3696,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3691,7 +3711,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3706,7 +3726,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3721,7 +3741,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3736,7 +3756,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3751,7 +3771,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3766,7 +3786,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -3781,7 +3801,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -3796,7 +3816,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -3811,7 +3831,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -3826,7 +3846,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -3841,7 +3861,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -3856,7 +3876,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -3871,7 +3891,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -3886,7 +3906,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -3901,7 +3921,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -3916,7 +3936,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -3931,7 +3951,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -3946,7 +3966,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -3961,7 +3981,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -3976,7 +3996,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -3991,7 +4011,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4006,7 +4026,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4021,7 +4041,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4036,7 +4056,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4051,7 +4071,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4066,7 +4086,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4081,7 +4101,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4096,7 +4116,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4111,7 +4131,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4126,7 +4146,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4141,7 +4161,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4156,7 +4176,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4171,7 +4191,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4186,7 +4206,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4201,7 +4221,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4216,7 +4236,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4231,7 +4251,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4246,7 +4266,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4261,7 +4281,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4276,7 +4296,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4291,7 +4311,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4306,7 +4326,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4321,7 +4341,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4336,7 +4356,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4351,7 +4371,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4366,7 +4386,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4381,7 +4401,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4396,7 +4416,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4411,7 +4431,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4426,7 +4446,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4441,7 +4461,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4456,7 +4476,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4471,7 +4491,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4486,7 +4506,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4501,7 +4521,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4516,7 +4536,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4531,7 +4551,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4546,7 +4566,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4561,7 +4581,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4576,7 +4596,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4591,7 +4611,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4606,7 +4626,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4621,7 +4641,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4636,7 +4656,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4651,7 +4671,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4666,7 +4686,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4681,7 +4701,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4696,7 +4716,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4711,7 +4731,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4726,7 +4746,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4741,7 +4761,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4756,7 +4776,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4771,7 +4791,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -4786,7 +4806,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -4801,7 +4821,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -4816,7 +4836,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4831,7 +4851,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -4846,7 +4866,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -4861,7 +4881,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -4876,7 +4896,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -4891,7 +4911,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -4906,7 +4926,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -4921,7 +4941,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -4936,7 +4956,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -4951,7 +4971,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -4966,7 +4986,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -4981,7 +5001,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -4996,7 +5016,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5011,7 +5031,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5026,7 +5046,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5041,7 +5061,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5056,7 +5076,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5071,7 +5091,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5086,7 +5106,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5101,7 +5121,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5116,7 +5136,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5131,7 +5151,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5146,7 +5166,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5161,7 +5181,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5176,7 +5196,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5191,7 +5211,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5206,7 +5226,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5221,7 +5241,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5236,7 +5256,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5251,7 +5271,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5266,7 +5286,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5281,7 +5301,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5296,7 +5316,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5311,7 +5331,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5326,7 +5346,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5341,7 +5361,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5356,7 +5376,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5371,7 +5391,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5386,7 +5406,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5401,7 +5421,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5416,7 +5436,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5431,7 +5451,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5446,7 +5466,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5461,7 +5481,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5476,7 +5496,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5491,7 +5511,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5506,7 +5526,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5521,7 +5541,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5536,7 +5556,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5551,7 +5571,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5570,7 +5590,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -5588,17 +5608,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" s="36" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
@@ -5637,7 +5657,7 @@
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
     </row>
-    <row r="2" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" s="36" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="21"/>
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
@@ -5674,7 +5694,7 @@
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
@@ -5689,22 +5709,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="113" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="112" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -5717,124 +5737,124 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="71" t="s">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="118" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="110" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="112"/>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="75" t="s">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+    </row>
+    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
-    </row>
-    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="68"/>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C13" s="68"/>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C14" s="68"/>
     </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C15" s="68"/>
     </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="C16" s="68"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
@@ -5847,7 +5867,7 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -5860,7 +5880,7 @@
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
     </row>
-    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -5873,7 +5893,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -5913,794 +5933,794 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AJ11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="38" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="38" customWidth="1"/>
+    <col min="8" max="26" width="3.28515625" style="38" customWidth="1"/>
     <col min="27" max="27" width="10" style="38" customWidth="1"/>
-    <col min="28" max="36" width="8.83203125" style="38"/>
-    <col min="37" max="237" width="8.83203125" style="36"/>
-    <col min="238" max="238" width="1.5" style="36" customWidth="1"/>
-    <col min="239" max="239" width="1.33203125" style="36" customWidth="1"/>
+    <col min="28" max="36" width="8.85546875" style="38"/>
+    <col min="37" max="237" width="8.85546875" style="36"/>
+    <col min="238" max="238" width="1.42578125" style="36" customWidth="1"/>
+    <col min="239" max="239" width="1.28515625" style="36" customWidth="1"/>
     <col min="240" max="240" width="42" style="36" customWidth="1"/>
-    <col min="241" max="241" width="5.5" style="36" customWidth="1"/>
+    <col min="241" max="241" width="5.42578125" style="36" customWidth="1"/>
     <col min="242" max="243" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.6640625" style="36" customWidth="1"/>
-    <col min="245" max="280" width="3.33203125" style="36" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="36" customWidth="1"/>
-    <col min="282" max="282" width="25.6640625" style="36" customWidth="1"/>
-    <col min="283" max="283" width="31.33203125" style="36" customWidth="1"/>
-    <col min="284" max="493" width="8.83203125" style="36"/>
-    <col min="494" max="494" width="1.5" style="36" customWidth="1"/>
-    <col min="495" max="495" width="1.33203125" style="36" customWidth="1"/>
+    <col min="244" max="244" width="2.7109375" style="36" customWidth="1"/>
+    <col min="245" max="280" width="3.28515625" style="36" customWidth="1"/>
+    <col min="281" max="281" width="1.7109375" style="36" customWidth="1"/>
+    <col min="282" max="282" width="25.7109375" style="36" customWidth="1"/>
+    <col min="283" max="283" width="31.28515625" style="36" customWidth="1"/>
+    <col min="284" max="493" width="8.85546875" style="36"/>
+    <col min="494" max="494" width="1.42578125" style="36" customWidth="1"/>
+    <col min="495" max="495" width="1.28515625" style="36" customWidth="1"/>
     <col min="496" max="496" width="42" style="36" customWidth="1"/>
-    <col min="497" max="497" width="5.5" style="36" customWidth="1"/>
+    <col min="497" max="497" width="5.42578125" style="36" customWidth="1"/>
     <col min="498" max="499" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.6640625" style="36" customWidth="1"/>
-    <col min="501" max="536" width="3.33203125" style="36" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="36" customWidth="1"/>
-    <col min="538" max="538" width="25.6640625" style="36" customWidth="1"/>
-    <col min="539" max="539" width="31.33203125" style="36" customWidth="1"/>
-    <col min="540" max="749" width="8.83203125" style="36"/>
-    <col min="750" max="750" width="1.5" style="36" customWidth="1"/>
-    <col min="751" max="751" width="1.33203125" style="36" customWidth="1"/>
+    <col min="500" max="500" width="2.7109375" style="36" customWidth="1"/>
+    <col min="501" max="536" width="3.28515625" style="36" customWidth="1"/>
+    <col min="537" max="537" width="1.7109375" style="36" customWidth="1"/>
+    <col min="538" max="538" width="25.7109375" style="36" customWidth="1"/>
+    <col min="539" max="539" width="31.28515625" style="36" customWidth="1"/>
+    <col min="540" max="749" width="8.85546875" style="36"/>
+    <col min="750" max="750" width="1.42578125" style="36" customWidth="1"/>
+    <col min="751" max="751" width="1.28515625" style="36" customWidth="1"/>
     <col min="752" max="752" width="42" style="36" customWidth="1"/>
-    <col min="753" max="753" width="5.5" style="36" customWidth="1"/>
+    <col min="753" max="753" width="5.42578125" style="36" customWidth="1"/>
     <col min="754" max="755" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.6640625" style="36" customWidth="1"/>
-    <col min="757" max="792" width="3.33203125" style="36" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="36" customWidth="1"/>
-    <col min="794" max="794" width="25.6640625" style="36" customWidth="1"/>
-    <col min="795" max="795" width="31.33203125" style="36" customWidth="1"/>
-    <col min="796" max="1005" width="8.83203125" style="36"/>
-    <col min="1006" max="1006" width="1.5" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="1.33203125" style="36" customWidth="1"/>
+    <col min="756" max="756" width="2.7109375" style="36" customWidth="1"/>
+    <col min="757" max="792" width="3.28515625" style="36" customWidth="1"/>
+    <col min="793" max="793" width="1.7109375" style="36" customWidth="1"/>
+    <col min="794" max="794" width="25.7109375" style="36" customWidth="1"/>
+    <col min="795" max="795" width="31.28515625" style="36" customWidth="1"/>
+    <col min="796" max="1005" width="8.85546875" style="36"/>
+    <col min="1006" max="1006" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1007" max="1007" width="1.28515625" style="36" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="36" customWidth="1"/>
-    <col min="1009" max="1009" width="5.5" style="36" customWidth="1"/>
+    <col min="1009" max="1009" width="5.42578125" style="36" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1013" max="1048" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1050" max="1050" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1051" max="1051" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1052" max="1261" width="8.83203125" style="36"/>
-    <col min="1262" max="1262" width="1.5" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1012" max="1012" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1013" max="1048" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1049" max="1049" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1050" max="1050" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1051" max="1051" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1052" max="1261" width="8.85546875" style="36"/>
+    <col min="1262" max="1262" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1263" max="1263" width="1.28515625" style="36" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="36" customWidth="1"/>
-    <col min="1265" max="1265" width="5.5" style="36" customWidth="1"/>
+    <col min="1265" max="1265" width="5.42578125" style="36" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1269" max="1304" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1306" max="1306" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1307" max="1307" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1308" max="1517" width="8.83203125" style="36"/>
-    <col min="1518" max="1518" width="1.5" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1268" max="1268" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1269" max="1304" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1305" max="1305" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1306" max="1306" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1307" max="1307" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1308" max="1517" width="8.85546875" style="36"/>
+    <col min="1518" max="1518" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1519" max="1519" width="1.28515625" style="36" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="36" customWidth="1"/>
-    <col min="1521" max="1521" width="5.5" style="36" customWidth="1"/>
+    <col min="1521" max="1521" width="5.42578125" style="36" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1525" max="1560" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1562" max="1562" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1563" max="1563" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1564" max="1773" width="8.83203125" style="36"/>
-    <col min="1774" max="1774" width="1.5" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1524" max="1524" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1525" max="1560" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1561" max="1561" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1562" max="1562" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1563" max="1563" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1564" max="1773" width="8.85546875" style="36"/>
+    <col min="1774" max="1774" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1775" max="1775" width="1.28515625" style="36" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="36" customWidth="1"/>
-    <col min="1777" max="1777" width="5.5" style="36" customWidth="1"/>
+    <col min="1777" max="1777" width="5.42578125" style="36" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1781" max="1816" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1818" max="1818" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1819" max="1819" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1820" max="2029" width="8.83203125" style="36"/>
-    <col min="2030" max="2030" width="1.5" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="1.33203125" style="36" customWidth="1"/>
+    <col min="1780" max="1780" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1781" max="1816" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1817" max="1817" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1818" max="1818" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1819" max="1819" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1820" max="2029" width="8.85546875" style="36"/>
+    <col min="2030" max="2030" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2031" max="2031" width="1.28515625" style="36" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="36" customWidth="1"/>
-    <col min="2033" max="2033" width="5.5" style="36" customWidth="1"/>
+    <col min="2033" max="2033" width="5.42578125" style="36" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2037" max="2072" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2074" max="2074" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2075" max="2075" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2076" max="2285" width="8.83203125" style="36"/>
-    <col min="2286" max="2286" width="1.5" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2036" max="2036" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2037" max="2072" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2073" max="2073" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2074" max="2074" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2075" max="2075" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2076" max="2285" width="8.85546875" style="36"/>
+    <col min="2286" max="2286" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2287" max="2287" width="1.28515625" style="36" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="36" customWidth="1"/>
-    <col min="2289" max="2289" width="5.5" style="36" customWidth="1"/>
+    <col min="2289" max="2289" width="5.42578125" style="36" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2293" max="2328" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2330" max="2330" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2331" max="2331" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2332" max="2541" width="8.83203125" style="36"/>
-    <col min="2542" max="2542" width="1.5" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2292" max="2292" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2293" max="2328" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2329" max="2329" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2330" max="2330" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2331" max="2331" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2332" max="2541" width="8.85546875" style="36"/>
+    <col min="2542" max="2542" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2543" max="2543" width="1.28515625" style="36" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="36" customWidth="1"/>
-    <col min="2545" max="2545" width="5.5" style="36" customWidth="1"/>
+    <col min="2545" max="2545" width="5.42578125" style="36" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2549" max="2584" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2586" max="2586" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2587" max="2587" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2588" max="2797" width="8.83203125" style="36"/>
-    <col min="2798" max="2798" width="1.5" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2548" max="2548" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2549" max="2584" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2585" max="2585" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2586" max="2586" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2587" max="2587" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2588" max="2797" width="8.85546875" style="36"/>
+    <col min="2798" max="2798" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2799" max="2799" width="1.28515625" style="36" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="36" customWidth="1"/>
-    <col min="2801" max="2801" width="5.5" style="36" customWidth="1"/>
+    <col min="2801" max="2801" width="5.42578125" style="36" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2805" max="2840" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2842" max="2842" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2843" max="2843" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2844" max="3053" width="8.83203125" style="36"/>
-    <col min="3054" max="3054" width="1.5" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="1.33203125" style="36" customWidth="1"/>
+    <col min="2804" max="2804" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2805" max="2840" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2841" max="2841" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2842" max="2842" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2843" max="2843" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2844" max="3053" width="8.85546875" style="36"/>
+    <col min="3054" max="3054" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3055" max="3055" width="1.28515625" style="36" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="36" customWidth="1"/>
-    <col min="3057" max="3057" width="5.5" style="36" customWidth="1"/>
+    <col min="3057" max="3057" width="5.42578125" style="36" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3061" max="3096" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3098" max="3098" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3099" max="3099" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3100" max="3309" width="8.83203125" style="36"/>
-    <col min="3310" max="3310" width="1.5" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3060" max="3060" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3061" max="3096" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3097" max="3097" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3098" max="3098" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3099" max="3099" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3100" max="3309" width="8.85546875" style="36"/>
+    <col min="3310" max="3310" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3311" max="3311" width="1.28515625" style="36" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="36" customWidth="1"/>
-    <col min="3313" max="3313" width="5.5" style="36" customWidth="1"/>
+    <col min="3313" max="3313" width="5.42578125" style="36" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3317" max="3352" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3354" max="3354" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3355" max="3355" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3356" max="3565" width="8.83203125" style="36"/>
-    <col min="3566" max="3566" width="1.5" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3316" max="3316" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3317" max="3352" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3353" max="3353" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3354" max="3354" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3355" max="3355" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3356" max="3565" width="8.85546875" style="36"/>
+    <col min="3566" max="3566" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3567" max="3567" width="1.28515625" style="36" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="36" customWidth="1"/>
-    <col min="3569" max="3569" width="5.5" style="36" customWidth="1"/>
+    <col min="3569" max="3569" width="5.42578125" style="36" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3573" max="3608" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3610" max="3610" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3611" max="3611" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3612" max="3821" width="8.83203125" style="36"/>
-    <col min="3822" max="3822" width="1.5" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3572" max="3572" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3573" max="3608" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3609" max="3609" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3610" max="3610" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3611" max="3611" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3612" max="3821" width="8.85546875" style="36"/>
+    <col min="3822" max="3822" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3823" max="3823" width="1.28515625" style="36" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="36" customWidth="1"/>
-    <col min="3825" max="3825" width="5.5" style="36" customWidth="1"/>
+    <col min="3825" max="3825" width="5.42578125" style="36" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3829" max="3864" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3866" max="3866" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3867" max="3867" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3868" max="4077" width="8.83203125" style="36"/>
-    <col min="4078" max="4078" width="1.5" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="1.33203125" style="36" customWidth="1"/>
+    <col min="3828" max="3828" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3829" max="3864" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3865" max="3865" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3866" max="3866" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3867" max="3867" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3868" max="4077" width="8.85546875" style="36"/>
+    <col min="4078" max="4078" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4079" max="4079" width="1.28515625" style="36" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="36" customWidth="1"/>
-    <col min="4081" max="4081" width="5.5" style="36" customWidth="1"/>
+    <col min="4081" max="4081" width="5.42578125" style="36" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4085" max="4120" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4122" max="4122" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4123" max="4123" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4124" max="4333" width="8.83203125" style="36"/>
-    <col min="4334" max="4334" width="1.5" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4084" max="4084" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4085" max="4120" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4121" max="4121" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4122" max="4122" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4123" max="4123" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4124" max="4333" width="8.85546875" style="36"/>
+    <col min="4334" max="4334" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4335" max="4335" width="1.28515625" style="36" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="36" customWidth="1"/>
-    <col min="4337" max="4337" width="5.5" style="36" customWidth="1"/>
+    <col min="4337" max="4337" width="5.42578125" style="36" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4341" max="4376" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4378" max="4378" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4379" max="4379" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4380" max="4589" width="8.83203125" style="36"/>
-    <col min="4590" max="4590" width="1.5" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4340" max="4340" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4341" max="4376" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4377" max="4377" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4378" max="4378" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4379" max="4379" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4380" max="4589" width="8.85546875" style="36"/>
+    <col min="4590" max="4590" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4591" max="4591" width="1.28515625" style="36" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="36" customWidth="1"/>
-    <col min="4593" max="4593" width="5.5" style="36" customWidth="1"/>
+    <col min="4593" max="4593" width="5.42578125" style="36" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4597" max="4632" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4634" max="4634" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4635" max="4635" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4636" max="4845" width="8.83203125" style="36"/>
-    <col min="4846" max="4846" width="1.5" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4596" max="4596" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4597" max="4632" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4633" max="4633" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4634" max="4634" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4635" max="4635" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4636" max="4845" width="8.85546875" style="36"/>
+    <col min="4846" max="4846" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4847" max="4847" width="1.28515625" style="36" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="36" customWidth="1"/>
-    <col min="4849" max="4849" width="5.5" style="36" customWidth="1"/>
+    <col min="4849" max="4849" width="5.42578125" style="36" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4853" max="4888" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4890" max="4890" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4891" max="4891" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4892" max="5101" width="8.83203125" style="36"/>
-    <col min="5102" max="5102" width="1.5" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="1.33203125" style="36" customWidth="1"/>
+    <col min="4852" max="4852" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4853" max="4888" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4889" max="4889" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4890" max="4890" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4891" max="4891" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4892" max="5101" width="8.85546875" style="36"/>
+    <col min="5102" max="5102" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5103" max="5103" width="1.28515625" style="36" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="36" customWidth="1"/>
-    <col min="5105" max="5105" width="5.5" style="36" customWidth="1"/>
+    <col min="5105" max="5105" width="5.42578125" style="36" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5109" max="5144" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5146" max="5146" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5147" max="5147" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5148" max="5357" width="8.83203125" style="36"/>
-    <col min="5358" max="5358" width="1.5" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5108" max="5108" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5109" max="5144" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5145" max="5145" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5146" max="5146" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5147" max="5147" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5148" max="5357" width="8.85546875" style="36"/>
+    <col min="5358" max="5358" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5359" max="5359" width="1.28515625" style="36" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="36" customWidth="1"/>
-    <col min="5361" max="5361" width="5.5" style="36" customWidth="1"/>
+    <col min="5361" max="5361" width="5.42578125" style="36" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5365" max="5400" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5402" max="5402" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5403" max="5403" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5404" max="5613" width="8.83203125" style="36"/>
-    <col min="5614" max="5614" width="1.5" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5364" max="5364" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5365" max="5400" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5401" max="5401" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5402" max="5402" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5403" max="5403" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5404" max="5613" width="8.85546875" style="36"/>
+    <col min="5614" max="5614" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5615" max="5615" width="1.28515625" style="36" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="36" customWidth="1"/>
-    <col min="5617" max="5617" width="5.5" style="36" customWidth="1"/>
+    <col min="5617" max="5617" width="5.42578125" style="36" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5621" max="5656" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5658" max="5658" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5659" max="5659" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5660" max="5869" width="8.83203125" style="36"/>
-    <col min="5870" max="5870" width="1.5" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5620" max="5620" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5621" max="5656" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5657" max="5657" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5658" max="5658" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5659" max="5659" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5660" max="5869" width="8.85546875" style="36"/>
+    <col min="5870" max="5870" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5871" max="5871" width="1.28515625" style="36" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="36" customWidth="1"/>
-    <col min="5873" max="5873" width="5.5" style="36" customWidth="1"/>
+    <col min="5873" max="5873" width="5.42578125" style="36" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5877" max="5912" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5914" max="5914" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5915" max="5915" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5916" max="6125" width="8.83203125" style="36"/>
-    <col min="6126" max="6126" width="1.5" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="1.33203125" style="36" customWidth="1"/>
+    <col min="5876" max="5876" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5877" max="5912" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5913" max="5913" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5914" max="5914" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5915" max="5915" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5916" max="6125" width="8.85546875" style="36"/>
+    <col min="6126" max="6126" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6127" max="6127" width="1.28515625" style="36" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="36" customWidth="1"/>
-    <col min="6129" max="6129" width="5.5" style="36" customWidth="1"/>
+    <col min="6129" max="6129" width="5.42578125" style="36" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6133" max="6168" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6170" max="6170" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6171" max="6171" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6172" max="6381" width="8.83203125" style="36"/>
-    <col min="6382" max="6382" width="1.5" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6132" max="6132" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6133" max="6168" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6169" max="6169" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6170" max="6170" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6171" max="6171" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6172" max="6381" width="8.85546875" style="36"/>
+    <col min="6382" max="6382" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6383" max="6383" width="1.28515625" style="36" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="36" customWidth="1"/>
-    <col min="6385" max="6385" width="5.5" style="36" customWidth="1"/>
+    <col min="6385" max="6385" width="5.42578125" style="36" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6389" max="6424" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6426" max="6426" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6427" max="6427" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6428" max="6637" width="8.83203125" style="36"/>
-    <col min="6638" max="6638" width="1.5" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6388" max="6388" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6389" max="6424" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6425" max="6425" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6426" max="6426" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6427" max="6427" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6428" max="6637" width="8.85546875" style="36"/>
+    <col min="6638" max="6638" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6639" max="6639" width="1.28515625" style="36" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="36" customWidth="1"/>
-    <col min="6641" max="6641" width="5.5" style="36" customWidth="1"/>
+    <col min="6641" max="6641" width="5.42578125" style="36" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6645" max="6680" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6682" max="6682" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6683" max="6683" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6684" max="6893" width="8.83203125" style="36"/>
-    <col min="6894" max="6894" width="1.5" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6644" max="6644" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6645" max="6680" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6681" max="6681" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6682" max="6682" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6683" max="6683" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6684" max="6893" width="8.85546875" style="36"/>
+    <col min="6894" max="6894" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6895" max="6895" width="1.28515625" style="36" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="36" customWidth="1"/>
-    <col min="6897" max="6897" width="5.5" style="36" customWidth="1"/>
+    <col min="6897" max="6897" width="5.42578125" style="36" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6901" max="6936" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6938" max="6938" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6939" max="6939" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6940" max="7149" width="8.83203125" style="36"/>
-    <col min="7150" max="7150" width="1.5" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="1.33203125" style="36" customWidth="1"/>
+    <col min="6900" max="6900" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6901" max="6936" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6937" max="6937" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6938" max="6938" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6939" max="6939" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6940" max="7149" width="8.85546875" style="36"/>
+    <col min="7150" max="7150" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7151" max="7151" width="1.28515625" style="36" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="36" customWidth="1"/>
-    <col min="7153" max="7153" width="5.5" style="36" customWidth="1"/>
+    <col min="7153" max="7153" width="5.42578125" style="36" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7157" max="7192" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7194" max="7194" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7195" max="7195" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7196" max="7405" width="8.83203125" style="36"/>
-    <col min="7406" max="7406" width="1.5" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7156" max="7156" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7157" max="7192" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7193" max="7193" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7194" max="7194" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7195" max="7195" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7196" max="7405" width="8.85546875" style="36"/>
+    <col min="7406" max="7406" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7407" max="7407" width="1.28515625" style="36" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="36" customWidth="1"/>
-    <col min="7409" max="7409" width="5.5" style="36" customWidth="1"/>
+    <col min="7409" max="7409" width="5.42578125" style="36" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7413" max="7448" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7450" max="7450" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7451" max="7451" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7452" max="7661" width="8.83203125" style="36"/>
-    <col min="7662" max="7662" width="1.5" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7412" max="7412" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7413" max="7448" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7449" max="7449" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7450" max="7450" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7451" max="7451" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7452" max="7661" width="8.85546875" style="36"/>
+    <col min="7662" max="7662" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7663" max="7663" width="1.28515625" style="36" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="36" customWidth="1"/>
-    <col min="7665" max="7665" width="5.5" style="36" customWidth="1"/>
+    <col min="7665" max="7665" width="5.42578125" style="36" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7669" max="7704" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7706" max="7706" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7707" max="7707" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7708" max="7917" width="8.83203125" style="36"/>
-    <col min="7918" max="7918" width="1.5" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7668" max="7668" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7669" max="7704" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7705" max="7705" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7706" max="7706" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7707" max="7707" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7708" max="7917" width="8.85546875" style="36"/>
+    <col min="7918" max="7918" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7919" max="7919" width="1.28515625" style="36" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="36" customWidth="1"/>
-    <col min="7921" max="7921" width="5.5" style="36" customWidth="1"/>
+    <col min="7921" max="7921" width="5.42578125" style="36" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7925" max="7960" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7962" max="7962" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7963" max="7963" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7964" max="8173" width="8.83203125" style="36"/>
-    <col min="8174" max="8174" width="1.5" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="1.33203125" style="36" customWidth="1"/>
+    <col min="7924" max="7924" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7925" max="7960" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7961" max="7961" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7962" max="7962" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7963" max="7963" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7964" max="8173" width="8.85546875" style="36"/>
+    <col min="8174" max="8174" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8175" max="8175" width="1.28515625" style="36" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="36" customWidth="1"/>
-    <col min="8177" max="8177" width="5.5" style="36" customWidth="1"/>
+    <col min="8177" max="8177" width="5.42578125" style="36" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8181" max="8216" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8218" max="8218" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8219" max="8219" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8220" max="8429" width="8.83203125" style="36"/>
-    <col min="8430" max="8430" width="1.5" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8180" max="8180" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8181" max="8216" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8217" max="8217" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8218" max="8218" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8219" max="8219" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8220" max="8429" width="8.85546875" style="36"/>
+    <col min="8430" max="8430" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8431" max="8431" width="1.28515625" style="36" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="36" customWidth="1"/>
-    <col min="8433" max="8433" width="5.5" style="36" customWidth="1"/>
+    <col min="8433" max="8433" width="5.42578125" style="36" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8437" max="8472" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8474" max="8474" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8475" max="8475" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8476" max="8685" width="8.83203125" style="36"/>
-    <col min="8686" max="8686" width="1.5" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8436" max="8436" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8437" max="8472" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8473" max="8473" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8474" max="8474" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8475" max="8475" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8476" max="8685" width="8.85546875" style="36"/>
+    <col min="8686" max="8686" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8687" max="8687" width="1.28515625" style="36" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="36" customWidth="1"/>
-    <col min="8689" max="8689" width="5.5" style="36" customWidth="1"/>
+    <col min="8689" max="8689" width="5.42578125" style="36" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8693" max="8728" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8730" max="8730" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8731" max="8731" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8732" max="8941" width="8.83203125" style="36"/>
-    <col min="8942" max="8942" width="1.5" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8692" max="8692" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8693" max="8728" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8729" max="8729" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8730" max="8730" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8731" max="8731" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8732" max="8941" width="8.85546875" style="36"/>
+    <col min="8942" max="8942" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8943" max="8943" width="1.28515625" style="36" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="36" customWidth="1"/>
-    <col min="8945" max="8945" width="5.5" style="36" customWidth="1"/>
+    <col min="8945" max="8945" width="5.42578125" style="36" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8949" max="8984" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8986" max="8986" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8987" max="8987" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8988" max="9197" width="8.83203125" style="36"/>
-    <col min="9198" max="9198" width="1.5" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="1.33203125" style="36" customWidth="1"/>
+    <col min="8948" max="8948" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8949" max="8984" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8985" max="8985" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8986" max="8986" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8987" max="8987" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8988" max="9197" width="8.85546875" style="36"/>
+    <col min="9198" max="9198" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9199" max="9199" width="1.28515625" style="36" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="36" customWidth="1"/>
-    <col min="9201" max="9201" width="5.5" style="36" customWidth="1"/>
+    <col min="9201" max="9201" width="5.42578125" style="36" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9205" max="9240" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9242" max="9242" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9243" max="9243" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9244" max="9453" width="8.83203125" style="36"/>
-    <col min="9454" max="9454" width="1.5" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9204" max="9204" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9205" max="9240" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9241" max="9241" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9242" max="9242" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9243" max="9243" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9244" max="9453" width="8.85546875" style="36"/>
+    <col min="9454" max="9454" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9455" max="9455" width="1.28515625" style="36" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="36" customWidth="1"/>
-    <col min="9457" max="9457" width="5.5" style="36" customWidth="1"/>
+    <col min="9457" max="9457" width="5.42578125" style="36" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9461" max="9496" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9498" max="9498" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9499" max="9499" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9500" max="9709" width="8.83203125" style="36"/>
-    <col min="9710" max="9710" width="1.5" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9460" max="9460" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9461" max="9496" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9497" max="9497" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9498" max="9498" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9499" max="9499" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9500" max="9709" width="8.85546875" style="36"/>
+    <col min="9710" max="9710" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9711" max="9711" width="1.28515625" style="36" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="36" customWidth="1"/>
-    <col min="9713" max="9713" width="5.5" style="36" customWidth="1"/>
+    <col min="9713" max="9713" width="5.42578125" style="36" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9717" max="9752" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9754" max="9754" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9755" max="9755" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9756" max="9965" width="8.83203125" style="36"/>
-    <col min="9966" max="9966" width="1.5" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9716" max="9716" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9717" max="9752" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9753" max="9753" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9754" max="9754" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9755" max="9755" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9756" max="9965" width="8.85546875" style="36"/>
+    <col min="9966" max="9966" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9967" max="9967" width="1.28515625" style="36" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="36" customWidth="1"/>
-    <col min="9969" max="9969" width="5.5" style="36" customWidth="1"/>
+    <col min="9969" max="9969" width="5.42578125" style="36" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9973" max="10008" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10010" max="10010" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10011" max="10011" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10012" max="10221" width="8.83203125" style="36"/>
-    <col min="10222" max="10222" width="1.5" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="1.33203125" style="36" customWidth="1"/>
+    <col min="9972" max="9972" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9973" max="10008" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10009" max="10009" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10010" max="10010" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10011" max="10011" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10012" max="10221" width="8.85546875" style="36"/>
+    <col min="10222" max="10222" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10223" max="10223" width="1.28515625" style="36" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="36" customWidth="1"/>
-    <col min="10225" max="10225" width="5.5" style="36" customWidth="1"/>
+    <col min="10225" max="10225" width="5.42578125" style="36" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10229" max="10264" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10266" max="10266" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10267" max="10267" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10268" max="10477" width="8.83203125" style="36"/>
-    <col min="10478" max="10478" width="1.5" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10228" max="10228" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10229" max="10264" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10265" max="10265" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10266" max="10266" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10267" max="10267" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10268" max="10477" width="8.85546875" style="36"/>
+    <col min="10478" max="10478" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10479" max="10479" width="1.28515625" style="36" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="36" customWidth="1"/>
-    <col min="10481" max="10481" width="5.5" style="36" customWidth="1"/>
+    <col min="10481" max="10481" width="5.42578125" style="36" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10485" max="10520" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10522" max="10522" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10523" max="10523" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10524" max="10733" width="8.83203125" style="36"/>
-    <col min="10734" max="10734" width="1.5" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10484" max="10484" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10485" max="10520" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10521" max="10521" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10522" max="10522" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10523" max="10523" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10524" max="10733" width="8.85546875" style="36"/>
+    <col min="10734" max="10734" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10735" max="10735" width="1.28515625" style="36" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="36" customWidth="1"/>
-    <col min="10737" max="10737" width="5.5" style="36" customWidth="1"/>
+    <col min="10737" max="10737" width="5.42578125" style="36" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10741" max="10776" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10778" max="10778" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10779" max="10779" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10780" max="10989" width="8.83203125" style="36"/>
-    <col min="10990" max="10990" width="1.5" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10740" max="10740" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10741" max="10776" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10777" max="10777" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10778" max="10778" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10779" max="10779" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10780" max="10989" width="8.85546875" style="36"/>
+    <col min="10990" max="10990" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10991" max="10991" width="1.28515625" style="36" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="36" customWidth="1"/>
-    <col min="10993" max="10993" width="5.5" style="36" customWidth="1"/>
+    <col min="10993" max="10993" width="5.42578125" style="36" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10997" max="11032" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11034" max="11034" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11035" max="11035" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11036" max="11245" width="8.83203125" style="36"/>
-    <col min="11246" max="11246" width="1.5" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="1.33203125" style="36" customWidth="1"/>
+    <col min="10996" max="10996" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10997" max="11032" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11033" max="11033" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11034" max="11034" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11035" max="11035" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11036" max="11245" width="8.85546875" style="36"/>
+    <col min="11246" max="11246" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11247" max="11247" width="1.28515625" style="36" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="36" customWidth="1"/>
-    <col min="11249" max="11249" width="5.5" style="36" customWidth="1"/>
+    <col min="11249" max="11249" width="5.42578125" style="36" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11253" max="11288" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11290" max="11290" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11291" max="11291" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11292" max="11501" width="8.83203125" style="36"/>
-    <col min="11502" max="11502" width="1.5" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11252" max="11252" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11253" max="11288" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11289" max="11289" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11290" max="11290" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11291" max="11291" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11292" max="11501" width="8.85546875" style="36"/>
+    <col min="11502" max="11502" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11503" max="11503" width="1.28515625" style="36" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="36" customWidth="1"/>
-    <col min="11505" max="11505" width="5.5" style="36" customWidth="1"/>
+    <col min="11505" max="11505" width="5.42578125" style="36" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11509" max="11544" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11546" max="11546" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11547" max="11547" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11548" max="11757" width="8.83203125" style="36"/>
-    <col min="11758" max="11758" width="1.5" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11508" max="11508" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11509" max="11544" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11545" max="11545" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11546" max="11546" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11547" max="11547" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11548" max="11757" width="8.85546875" style="36"/>
+    <col min="11758" max="11758" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11759" max="11759" width="1.28515625" style="36" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="36" customWidth="1"/>
-    <col min="11761" max="11761" width="5.5" style="36" customWidth="1"/>
+    <col min="11761" max="11761" width="5.42578125" style="36" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11765" max="11800" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11802" max="11802" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11803" max="11803" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11804" max="12013" width="8.83203125" style="36"/>
-    <col min="12014" max="12014" width="1.5" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="1.33203125" style="36" customWidth="1"/>
+    <col min="11764" max="11764" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11765" max="11800" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11801" max="11801" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11802" max="11802" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11803" max="11803" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11804" max="12013" width="8.85546875" style="36"/>
+    <col min="12014" max="12014" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12015" max="12015" width="1.28515625" style="36" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="36" customWidth="1"/>
-    <col min="12017" max="12017" width="5.5" style="36" customWidth="1"/>
+    <col min="12017" max="12017" width="5.42578125" style="36" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12021" max="12056" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12058" max="12058" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12059" max="12059" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12060" max="12269" width="8.83203125" style="36"/>
-    <col min="12270" max="12270" width="1.5" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12020" max="12020" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12021" max="12056" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12057" max="12057" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12058" max="12058" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12059" max="12059" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12060" max="12269" width="8.85546875" style="36"/>
+    <col min="12270" max="12270" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12271" max="12271" width="1.28515625" style="36" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="36" customWidth="1"/>
-    <col min="12273" max="12273" width="5.5" style="36" customWidth="1"/>
+    <col min="12273" max="12273" width="5.42578125" style="36" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12277" max="12312" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12314" max="12314" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12315" max="12315" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12316" max="12525" width="8.83203125" style="36"/>
-    <col min="12526" max="12526" width="1.5" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12276" max="12276" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12277" max="12312" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12313" max="12313" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12314" max="12314" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12315" max="12315" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12316" max="12525" width="8.85546875" style="36"/>
+    <col min="12526" max="12526" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12527" max="12527" width="1.28515625" style="36" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="36" customWidth="1"/>
-    <col min="12529" max="12529" width="5.5" style="36" customWidth="1"/>
+    <col min="12529" max="12529" width="5.42578125" style="36" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12533" max="12568" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12570" max="12570" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12571" max="12571" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12572" max="12781" width="8.83203125" style="36"/>
-    <col min="12782" max="12782" width="1.5" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12532" max="12532" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12533" max="12568" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12569" max="12569" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12570" max="12570" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12571" max="12571" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12572" max="12781" width="8.85546875" style="36"/>
+    <col min="12782" max="12782" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12783" max="12783" width="1.28515625" style="36" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="36" customWidth="1"/>
-    <col min="12785" max="12785" width="5.5" style="36" customWidth="1"/>
+    <col min="12785" max="12785" width="5.42578125" style="36" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12789" max="12824" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12826" max="12826" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12827" max="12827" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12828" max="13037" width="8.83203125" style="36"/>
-    <col min="13038" max="13038" width="1.5" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="1.33203125" style="36" customWidth="1"/>
+    <col min="12788" max="12788" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12789" max="12824" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12825" max="12825" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12826" max="12826" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12827" max="12827" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12828" max="13037" width="8.85546875" style="36"/>
+    <col min="13038" max="13038" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13039" max="13039" width="1.28515625" style="36" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="36" customWidth="1"/>
-    <col min="13041" max="13041" width="5.5" style="36" customWidth="1"/>
+    <col min="13041" max="13041" width="5.42578125" style="36" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13045" max="13080" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13082" max="13082" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13083" max="13083" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13084" max="13293" width="8.83203125" style="36"/>
-    <col min="13294" max="13294" width="1.5" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13044" max="13044" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13045" max="13080" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13081" max="13081" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13082" max="13082" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13083" max="13083" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13084" max="13293" width="8.85546875" style="36"/>
+    <col min="13294" max="13294" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13295" max="13295" width="1.28515625" style="36" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="36" customWidth="1"/>
-    <col min="13297" max="13297" width="5.5" style="36" customWidth="1"/>
+    <col min="13297" max="13297" width="5.42578125" style="36" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13301" max="13336" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13338" max="13338" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13339" max="13339" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13340" max="13549" width="8.83203125" style="36"/>
-    <col min="13550" max="13550" width="1.5" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13300" max="13300" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13301" max="13336" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13337" max="13337" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13338" max="13338" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13339" max="13339" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13340" max="13549" width="8.85546875" style="36"/>
+    <col min="13550" max="13550" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13551" max="13551" width="1.28515625" style="36" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="36" customWidth="1"/>
-    <col min="13553" max="13553" width="5.5" style="36" customWidth="1"/>
+    <col min="13553" max="13553" width="5.42578125" style="36" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13557" max="13592" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13594" max="13594" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13595" max="13595" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13596" max="13805" width="8.83203125" style="36"/>
-    <col min="13806" max="13806" width="1.5" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13556" max="13556" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13557" max="13592" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13593" max="13593" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13594" max="13594" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13595" max="13595" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13596" max="13805" width="8.85546875" style="36"/>
+    <col min="13806" max="13806" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13807" max="13807" width="1.28515625" style="36" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="36" customWidth="1"/>
-    <col min="13809" max="13809" width="5.5" style="36" customWidth="1"/>
+    <col min="13809" max="13809" width="5.42578125" style="36" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13813" max="13848" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13850" max="13850" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13851" max="13851" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13852" max="14061" width="8.83203125" style="36"/>
-    <col min="14062" max="14062" width="1.5" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="1.33203125" style="36" customWidth="1"/>
+    <col min="13812" max="13812" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13813" max="13848" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13849" max="13849" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13850" max="13850" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13851" max="13851" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13852" max="14061" width="8.85546875" style="36"/>
+    <col min="14062" max="14062" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14063" max="14063" width="1.28515625" style="36" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="36" customWidth="1"/>
-    <col min="14065" max="14065" width="5.5" style="36" customWidth="1"/>
+    <col min="14065" max="14065" width="5.42578125" style="36" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14069" max="14104" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14106" max="14106" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14107" max="14107" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14108" max="14317" width="8.83203125" style="36"/>
-    <col min="14318" max="14318" width="1.5" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14068" max="14068" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14069" max="14104" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14105" max="14105" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14106" max="14106" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14107" max="14107" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14108" max="14317" width="8.85546875" style="36"/>
+    <col min="14318" max="14318" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14319" max="14319" width="1.28515625" style="36" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="36" customWidth="1"/>
-    <col min="14321" max="14321" width="5.5" style="36" customWidth="1"/>
+    <col min="14321" max="14321" width="5.42578125" style="36" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14325" max="14360" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14362" max="14362" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14363" max="14363" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14364" max="14573" width="8.83203125" style="36"/>
-    <col min="14574" max="14574" width="1.5" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14324" max="14324" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14325" max="14360" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14361" max="14361" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14362" max="14362" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14363" max="14363" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14364" max="14573" width="8.85546875" style="36"/>
+    <col min="14574" max="14574" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14575" max="14575" width="1.28515625" style="36" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="36" customWidth="1"/>
-    <col min="14577" max="14577" width="5.5" style="36" customWidth="1"/>
+    <col min="14577" max="14577" width="5.42578125" style="36" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14581" max="14616" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14618" max="14618" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14619" max="14619" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14620" max="14829" width="8.83203125" style="36"/>
-    <col min="14830" max="14830" width="1.5" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14580" max="14580" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14581" max="14616" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14617" max="14617" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14618" max="14618" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14619" max="14619" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14620" max="14829" width="8.85546875" style="36"/>
+    <col min="14830" max="14830" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14831" max="14831" width="1.28515625" style="36" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="36" customWidth="1"/>
-    <col min="14833" max="14833" width="5.5" style="36" customWidth="1"/>
+    <col min="14833" max="14833" width="5.42578125" style="36" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14837" max="14872" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14874" max="14874" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14875" max="14875" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14876" max="15085" width="8.83203125" style="36"/>
-    <col min="15086" max="15086" width="1.5" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="1.33203125" style="36" customWidth="1"/>
+    <col min="14836" max="14836" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14837" max="14872" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14873" max="14873" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14874" max="14874" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14875" max="14875" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14876" max="15085" width="8.85546875" style="36"/>
+    <col min="15086" max="15086" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15087" max="15087" width="1.28515625" style="36" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="36" customWidth="1"/>
-    <col min="15089" max="15089" width="5.5" style="36" customWidth="1"/>
+    <col min="15089" max="15089" width="5.42578125" style="36" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15093" max="15128" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15130" max="15130" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15131" max="15131" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15132" max="15341" width="8.83203125" style="36"/>
-    <col min="15342" max="15342" width="1.5" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15092" max="15092" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15093" max="15128" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15129" max="15129" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15130" max="15130" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15131" max="15131" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15132" max="15341" width="8.85546875" style="36"/>
+    <col min="15342" max="15342" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15343" max="15343" width="1.28515625" style="36" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="36" customWidth="1"/>
-    <col min="15345" max="15345" width="5.5" style="36" customWidth="1"/>
+    <col min="15345" max="15345" width="5.42578125" style="36" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15349" max="15384" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15386" max="15386" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15387" max="15387" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15388" max="15597" width="8.83203125" style="36"/>
-    <col min="15598" max="15598" width="1.5" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15348" max="15348" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15349" max="15384" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15385" max="15385" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15386" max="15386" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15387" max="15387" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15388" max="15597" width="8.85546875" style="36"/>
+    <col min="15598" max="15598" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15599" max="15599" width="1.28515625" style="36" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="36" customWidth="1"/>
-    <col min="15601" max="15601" width="5.5" style="36" customWidth="1"/>
+    <col min="15601" max="15601" width="5.42578125" style="36" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15605" max="15640" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15642" max="15642" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15643" max="15643" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15644" max="15853" width="8.83203125" style="36"/>
-    <col min="15854" max="15854" width="1.5" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15604" max="15604" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15605" max="15640" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15641" max="15641" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15642" max="15642" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15643" max="15643" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15644" max="15853" width="8.85546875" style="36"/>
+    <col min="15854" max="15854" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15855" max="15855" width="1.28515625" style="36" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="36" customWidth="1"/>
-    <col min="15857" max="15857" width="5.5" style="36" customWidth="1"/>
+    <col min="15857" max="15857" width="5.42578125" style="36" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15861" max="15896" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15898" max="15898" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15899" max="15899" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15900" max="16109" width="8.83203125" style="36"/>
-    <col min="16110" max="16110" width="1.5" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="1.33203125" style="36" customWidth="1"/>
+    <col min="15860" max="15860" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15861" max="15896" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15897" max="15897" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15898" max="15898" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15899" max="15899" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15900" max="16109" width="8.85546875" style="36"/>
+    <col min="16110" max="16110" width="1.42578125" style="36" customWidth="1"/>
+    <col min="16111" max="16111" width="1.28515625" style="36" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="36" customWidth="1"/>
-    <col min="16113" max="16113" width="5.5" style="36" customWidth="1"/>
+    <col min="16113" max="16113" width="5.42578125" style="36" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.6640625" style="36" customWidth="1"/>
-    <col min="16117" max="16152" width="3.33203125" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="36" customWidth="1"/>
-    <col min="16154" max="16154" width="25.6640625" style="36" customWidth="1"/>
-    <col min="16155" max="16155" width="31.33203125" style="36" customWidth="1"/>
-    <col min="16156" max="16384" width="8.83203125" style="36"/>
+    <col min="16116" max="16116" width="2.7109375" style="36" customWidth="1"/>
+    <col min="16117" max="16152" width="3.28515625" style="36" customWidth="1"/>
+    <col min="16153" max="16153" width="1.7109375" style="36" customWidth="1"/>
+    <col min="16154" max="16154" width="25.7109375" style="36" customWidth="1"/>
+    <col min="16155" max="16155" width="31.28515625" style="36" customWidth="1"/>
+    <col min="16156" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="124" t="s">
+    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="82">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="81">
         <v>0</v>
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="84">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="85">
+        <v>7</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="87">
         <v>1</v>
       </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="86">
-        <v>8</v>
-      </c>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="88">
-        <v>1</v>
-      </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="90">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="89">
         <v>0</v>
       </c>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="71"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6728,1001 +6748,973 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AI27"/>
+  <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="37" customWidth="1"/>
     <col min="4" max="4" width="8" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="38" customWidth="1"/>
-    <col min="7" max="25" width="3.33203125" style="38" customWidth="1"/>
-    <col min="26" max="26" width="10" style="38" customWidth="1"/>
-    <col min="27" max="35" width="8.83203125" style="38"/>
-    <col min="36" max="236" width="8.83203125" style="36"/>
-    <col min="237" max="237" width="1.5" style="36" customWidth="1"/>
-    <col min="238" max="238" width="1.33203125" style="36" customWidth="1"/>
-    <col min="239" max="239" width="42" style="36" customWidth="1"/>
-    <col min="240" max="240" width="5.5" style="36" customWidth="1"/>
-    <col min="241" max="242" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="243" max="243" width="2.6640625" style="36" customWidth="1"/>
-    <col min="244" max="279" width="3.33203125" style="36" customWidth="1"/>
-    <col min="280" max="280" width="1.6640625" style="36" customWidth="1"/>
-    <col min="281" max="281" width="25.6640625" style="36" customWidth="1"/>
-    <col min="282" max="282" width="31.33203125" style="36" customWidth="1"/>
-    <col min="283" max="492" width="8.83203125" style="36"/>
-    <col min="493" max="493" width="1.5" style="36" customWidth="1"/>
-    <col min="494" max="494" width="1.33203125" style="36" customWidth="1"/>
-    <col min="495" max="495" width="42" style="36" customWidth="1"/>
-    <col min="496" max="496" width="5.5" style="36" customWidth="1"/>
-    <col min="497" max="498" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="499" max="499" width="2.6640625" style="36" customWidth="1"/>
-    <col min="500" max="535" width="3.33203125" style="36" customWidth="1"/>
-    <col min="536" max="536" width="1.6640625" style="36" customWidth="1"/>
-    <col min="537" max="537" width="25.6640625" style="36" customWidth="1"/>
-    <col min="538" max="538" width="31.33203125" style="36" customWidth="1"/>
-    <col min="539" max="748" width="8.83203125" style="36"/>
-    <col min="749" max="749" width="1.5" style="36" customWidth="1"/>
-    <col min="750" max="750" width="1.33203125" style="36" customWidth="1"/>
-    <col min="751" max="751" width="42" style="36" customWidth="1"/>
-    <col min="752" max="752" width="5.5" style="36" customWidth="1"/>
-    <col min="753" max="754" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="755" max="755" width="2.6640625" style="36" customWidth="1"/>
-    <col min="756" max="791" width="3.33203125" style="36" customWidth="1"/>
-    <col min="792" max="792" width="1.6640625" style="36" customWidth="1"/>
-    <col min="793" max="793" width="25.6640625" style="36" customWidth="1"/>
-    <col min="794" max="794" width="31.33203125" style="36" customWidth="1"/>
-    <col min="795" max="1004" width="8.83203125" style="36"/>
-    <col min="1005" max="1005" width="1.5" style="36" customWidth="1"/>
-    <col min="1006" max="1006" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="42" style="36" customWidth="1"/>
-    <col min="1008" max="1008" width="5.5" style="36" customWidth="1"/>
-    <col min="1009" max="1010" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1011" max="1011" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1012" max="1047" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1048" max="1048" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1050" max="1050" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1051" max="1260" width="8.83203125" style="36"/>
-    <col min="1261" max="1261" width="1.5" style="36" customWidth="1"/>
-    <col min="1262" max="1262" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="42" style="36" customWidth="1"/>
-    <col min="1264" max="1264" width="5.5" style="36" customWidth="1"/>
-    <col min="1265" max="1266" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1267" max="1267" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1268" max="1303" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1304" max="1304" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1306" max="1306" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1307" max="1516" width="8.83203125" style="36"/>
-    <col min="1517" max="1517" width="1.5" style="36" customWidth="1"/>
-    <col min="1518" max="1518" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="42" style="36" customWidth="1"/>
-    <col min="1520" max="1520" width="5.5" style="36" customWidth="1"/>
-    <col min="1521" max="1522" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1523" max="1523" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1524" max="1559" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1560" max="1560" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1562" max="1562" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1563" max="1772" width="8.83203125" style="36"/>
-    <col min="1773" max="1773" width="1.5" style="36" customWidth="1"/>
-    <col min="1774" max="1774" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="42" style="36" customWidth="1"/>
-    <col min="1776" max="1776" width="5.5" style="36" customWidth="1"/>
-    <col min="1777" max="1778" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1779" max="1779" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1780" max="1815" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1816" max="1816" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1818" max="1818" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1819" max="2028" width="8.83203125" style="36"/>
-    <col min="2029" max="2029" width="1.5" style="36" customWidth="1"/>
-    <col min="2030" max="2030" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="42" style="36" customWidth="1"/>
-    <col min="2032" max="2032" width="5.5" style="36" customWidth="1"/>
-    <col min="2033" max="2034" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2035" max="2035" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2036" max="2071" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2072" max="2072" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2074" max="2074" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2075" max="2284" width="8.83203125" style="36"/>
-    <col min="2285" max="2285" width="1.5" style="36" customWidth="1"/>
-    <col min="2286" max="2286" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="42" style="36" customWidth="1"/>
-    <col min="2288" max="2288" width="5.5" style="36" customWidth="1"/>
-    <col min="2289" max="2290" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2291" max="2291" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2292" max="2327" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2328" max="2328" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2330" max="2330" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2331" max="2540" width="8.83203125" style="36"/>
-    <col min="2541" max="2541" width="1.5" style="36" customWidth="1"/>
-    <col min="2542" max="2542" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="42" style="36" customWidth="1"/>
-    <col min="2544" max="2544" width="5.5" style="36" customWidth="1"/>
-    <col min="2545" max="2546" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2547" max="2547" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2548" max="2583" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2584" max="2584" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2586" max="2586" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2587" max="2796" width="8.83203125" style="36"/>
-    <col min="2797" max="2797" width="1.5" style="36" customWidth="1"/>
-    <col min="2798" max="2798" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="42" style="36" customWidth="1"/>
-    <col min="2800" max="2800" width="5.5" style="36" customWidth="1"/>
-    <col min="2801" max="2802" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2803" max="2803" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2804" max="2839" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2840" max="2840" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2842" max="2842" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2843" max="3052" width="8.83203125" style="36"/>
-    <col min="3053" max="3053" width="1.5" style="36" customWidth="1"/>
-    <col min="3054" max="3054" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="42" style="36" customWidth="1"/>
-    <col min="3056" max="3056" width="5.5" style="36" customWidth="1"/>
-    <col min="3057" max="3058" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3059" max="3059" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3060" max="3095" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3096" max="3096" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3098" max="3098" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3099" max="3308" width="8.83203125" style="36"/>
-    <col min="3309" max="3309" width="1.5" style="36" customWidth="1"/>
-    <col min="3310" max="3310" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="42" style="36" customWidth="1"/>
-    <col min="3312" max="3312" width="5.5" style="36" customWidth="1"/>
-    <col min="3313" max="3314" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3315" max="3315" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3316" max="3351" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3352" max="3352" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3354" max="3354" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3355" max="3564" width="8.83203125" style="36"/>
-    <col min="3565" max="3565" width="1.5" style="36" customWidth="1"/>
-    <col min="3566" max="3566" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="42" style="36" customWidth="1"/>
-    <col min="3568" max="3568" width="5.5" style="36" customWidth="1"/>
-    <col min="3569" max="3570" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3571" max="3571" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3572" max="3607" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3608" max="3608" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3610" max="3610" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3611" max="3820" width="8.83203125" style="36"/>
-    <col min="3821" max="3821" width="1.5" style="36" customWidth="1"/>
-    <col min="3822" max="3822" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="42" style="36" customWidth="1"/>
-    <col min="3824" max="3824" width="5.5" style="36" customWidth="1"/>
-    <col min="3825" max="3826" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3827" max="3827" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3828" max="3863" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3864" max="3864" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3866" max="3866" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3867" max="4076" width="8.83203125" style="36"/>
-    <col min="4077" max="4077" width="1.5" style="36" customWidth="1"/>
-    <col min="4078" max="4078" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="42" style="36" customWidth="1"/>
-    <col min="4080" max="4080" width="5.5" style="36" customWidth="1"/>
-    <col min="4081" max="4082" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4083" max="4083" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4084" max="4119" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4120" max="4120" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4122" max="4122" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4123" max="4332" width="8.83203125" style="36"/>
-    <col min="4333" max="4333" width="1.5" style="36" customWidth="1"/>
-    <col min="4334" max="4334" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="42" style="36" customWidth="1"/>
-    <col min="4336" max="4336" width="5.5" style="36" customWidth="1"/>
-    <col min="4337" max="4338" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4339" max="4339" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4340" max="4375" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4376" max="4376" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4378" max="4378" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4379" max="4588" width="8.83203125" style="36"/>
-    <col min="4589" max="4589" width="1.5" style="36" customWidth="1"/>
-    <col min="4590" max="4590" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="42" style="36" customWidth="1"/>
-    <col min="4592" max="4592" width="5.5" style="36" customWidth="1"/>
-    <col min="4593" max="4594" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4595" max="4595" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4596" max="4631" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4632" max="4632" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4634" max="4634" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4635" max="4844" width="8.83203125" style="36"/>
-    <col min="4845" max="4845" width="1.5" style="36" customWidth="1"/>
-    <col min="4846" max="4846" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="42" style="36" customWidth="1"/>
-    <col min="4848" max="4848" width="5.5" style="36" customWidth="1"/>
-    <col min="4849" max="4850" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4851" max="4851" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4852" max="4887" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4888" max="4888" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4890" max="4890" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4891" max="5100" width="8.83203125" style="36"/>
-    <col min="5101" max="5101" width="1.5" style="36" customWidth="1"/>
-    <col min="5102" max="5102" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="42" style="36" customWidth="1"/>
-    <col min="5104" max="5104" width="5.5" style="36" customWidth="1"/>
-    <col min="5105" max="5106" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5107" max="5107" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5108" max="5143" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5144" max="5144" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5146" max="5146" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5147" max="5356" width="8.83203125" style="36"/>
-    <col min="5357" max="5357" width="1.5" style="36" customWidth="1"/>
-    <col min="5358" max="5358" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="42" style="36" customWidth="1"/>
-    <col min="5360" max="5360" width="5.5" style="36" customWidth="1"/>
-    <col min="5361" max="5362" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5363" max="5363" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5364" max="5399" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5400" max="5400" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5402" max="5402" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5403" max="5612" width="8.83203125" style="36"/>
-    <col min="5613" max="5613" width="1.5" style="36" customWidth="1"/>
-    <col min="5614" max="5614" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="42" style="36" customWidth="1"/>
-    <col min="5616" max="5616" width="5.5" style="36" customWidth="1"/>
-    <col min="5617" max="5618" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5619" max="5619" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5620" max="5655" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5656" max="5656" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5658" max="5658" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5659" max="5868" width="8.83203125" style="36"/>
-    <col min="5869" max="5869" width="1.5" style="36" customWidth="1"/>
-    <col min="5870" max="5870" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="42" style="36" customWidth="1"/>
-    <col min="5872" max="5872" width="5.5" style="36" customWidth="1"/>
-    <col min="5873" max="5874" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5875" max="5875" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5876" max="5911" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5912" max="5912" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5914" max="5914" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5915" max="6124" width="8.83203125" style="36"/>
-    <col min="6125" max="6125" width="1.5" style="36" customWidth="1"/>
-    <col min="6126" max="6126" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="42" style="36" customWidth="1"/>
-    <col min="6128" max="6128" width="5.5" style="36" customWidth="1"/>
-    <col min="6129" max="6130" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6131" max="6131" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6132" max="6167" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6168" max="6168" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6170" max="6170" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6171" max="6380" width="8.83203125" style="36"/>
-    <col min="6381" max="6381" width="1.5" style="36" customWidth="1"/>
-    <col min="6382" max="6382" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="42" style="36" customWidth="1"/>
-    <col min="6384" max="6384" width="5.5" style="36" customWidth="1"/>
-    <col min="6385" max="6386" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6387" max="6387" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6388" max="6423" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6424" max="6424" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6426" max="6426" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6427" max="6636" width="8.83203125" style="36"/>
-    <col min="6637" max="6637" width="1.5" style="36" customWidth="1"/>
-    <col min="6638" max="6638" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="42" style="36" customWidth="1"/>
-    <col min="6640" max="6640" width="5.5" style="36" customWidth="1"/>
-    <col min="6641" max="6642" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6643" max="6643" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6644" max="6679" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6680" max="6680" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6682" max="6682" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6683" max="6892" width="8.83203125" style="36"/>
-    <col min="6893" max="6893" width="1.5" style="36" customWidth="1"/>
-    <col min="6894" max="6894" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="42" style="36" customWidth="1"/>
-    <col min="6896" max="6896" width="5.5" style="36" customWidth="1"/>
-    <col min="6897" max="6898" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6899" max="6899" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6900" max="6935" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6936" max="6936" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6938" max="6938" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6939" max="7148" width="8.83203125" style="36"/>
-    <col min="7149" max="7149" width="1.5" style="36" customWidth="1"/>
-    <col min="7150" max="7150" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="42" style="36" customWidth="1"/>
-    <col min="7152" max="7152" width="5.5" style="36" customWidth="1"/>
-    <col min="7153" max="7154" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7155" max="7155" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7156" max="7191" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7192" max="7192" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7194" max="7194" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7195" max="7404" width="8.83203125" style="36"/>
-    <col min="7405" max="7405" width="1.5" style="36" customWidth="1"/>
-    <col min="7406" max="7406" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="42" style="36" customWidth="1"/>
-    <col min="7408" max="7408" width="5.5" style="36" customWidth="1"/>
-    <col min="7409" max="7410" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7411" max="7411" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7412" max="7447" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7448" max="7448" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7450" max="7450" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7451" max="7660" width="8.83203125" style="36"/>
-    <col min="7661" max="7661" width="1.5" style="36" customWidth="1"/>
-    <col min="7662" max="7662" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="42" style="36" customWidth="1"/>
-    <col min="7664" max="7664" width="5.5" style="36" customWidth="1"/>
-    <col min="7665" max="7666" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7667" max="7667" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7668" max="7703" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7704" max="7704" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7706" max="7706" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7707" max="7916" width="8.83203125" style="36"/>
-    <col min="7917" max="7917" width="1.5" style="36" customWidth="1"/>
-    <col min="7918" max="7918" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="42" style="36" customWidth="1"/>
-    <col min="7920" max="7920" width="5.5" style="36" customWidth="1"/>
-    <col min="7921" max="7922" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7923" max="7923" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7924" max="7959" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7960" max="7960" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7962" max="7962" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7963" max="8172" width="8.83203125" style="36"/>
-    <col min="8173" max="8173" width="1.5" style="36" customWidth="1"/>
-    <col min="8174" max="8174" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="42" style="36" customWidth="1"/>
-    <col min="8176" max="8176" width="5.5" style="36" customWidth="1"/>
-    <col min="8177" max="8178" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8179" max="8179" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8180" max="8215" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8216" max="8216" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8218" max="8218" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8219" max="8428" width="8.83203125" style="36"/>
-    <col min="8429" max="8429" width="1.5" style="36" customWidth="1"/>
-    <col min="8430" max="8430" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="42" style="36" customWidth="1"/>
-    <col min="8432" max="8432" width="5.5" style="36" customWidth="1"/>
-    <col min="8433" max="8434" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8435" max="8435" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8436" max="8471" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8472" max="8472" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8474" max="8474" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8475" max="8684" width="8.83203125" style="36"/>
-    <col min="8685" max="8685" width="1.5" style="36" customWidth="1"/>
-    <col min="8686" max="8686" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="42" style="36" customWidth="1"/>
-    <col min="8688" max="8688" width="5.5" style="36" customWidth="1"/>
-    <col min="8689" max="8690" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8691" max="8691" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8692" max="8727" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8728" max="8728" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8730" max="8730" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8731" max="8940" width="8.83203125" style="36"/>
-    <col min="8941" max="8941" width="1.5" style="36" customWidth="1"/>
-    <col min="8942" max="8942" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="42" style="36" customWidth="1"/>
-    <col min="8944" max="8944" width="5.5" style="36" customWidth="1"/>
-    <col min="8945" max="8946" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8947" max="8947" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8948" max="8983" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8984" max="8984" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8986" max="8986" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8987" max="9196" width="8.83203125" style="36"/>
-    <col min="9197" max="9197" width="1.5" style="36" customWidth="1"/>
-    <col min="9198" max="9198" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="42" style="36" customWidth="1"/>
-    <col min="9200" max="9200" width="5.5" style="36" customWidth="1"/>
-    <col min="9201" max="9202" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9203" max="9203" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9204" max="9239" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9240" max="9240" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9242" max="9242" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9243" max="9452" width="8.83203125" style="36"/>
-    <col min="9453" max="9453" width="1.5" style="36" customWidth="1"/>
-    <col min="9454" max="9454" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="42" style="36" customWidth="1"/>
-    <col min="9456" max="9456" width="5.5" style="36" customWidth="1"/>
-    <col min="9457" max="9458" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9459" max="9459" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9460" max="9495" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9496" max="9496" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9498" max="9498" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9499" max="9708" width="8.83203125" style="36"/>
-    <col min="9709" max="9709" width="1.5" style="36" customWidth="1"/>
-    <col min="9710" max="9710" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="42" style="36" customWidth="1"/>
-    <col min="9712" max="9712" width="5.5" style="36" customWidth="1"/>
-    <col min="9713" max="9714" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9715" max="9715" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9716" max="9751" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9752" max="9752" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9754" max="9754" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9755" max="9964" width="8.83203125" style="36"/>
-    <col min="9965" max="9965" width="1.5" style="36" customWidth="1"/>
-    <col min="9966" max="9966" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="42" style="36" customWidth="1"/>
-    <col min="9968" max="9968" width="5.5" style="36" customWidth="1"/>
-    <col min="9969" max="9970" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9971" max="9971" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9972" max="10007" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10008" max="10008" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10010" max="10010" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10011" max="10220" width="8.83203125" style="36"/>
-    <col min="10221" max="10221" width="1.5" style="36" customWidth="1"/>
-    <col min="10222" max="10222" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="42" style="36" customWidth="1"/>
-    <col min="10224" max="10224" width="5.5" style="36" customWidth="1"/>
-    <col min="10225" max="10226" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10227" max="10227" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10228" max="10263" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10264" max="10264" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10266" max="10266" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10267" max="10476" width="8.83203125" style="36"/>
-    <col min="10477" max="10477" width="1.5" style="36" customWidth="1"/>
-    <col min="10478" max="10478" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="42" style="36" customWidth="1"/>
-    <col min="10480" max="10480" width="5.5" style="36" customWidth="1"/>
-    <col min="10481" max="10482" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10483" max="10483" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10484" max="10519" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10520" max="10520" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10522" max="10522" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10523" max="10732" width="8.83203125" style="36"/>
-    <col min="10733" max="10733" width="1.5" style="36" customWidth="1"/>
-    <col min="10734" max="10734" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="42" style="36" customWidth="1"/>
-    <col min="10736" max="10736" width="5.5" style="36" customWidth="1"/>
-    <col min="10737" max="10738" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10739" max="10739" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10740" max="10775" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10776" max="10776" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10778" max="10778" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10779" max="10988" width="8.83203125" style="36"/>
-    <col min="10989" max="10989" width="1.5" style="36" customWidth="1"/>
-    <col min="10990" max="10990" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="42" style="36" customWidth="1"/>
-    <col min="10992" max="10992" width="5.5" style="36" customWidth="1"/>
-    <col min="10993" max="10994" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10995" max="10995" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10996" max="11031" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11032" max="11032" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11034" max="11034" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11035" max="11244" width="8.83203125" style="36"/>
-    <col min="11245" max="11245" width="1.5" style="36" customWidth="1"/>
-    <col min="11246" max="11246" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="42" style="36" customWidth="1"/>
-    <col min="11248" max="11248" width="5.5" style="36" customWidth="1"/>
-    <col min="11249" max="11250" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11251" max="11251" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11252" max="11287" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11288" max="11288" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11290" max="11290" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11291" max="11500" width="8.83203125" style="36"/>
-    <col min="11501" max="11501" width="1.5" style="36" customWidth="1"/>
-    <col min="11502" max="11502" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="42" style="36" customWidth="1"/>
-    <col min="11504" max="11504" width="5.5" style="36" customWidth="1"/>
-    <col min="11505" max="11506" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11507" max="11507" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11508" max="11543" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11544" max="11544" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11546" max="11546" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11547" max="11756" width="8.83203125" style="36"/>
-    <col min="11757" max="11757" width="1.5" style="36" customWidth="1"/>
-    <col min="11758" max="11758" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="42" style="36" customWidth="1"/>
-    <col min="11760" max="11760" width="5.5" style="36" customWidth="1"/>
-    <col min="11761" max="11762" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11763" max="11763" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11764" max="11799" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11800" max="11800" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11802" max="11802" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11803" max="12012" width="8.83203125" style="36"/>
-    <col min="12013" max="12013" width="1.5" style="36" customWidth="1"/>
-    <col min="12014" max="12014" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="42" style="36" customWidth="1"/>
-    <col min="12016" max="12016" width="5.5" style="36" customWidth="1"/>
-    <col min="12017" max="12018" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12019" max="12019" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12020" max="12055" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12056" max="12056" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12058" max="12058" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12059" max="12268" width="8.83203125" style="36"/>
-    <col min="12269" max="12269" width="1.5" style="36" customWidth="1"/>
-    <col min="12270" max="12270" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="42" style="36" customWidth="1"/>
-    <col min="12272" max="12272" width="5.5" style="36" customWidth="1"/>
-    <col min="12273" max="12274" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12275" max="12275" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12276" max="12311" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12312" max="12312" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12314" max="12314" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12315" max="12524" width="8.83203125" style="36"/>
-    <col min="12525" max="12525" width="1.5" style="36" customWidth="1"/>
-    <col min="12526" max="12526" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="42" style="36" customWidth="1"/>
-    <col min="12528" max="12528" width="5.5" style="36" customWidth="1"/>
-    <col min="12529" max="12530" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12531" max="12531" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12532" max="12567" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12568" max="12568" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12570" max="12570" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12571" max="12780" width="8.83203125" style="36"/>
-    <col min="12781" max="12781" width="1.5" style="36" customWidth="1"/>
-    <col min="12782" max="12782" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="42" style="36" customWidth="1"/>
-    <col min="12784" max="12784" width="5.5" style="36" customWidth="1"/>
-    <col min="12785" max="12786" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12787" max="12787" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12788" max="12823" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12824" max="12824" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12826" max="12826" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12827" max="13036" width="8.83203125" style="36"/>
-    <col min="13037" max="13037" width="1.5" style="36" customWidth="1"/>
-    <col min="13038" max="13038" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="42" style="36" customWidth="1"/>
-    <col min="13040" max="13040" width="5.5" style="36" customWidth="1"/>
-    <col min="13041" max="13042" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13043" max="13043" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13044" max="13079" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13080" max="13080" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13082" max="13082" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13083" max="13292" width="8.83203125" style="36"/>
-    <col min="13293" max="13293" width="1.5" style="36" customWidth="1"/>
-    <col min="13294" max="13294" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="42" style="36" customWidth="1"/>
-    <col min="13296" max="13296" width="5.5" style="36" customWidth="1"/>
-    <col min="13297" max="13298" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13299" max="13299" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13300" max="13335" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13336" max="13336" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13338" max="13338" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13339" max="13548" width="8.83203125" style="36"/>
-    <col min="13549" max="13549" width="1.5" style="36" customWidth="1"/>
-    <col min="13550" max="13550" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="42" style="36" customWidth="1"/>
-    <col min="13552" max="13552" width="5.5" style="36" customWidth="1"/>
-    <col min="13553" max="13554" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13555" max="13555" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13556" max="13591" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13592" max="13592" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13594" max="13594" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13595" max="13804" width="8.83203125" style="36"/>
-    <col min="13805" max="13805" width="1.5" style="36" customWidth="1"/>
-    <col min="13806" max="13806" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="42" style="36" customWidth="1"/>
-    <col min="13808" max="13808" width="5.5" style="36" customWidth="1"/>
-    <col min="13809" max="13810" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13811" max="13811" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13812" max="13847" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13848" max="13848" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13850" max="13850" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13851" max="14060" width="8.83203125" style="36"/>
-    <col min="14061" max="14061" width="1.5" style="36" customWidth="1"/>
-    <col min="14062" max="14062" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="42" style="36" customWidth="1"/>
-    <col min="14064" max="14064" width="5.5" style="36" customWidth="1"/>
-    <col min="14065" max="14066" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14067" max="14067" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14068" max="14103" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14104" max="14104" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14106" max="14106" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14107" max="14316" width="8.83203125" style="36"/>
-    <col min="14317" max="14317" width="1.5" style="36" customWidth="1"/>
-    <col min="14318" max="14318" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="42" style="36" customWidth="1"/>
-    <col min="14320" max="14320" width="5.5" style="36" customWidth="1"/>
-    <col min="14321" max="14322" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14323" max="14323" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14324" max="14359" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14360" max="14360" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14362" max="14362" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14363" max="14572" width="8.83203125" style="36"/>
-    <col min="14573" max="14573" width="1.5" style="36" customWidth="1"/>
-    <col min="14574" max="14574" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="42" style="36" customWidth="1"/>
-    <col min="14576" max="14576" width="5.5" style="36" customWidth="1"/>
-    <col min="14577" max="14578" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14579" max="14579" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14580" max="14615" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14616" max="14616" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14618" max="14618" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14619" max="14828" width="8.83203125" style="36"/>
-    <col min="14829" max="14829" width="1.5" style="36" customWidth="1"/>
-    <col min="14830" max="14830" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="42" style="36" customWidth="1"/>
-    <col min="14832" max="14832" width="5.5" style="36" customWidth="1"/>
-    <col min="14833" max="14834" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14835" max="14835" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14836" max="14871" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14872" max="14872" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14874" max="14874" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14875" max="15084" width="8.83203125" style="36"/>
-    <col min="15085" max="15085" width="1.5" style="36" customWidth="1"/>
-    <col min="15086" max="15086" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="42" style="36" customWidth="1"/>
-    <col min="15088" max="15088" width="5.5" style="36" customWidth="1"/>
-    <col min="15089" max="15090" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15091" max="15091" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15092" max="15127" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15128" max="15128" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15130" max="15130" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15131" max="15340" width="8.83203125" style="36"/>
-    <col min="15341" max="15341" width="1.5" style="36" customWidth="1"/>
-    <col min="15342" max="15342" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="42" style="36" customWidth="1"/>
-    <col min="15344" max="15344" width="5.5" style="36" customWidth="1"/>
-    <col min="15345" max="15346" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15347" max="15347" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15348" max="15383" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15384" max="15384" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15386" max="15386" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15387" max="15596" width="8.83203125" style="36"/>
-    <col min="15597" max="15597" width="1.5" style="36" customWidth="1"/>
-    <col min="15598" max="15598" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="42" style="36" customWidth="1"/>
-    <col min="15600" max="15600" width="5.5" style="36" customWidth="1"/>
-    <col min="15601" max="15602" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15603" max="15603" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15604" max="15639" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15640" max="15640" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15642" max="15642" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15643" max="15852" width="8.83203125" style="36"/>
-    <col min="15853" max="15853" width="1.5" style="36" customWidth="1"/>
-    <col min="15854" max="15854" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="42" style="36" customWidth="1"/>
-    <col min="15856" max="15856" width="5.5" style="36" customWidth="1"/>
-    <col min="15857" max="15858" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15859" max="15859" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15860" max="15895" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15896" max="15896" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15898" max="15898" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15899" max="16108" width="8.83203125" style="36"/>
-    <col min="16109" max="16109" width="1.5" style="36" customWidth="1"/>
-    <col min="16110" max="16110" width="1.33203125" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="42" style="36" customWidth="1"/>
-    <col min="16112" max="16112" width="5.5" style="36" customWidth="1"/>
-    <col min="16113" max="16114" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16115" max="16115" width="2.6640625" style="36" customWidth="1"/>
-    <col min="16116" max="16151" width="3.33203125" style="36" customWidth="1"/>
-    <col min="16152" max="16152" width="1.6640625" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="25.6640625" style="36" customWidth="1"/>
-    <col min="16154" max="16154" width="31.33203125" style="36" customWidth="1"/>
-    <col min="16155" max="16384" width="8.83203125" style="36"/>
+    <col min="5" max="5" width="17.28515625" style="38" customWidth="1"/>
+    <col min="6" max="24" width="3.28515625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="10" style="38" customWidth="1"/>
+    <col min="26" max="34" width="8.85546875" style="38"/>
+    <col min="35" max="235" width="8.85546875" style="36"/>
+    <col min="236" max="236" width="1.42578125" style="36" customWidth="1"/>
+    <col min="237" max="237" width="1.28515625" style="36" customWidth="1"/>
+    <col min="238" max="238" width="42" style="36" customWidth="1"/>
+    <col min="239" max="239" width="5.42578125" style="36" customWidth="1"/>
+    <col min="240" max="241" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="242" max="242" width="2.7109375" style="36" customWidth="1"/>
+    <col min="243" max="278" width="3.28515625" style="36" customWidth="1"/>
+    <col min="279" max="279" width="1.7109375" style="36" customWidth="1"/>
+    <col min="280" max="280" width="25.7109375" style="36" customWidth="1"/>
+    <col min="281" max="281" width="31.28515625" style="36" customWidth="1"/>
+    <col min="282" max="491" width="8.85546875" style="36"/>
+    <col min="492" max="492" width="1.42578125" style="36" customWidth="1"/>
+    <col min="493" max="493" width="1.28515625" style="36" customWidth="1"/>
+    <col min="494" max="494" width="42" style="36" customWidth="1"/>
+    <col min="495" max="495" width="5.42578125" style="36" customWidth="1"/>
+    <col min="496" max="497" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="498" max="498" width="2.7109375" style="36" customWidth="1"/>
+    <col min="499" max="534" width="3.28515625" style="36" customWidth="1"/>
+    <col min="535" max="535" width="1.7109375" style="36" customWidth="1"/>
+    <col min="536" max="536" width="25.7109375" style="36" customWidth="1"/>
+    <col min="537" max="537" width="31.28515625" style="36" customWidth="1"/>
+    <col min="538" max="747" width="8.85546875" style="36"/>
+    <col min="748" max="748" width="1.42578125" style="36" customWidth="1"/>
+    <col min="749" max="749" width="1.28515625" style="36" customWidth="1"/>
+    <col min="750" max="750" width="42" style="36" customWidth="1"/>
+    <col min="751" max="751" width="5.42578125" style="36" customWidth="1"/>
+    <col min="752" max="753" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="754" max="754" width="2.7109375" style="36" customWidth="1"/>
+    <col min="755" max="790" width="3.28515625" style="36" customWidth="1"/>
+    <col min="791" max="791" width="1.7109375" style="36" customWidth="1"/>
+    <col min="792" max="792" width="25.7109375" style="36" customWidth="1"/>
+    <col min="793" max="793" width="31.28515625" style="36" customWidth="1"/>
+    <col min="794" max="1003" width="8.85546875" style="36"/>
+    <col min="1004" max="1004" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1005" max="1005" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1006" max="1006" width="42" style="36" customWidth="1"/>
+    <col min="1007" max="1007" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1008" max="1009" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1010" max="1010" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1011" max="1046" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1047" max="1047" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1048" max="1048" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1049" max="1049" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1050" max="1259" width="8.85546875" style="36"/>
+    <col min="1260" max="1260" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1261" max="1261" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1262" max="1262" width="42" style="36" customWidth="1"/>
+    <col min="1263" max="1263" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1264" max="1265" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1266" max="1266" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1267" max="1302" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1303" max="1303" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1304" max="1304" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1305" max="1305" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1306" max="1515" width="8.85546875" style="36"/>
+    <col min="1516" max="1516" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1517" max="1517" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1518" max="1518" width="42" style="36" customWidth="1"/>
+    <col min="1519" max="1519" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1520" max="1521" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1522" max="1522" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1523" max="1558" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1559" max="1559" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1560" max="1560" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1561" max="1561" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1562" max="1771" width="8.85546875" style="36"/>
+    <col min="1772" max="1772" width="1.42578125" style="36" customWidth="1"/>
+    <col min="1773" max="1773" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1774" max="1774" width="42" style="36" customWidth="1"/>
+    <col min="1775" max="1775" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1776" max="1777" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="1778" max="1778" width="2.7109375" style="36" customWidth="1"/>
+    <col min="1779" max="1814" width="3.28515625" style="36" customWidth="1"/>
+    <col min="1815" max="1815" width="1.7109375" style="36" customWidth="1"/>
+    <col min="1816" max="1816" width="25.7109375" style="36" customWidth="1"/>
+    <col min="1817" max="1817" width="31.28515625" style="36" customWidth="1"/>
+    <col min="1818" max="2027" width="8.85546875" style="36"/>
+    <col min="2028" max="2028" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2029" max="2029" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2030" max="2030" width="42" style="36" customWidth="1"/>
+    <col min="2031" max="2031" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2032" max="2033" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2034" max="2034" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2035" max="2070" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2071" max="2071" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2072" max="2072" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2073" max="2073" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2074" max="2283" width="8.85546875" style="36"/>
+    <col min="2284" max="2284" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2285" max="2285" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2286" max="2286" width="42" style="36" customWidth="1"/>
+    <col min="2287" max="2287" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2288" max="2289" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2290" max="2290" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2291" max="2326" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2327" max="2327" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2328" max="2328" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2329" max="2329" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2330" max="2539" width="8.85546875" style="36"/>
+    <col min="2540" max="2540" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2541" max="2541" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2542" max="2542" width="42" style="36" customWidth="1"/>
+    <col min="2543" max="2543" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2544" max="2545" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2546" max="2546" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2547" max="2582" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2583" max="2583" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2584" max="2584" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2585" max="2585" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2586" max="2795" width="8.85546875" style="36"/>
+    <col min="2796" max="2796" width="1.42578125" style="36" customWidth="1"/>
+    <col min="2797" max="2797" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2798" max="2798" width="42" style="36" customWidth="1"/>
+    <col min="2799" max="2799" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2800" max="2801" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="2802" max="2802" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2803" max="2838" width="3.28515625" style="36" customWidth="1"/>
+    <col min="2839" max="2839" width="1.7109375" style="36" customWidth="1"/>
+    <col min="2840" max="2840" width="25.7109375" style="36" customWidth="1"/>
+    <col min="2841" max="2841" width="31.28515625" style="36" customWidth="1"/>
+    <col min="2842" max="3051" width="8.85546875" style="36"/>
+    <col min="3052" max="3052" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3053" max="3053" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3054" max="3054" width="42" style="36" customWidth="1"/>
+    <col min="3055" max="3055" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3056" max="3057" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3058" max="3058" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3059" max="3094" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3095" max="3095" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3096" max="3096" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3097" max="3097" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3098" max="3307" width="8.85546875" style="36"/>
+    <col min="3308" max="3308" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3309" max="3309" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3310" max="3310" width="42" style="36" customWidth="1"/>
+    <col min="3311" max="3311" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3312" max="3313" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3314" max="3314" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3315" max="3350" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3351" max="3351" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3352" max="3352" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3353" max="3353" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3354" max="3563" width="8.85546875" style="36"/>
+    <col min="3564" max="3564" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3565" max="3565" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3566" max="3566" width="42" style="36" customWidth="1"/>
+    <col min="3567" max="3567" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3568" max="3569" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3570" max="3570" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3571" max="3606" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3607" max="3607" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3608" max="3608" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3609" max="3609" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3610" max="3819" width="8.85546875" style="36"/>
+    <col min="3820" max="3820" width="1.42578125" style="36" customWidth="1"/>
+    <col min="3821" max="3821" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3822" max="3822" width="42" style="36" customWidth="1"/>
+    <col min="3823" max="3823" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3824" max="3825" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="3826" max="3826" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3827" max="3862" width="3.28515625" style="36" customWidth="1"/>
+    <col min="3863" max="3863" width="1.7109375" style="36" customWidth="1"/>
+    <col min="3864" max="3864" width="25.7109375" style="36" customWidth="1"/>
+    <col min="3865" max="3865" width="31.28515625" style="36" customWidth="1"/>
+    <col min="3866" max="4075" width="8.85546875" style="36"/>
+    <col min="4076" max="4076" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4077" max="4077" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4078" max="4078" width="42" style="36" customWidth="1"/>
+    <col min="4079" max="4079" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4080" max="4081" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4082" max="4082" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4083" max="4118" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4119" max="4119" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4120" max="4120" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4121" max="4121" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4122" max="4331" width="8.85546875" style="36"/>
+    <col min="4332" max="4332" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4333" max="4333" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4334" max="4334" width="42" style="36" customWidth="1"/>
+    <col min="4335" max="4335" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4336" max="4337" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4338" max="4338" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4339" max="4374" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4375" max="4375" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4376" max="4376" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4377" max="4377" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4378" max="4587" width="8.85546875" style="36"/>
+    <col min="4588" max="4588" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4589" max="4589" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4590" max="4590" width="42" style="36" customWidth="1"/>
+    <col min="4591" max="4591" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4592" max="4593" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4594" max="4594" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4595" max="4630" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4631" max="4631" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4632" max="4632" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4633" max="4633" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4634" max="4843" width="8.85546875" style="36"/>
+    <col min="4844" max="4844" width="1.42578125" style="36" customWidth="1"/>
+    <col min="4845" max="4845" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4846" max="4846" width="42" style="36" customWidth="1"/>
+    <col min="4847" max="4847" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4848" max="4849" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="4850" max="4850" width="2.7109375" style="36" customWidth="1"/>
+    <col min="4851" max="4886" width="3.28515625" style="36" customWidth="1"/>
+    <col min="4887" max="4887" width="1.7109375" style="36" customWidth="1"/>
+    <col min="4888" max="4888" width="25.7109375" style="36" customWidth="1"/>
+    <col min="4889" max="4889" width="31.28515625" style="36" customWidth="1"/>
+    <col min="4890" max="5099" width="8.85546875" style="36"/>
+    <col min="5100" max="5100" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5101" max="5101" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5102" max="5102" width="42" style="36" customWidth="1"/>
+    <col min="5103" max="5103" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5104" max="5105" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5106" max="5106" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5107" max="5142" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5143" max="5143" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5144" max="5144" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5145" max="5145" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5146" max="5355" width="8.85546875" style="36"/>
+    <col min="5356" max="5356" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5357" max="5357" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5358" max="5358" width="42" style="36" customWidth="1"/>
+    <col min="5359" max="5359" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5360" max="5361" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5362" max="5362" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5363" max="5398" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5399" max="5399" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5400" max="5400" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5401" max="5401" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5402" max="5611" width="8.85546875" style="36"/>
+    <col min="5612" max="5612" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5613" max="5613" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5614" max="5614" width="42" style="36" customWidth="1"/>
+    <col min="5615" max="5615" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5616" max="5617" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5618" max="5618" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5619" max="5654" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5655" max="5655" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5656" max="5656" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5657" max="5657" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5658" max="5867" width="8.85546875" style="36"/>
+    <col min="5868" max="5868" width="1.42578125" style="36" customWidth="1"/>
+    <col min="5869" max="5869" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5870" max="5870" width="42" style="36" customWidth="1"/>
+    <col min="5871" max="5871" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5872" max="5873" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="5874" max="5874" width="2.7109375" style="36" customWidth="1"/>
+    <col min="5875" max="5910" width="3.28515625" style="36" customWidth="1"/>
+    <col min="5911" max="5911" width="1.7109375" style="36" customWidth="1"/>
+    <col min="5912" max="5912" width="25.7109375" style="36" customWidth="1"/>
+    <col min="5913" max="5913" width="31.28515625" style="36" customWidth="1"/>
+    <col min="5914" max="6123" width="8.85546875" style="36"/>
+    <col min="6124" max="6124" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6125" max="6125" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6126" max="6126" width="42" style="36" customWidth="1"/>
+    <col min="6127" max="6127" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6128" max="6129" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6130" max="6130" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6131" max="6166" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6167" max="6167" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6168" max="6168" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6169" max="6169" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6170" max="6379" width="8.85546875" style="36"/>
+    <col min="6380" max="6380" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6381" max="6381" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6382" max="6382" width="42" style="36" customWidth="1"/>
+    <col min="6383" max="6383" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6384" max="6385" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6386" max="6386" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6387" max="6422" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6423" max="6423" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6424" max="6424" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6425" max="6425" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6426" max="6635" width="8.85546875" style="36"/>
+    <col min="6636" max="6636" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6637" max="6637" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6638" max="6638" width="42" style="36" customWidth="1"/>
+    <col min="6639" max="6639" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6640" max="6641" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6642" max="6642" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6643" max="6678" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6679" max="6679" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6680" max="6680" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6681" max="6681" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6682" max="6891" width="8.85546875" style="36"/>
+    <col min="6892" max="6892" width="1.42578125" style="36" customWidth="1"/>
+    <col min="6893" max="6893" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6894" max="6894" width="42" style="36" customWidth="1"/>
+    <col min="6895" max="6895" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6896" max="6897" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="6898" max="6898" width="2.7109375" style="36" customWidth="1"/>
+    <col min="6899" max="6934" width="3.28515625" style="36" customWidth="1"/>
+    <col min="6935" max="6935" width="1.7109375" style="36" customWidth="1"/>
+    <col min="6936" max="6936" width="25.7109375" style="36" customWidth="1"/>
+    <col min="6937" max="6937" width="31.28515625" style="36" customWidth="1"/>
+    <col min="6938" max="7147" width="8.85546875" style="36"/>
+    <col min="7148" max="7148" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7149" max="7149" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7150" max="7150" width="42" style="36" customWidth="1"/>
+    <col min="7151" max="7151" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7152" max="7153" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7154" max="7154" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7155" max="7190" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7191" max="7191" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7192" max="7192" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7193" max="7193" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7194" max="7403" width="8.85546875" style="36"/>
+    <col min="7404" max="7404" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7405" max="7405" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7406" max="7406" width="42" style="36" customWidth="1"/>
+    <col min="7407" max="7407" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7408" max="7409" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7410" max="7410" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7411" max="7446" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7447" max="7447" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7448" max="7448" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7449" max="7449" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7450" max="7659" width="8.85546875" style="36"/>
+    <col min="7660" max="7660" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7661" max="7661" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7662" max="7662" width="42" style="36" customWidth="1"/>
+    <col min="7663" max="7663" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7664" max="7665" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7666" max="7666" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7667" max="7702" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7703" max="7703" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7704" max="7704" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7705" max="7705" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7706" max="7915" width="8.85546875" style="36"/>
+    <col min="7916" max="7916" width="1.42578125" style="36" customWidth="1"/>
+    <col min="7917" max="7917" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7918" max="7918" width="42" style="36" customWidth="1"/>
+    <col min="7919" max="7919" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7920" max="7921" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="7922" max="7922" width="2.7109375" style="36" customWidth="1"/>
+    <col min="7923" max="7958" width="3.28515625" style="36" customWidth="1"/>
+    <col min="7959" max="7959" width="1.7109375" style="36" customWidth="1"/>
+    <col min="7960" max="7960" width="25.7109375" style="36" customWidth="1"/>
+    <col min="7961" max="7961" width="31.28515625" style="36" customWidth="1"/>
+    <col min="7962" max="8171" width="8.85546875" style="36"/>
+    <col min="8172" max="8172" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8173" max="8173" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8174" max="8174" width="42" style="36" customWidth="1"/>
+    <col min="8175" max="8175" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8176" max="8177" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8178" max="8178" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8179" max="8214" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8215" max="8215" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8216" max="8216" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8217" max="8217" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8218" max="8427" width="8.85546875" style="36"/>
+    <col min="8428" max="8428" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8429" max="8429" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8430" max="8430" width="42" style="36" customWidth="1"/>
+    <col min="8431" max="8431" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8432" max="8433" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8434" max="8434" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8435" max="8470" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8471" max="8471" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8472" max="8472" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8473" max="8473" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8474" max="8683" width="8.85546875" style="36"/>
+    <col min="8684" max="8684" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8685" max="8685" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8686" max="8686" width="42" style="36" customWidth="1"/>
+    <col min="8687" max="8687" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8688" max="8689" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8690" max="8690" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8691" max="8726" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8727" max="8727" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8728" max="8728" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8729" max="8729" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8730" max="8939" width="8.85546875" style="36"/>
+    <col min="8940" max="8940" width="1.42578125" style="36" customWidth="1"/>
+    <col min="8941" max="8941" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8942" max="8942" width="42" style="36" customWidth="1"/>
+    <col min="8943" max="8943" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8944" max="8945" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="8946" max="8946" width="2.7109375" style="36" customWidth="1"/>
+    <col min="8947" max="8982" width="3.28515625" style="36" customWidth="1"/>
+    <col min="8983" max="8983" width="1.7109375" style="36" customWidth="1"/>
+    <col min="8984" max="8984" width="25.7109375" style="36" customWidth="1"/>
+    <col min="8985" max="8985" width="31.28515625" style="36" customWidth="1"/>
+    <col min="8986" max="9195" width="8.85546875" style="36"/>
+    <col min="9196" max="9196" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9197" max="9197" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9198" max="9198" width="42" style="36" customWidth="1"/>
+    <col min="9199" max="9199" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9200" max="9201" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9202" max="9202" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9203" max="9238" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9239" max="9239" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9240" max="9240" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9241" max="9241" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9242" max="9451" width="8.85546875" style="36"/>
+    <col min="9452" max="9452" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9453" max="9453" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9454" max="9454" width="42" style="36" customWidth="1"/>
+    <col min="9455" max="9455" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9456" max="9457" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9458" max="9458" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9459" max="9494" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9495" max="9495" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9496" max="9496" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9497" max="9497" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9498" max="9707" width="8.85546875" style="36"/>
+    <col min="9708" max="9708" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9709" max="9709" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9710" max="9710" width="42" style="36" customWidth="1"/>
+    <col min="9711" max="9711" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9712" max="9713" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9714" max="9714" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9715" max="9750" width="3.28515625" style="36" customWidth="1"/>
+    <col min="9751" max="9751" width="1.7109375" style="36" customWidth="1"/>
+    <col min="9752" max="9752" width="25.7109375" style="36" customWidth="1"/>
+    <col min="9753" max="9753" width="31.28515625" style="36" customWidth="1"/>
+    <col min="9754" max="9963" width="8.85546875" style="36"/>
+    <col min="9964" max="9964" width="1.42578125" style="36" customWidth="1"/>
+    <col min="9965" max="9965" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9966" max="9966" width="42" style="36" customWidth="1"/>
+    <col min="9967" max="9967" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9968" max="9969" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="9970" max="9970" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9971" max="10006" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10007" max="10007" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10008" max="10008" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10009" max="10009" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10010" max="10219" width="8.85546875" style="36"/>
+    <col min="10220" max="10220" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10221" max="10221" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10222" max="10222" width="42" style="36" customWidth="1"/>
+    <col min="10223" max="10223" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10224" max="10225" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10226" max="10226" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10227" max="10262" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10263" max="10263" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10264" max="10264" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10265" max="10265" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10266" max="10475" width="8.85546875" style="36"/>
+    <col min="10476" max="10476" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10477" max="10477" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10478" max="10478" width="42" style="36" customWidth="1"/>
+    <col min="10479" max="10479" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10480" max="10481" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10482" max="10482" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10483" max="10518" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10519" max="10519" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10520" max="10520" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10521" max="10521" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10522" max="10731" width="8.85546875" style="36"/>
+    <col min="10732" max="10732" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10733" max="10733" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10734" max="10734" width="42" style="36" customWidth="1"/>
+    <col min="10735" max="10735" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10736" max="10737" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10738" max="10738" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10739" max="10774" width="3.28515625" style="36" customWidth="1"/>
+    <col min="10775" max="10775" width="1.7109375" style="36" customWidth="1"/>
+    <col min="10776" max="10776" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10777" max="10777" width="31.28515625" style="36" customWidth="1"/>
+    <col min="10778" max="10987" width="8.85546875" style="36"/>
+    <col min="10988" max="10988" width="1.42578125" style="36" customWidth="1"/>
+    <col min="10989" max="10989" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10990" max="10990" width="42" style="36" customWidth="1"/>
+    <col min="10991" max="10991" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10992" max="10993" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="10994" max="10994" width="2.7109375" style="36" customWidth="1"/>
+    <col min="10995" max="11030" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11031" max="11031" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11032" max="11032" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11033" max="11033" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11034" max="11243" width="8.85546875" style="36"/>
+    <col min="11244" max="11244" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11245" max="11245" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11246" max="11246" width="42" style="36" customWidth="1"/>
+    <col min="11247" max="11247" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11248" max="11249" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11250" max="11250" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11251" max="11286" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11287" max="11287" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11288" max="11288" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11289" max="11289" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11290" max="11499" width="8.85546875" style="36"/>
+    <col min="11500" max="11500" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11501" max="11501" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11502" max="11502" width="42" style="36" customWidth="1"/>
+    <col min="11503" max="11503" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11504" max="11505" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11506" max="11506" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11507" max="11542" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11543" max="11543" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11544" max="11544" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11545" max="11545" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11546" max="11755" width="8.85546875" style="36"/>
+    <col min="11756" max="11756" width="1.42578125" style="36" customWidth="1"/>
+    <col min="11757" max="11757" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11758" max="11758" width="42" style="36" customWidth="1"/>
+    <col min="11759" max="11759" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11760" max="11761" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="11762" max="11762" width="2.7109375" style="36" customWidth="1"/>
+    <col min="11763" max="11798" width="3.28515625" style="36" customWidth="1"/>
+    <col min="11799" max="11799" width="1.7109375" style="36" customWidth="1"/>
+    <col min="11800" max="11800" width="25.7109375" style="36" customWidth="1"/>
+    <col min="11801" max="11801" width="31.28515625" style="36" customWidth="1"/>
+    <col min="11802" max="12011" width="8.85546875" style="36"/>
+    <col min="12012" max="12012" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12013" max="12013" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12014" max="12014" width="42" style="36" customWidth="1"/>
+    <col min="12015" max="12015" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12016" max="12017" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12018" max="12018" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12019" max="12054" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12055" max="12055" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12056" max="12056" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12057" max="12057" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12058" max="12267" width="8.85546875" style="36"/>
+    <col min="12268" max="12268" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12269" max="12269" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12270" max="12270" width="42" style="36" customWidth="1"/>
+    <col min="12271" max="12271" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12272" max="12273" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12274" max="12274" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12275" max="12310" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12311" max="12311" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12312" max="12312" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12313" max="12313" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12314" max="12523" width="8.85546875" style="36"/>
+    <col min="12524" max="12524" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12525" max="12525" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12526" max="12526" width="42" style="36" customWidth="1"/>
+    <col min="12527" max="12527" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12528" max="12529" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12530" max="12530" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12531" max="12566" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12567" max="12567" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12568" max="12568" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12569" max="12569" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12570" max="12779" width="8.85546875" style="36"/>
+    <col min="12780" max="12780" width="1.42578125" style="36" customWidth="1"/>
+    <col min="12781" max="12781" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12782" max="12782" width="42" style="36" customWidth="1"/>
+    <col min="12783" max="12783" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12784" max="12785" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="12786" max="12786" width="2.7109375" style="36" customWidth="1"/>
+    <col min="12787" max="12822" width="3.28515625" style="36" customWidth="1"/>
+    <col min="12823" max="12823" width="1.7109375" style="36" customWidth="1"/>
+    <col min="12824" max="12824" width="25.7109375" style="36" customWidth="1"/>
+    <col min="12825" max="12825" width="31.28515625" style="36" customWidth="1"/>
+    <col min="12826" max="13035" width="8.85546875" style="36"/>
+    <col min="13036" max="13036" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13037" max="13037" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13038" max="13038" width="42" style="36" customWidth="1"/>
+    <col min="13039" max="13039" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13040" max="13041" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13042" max="13042" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13043" max="13078" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13079" max="13079" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13080" max="13080" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13081" max="13081" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13082" max="13291" width="8.85546875" style="36"/>
+    <col min="13292" max="13292" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13293" max="13293" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13294" max="13294" width="42" style="36" customWidth="1"/>
+    <col min="13295" max="13295" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13296" max="13297" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13298" max="13298" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13299" max="13334" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13335" max="13335" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13336" max="13336" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13337" max="13337" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13338" max="13547" width="8.85546875" style="36"/>
+    <col min="13548" max="13548" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13549" max="13549" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13550" max="13550" width="42" style="36" customWidth="1"/>
+    <col min="13551" max="13551" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13552" max="13553" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13554" max="13554" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13555" max="13590" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13591" max="13591" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13592" max="13592" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13593" max="13593" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13594" max="13803" width="8.85546875" style="36"/>
+    <col min="13804" max="13804" width="1.42578125" style="36" customWidth="1"/>
+    <col min="13805" max="13805" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13806" max="13806" width="42" style="36" customWidth="1"/>
+    <col min="13807" max="13807" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13808" max="13809" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="13810" max="13810" width="2.7109375" style="36" customWidth="1"/>
+    <col min="13811" max="13846" width="3.28515625" style="36" customWidth="1"/>
+    <col min="13847" max="13847" width="1.7109375" style="36" customWidth="1"/>
+    <col min="13848" max="13848" width="25.7109375" style="36" customWidth="1"/>
+    <col min="13849" max="13849" width="31.28515625" style="36" customWidth="1"/>
+    <col min="13850" max="14059" width="8.85546875" style="36"/>
+    <col min="14060" max="14060" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14061" max="14061" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14062" max="14062" width="42" style="36" customWidth="1"/>
+    <col min="14063" max="14063" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14064" max="14065" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14066" max="14066" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14067" max="14102" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14103" max="14103" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14104" max="14104" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14105" max="14105" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14106" max="14315" width="8.85546875" style="36"/>
+    <col min="14316" max="14316" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14317" max="14317" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14318" max="14318" width="42" style="36" customWidth="1"/>
+    <col min="14319" max="14319" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14320" max="14321" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14322" max="14322" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14323" max="14358" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14359" max="14359" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14360" max="14360" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14361" max="14361" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14362" max="14571" width="8.85546875" style="36"/>
+    <col min="14572" max="14572" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14573" max="14573" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14574" max="14574" width="42" style="36" customWidth="1"/>
+    <col min="14575" max="14575" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14576" max="14577" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14578" max="14578" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14579" max="14614" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14615" max="14615" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14616" max="14616" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14617" max="14617" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14618" max="14827" width="8.85546875" style="36"/>
+    <col min="14828" max="14828" width="1.42578125" style="36" customWidth="1"/>
+    <col min="14829" max="14829" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14830" max="14830" width="42" style="36" customWidth="1"/>
+    <col min="14831" max="14831" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14832" max="14833" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="14834" max="14834" width="2.7109375" style="36" customWidth="1"/>
+    <col min="14835" max="14870" width="3.28515625" style="36" customWidth="1"/>
+    <col min="14871" max="14871" width="1.7109375" style="36" customWidth="1"/>
+    <col min="14872" max="14872" width="25.7109375" style="36" customWidth="1"/>
+    <col min="14873" max="14873" width="31.28515625" style="36" customWidth="1"/>
+    <col min="14874" max="15083" width="8.85546875" style="36"/>
+    <col min="15084" max="15084" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15085" max="15085" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15086" max="15086" width="42" style="36" customWidth="1"/>
+    <col min="15087" max="15087" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15088" max="15089" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15090" max="15090" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15091" max="15126" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15127" max="15127" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15128" max="15128" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15129" max="15129" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15130" max="15339" width="8.85546875" style="36"/>
+    <col min="15340" max="15340" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15341" max="15341" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15342" max="15342" width="42" style="36" customWidth="1"/>
+    <col min="15343" max="15343" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15344" max="15345" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15346" max="15346" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15347" max="15382" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15383" max="15383" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15384" max="15384" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15385" max="15385" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15386" max="15595" width="8.85546875" style="36"/>
+    <col min="15596" max="15596" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15597" max="15597" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15598" max="15598" width="42" style="36" customWidth="1"/>
+    <col min="15599" max="15599" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15600" max="15601" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15602" max="15602" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15603" max="15638" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15639" max="15639" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15640" max="15640" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15641" max="15641" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15642" max="15851" width="8.85546875" style="36"/>
+    <col min="15852" max="15852" width="1.42578125" style="36" customWidth="1"/>
+    <col min="15853" max="15853" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15854" max="15854" width="42" style="36" customWidth="1"/>
+    <col min="15855" max="15855" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15856" max="15857" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="15858" max="15858" width="2.7109375" style="36" customWidth="1"/>
+    <col min="15859" max="15894" width="3.28515625" style="36" customWidth="1"/>
+    <col min="15895" max="15895" width="1.7109375" style="36" customWidth="1"/>
+    <col min="15896" max="15896" width="25.7109375" style="36" customWidth="1"/>
+    <col min="15897" max="15897" width="31.28515625" style="36" customWidth="1"/>
+    <col min="15898" max="16107" width="8.85546875" style="36"/>
+    <col min="16108" max="16108" width="1.42578125" style="36" customWidth="1"/>
+    <col min="16109" max="16109" width="1.28515625" style="36" customWidth="1"/>
+    <col min="16110" max="16110" width="42" style="36" customWidth="1"/>
+    <col min="16111" max="16111" width="5.42578125" style="36" customWidth="1"/>
+    <col min="16112" max="16113" width="0" style="36" hidden="1" customWidth="1"/>
+    <col min="16114" max="16114" width="2.7109375" style="36" customWidth="1"/>
+    <col min="16115" max="16150" width="3.28515625" style="36" customWidth="1"/>
+    <col min="16151" max="16151" width="1.7109375" style="36" customWidth="1"/>
+    <col min="16152" max="16152" width="25.7109375" style="36" customWidth="1"/>
+    <col min="16153" max="16153" width="31.28515625" style="36" customWidth="1"/>
+    <col min="16154" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:35" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="2:35" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>80</v>
-      </c>
+    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
       <c r="AG3" s="36"/>
       <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-    </row>
-    <row r="4" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B4" s="66" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="69">
-        <v>42524.337500000001</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="36"/>
       <c r="AE4" s="36"/>
       <c r="AF4" s="36"/>
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-    </row>
-    <row r="5" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="2:34" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="66" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="69">
-        <v>42478.36041666667</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
       <c r="AF5" s="36"/>
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-    </row>
-    <row r="6" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="66" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="69">
-        <v>42473.386111111111</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" s="36"/>
       <c r="AE6" s="36"/>
       <c r="AF6" s="36"/>
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-    </row>
-    <row r="7" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="69">
-        <v>42494.717361111114</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
       <c r="AF7" s="36"/>
       <c r="AG7" s="36"/>
       <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-    </row>
-    <row r="8" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B8" s="66" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="69">
-        <v>42522.482638888891</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
       <c r="AF8" s="36"/>
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-    </row>
-    <row r="9" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="69">
-        <v>42523.647222222222</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="36"/>
       <c r="AE9" s="36"/>
       <c r="AF9" s="36"/>
       <c r="AG9" s="36"/>
       <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-    </row>
-    <row r="10" spans="2:35" ht="16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="69">
-        <v>42556.534722222219</v>
-      </c>
+      <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-    </row>
-    <row r="11" spans="2:35" ht="32" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:34" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="69">
-        <v>42444.615972222222</v>
-      </c>
+      <c r="D11" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-    </row>
-    <row r="12" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="36"/>
       <c r="AF12" s="36"/>
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-    </row>
-    <row r="13" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-    </row>
-    <row r="14" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="2:35" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
     </row>
-    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
     </row>
-    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
     </row>
-    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="50"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="50"/>
     </row>
-    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId1" display="BG-246"/>
+    <hyperlink ref="B5" r:id="rId2" display="BG-95"/>
+    <hyperlink ref="B6" r:id="rId3" display="BG-88"/>
+    <hyperlink ref="B7" r:id="rId4" display="BG-145"/>
+    <hyperlink ref="B8" r:id="rId5" display="BG-238"/>
+    <hyperlink ref="B9" r:id="rId6" display="BG-241"/>
+    <hyperlink ref="B10" r:id="rId7" display="BG-296"/>
+    <hyperlink ref="B11" r:id="rId8" display="BG-22"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="100" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -7738,6 +7730,28 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>02 Departmental document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
+      <p:Name>Labels</p:Name>
+      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <label>
+          <segment type="metadata">_UIVersionString</segment>
+          <segment type="literal">\n</segment>
+          <segment type="metadata">_ModerationStatus</segment>
+        </label>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -7745,7 +7759,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
@@ -7791,7 +7805,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="02 Departmental document" ma:contentTypeID="0x0101001E9AF57F6A6FB1498E6BAB1704371DB9020048B3E13A56EC2B4880B8E17388254DB6" ma:contentTypeVersion="42" ma:contentTypeDescription="A document under departmental control" ma:contentTypeScope="" ma:versionID="28e15f56482d8af7e67347cbef2a0996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5db227b6-3c56-4158-ad71-bd648583e357" xmlns:ns3="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa83b77159cc0e9c22a0bfa7b50ba950" ns2:_="" ns3:_="">
     <xsd:import namespace="5db227b6-3c56-4158-ad71-bd648583e357"/>
@@ -8181,29 +8195,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>02 Departmental document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel">
-      <p:Name>Labels</p:Name>
-      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <label>
-          <segment type="metadata">_UIVersionString</segment>
-          <segment type="literal">\n</segment>
-          <segment type="metadata">_ModerationStatus</segment>
-        </label>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -8211,7 +8211,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8222,7 +8222,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3331877D-A973-4A26-8E19-E1DD744074D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8239,12 +8239,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\bluelib_testing\source\android-shinelib\Documents\External\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/Android-ShineLib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16005" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>1.1</t>
   </si>
@@ -373,19 +373,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Bug 30721:Moonshine pairing fails</t>
-  </si>
-  <si>
     <t>SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
-  </si>
-  <si>
-    <t>Regression in association with thermometer</t>
-  </si>
-  <si>
-    <t>Bug 30096:[Android] Sync error observed in dashboard screen.</t>
-  </si>
-  <si>
-    <t>[Moonshot] TFS 32433 - Scale pairing issue Nexus [Support only]</t>
   </si>
   <si>
     <t>0.2</t>
@@ -442,9 +430,6 @@
     <t>Cosmetic changes</t>
   </si>
   <si>
-    <t>Conclusion: The build cannot be released to clients due to 7 major  defects.</t>
-  </si>
-  <si>
     <t>Review comments by Erik Gaal</t>
   </si>
   <si>
@@ -470,22 +455,25 @@
     <t>BL-88</t>
   </si>
   <si>
-    <t>BL-145</t>
-  </si>
-  <si>
     <t>BL-238</t>
   </si>
   <si>
-    <t>BL-241</t>
-  </si>
-  <si>
-    <t>BL-296</t>
-  </si>
-  <si>
     <t>BL-22</t>
   </si>
   <si>
-    <t>BL-246</t>
+    <t>BL-385</t>
+  </si>
+  <si>
+    <t>NPE when disconnecting BtGatt</t>
+  </si>
+  <si>
+    <t>BL-386</t>
+  </si>
+  <si>
+    <t>Reconnect fails with Nexus 5, 4.4.2</t>
+  </si>
+  <si>
+    <t>Conclusion: The build cannot be released to clients due to 3 major  defects.</t>
   </si>
 </sst>
 </file>
@@ -877,21 +865,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1038,6 +1011,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1046,7 +1032,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1195,26 +1181,17 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1225,12 +1202,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1269,17 +1240,20 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1287,17 +1261,38 @@
     <xf numFmtId="0" fontId="40" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2383,27 +2378,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2415,21 +2410,21 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2438,15 +2433,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2462,12 +2457,12 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2478,7 +2473,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2486,7 +2481,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2494,7 +2489,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2502,17 +2497,17 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="93"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2520,17 +2515,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="94"/>
+      <c r="E13" s="89"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2538,15 +2533,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
+        <v>79</v>
+      </c>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -2554,7 +2549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
@@ -2574,7 +2569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2582,7 +2577,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2614,27 +2609,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="99" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
@@ -2642,54 +2637,54 @@
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-    </row>
-    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+    </row>
+    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-    </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
       <c r="C9" s="64" t="s">
         <v>55</v>
@@ -2715,21 +2710,21 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
       <c r="C10" s="31"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="33"/>
       <c r="C11" s="31"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>19</v>
       </c>
@@ -2739,83 +2734,83 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="105"/>
-    </row>
-    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="100"/>
+    </row>
+    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="96"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="91"/>
+    </row>
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="98"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="50"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="50"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="50"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -2848,27 +2843,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
@@ -2878,7 +2873,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2886,7 +2881,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2894,7 +2889,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
@@ -2911,7 +2906,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -2926,7 +2921,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +2946,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="63" t="s">
         <v>49</v>
       </c>
@@ -2976,21 +2971,21 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3001,21 +2996,21 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3026,21 +3021,21 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" ht="56" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3051,7 +3046,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -3066,7 +3061,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3081,7 +3076,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3096,7 +3091,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3111,7 +3106,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3126,7 +3121,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3141,7 +3136,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3156,7 +3151,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3171,7 +3166,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3186,7 +3181,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3201,7 +3196,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3216,7 +3211,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3231,7 +3226,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3246,7 +3241,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3261,7 +3256,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3276,7 +3271,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3291,7 +3286,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3306,7 +3301,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3321,7 +3316,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3336,7 +3331,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3351,7 +3346,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3366,7 +3361,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3381,7 +3376,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3396,7 +3391,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3411,7 +3406,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3426,7 +3421,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3441,7 +3436,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3456,7 +3451,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3471,7 +3466,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3486,7 +3481,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3501,7 +3496,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3516,7 +3511,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3531,7 +3526,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3546,7 +3541,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3561,7 +3556,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3576,7 +3571,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3591,7 +3586,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3606,7 +3601,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3621,7 +3616,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3636,7 +3631,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3651,7 +3646,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3666,7 +3661,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3681,7 +3676,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3696,7 +3691,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3711,7 +3706,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3726,7 +3721,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3741,7 +3736,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3756,7 +3751,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3771,7 +3766,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3786,7 +3781,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -3801,7 +3796,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -3816,7 +3811,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -3831,7 +3826,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -3846,7 +3841,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -3861,7 +3856,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -3876,7 +3871,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -3891,7 +3886,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -3906,7 +3901,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -3921,7 +3916,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -3936,7 +3931,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -3951,7 +3946,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -3966,7 +3961,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -3981,7 +3976,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -3996,7 +3991,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4011,7 +4006,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4026,7 +4021,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4041,7 +4036,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4056,7 +4051,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4071,7 +4066,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4086,7 +4081,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4101,7 +4096,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4116,7 +4111,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4131,7 +4126,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4146,7 +4141,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4161,7 +4156,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4176,7 +4171,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4191,7 +4186,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4206,7 +4201,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4221,7 +4216,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4236,7 +4231,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4251,7 +4246,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4266,7 +4261,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4281,7 +4276,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4296,7 +4291,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4311,7 +4306,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4326,7 +4321,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4341,7 +4336,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4356,7 +4351,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4371,7 +4366,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4386,7 +4381,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4401,7 +4396,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4416,7 +4411,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4431,7 +4426,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4446,7 +4441,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4461,7 +4456,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4476,7 +4471,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4491,7 +4486,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4506,7 +4501,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4521,7 +4516,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4536,7 +4531,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4551,7 +4546,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4566,7 +4561,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4581,7 +4576,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4596,7 +4591,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4611,7 +4606,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4626,7 +4621,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4641,7 +4636,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4656,7 +4651,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4671,7 +4666,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4686,7 +4681,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4701,7 +4696,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4716,7 +4711,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4731,7 +4726,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4746,7 +4741,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4761,7 +4756,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4776,7 +4771,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4791,7 +4786,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -4806,7 +4801,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -4821,7 +4816,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -4836,7 +4831,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4851,7 +4846,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -4866,7 +4861,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -4881,7 +4876,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -4896,7 +4891,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -4911,7 +4906,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -4926,7 +4921,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -4941,7 +4936,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -4956,7 +4951,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -4971,7 +4966,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -4986,7 +4981,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5001,7 +4996,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5016,7 +5011,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5031,7 +5026,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5046,7 +5041,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5061,7 +5056,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5076,7 +5071,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5091,7 +5086,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5106,7 +5101,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5121,7 +5116,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5136,7 +5131,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5151,7 +5146,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5166,7 +5161,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5181,7 +5176,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5196,7 +5191,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5211,7 +5206,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5226,7 +5221,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5241,7 +5236,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5256,7 +5251,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5271,7 +5266,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5286,7 +5281,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5301,7 +5296,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5316,7 +5311,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5331,7 +5326,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5346,7 +5341,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5361,7 +5356,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5376,7 +5371,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5391,7 +5386,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5406,7 +5401,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5421,7 +5416,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5436,7 +5431,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5451,7 +5446,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5466,7 +5461,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5481,7 +5476,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5496,7 +5491,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5511,7 +5506,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5526,7 +5521,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5541,7 +5536,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5556,7 +5551,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5571,7 +5566,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5608,17 +5603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="36" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="62" t="s">
         <v>45</v>
       </c>
@@ -5657,7 +5652,7 @@
       <c r="AJ1" s="38"/>
       <c r="AK1" s="38"/>
     </row>
-    <row r="2" spans="2:37" s="36" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="21"/>
       <c r="D2" s="37"/>
       <c r="E2" s="38"/>
@@ -5694,7 +5689,7 @@
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
@@ -5709,22 +5704,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="107" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -5737,124 +5732,124 @@
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B7" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="114"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="72" t="s">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B8" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="117"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="73" t="s">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B9" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B10" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-    </row>
-    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="78" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+    </row>
+    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="68"/>
-    </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C13" s="68"/>
-    </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="68"/>
-    </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="68"/>
-    </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
-      <c r="C16" s="68"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C12" s="66"/>
+    </row>
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C13" s="66"/>
+    </row>
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="66"/>
+    </row>
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C15" s="66"/>
+    </row>
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="C16" s="66"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="52"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
@@ -5867,7 +5862,7 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="44"/>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -5880,7 +5875,7 @@
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -5893,7 +5888,7 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="46"/>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -5933,794 +5928,794 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AJ11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="38" customWidth="1"/>
-    <col min="8" max="26" width="3.28515625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="38" customWidth="1"/>
+    <col min="8" max="26" width="3.33203125" style="38" customWidth="1"/>
     <col min="27" max="27" width="10" style="38" customWidth="1"/>
-    <col min="28" max="36" width="8.85546875" style="38"/>
-    <col min="37" max="237" width="8.85546875" style="36"/>
-    <col min="238" max="238" width="1.42578125" style="36" customWidth="1"/>
-    <col min="239" max="239" width="1.28515625" style="36" customWidth="1"/>
+    <col min="28" max="36" width="8.83203125" style="38"/>
+    <col min="37" max="237" width="8.83203125" style="36"/>
+    <col min="238" max="238" width="1.5" style="36" customWidth="1"/>
+    <col min="239" max="239" width="1.33203125" style="36" customWidth="1"/>
     <col min="240" max="240" width="42" style="36" customWidth="1"/>
-    <col min="241" max="241" width="5.42578125" style="36" customWidth="1"/>
+    <col min="241" max="241" width="5.5" style="36" customWidth="1"/>
     <col min="242" max="243" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.7109375" style="36" customWidth="1"/>
-    <col min="245" max="280" width="3.28515625" style="36" customWidth="1"/>
-    <col min="281" max="281" width="1.7109375" style="36" customWidth="1"/>
-    <col min="282" max="282" width="25.7109375" style="36" customWidth="1"/>
-    <col min="283" max="283" width="31.28515625" style="36" customWidth="1"/>
-    <col min="284" max="493" width="8.85546875" style="36"/>
-    <col min="494" max="494" width="1.42578125" style="36" customWidth="1"/>
-    <col min="495" max="495" width="1.28515625" style="36" customWidth="1"/>
+    <col min="244" max="244" width="2.6640625" style="36" customWidth="1"/>
+    <col min="245" max="280" width="3.33203125" style="36" customWidth="1"/>
+    <col min="281" max="281" width="1.6640625" style="36" customWidth="1"/>
+    <col min="282" max="282" width="25.6640625" style="36" customWidth="1"/>
+    <col min="283" max="283" width="31.33203125" style="36" customWidth="1"/>
+    <col min="284" max="493" width="8.83203125" style="36"/>
+    <col min="494" max="494" width="1.5" style="36" customWidth="1"/>
+    <col min="495" max="495" width="1.33203125" style="36" customWidth="1"/>
     <col min="496" max="496" width="42" style="36" customWidth="1"/>
-    <col min="497" max="497" width="5.42578125" style="36" customWidth="1"/>
+    <col min="497" max="497" width="5.5" style="36" customWidth="1"/>
     <col min="498" max="499" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.7109375" style="36" customWidth="1"/>
-    <col min="501" max="536" width="3.28515625" style="36" customWidth="1"/>
-    <col min="537" max="537" width="1.7109375" style="36" customWidth="1"/>
-    <col min="538" max="538" width="25.7109375" style="36" customWidth="1"/>
-    <col min="539" max="539" width="31.28515625" style="36" customWidth="1"/>
-    <col min="540" max="749" width="8.85546875" style="36"/>
-    <col min="750" max="750" width="1.42578125" style="36" customWidth="1"/>
-    <col min="751" max="751" width="1.28515625" style="36" customWidth="1"/>
+    <col min="500" max="500" width="2.6640625" style="36" customWidth="1"/>
+    <col min="501" max="536" width="3.33203125" style="36" customWidth="1"/>
+    <col min="537" max="537" width="1.6640625" style="36" customWidth="1"/>
+    <col min="538" max="538" width="25.6640625" style="36" customWidth="1"/>
+    <col min="539" max="539" width="31.33203125" style="36" customWidth="1"/>
+    <col min="540" max="749" width="8.83203125" style="36"/>
+    <col min="750" max="750" width="1.5" style="36" customWidth="1"/>
+    <col min="751" max="751" width="1.33203125" style="36" customWidth="1"/>
     <col min="752" max="752" width="42" style="36" customWidth="1"/>
-    <col min="753" max="753" width="5.42578125" style="36" customWidth="1"/>
+    <col min="753" max="753" width="5.5" style="36" customWidth="1"/>
     <col min="754" max="755" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.7109375" style="36" customWidth="1"/>
-    <col min="757" max="792" width="3.28515625" style="36" customWidth="1"/>
-    <col min="793" max="793" width="1.7109375" style="36" customWidth="1"/>
-    <col min="794" max="794" width="25.7109375" style="36" customWidth="1"/>
-    <col min="795" max="795" width="31.28515625" style="36" customWidth="1"/>
-    <col min="796" max="1005" width="8.85546875" style="36"/>
-    <col min="1006" max="1006" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="1.28515625" style="36" customWidth="1"/>
+    <col min="756" max="756" width="2.6640625" style="36" customWidth="1"/>
+    <col min="757" max="792" width="3.33203125" style="36" customWidth="1"/>
+    <col min="793" max="793" width="1.6640625" style="36" customWidth="1"/>
+    <col min="794" max="794" width="25.6640625" style="36" customWidth="1"/>
+    <col min="795" max="795" width="31.33203125" style="36" customWidth="1"/>
+    <col min="796" max="1005" width="8.83203125" style="36"/>
+    <col min="1006" max="1006" width="1.5" style="36" customWidth="1"/>
+    <col min="1007" max="1007" width="1.33203125" style="36" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="36" customWidth="1"/>
-    <col min="1009" max="1009" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1009" max="1009" width="5.5" style="36" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1013" max="1048" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1050" max="1050" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1051" max="1051" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1052" max="1261" width="8.85546875" style="36"/>
-    <col min="1262" max="1262" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1012" max="1012" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1013" max="1048" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1049" max="1049" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1050" max="1050" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1051" max="1051" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1052" max="1261" width="8.83203125" style="36"/>
+    <col min="1262" max="1262" width="1.5" style="36" customWidth="1"/>
+    <col min="1263" max="1263" width="1.33203125" style="36" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="36" customWidth="1"/>
-    <col min="1265" max="1265" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1265" max="1265" width="5.5" style="36" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1269" max="1304" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1306" max="1306" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1307" max="1307" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1308" max="1517" width="8.85546875" style="36"/>
-    <col min="1518" max="1518" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1268" max="1268" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1269" max="1304" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1305" max="1305" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1306" max="1306" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1307" max="1307" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1308" max="1517" width="8.83203125" style="36"/>
+    <col min="1518" max="1518" width="1.5" style="36" customWidth="1"/>
+    <col min="1519" max="1519" width="1.33203125" style="36" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="36" customWidth="1"/>
-    <col min="1521" max="1521" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1521" max="1521" width="5.5" style="36" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1525" max="1560" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1562" max="1562" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1563" max="1563" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1564" max="1773" width="8.85546875" style="36"/>
-    <col min="1774" max="1774" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1524" max="1524" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1525" max="1560" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1561" max="1561" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1562" max="1562" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1563" max="1563" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1564" max="1773" width="8.83203125" style="36"/>
+    <col min="1774" max="1774" width="1.5" style="36" customWidth="1"/>
+    <col min="1775" max="1775" width="1.33203125" style="36" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="36" customWidth="1"/>
-    <col min="1777" max="1777" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1777" max="1777" width="5.5" style="36" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1781" max="1816" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1818" max="1818" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1819" max="1819" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1820" max="2029" width="8.85546875" style="36"/>
-    <col min="2030" max="2030" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1780" max="1780" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1781" max="1816" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1817" max="1817" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1818" max="1818" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1819" max="1819" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1820" max="2029" width="8.83203125" style="36"/>
+    <col min="2030" max="2030" width="1.5" style="36" customWidth="1"/>
+    <col min="2031" max="2031" width="1.33203125" style="36" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="36" customWidth="1"/>
-    <col min="2033" max="2033" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2033" max="2033" width="5.5" style="36" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2037" max="2072" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2074" max="2074" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2075" max="2075" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2076" max="2285" width="8.85546875" style="36"/>
-    <col min="2286" max="2286" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2036" max="2036" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2037" max="2072" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2073" max="2073" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2074" max="2074" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2075" max="2075" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2076" max="2285" width="8.83203125" style="36"/>
+    <col min="2286" max="2286" width="1.5" style="36" customWidth="1"/>
+    <col min="2287" max="2287" width="1.33203125" style="36" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="36" customWidth="1"/>
-    <col min="2289" max="2289" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2289" max="2289" width="5.5" style="36" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2293" max="2328" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2330" max="2330" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2331" max="2331" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2332" max="2541" width="8.85546875" style="36"/>
-    <col min="2542" max="2542" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2292" max="2292" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2293" max="2328" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2329" max="2329" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2330" max="2330" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2331" max="2331" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2332" max="2541" width="8.83203125" style="36"/>
+    <col min="2542" max="2542" width="1.5" style="36" customWidth="1"/>
+    <col min="2543" max="2543" width="1.33203125" style="36" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="36" customWidth="1"/>
-    <col min="2545" max="2545" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2545" max="2545" width="5.5" style="36" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2549" max="2584" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2586" max="2586" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2587" max="2587" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2588" max="2797" width="8.85546875" style="36"/>
-    <col min="2798" max="2798" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2548" max="2548" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2549" max="2584" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2585" max="2585" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2586" max="2586" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2587" max="2587" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2588" max="2797" width="8.83203125" style="36"/>
+    <col min="2798" max="2798" width="1.5" style="36" customWidth="1"/>
+    <col min="2799" max="2799" width="1.33203125" style="36" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="36" customWidth="1"/>
-    <col min="2801" max="2801" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2801" max="2801" width="5.5" style="36" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2805" max="2840" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2842" max="2842" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2843" max="2843" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2844" max="3053" width="8.85546875" style="36"/>
-    <col min="3054" max="3054" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2804" max="2804" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2805" max="2840" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2841" max="2841" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2842" max="2842" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2843" max="2843" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2844" max="3053" width="8.83203125" style="36"/>
+    <col min="3054" max="3054" width="1.5" style="36" customWidth="1"/>
+    <col min="3055" max="3055" width="1.33203125" style="36" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="36" customWidth="1"/>
-    <col min="3057" max="3057" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3057" max="3057" width="5.5" style="36" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3061" max="3096" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3098" max="3098" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3099" max="3099" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3100" max="3309" width="8.85546875" style="36"/>
-    <col min="3310" max="3310" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3060" max="3060" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3061" max="3096" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3097" max="3097" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3098" max="3098" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3099" max="3099" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3100" max="3309" width="8.83203125" style="36"/>
+    <col min="3310" max="3310" width="1.5" style="36" customWidth="1"/>
+    <col min="3311" max="3311" width="1.33203125" style="36" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="36" customWidth="1"/>
-    <col min="3313" max="3313" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3313" max="3313" width="5.5" style="36" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3317" max="3352" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3354" max="3354" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3355" max="3355" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3356" max="3565" width="8.85546875" style="36"/>
-    <col min="3566" max="3566" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3316" max="3316" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3317" max="3352" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3353" max="3353" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3354" max="3354" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3355" max="3355" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3356" max="3565" width="8.83203125" style="36"/>
+    <col min="3566" max="3566" width="1.5" style="36" customWidth="1"/>
+    <col min="3567" max="3567" width="1.33203125" style="36" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="36" customWidth="1"/>
-    <col min="3569" max="3569" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3569" max="3569" width="5.5" style="36" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3573" max="3608" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3610" max="3610" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3611" max="3611" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3612" max="3821" width="8.85546875" style="36"/>
-    <col min="3822" max="3822" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3572" max="3572" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3573" max="3608" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3609" max="3609" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3610" max="3610" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3611" max="3611" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3612" max="3821" width="8.83203125" style="36"/>
+    <col min="3822" max="3822" width="1.5" style="36" customWidth="1"/>
+    <col min="3823" max="3823" width="1.33203125" style="36" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="36" customWidth="1"/>
-    <col min="3825" max="3825" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3825" max="3825" width="5.5" style="36" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3829" max="3864" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3866" max="3866" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3867" max="3867" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3868" max="4077" width="8.85546875" style="36"/>
-    <col min="4078" max="4078" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3828" max="3828" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3829" max="3864" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3865" max="3865" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3866" max="3866" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3867" max="3867" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3868" max="4077" width="8.83203125" style="36"/>
+    <col min="4078" max="4078" width="1.5" style="36" customWidth="1"/>
+    <col min="4079" max="4079" width="1.33203125" style="36" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="36" customWidth="1"/>
-    <col min="4081" max="4081" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4081" max="4081" width="5.5" style="36" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4085" max="4120" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4122" max="4122" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4123" max="4123" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4124" max="4333" width="8.85546875" style="36"/>
-    <col min="4334" max="4334" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4084" max="4084" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4085" max="4120" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4121" max="4121" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4122" max="4122" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4123" max="4123" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4124" max="4333" width="8.83203125" style="36"/>
+    <col min="4334" max="4334" width="1.5" style="36" customWidth="1"/>
+    <col min="4335" max="4335" width="1.33203125" style="36" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="36" customWidth="1"/>
-    <col min="4337" max="4337" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4337" max="4337" width="5.5" style="36" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4341" max="4376" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4378" max="4378" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4379" max="4379" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4380" max="4589" width="8.85546875" style="36"/>
-    <col min="4590" max="4590" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4340" max="4340" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4341" max="4376" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4377" max="4377" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4378" max="4378" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4379" max="4379" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4380" max="4589" width="8.83203125" style="36"/>
+    <col min="4590" max="4590" width="1.5" style="36" customWidth="1"/>
+    <col min="4591" max="4591" width="1.33203125" style="36" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="36" customWidth="1"/>
-    <col min="4593" max="4593" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4593" max="4593" width="5.5" style="36" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4597" max="4632" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4634" max="4634" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4635" max="4635" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4636" max="4845" width="8.85546875" style="36"/>
-    <col min="4846" max="4846" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4596" max="4596" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4597" max="4632" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4633" max="4633" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4634" max="4634" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4635" max="4635" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4636" max="4845" width="8.83203125" style="36"/>
+    <col min="4846" max="4846" width="1.5" style="36" customWidth="1"/>
+    <col min="4847" max="4847" width="1.33203125" style="36" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="36" customWidth="1"/>
-    <col min="4849" max="4849" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4849" max="4849" width="5.5" style="36" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4853" max="4888" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4890" max="4890" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4891" max="4891" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4892" max="5101" width="8.85546875" style="36"/>
-    <col min="5102" max="5102" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4852" max="4852" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4853" max="4888" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4889" max="4889" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4890" max="4890" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4891" max="4891" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4892" max="5101" width="8.83203125" style="36"/>
+    <col min="5102" max="5102" width="1.5" style="36" customWidth="1"/>
+    <col min="5103" max="5103" width="1.33203125" style="36" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="36" customWidth="1"/>
-    <col min="5105" max="5105" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5105" max="5105" width="5.5" style="36" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5109" max="5144" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5146" max="5146" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5147" max="5147" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5148" max="5357" width="8.85546875" style="36"/>
-    <col min="5358" max="5358" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5108" max="5108" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5109" max="5144" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5145" max="5145" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5146" max="5146" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5147" max="5147" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5148" max="5357" width="8.83203125" style="36"/>
+    <col min="5358" max="5358" width="1.5" style="36" customWidth="1"/>
+    <col min="5359" max="5359" width="1.33203125" style="36" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="36" customWidth="1"/>
-    <col min="5361" max="5361" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5361" max="5361" width="5.5" style="36" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5365" max="5400" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5402" max="5402" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5403" max="5403" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5404" max="5613" width="8.85546875" style="36"/>
-    <col min="5614" max="5614" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5364" max="5364" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5365" max="5400" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5401" max="5401" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5402" max="5402" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5403" max="5403" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5404" max="5613" width="8.83203125" style="36"/>
+    <col min="5614" max="5614" width="1.5" style="36" customWidth="1"/>
+    <col min="5615" max="5615" width="1.33203125" style="36" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="36" customWidth="1"/>
-    <col min="5617" max="5617" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5617" max="5617" width="5.5" style="36" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5621" max="5656" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5658" max="5658" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5659" max="5659" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5660" max="5869" width="8.85546875" style="36"/>
-    <col min="5870" max="5870" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5620" max="5620" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5621" max="5656" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5657" max="5657" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5658" max="5658" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5659" max="5659" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5660" max="5869" width="8.83203125" style="36"/>
+    <col min="5870" max="5870" width="1.5" style="36" customWidth="1"/>
+    <col min="5871" max="5871" width="1.33203125" style="36" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="36" customWidth="1"/>
-    <col min="5873" max="5873" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5873" max="5873" width="5.5" style="36" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5877" max="5912" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5914" max="5914" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5915" max="5915" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5916" max="6125" width="8.85546875" style="36"/>
-    <col min="6126" max="6126" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5876" max="5876" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5877" max="5912" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5913" max="5913" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5914" max="5914" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5915" max="5915" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5916" max="6125" width="8.83203125" style="36"/>
+    <col min="6126" max="6126" width="1.5" style="36" customWidth="1"/>
+    <col min="6127" max="6127" width="1.33203125" style="36" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="36" customWidth="1"/>
-    <col min="6129" max="6129" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6129" max="6129" width="5.5" style="36" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6133" max="6168" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6170" max="6170" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6171" max="6171" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6172" max="6381" width="8.85546875" style="36"/>
-    <col min="6382" max="6382" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6132" max="6132" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6133" max="6168" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6169" max="6169" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6170" max="6170" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6171" max="6171" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6172" max="6381" width="8.83203125" style="36"/>
+    <col min="6382" max="6382" width="1.5" style="36" customWidth="1"/>
+    <col min="6383" max="6383" width="1.33203125" style="36" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="36" customWidth="1"/>
-    <col min="6385" max="6385" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6385" max="6385" width="5.5" style="36" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6389" max="6424" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6426" max="6426" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6427" max="6427" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6428" max="6637" width="8.85546875" style="36"/>
-    <col min="6638" max="6638" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6388" max="6388" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6389" max="6424" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6425" max="6425" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6426" max="6426" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6427" max="6427" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6428" max="6637" width="8.83203125" style="36"/>
+    <col min="6638" max="6638" width="1.5" style="36" customWidth="1"/>
+    <col min="6639" max="6639" width="1.33203125" style="36" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="36" customWidth="1"/>
-    <col min="6641" max="6641" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6641" max="6641" width="5.5" style="36" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6645" max="6680" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6682" max="6682" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6683" max="6683" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6684" max="6893" width="8.85546875" style="36"/>
-    <col min="6894" max="6894" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6644" max="6644" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6645" max="6680" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6681" max="6681" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6682" max="6682" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6683" max="6683" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6684" max="6893" width="8.83203125" style="36"/>
+    <col min="6894" max="6894" width="1.5" style="36" customWidth="1"/>
+    <col min="6895" max="6895" width="1.33203125" style="36" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="36" customWidth="1"/>
-    <col min="6897" max="6897" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6897" max="6897" width="5.5" style="36" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6901" max="6936" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6938" max="6938" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6939" max="6939" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6940" max="7149" width="8.85546875" style="36"/>
-    <col min="7150" max="7150" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6900" max="6900" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6901" max="6936" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6937" max="6937" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6938" max="6938" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6939" max="6939" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6940" max="7149" width="8.83203125" style="36"/>
+    <col min="7150" max="7150" width="1.5" style="36" customWidth="1"/>
+    <col min="7151" max="7151" width="1.33203125" style="36" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="36" customWidth="1"/>
-    <col min="7153" max="7153" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7153" max="7153" width="5.5" style="36" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7157" max="7192" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7194" max="7194" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7195" max="7195" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7196" max="7405" width="8.85546875" style="36"/>
-    <col min="7406" max="7406" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7156" max="7156" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7157" max="7192" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7193" max="7193" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7194" max="7194" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7195" max="7195" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7196" max="7405" width="8.83203125" style="36"/>
+    <col min="7406" max="7406" width="1.5" style="36" customWidth="1"/>
+    <col min="7407" max="7407" width="1.33203125" style="36" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="36" customWidth="1"/>
-    <col min="7409" max="7409" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7409" max="7409" width="5.5" style="36" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7413" max="7448" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7450" max="7450" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7451" max="7451" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7452" max="7661" width="8.85546875" style="36"/>
-    <col min="7662" max="7662" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7412" max="7412" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7413" max="7448" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7449" max="7449" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7450" max="7450" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7451" max="7451" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7452" max="7661" width="8.83203125" style="36"/>
+    <col min="7662" max="7662" width="1.5" style="36" customWidth="1"/>
+    <col min="7663" max="7663" width="1.33203125" style="36" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="36" customWidth="1"/>
-    <col min="7665" max="7665" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7665" max="7665" width="5.5" style="36" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7669" max="7704" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7706" max="7706" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7707" max="7707" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7708" max="7917" width="8.85546875" style="36"/>
-    <col min="7918" max="7918" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7668" max="7668" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7669" max="7704" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7705" max="7705" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7706" max="7706" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7707" max="7707" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7708" max="7917" width="8.83203125" style="36"/>
+    <col min="7918" max="7918" width="1.5" style="36" customWidth="1"/>
+    <col min="7919" max="7919" width="1.33203125" style="36" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="36" customWidth="1"/>
-    <col min="7921" max="7921" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7921" max="7921" width="5.5" style="36" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7925" max="7960" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7962" max="7962" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7963" max="7963" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7964" max="8173" width="8.85546875" style="36"/>
-    <col min="8174" max="8174" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7924" max="7924" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7925" max="7960" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7961" max="7961" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7962" max="7962" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7963" max="7963" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7964" max="8173" width="8.83203125" style="36"/>
+    <col min="8174" max="8174" width="1.5" style="36" customWidth="1"/>
+    <col min="8175" max="8175" width="1.33203125" style="36" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="36" customWidth="1"/>
-    <col min="8177" max="8177" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8177" max="8177" width="5.5" style="36" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8181" max="8216" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8218" max="8218" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8219" max="8219" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8220" max="8429" width="8.85546875" style="36"/>
-    <col min="8430" max="8430" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8180" max="8180" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8181" max="8216" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8217" max="8217" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8218" max="8218" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8219" max="8219" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8220" max="8429" width="8.83203125" style="36"/>
+    <col min="8430" max="8430" width="1.5" style="36" customWidth="1"/>
+    <col min="8431" max="8431" width="1.33203125" style="36" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="36" customWidth="1"/>
-    <col min="8433" max="8433" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8433" max="8433" width="5.5" style="36" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8437" max="8472" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8474" max="8474" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8475" max="8475" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8476" max="8685" width="8.85546875" style="36"/>
-    <col min="8686" max="8686" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8436" max="8436" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8437" max="8472" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8473" max="8473" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8474" max="8474" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8475" max="8475" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8476" max="8685" width="8.83203125" style="36"/>
+    <col min="8686" max="8686" width="1.5" style="36" customWidth="1"/>
+    <col min="8687" max="8687" width="1.33203125" style="36" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="36" customWidth="1"/>
-    <col min="8689" max="8689" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8689" max="8689" width="5.5" style="36" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8693" max="8728" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8730" max="8730" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8731" max="8731" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8732" max="8941" width="8.85546875" style="36"/>
-    <col min="8942" max="8942" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8692" max="8692" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8693" max="8728" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8729" max="8729" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8730" max="8730" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8731" max="8731" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8732" max="8941" width="8.83203125" style="36"/>
+    <col min="8942" max="8942" width="1.5" style="36" customWidth="1"/>
+    <col min="8943" max="8943" width="1.33203125" style="36" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="36" customWidth="1"/>
-    <col min="8945" max="8945" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8945" max="8945" width="5.5" style="36" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8949" max="8984" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8986" max="8986" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8987" max="8987" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8988" max="9197" width="8.85546875" style="36"/>
-    <col min="9198" max="9198" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8948" max="8948" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8949" max="8984" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8985" max="8985" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8986" max="8986" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8987" max="8987" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8988" max="9197" width="8.83203125" style="36"/>
+    <col min="9198" max="9198" width="1.5" style="36" customWidth="1"/>
+    <col min="9199" max="9199" width="1.33203125" style="36" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="36" customWidth="1"/>
-    <col min="9201" max="9201" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9201" max="9201" width="5.5" style="36" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9205" max="9240" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9242" max="9242" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9243" max="9243" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9244" max="9453" width="8.85546875" style="36"/>
-    <col min="9454" max="9454" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9204" max="9204" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9205" max="9240" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9241" max="9241" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9242" max="9242" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9243" max="9243" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9244" max="9453" width="8.83203125" style="36"/>
+    <col min="9454" max="9454" width="1.5" style="36" customWidth="1"/>
+    <col min="9455" max="9455" width="1.33203125" style="36" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="36" customWidth="1"/>
-    <col min="9457" max="9457" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9457" max="9457" width="5.5" style="36" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9461" max="9496" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9498" max="9498" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9499" max="9499" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9500" max="9709" width="8.85546875" style="36"/>
-    <col min="9710" max="9710" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9460" max="9460" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9461" max="9496" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9497" max="9497" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9498" max="9498" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9499" max="9499" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9500" max="9709" width="8.83203125" style="36"/>
+    <col min="9710" max="9710" width="1.5" style="36" customWidth="1"/>
+    <col min="9711" max="9711" width="1.33203125" style="36" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="36" customWidth="1"/>
-    <col min="9713" max="9713" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9713" max="9713" width="5.5" style="36" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9717" max="9752" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9754" max="9754" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9755" max="9755" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9756" max="9965" width="8.85546875" style="36"/>
-    <col min="9966" max="9966" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9716" max="9716" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9717" max="9752" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9753" max="9753" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9754" max="9754" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9755" max="9755" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9756" max="9965" width="8.83203125" style="36"/>
+    <col min="9966" max="9966" width="1.5" style="36" customWidth="1"/>
+    <col min="9967" max="9967" width="1.33203125" style="36" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="36" customWidth="1"/>
-    <col min="9969" max="9969" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9969" max="9969" width="5.5" style="36" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9973" max="10008" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10010" max="10010" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10011" max="10011" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10012" max="10221" width="8.85546875" style="36"/>
-    <col min="10222" max="10222" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9972" max="9972" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9973" max="10008" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10009" max="10009" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10010" max="10010" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10011" max="10011" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10012" max="10221" width="8.83203125" style="36"/>
+    <col min="10222" max="10222" width="1.5" style="36" customWidth="1"/>
+    <col min="10223" max="10223" width="1.33203125" style="36" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="36" customWidth="1"/>
-    <col min="10225" max="10225" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10225" max="10225" width="5.5" style="36" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10229" max="10264" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10266" max="10266" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10267" max="10267" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10268" max="10477" width="8.85546875" style="36"/>
-    <col min="10478" max="10478" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10228" max="10228" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10229" max="10264" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10265" max="10265" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10266" max="10266" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10267" max="10267" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10268" max="10477" width="8.83203125" style="36"/>
+    <col min="10478" max="10478" width="1.5" style="36" customWidth="1"/>
+    <col min="10479" max="10479" width="1.33203125" style="36" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="36" customWidth="1"/>
-    <col min="10481" max="10481" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10481" max="10481" width="5.5" style="36" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10485" max="10520" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10522" max="10522" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10523" max="10523" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10524" max="10733" width="8.85546875" style="36"/>
-    <col min="10734" max="10734" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10484" max="10484" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10485" max="10520" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10521" max="10521" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10522" max="10522" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10523" max="10523" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10524" max="10733" width="8.83203125" style="36"/>
+    <col min="10734" max="10734" width="1.5" style="36" customWidth="1"/>
+    <col min="10735" max="10735" width="1.33203125" style="36" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="36" customWidth="1"/>
-    <col min="10737" max="10737" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10737" max="10737" width="5.5" style="36" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10741" max="10776" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10778" max="10778" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10779" max="10779" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10780" max="10989" width="8.85546875" style="36"/>
-    <col min="10990" max="10990" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10740" max="10740" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10741" max="10776" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10777" max="10777" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10778" max="10778" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10779" max="10779" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10780" max="10989" width="8.83203125" style="36"/>
+    <col min="10990" max="10990" width="1.5" style="36" customWidth="1"/>
+    <col min="10991" max="10991" width="1.33203125" style="36" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="36" customWidth="1"/>
-    <col min="10993" max="10993" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10993" max="10993" width="5.5" style="36" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10997" max="11032" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11034" max="11034" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11035" max="11035" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11036" max="11245" width="8.85546875" style="36"/>
-    <col min="11246" max="11246" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10996" max="10996" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10997" max="11032" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11033" max="11033" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11034" max="11034" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11035" max="11035" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11036" max="11245" width="8.83203125" style="36"/>
+    <col min="11246" max="11246" width="1.5" style="36" customWidth="1"/>
+    <col min="11247" max="11247" width="1.33203125" style="36" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="36" customWidth="1"/>
-    <col min="11249" max="11249" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11249" max="11249" width="5.5" style="36" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11253" max="11288" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11290" max="11290" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11291" max="11291" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11292" max="11501" width="8.85546875" style="36"/>
-    <col min="11502" max="11502" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11252" max="11252" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11253" max="11288" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11289" max="11289" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11290" max="11290" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11291" max="11291" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11292" max="11501" width="8.83203125" style="36"/>
+    <col min="11502" max="11502" width="1.5" style="36" customWidth="1"/>
+    <col min="11503" max="11503" width="1.33203125" style="36" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="36" customWidth="1"/>
-    <col min="11505" max="11505" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11505" max="11505" width="5.5" style="36" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11509" max="11544" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11546" max="11546" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11547" max="11547" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11548" max="11757" width="8.85546875" style="36"/>
-    <col min="11758" max="11758" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11508" max="11508" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11509" max="11544" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11545" max="11545" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11546" max="11546" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11547" max="11547" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11548" max="11757" width="8.83203125" style="36"/>
+    <col min="11758" max="11758" width="1.5" style="36" customWidth="1"/>
+    <col min="11759" max="11759" width="1.33203125" style="36" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="36" customWidth="1"/>
-    <col min="11761" max="11761" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11761" max="11761" width="5.5" style="36" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11765" max="11800" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11802" max="11802" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11803" max="11803" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11804" max="12013" width="8.85546875" style="36"/>
-    <col min="12014" max="12014" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11764" max="11764" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11765" max="11800" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11801" max="11801" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11802" max="11802" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11803" max="11803" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11804" max="12013" width="8.83203125" style="36"/>
+    <col min="12014" max="12014" width="1.5" style="36" customWidth="1"/>
+    <col min="12015" max="12015" width="1.33203125" style="36" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="36" customWidth="1"/>
-    <col min="12017" max="12017" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12017" max="12017" width="5.5" style="36" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12021" max="12056" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12058" max="12058" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12059" max="12059" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12060" max="12269" width="8.85546875" style="36"/>
-    <col min="12270" max="12270" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12020" max="12020" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12021" max="12056" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12057" max="12057" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12058" max="12058" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12059" max="12059" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12060" max="12269" width="8.83203125" style="36"/>
+    <col min="12270" max="12270" width="1.5" style="36" customWidth="1"/>
+    <col min="12271" max="12271" width="1.33203125" style="36" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="36" customWidth="1"/>
-    <col min="12273" max="12273" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12273" max="12273" width="5.5" style="36" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12277" max="12312" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12314" max="12314" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12315" max="12315" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12316" max="12525" width="8.85546875" style="36"/>
-    <col min="12526" max="12526" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12276" max="12276" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12277" max="12312" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12313" max="12313" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12314" max="12314" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12315" max="12315" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12316" max="12525" width="8.83203125" style="36"/>
+    <col min="12526" max="12526" width="1.5" style="36" customWidth="1"/>
+    <col min="12527" max="12527" width="1.33203125" style="36" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="36" customWidth="1"/>
-    <col min="12529" max="12529" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12529" max="12529" width="5.5" style="36" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12533" max="12568" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12570" max="12570" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12571" max="12571" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12572" max="12781" width="8.85546875" style="36"/>
-    <col min="12782" max="12782" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12532" max="12532" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12533" max="12568" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12569" max="12569" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12570" max="12570" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12571" max="12571" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12572" max="12781" width="8.83203125" style="36"/>
+    <col min="12782" max="12782" width="1.5" style="36" customWidth="1"/>
+    <col min="12783" max="12783" width="1.33203125" style="36" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="36" customWidth="1"/>
-    <col min="12785" max="12785" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12785" max="12785" width="5.5" style="36" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12789" max="12824" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12826" max="12826" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12827" max="12827" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12828" max="13037" width="8.85546875" style="36"/>
-    <col min="13038" max="13038" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12788" max="12788" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12789" max="12824" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12825" max="12825" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12826" max="12826" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12827" max="12827" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12828" max="13037" width="8.83203125" style="36"/>
+    <col min="13038" max="13038" width="1.5" style="36" customWidth="1"/>
+    <col min="13039" max="13039" width="1.33203125" style="36" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="36" customWidth="1"/>
-    <col min="13041" max="13041" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13041" max="13041" width="5.5" style="36" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13045" max="13080" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13082" max="13082" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13083" max="13083" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13084" max="13293" width="8.85546875" style="36"/>
-    <col min="13294" max="13294" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13044" max="13044" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13045" max="13080" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13081" max="13081" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13082" max="13082" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13083" max="13083" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13084" max="13293" width="8.83203125" style="36"/>
+    <col min="13294" max="13294" width="1.5" style="36" customWidth="1"/>
+    <col min="13295" max="13295" width="1.33203125" style="36" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="36" customWidth="1"/>
-    <col min="13297" max="13297" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13297" max="13297" width="5.5" style="36" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13301" max="13336" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13338" max="13338" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13339" max="13339" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13340" max="13549" width="8.85546875" style="36"/>
-    <col min="13550" max="13550" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13300" max="13300" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13301" max="13336" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13337" max="13337" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13338" max="13338" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13339" max="13339" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13340" max="13549" width="8.83203125" style="36"/>
+    <col min="13550" max="13550" width="1.5" style="36" customWidth="1"/>
+    <col min="13551" max="13551" width="1.33203125" style="36" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="36" customWidth="1"/>
-    <col min="13553" max="13553" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13553" max="13553" width="5.5" style="36" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13557" max="13592" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13594" max="13594" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13595" max="13595" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13596" max="13805" width="8.85546875" style="36"/>
-    <col min="13806" max="13806" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13556" max="13556" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13557" max="13592" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13593" max="13593" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13594" max="13594" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13595" max="13595" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13596" max="13805" width="8.83203125" style="36"/>
+    <col min="13806" max="13806" width="1.5" style="36" customWidth="1"/>
+    <col min="13807" max="13807" width="1.33203125" style="36" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="36" customWidth="1"/>
-    <col min="13809" max="13809" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13809" max="13809" width="5.5" style="36" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13813" max="13848" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13850" max="13850" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13851" max="13851" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13852" max="14061" width="8.85546875" style="36"/>
-    <col min="14062" max="14062" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13812" max="13812" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13813" max="13848" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13849" max="13849" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13850" max="13850" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13851" max="13851" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13852" max="14061" width="8.83203125" style="36"/>
+    <col min="14062" max="14062" width="1.5" style="36" customWidth="1"/>
+    <col min="14063" max="14063" width="1.33203125" style="36" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="36" customWidth="1"/>
-    <col min="14065" max="14065" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14065" max="14065" width="5.5" style="36" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14069" max="14104" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14106" max="14106" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14107" max="14107" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14108" max="14317" width="8.85546875" style="36"/>
-    <col min="14318" max="14318" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14068" max="14068" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14069" max="14104" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14105" max="14105" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14106" max="14106" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14107" max="14107" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14108" max="14317" width="8.83203125" style="36"/>
+    <col min="14318" max="14318" width="1.5" style="36" customWidth="1"/>
+    <col min="14319" max="14319" width="1.33203125" style="36" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="36" customWidth="1"/>
-    <col min="14321" max="14321" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14321" max="14321" width="5.5" style="36" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14325" max="14360" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14362" max="14362" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14363" max="14363" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14364" max="14573" width="8.85546875" style="36"/>
-    <col min="14574" max="14574" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14324" max="14324" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14325" max="14360" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14361" max="14361" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14362" max="14362" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14363" max="14363" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14364" max="14573" width="8.83203125" style="36"/>
+    <col min="14574" max="14574" width="1.5" style="36" customWidth="1"/>
+    <col min="14575" max="14575" width="1.33203125" style="36" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="36" customWidth="1"/>
-    <col min="14577" max="14577" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14577" max="14577" width="5.5" style="36" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14581" max="14616" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14618" max="14618" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14619" max="14619" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14620" max="14829" width="8.85546875" style="36"/>
-    <col min="14830" max="14830" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14580" max="14580" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14581" max="14616" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14617" max="14617" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14618" max="14618" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14619" max="14619" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14620" max="14829" width="8.83203125" style="36"/>
+    <col min="14830" max="14830" width="1.5" style="36" customWidth="1"/>
+    <col min="14831" max="14831" width="1.33203125" style="36" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="36" customWidth="1"/>
-    <col min="14833" max="14833" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14833" max="14833" width="5.5" style="36" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14837" max="14872" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14874" max="14874" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14875" max="14875" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14876" max="15085" width="8.85546875" style="36"/>
-    <col min="15086" max="15086" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14836" max="14836" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14837" max="14872" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14873" max="14873" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14874" max="14874" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14875" max="14875" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14876" max="15085" width="8.83203125" style="36"/>
+    <col min="15086" max="15086" width="1.5" style="36" customWidth="1"/>
+    <col min="15087" max="15087" width="1.33203125" style="36" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="36" customWidth="1"/>
-    <col min="15089" max="15089" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15089" max="15089" width="5.5" style="36" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15093" max="15128" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15130" max="15130" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15131" max="15131" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15132" max="15341" width="8.85546875" style="36"/>
-    <col min="15342" max="15342" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15092" max="15092" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15093" max="15128" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15129" max="15129" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15130" max="15130" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15131" max="15131" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15132" max="15341" width="8.83203125" style="36"/>
+    <col min="15342" max="15342" width="1.5" style="36" customWidth="1"/>
+    <col min="15343" max="15343" width="1.33203125" style="36" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="36" customWidth="1"/>
-    <col min="15345" max="15345" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15345" max="15345" width="5.5" style="36" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15349" max="15384" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15386" max="15386" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15387" max="15387" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15388" max="15597" width="8.85546875" style="36"/>
-    <col min="15598" max="15598" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15348" max="15348" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15349" max="15384" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15385" max="15385" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15386" max="15386" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15387" max="15387" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15388" max="15597" width="8.83203125" style="36"/>
+    <col min="15598" max="15598" width="1.5" style="36" customWidth="1"/>
+    <col min="15599" max="15599" width="1.33203125" style="36" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="36" customWidth="1"/>
-    <col min="15601" max="15601" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15601" max="15601" width="5.5" style="36" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15605" max="15640" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15642" max="15642" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15643" max="15643" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15644" max="15853" width="8.85546875" style="36"/>
-    <col min="15854" max="15854" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15604" max="15604" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15605" max="15640" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15641" max="15641" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15642" max="15642" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15643" max="15643" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15644" max="15853" width="8.83203125" style="36"/>
+    <col min="15854" max="15854" width="1.5" style="36" customWidth="1"/>
+    <col min="15855" max="15855" width="1.33203125" style="36" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="36" customWidth="1"/>
-    <col min="15857" max="15857" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15857" max="15857" width="5.5" style="36" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15861" max="15896" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15898" max="15898" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15899" max="15899" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15900" max="16109" width="8.85546875" style="36"/>
-    <col min="16110" max="16110" width="1.42578125" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15860" max="15860" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15861" max="15896" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15897" max="15897" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15898" max="15898" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15899" max="15899" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15900" max="16109" width="8.83203125" style="36"/>
+    <col min="16110" max="16110" width="1.5" style="36" customWidth="1"/>
+    <col min="16111" max="16111" width="1.33203125" style="36" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="36" customWidth="1"/>
-    <col min="16113" max="16113" width="5.42578125" style="36" customWidth="1"/>
+    <col min="16113" max="16113" width="5.5" style="36" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.7109375" style="36" customWidth="1"/>
-    <col min="16117" max="16152" width="3.28515625" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="1.7109375" style="36" customWidth="1"/>
-    <col min="16154" max="16154" width="25.7109375" style="36" customWidth="1"/>
-    <col min="16155" max="16155" width="31.28515625" style="36" customWidth="1"/>
-    <col min="16156" max="16384" width="8.85546875" style="36"/>
+    <col min="16116" max="16116" width="2.6640625" style="36" customWidth="1"/>
+    <col min="16117" max="16152" width="3.33203125" style="36" customWidth="1"/>
+    <col min="16153" max="16153" width="1.6640625" style="36" customWidth="1"/>
+    <col min="16154" max="16154" width="25.6640625" style="36" customWidth="1"/>
+    <col min="16155" max="16155" width="31.33203125" style="36" customWidth="1"/>
+    <col min="16156" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="123" t="s">
+    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="78">
         <v>0</v>
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="80">
         <v>0</v>
       </c>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="85">
-        <v>7</v>
+      <c r="C7" s="82">
+        <v>3</v>
       </c>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="86" t="s">
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="87">
-        <v>1</v>
+      <c r="C8" s="84">
+        <v>3</v>
       </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="88" t="s">
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="89">
+      <c r="C9" s="86">
         <v>0</v>
       </c>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="71"/>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="68"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6748,737 +6743,737 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="37" customWidth="1"/>
     <col min="4" max="4" width="8" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="38" customWidth="1"/>
-    <col min="6" max="24" width="3.28515625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
+    <col min="6" max="24" width="3.33203125" style="38" customWidth="1"/>
     <col min="25" max="25" width="10" style="38" customWidth="1"/>
-    <col min="26" max="34" width="8.85546875" style="38"/>
-    <col min="35" max="235" width="8.85546875" style="36"/>
-    <col min="236" max="236" width="1.42578125" style="36" customWidth="1"/>
-    <col min="237" max="237" width="1.28515625" style="36" customWidth="1"/>
+    <col min="26" max="34" width="8.83203125" style="38"/>
+    <col min="35" max="235" width="8.83203125" style="36"/>
+    <col min="236" max="236" width="1.5" style="36" customWidth="1"/>
+    <col min="237" max="237" width="1.33203125" style="36" customWidth="1"/>
     <col min="238" max="238" width="42" style="36" customWidth="1"/>
-    <col min="239" max="239" width="5.42578125" style="36" customWidth="1"/>
+    <col min="239" max="239" width="5.5" style="36" customWidth="1"/>
     <col min="240" max="241" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.7109375" style="36" customWidth="1"/>
-    <col min="243" max="278" width="3.28515625" style="36" customWidth="1"/>
-    <col min="279" max="279" width="1.7109375" style="36" customWidth="1"/>
-    <col min="280" max="280" width="25.7109375" style="36" customWidth="1"/>
-    <col min="281" max="281" width="31.28515625" style="36" customWidth="1"/>
-    <col min="282" max="491" width="8.85546875" style="36"/>
-    <col min="492" max="492" width="1.42578125" style="36" customWidth="1"/>
-    <col min="493" max="493" width="1.28515625" style="36" customWidth="1"/>
+    <col min="242" max="242" width="2.6640625" style="36" customWidth="1"/>
+    <col min="243" max="278" width="3.33203125" style="36" customWidth="1"/>
+    <col min="279" max="279" width="1.6640625" style="36" customWidth="1"/>
+    <col min="280" max="280" width="25.6640625" style="36" customWidth="1"/>
+    <col min="281" max="281" width="31.33203125" style="36" customWidth="1"/>
+    <col min="282" max="491" width="8.83203125" style="36"/>
+    <col min="492" max="492" width="1.5" style="36" customWidth="1"/>
+    <col min="493" max="493" width="1.33203125" style="36" customWidth="1"/>
     <col min="494" max="494" width="42" style="36" customWidth="1"/>
-    <col min="495" max="495" width="5.42578125" style="36" customWidth="1"/>
+    <col min="495" max="495" width="5.5" style="36" customWidth="1"/>
     <col min="496" max="497" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.7109375" style="36" customWidth="1"/>
-    <col min="499" max="534" width="3.28515625" style="36" customWidth="1"/>
-    <col min="535" max="535" width="1.7109375" style="36" customWidth="1"/>
-    <col min="536" max="536" width="25.7109375" style="36" customWidth="1"/>
-    <col min="537" max="537" width="31.28515625" style="36" customWidth="1"/>
-    <col min="538" max="747" width="8.85546875" style="36"/>
-    <col min="748" max="748" width="1.42578125" style="36" customWidth="1"/>
-    <col min="749" max="749" width="1.28515625" style="36" customWidth="1"/>
+    <col min="498" max="498" width="2.6640625" style="36" customWidth="1"/>
+    <col min="499" max="534" width="3.33203125" style="36" customWidth="1"/>
+    <col min="535" max="535" width="1.6640625" style="36" customWidth="1"/>
+    <col min="536" max="536" width="25.6640625" style="36" customWidth="1"/>
+    <col min="537" max="537" width="31.33203125" style="36" customWidth="1"/>
+    <col min="538" max="747" width="8.83203125" style="36"/>
+    <col min="748" max="748" width="1.5" style="36" customWidth="1"/>
+    <col min="749" max="749" width="1.33203125" style="36" customWidth="1"/>
     <col min="750" max="750" width="42" style="36" customWidth="1"/>
-    <col min="751" max="751" width="5.42578125" style="36" customWidth="1"/>
+    <col min="751" max="751" width="5.5" style="36" customWidth="1"/>
     <col min="752" max="753" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.7109375" style="36" customWidth="1"/>
-    <col min="755" max="790" width="3.28515625" style="36" customWidth="1"/>
-    <col min="791" max="791" width="1.7109375" style="36" customWidth="1"/>
-    <col min="792" max="792" width="25.7109375" style="36" customWidth="1"/>
-    <col min="793" max="793" width="31.28515625" style="36" customWidth="1"/>
-    <col min="794" max="1003" width="8.85546875" style="36"/>
-    <col min="1004" max="1004" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1005" max="1005" width="1.28515625" style="36" customWidth="1"/>
+    <col min="754" max="754" width="2.6640625" style="36" customWidth="1"/>
+    <col min="755" max="790" width="3.33203125" style="36" customWidth="1"/>
+    <col min="791" max="791" width="1.6640625" style="36" customWidth="1"/>
+    <col min="792" max="792" width="25.6640625" style="36" customWidth="1"/>
+    <col min="793" max="793" width="31.33203125" style="36" customWidth="1"/>
+    <col min="794" max="1003" width="8.83203125" style="36"/>
+    <col min="1004" max="1004" width="1.5" style="36" customWidth="1"/>
+    <col min="1005" max="1005" width="1.33203125" style="36" customWidth="1"/>
     <col min="1006" max="1006" width="42" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1007" max="1007" width="5.5" style="36" customWidth="1"/>
     <col min="1008" max="1009" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1011" max="1046" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1047" max="1047" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1048" max="1048" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1050" max="1259" width="8.85546875" style="36"/>
-    <col min="1260" max="1260" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1261" max="1261" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1010" max="1010" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1011" max="1046" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1047" max="1047" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1048" max="1048" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1049" max="1049" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1050" max="1259" width="8.83203125" style="36"/>
+    <col min="1260" max="1260" width="1.5" style="36" customWidth="1"/>
+    <col min="1261" max="1261" width="1.33203125" style="36" customWidth="1"/>
     <col min="1262" max="1262" width="42" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1263" max="1263" width="5.5" style="36" customWidth="1"/>
     <col min="1264" max="1265" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1267" max="1302" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1303" max="1303" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1304" max="1304" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1306" max="1515" width="8.85546875" style="36"/>
-    <col min="1516" max="1516" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1517" max="1517" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1266" max="1266" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1267" max="1302" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1303" max="1303" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1304" max="1304" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1305" max="1305" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1306" max="1515" width="8.83203125" style="36"/>
+    <col min="1516" max="1516" width="1.5" style="36" customWidth="1"/>
+    <col min="1517" max="1517" width="1.33203125" style="36" customWidth="1"/>
     <col min="1518" max="1518" width="42" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1519" max="1519" width="5.5" style="36" customWidth="1"/>
     <col min="1520" max="1521" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1523" max="1558" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1559" max="1559" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1560" max="1560" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1562" max="1771" width="8.85546875" style="36"/>
-    <col min="1772" max="1772" width="1.42578125" style="36" customWidth="1"/>
-    <col min="1773" max="1773" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1522" max="1522" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1523" max="1558" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1559" max="1559" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1560" max="1560" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1561" max="1561" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1562" max="1771" width="8.83203125" style="36"/>
+    <col min="1772" max="1772" width="1.5" style="36" customWidth="1"/>
+    <col min="1773" max="1773" width="1.33203125" style="36" customWidth="1"/>
     <col min="1774" max="1774" width="42" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="5.42578125" style="36" customWidth="1"/>
+    <col min="1775" max="1775" width="5.5" style="36" customWidth="1"/>
     <col min="1776" max="1777" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.7109375" style="36" customWidth="1"/>
-    <col min="1779" max="1814" width="3.28515625" style="36" customWidth="1"/>
-    <col min="1815" max="1815" width="1.7109375" style="36" customWidth="1"/>
-    <col min="1816" max="1816" width="25.7109375" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="31.28515625" style="36" customWidth="1"/>
-    <col min="1818" max="2027" width="8.85546875" style="36"/>
-    <col min="2028" max="2028" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2029" max="2029" width="1.28515625" style="36" customWidth="1"/>
+    <col min="1778" max="1778" width="2.6640625" style="36" customWidth="1"/>
+    <col min="1779" max="1814" width="3.33203125" style="36" customWidth="1"/>
+    <col min="1815" max="1815" width="1.6640625" style="36" customWidth="1"/>
+    <col min="1816" max="1816" width="25.6640625" style="36" customWidth="1"/>
+    <col min="1817" max="1817" width="31.33203125" style="36" customWidth="1"/>
+    <col min="1818" max="2027" width="8.83203125" style="36"/>
+    <col min="2028" max="2028" width="1.5" style="36" customWidth="1"/>
+    <col min="2029" max="2029" width="1.33203125" style="36" customWidth="1"/>
     <col min="2030" max="2030" width="42" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2031" max="2031" width="5.5" style="36" customWidth="1"/>
     <col min="2032" max="2033" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2035" max="2070" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2071" max="2071" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2072" max="2072" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2074" max="2283" width="8.85546875" style="36"/>
-    <col min="2284" max="2284" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2285" max="2285" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2034" max="2034" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2035" max="2070" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2071" max="2071" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2072" max="2072" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2073" max="2073" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2074" max="2283" width="8.83203125" style="36"/>
+    <col min="2284" max="2284" width="1.5" style="36" customWidth="1"/>
+    <col min="2285" max="2285" width="1.33203125" style="36" customWidth="1"/>
     <col min="2286" max="2286" width="42" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2287" max="2287" width="5.5" style="36" customWidth="1"/>
     <col min="2288" max="2289" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2291" max="2326" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2327" max="2327" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2328" max="2328" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2330" max="2539" width="8.85546875" style="36"/>
-    <col min="2540" max="2540" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2541" max="2541" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2290" max="2290" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2291" max="2326" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2327" max="2327" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2328" max="2328" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2329" max="2329" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2330" max="2539" width="8.83203125" style="36"/>
+    <col min="2540" max="2540" width="1.5" style="36" customWidth="1"/>
+    <col min="2541" max="2541" width="1.33203125" style="36" customWidth="1"/>
     <col min="2542" max="2542" width="42" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2543" max="2543" width="5.5" style="36" customWidth="1"/>
     <col min="2544" max="2545" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2547" max="2582" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2583" max="2583" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2584" max="2584" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2586" max="2795" width="8.85546875" style="36"/>
-    <col min="2796" max="2796" width="1.42578125" style="36" customWidth="1"/>
-    <col min="2797" max="2797" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2546" max="2546" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2547" max="2582" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2583" max="2583" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2584" max="2584" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2585" max="2585" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2586" max="2795" width="8.83203125" style="36"/>
+    <col min="2796" max="2796" width="1.5" style="36" customWidth="1"/>
+    <col min="2797" max="2797" width="1.33203125" style="36" customWidth="1"/>
     <col min="2798" max="2798" width="42" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="5.42578125" style="36" customWidth="1"/>
+    <col min="2799" max="2799" width="5.5" style="36" customWidth="1"/>
     <col min="2800" max="2801" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2803" max="2838" width="3.28515625" style="36" customWidth="1"/>
-    <col min="2839" max="2839" width="1.7109375" style="36" customWidth="1"/>
-    <col min="2840" max="2840" width="25.7109375" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="31.28515625" style="36" customWidth="1"/>
-    <col min="2842" max="3051" width="8.85546875" style="36"/>
-    <col min="3052" max="3052" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3053" max="3053" width="1.28515625" style="36" customWidth="1"/>
+    <col min="2802" max="2802" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2803" max="2838" width="3.33203125" style="36" customWidth="1"/>
+    <col min="2839" max="2839" width="1.6640625" style="36" customWidth="1"/>
+    <col min="2840" max="2840" width="25.6640625" style="36" customWidth="1"/>
+    <col min="2841" max="2841" width="31.33203125" style="36" customWidth="1"/>
+    <col min="2842" max="3051" width="8.83203125" style="36"/>
+    <col min="3052" max="3052" width="1.5" style="36" customWidth="1"/>
+    <col min="3053" max="3053" width="1.33203125" style="36" customWidth="1"/>
     <col min="3054" max="3054" width="42" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3055" max="3055" width="5.5" style="36" customWidth="1"/>
     <col min="3056" max="3057" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3059" max="3094" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3095" max="3095" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3096" max="3096" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3098" max="3307" width="8.85546875" style="36"/>
-    <col min="3308" max="3308" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3309" max="3309" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3058" max="3058" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3059" max="3094" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3095" max="3095" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3096" max="3096" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3097" max="3097" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3098" max="3307" width="8.83203125" style="36"/>
+    <col min="3308" max="3308" width="1.5" style="36" customWidth="1"/>
+    <col min="3309" max="3309" width="1.33203125" style="36" customWidth="1"/>
     <col min="3310" max="3310" width="42" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3311" max="3311" width="5.5" style="36" customWidth="1"/>
     <col min="3312" max="3313" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3315" max="3350" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3351" max="3351" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3352" max="3352" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3354" max="3563" width="8.85546875" style="36"/>
-    <col min="3564" max="3564" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3565" max="3565" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3314" max="3314" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3315" max="3350" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3351" max="3351" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3352" max="3352" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3353" max="3353" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3354" max="3563" width="8.83203125" style="36"/>
+    <col min="3564" max="3564" width="1.5" style="36" customWidth="1"/>
+    <col min="3565" max="3565" width="1.33203125" style="36" customWidth="1"/>
     <col min="3566" max="3566" width="42" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3567" max="3567" width="5.5" style="36" customWidth="1"/>
     <col min="3568" max="3569" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3571" max="3606" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3607" max="3607" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3608" max="3608" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3610" max="3819" width="8.85546875" style="36"/>
-    <col min="3820" max="3820" width="1.42578125" style="36" customWidth="1"/>
-    <col min="3821" max="3821" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3570" max="3570" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3571" max="3606" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3607" max="3607" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3608" max="3608" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3609" max="3609" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3610" max="3819" width="8.83203125" style="36"/>
+    <col min="3820" max="3820" width="1.5" style="36" customWidth="1"/>
+    <col min="3821" max="3821" width="1.33203125" style="36" customWidth="1"/>
     <col min="3822" max="3822" width="42" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="5.42578125" style="36" customWidth="1"/>
+    <col min="3823" max="3823" width="5.5" style="36" customWidth="1"/>
     <col min="3824" max="3825" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3827" max="3862" width="3.28515625" style="36" customWidth="1"/>
-    <col min="3863" max="3863" width="1.7109375" style="36" customWidth="1"/>
-    <col min="3864" max="3864" width="25.7109375" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="31.28515625" style="36" customWidth="1"/>
-    <col min="3866" max="4075" width="8.85546875" style="36"/>
-    <col min="4076" max="4076" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4077" max="4077" width="1.28515625" style="36" customWidth="1"/>
+    <col min="3826" max="3826" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3827" max="3862" width="3.33203125" style="36" customWidth="1"/>
+    <col min="3863" max="3863" width="1.6640625" style="36" customWidth="1"/>
+    <col min="3864" max="3864" width="25.6640625" style="36" customWidth="1"/>
+    <col min="3865" max="3865" width="31.33203125" style="36" customWidth="1"/>
+    <col min="3866" max="4075" width="8.83203125" style="36"/>
+    <col min="4076" max="4076" width="1.5" style="36" customWidth="1"/>
+    <col min="4077" max="4077" width="1.33203125" style="36" customWidth="1"/>
     <col min="4078" max="4078" width="42" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4079" max="4079" width="5.5" style="36" customWidth="1"/>
     <col min="4080" max="4081" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4083" max="4118" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4119" max="4119" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4120" max="4120" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4122" max="4331" width="8.85546875" style="36"/>
-    <col min="4332" max="4332" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4333" max="4333" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4082" max="4082" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4083" max="4118" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4119" max="4119" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4120" max="4120" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4121" max="4121" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4122" max="4331" width="8.83203125" style="36"/>
+    <col min="4332" max="4332" width="1.5" style="36" customWidth="1"/>
+    <col min="4333" max="4333" width="1.33203125" style="36" customWidth="1"/>
     <col min="4334" max="4334" width="42" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4335" max="4335" width="5.5" style="36" customWidth="1"/>
     <col min="4336" max="4337" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4339" max="4374" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4375" max="4375" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4376" max="4376" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4378" max="4587" width="8.85546875" style="36"/>
-    <col min="4588" max="4588" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4589" max="4589" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4338" max="4338" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4339" max="4374" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4375" max="4375" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4376" max="4376" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4377" max="4377" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4378" max="4587" width="8.83203125" style="36"/>
+    <col min="4588" max="4588" width="1.5" style="36" customWidth="1"/>
+    <col min="4589" max="4589" width="1.33203125" style="36" customWidth="1"/>
     <col min="4590" max="4590" width="42" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4591" max="4591" width="5.5" style="36" customWidth="1"/>
     <col min="4592" max="4593" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4595" max="4630" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4631" max="4631" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4632" max="4632" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4634" max="4843" width="8.85546875" style="36"/>
-    <col min="4844" max="4844" width="1.42578125" style="36" customWidth="1"/>
-    <col min="4845" max="4845" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4594" max="4594" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4595" max="4630" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4631" max="4631" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4632" max="4632" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4633" max="4633" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4634" max="4843" width="8.83203125" style="36"/>
+    <col min="4844" max="4844" width="1.5" style="36" customWidth="1"/>
+    <col min="4845" max="4845" width="1.33203125" style="36" customWidth="1"/>
     <col min="4846" max="4846" width="42" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="5.42578125" style="36" customWidth="1"/>
+    <col min="4847" max="4847" width="5.5" style="36" customWidth="1"/>
     <col min="4848" max="4849" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.7109375" style="36" customWidth="1"/>
-    <col min="4851" max="4886" width="3.28515625" style="36" customWidth="1"/>
-    <col min="4887" max="4887" width="1.7109375" style="36" customWidth="1"/>
-    <col min="4888" max="4888" width="25.7109375" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="31.28515625" style="36" customWidth="1"/>
-    <col min="4890" max="5099" width="8.85546875" style="36"/>
-    <col min="5100" max="5100" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5101" max="5101" width="1.28515625" style="36" customWidth="1"/>
+    <col min="4850" max="4850" width="2.6640625" style="36" customWidth="1"/>
+    <col min="4851" max="4886" width="3.33203125" style="36" customWidth="1"/>
+    <col min="4887" max="4887" width="1.6640625" style="36" customWidth="1"/>
+    <col min="4888" max="4888" width="25.6640625" style="36" customWidth="1"/>
+    <col min="4889" max="4889" width="31.33203125" style="36" customWidth="1"/>
+    <col min="4890" max="5099" width="8.83203125" style="36"/>
+    <col min="5100" max="5100" width="1.5" style="36" customWidth="1"/>
+    <col min="5101" max="5101" width="1.33203125" style="36" customWidth="1"/>
     <col min="5102" max="5102" width="42" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5103" max="5103" width="5.5" style="36" customWidth="1"/>
     <col min="5104" max="5105" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5107" max="5142" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5143" max="5143" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5144" max="5144" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5146" max="5355" width="8.85546875" style="36"/>
-    <col min="5356" max="5356" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5357" max="5357" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5106" max="5106" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5107" max="5142" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5143" max="5143" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5144" max="5144" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5145" max="5145" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5146" max="5355" width="8.83203125" style="36"/>
+    <col min="5356" max="5356" width="1.5" style="36" customWidth="1"/>
+    <col min="5357" max="5357" width="1.33203125" style="36" customWidth="1"/>
     <col min="5358" max="5358" width="42" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5359" max="5359" width="5.5" style="36" customWidth="1"/>
     <col min="5360" max="5361" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5363" max="5398" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5399" max="5399" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5400" max="5400" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5402" max="5611" width="8.85546875" style="36"/>
-    <col min="5612" max="5612" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5613" max="5613" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5362" max="5362" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5363" max="5398" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5399" max="5399" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5400" max="5400" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5401" max="5401" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5402" max="5611" width="8.83203125" style="36"/>
+    <col min="5612" max="5612" width="1.5" style="36" customWidth="1"/>
+    <col min="5613" max="5613" width="1.33203125" style="36" customWidth="1"/>
     <col min="5614" max="5614" width="42" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5615" max="5615" width="5.5" style="36" customWidth="1"/>
     <col min="5616" max="5617" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5619" max="5654" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5655" max="5655" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5656" max="5656" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5658" max="5867" width="8.85546875" style="36"/>
-    <col min="5868" max="5868" width="1.42578125" style="36" customWidth="1"/>
-    <col min="5869" max="5869" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5618" max="5618" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5619" max="5654" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5655" max="5655" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5656" max="5656" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5657" max="5657" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5658" max="5867" width="8.83203125" style="36"/>
+    <col min="5868" max="5868" width="1.5" style="36" customWidth="1"/>
+    <col min="5869" max="5869" width="1.33203125" style="36" customWidth="1"/>
     <col min="5870" max="5870" width="42" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="5.42578125" style="36" customWidth="1"/>
+    <col min="5871" max="5871" width="5.5" style="36" customWidth="1"/>
     <col min="5872" max="5873" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.7109375" style="36" customWidth="1"/>
-    <col min="5875" max="5910" width="3.28515625" style="36" customWidth="1"/>
-    <col min="5911" max="5911" width="1.7109375" style="36" customWidth="1"/>
-    <col min="5912" max="5912" width="25.7109375" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="31.28515625" style="36" customWidth="1"/>
-    <col min="5914" max="6123" width="8.85546875" style="36"/>
-    <col min="6124" max="6124" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6125" max="6125" width="1.28515625" style="36" customWidth="1"/>
+    <col min="5874" max="5874" width="2.6640625" style="36" customWidth="1"/>
+    <col min="5875" max="5910" width="3.33203125" style="36" customWidth="1"/>
+    <col min="5911" max="5911" width="1.6640625" style="36" customWidth="1"/>
+    <col min="5912" max="5912" width="25.6640625" style="36" customWidth="1"/>
+    <col min="5913" max="5913" width="31.33203125" style="36" customWidth="1"/>
+    <col min="5914" max="6123" width="8.83203125" style="36"/>
+    <col min="6124" max="6124" width="1.5" style="36" customWidth="1"/>
+    <col min="6125" max="6125" width="1.33203125" style="36" customWidth="1"/>
     <col min="6126" max="6126" width="42" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6127" max="6127" width="5.5" style="36" customWidth="1"/>
     <col min="6128" max="6129" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6131" max="6166" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6167" max="6167" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6168" max="6168" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6170" max="6379" width="8.85546875" style="36"/>
-    <col min="6380" max="6380" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6381" max="6381" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6130" max="6130" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6131" max="6166" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6167" max="6167" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6168" max="6168" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6169" max="6169" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6170" max="6379" width="8.83203125" style="36"/>
+    <col min="6380" max="6380" width="1.5" style="36" customWidth="1"/>
+    <col min="6381" max="6381" width="1.33203125" style="36" customWidth="1"/>
     <col min="6382" max="6382" width="42" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6383" max="6383" width="5.5" style="36" customWidth="1"/>
     <col min="6384" max="6385" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6387" max="6422" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6423" max="6423" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6424" max="6424" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6426" max="6635" width="8.85546875" style="36"/>
-    <col min="6636" max="6636" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6637" max="6637" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6386" max="6386" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6387" max="6422" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6423" max="6423" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6424" max="6424" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6425" max="6425" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6426" max="6635" width="8.83203125" style="36"/>
+    <col min="6636" max="6636" width="1.5" style="36" customWidth="1"/>
+    <col min="6637" max="6637" width="1.33203125" style="36" customWidth="1"/>
     <col min="6638" max="6638" width="42" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6639" max="6639" width="5.5" style="36" customWidth="1"/>
     <col min="6640" max="6641" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6643" max="6678" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6679" max="6679" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6680" max="6680" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6682" max="6891" width="8.85546875" style="36"/>
-    <col min="6892" max="6892" width="1.42578125" style="36" customWidth="1"/>
-    <col min="6893" max="6893" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6642" max="6642" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6643" max="6678" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6679" max="6679" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6680" max="6680" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6681" max="6681" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6682" max="6891" width="8.83203125" style="36"/>
+    <col min="6892" max="6892" width="1.5" style="36" customWidth="1"/>
+    <col min="6893" max="6893" width="1.33203125" style="36" customWidth="1"/>
     <col min="6894" max="6894" width="42" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="5.42578125" style="36" customWidth="1"/>
+    <col min="6895" max="6895" width="5.5" style="36" customWidth="1"/>
     <col min="6896" max="6897" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.7109375" style="36" customWidth="1"/>
-    <col min="6899" max="6934" width="3.28515625" style="36" customWidth="1"/>
-    <col min="6935" max="6935" width="1.7109375" style="36" customWidth="1"/>
-    <col min="6936" max="6936" width="25.7109375" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="31.28515625" style="36" customWidth="1"/>
-    <col min="6938" max="7147" width="8.85546875" style="36"/>
-    <col min="7148" max="7148" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7149" max="7149" width="1.28515625" style="36" customWidth="1"/>
+    <col min="6898" max="6898" width="2.6640625" style="36" customWidth="1"/>
+    <col min="6899" max="6934" width="3.33203125" style="36" customWidth="1"/>
+    <col min="6935" max="6935" width="1.6640625" style="36" customWidth="1"/>
+    <col min="6936" max="6936" width="25.6640625" style="36" customWidth="1"/>
+    <col min="6937" max="6937" width="31.33203125" style="36" customWidth="1"/>
+    <col min="6938" max="7147" width="8.83203125" style="36"/>
+    <col min="7148" max="7148" width="1.5" style="36" customWidth="1"/>
+    <col min="7149" max="7149" width="1.33203125" style="36" customWidth="1"/>
     <col min="7150" max="7150" width="42" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7151" max="7151" width="5.5" style="36" customWidth="1"/>
     <col min="7152" max="7153" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7155" max="7190" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7191" max="7191" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7192" max="7192" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7194" max="7403" width="8.85546875" style="36"/>
-    <col min="7404" max="7404" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7405" max="7405" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7154" max="7154" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7155" max="7190" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7191" max="7191" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7192" max="7192" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7193" max="7193" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7194" max="7403" width="8.83203125" style="36"/>
+    <col min="7404" max="7404" width="1.5" style="36" customWidth="1"/>
+    <col min="7405" max="7405" width="1.33203125" style="36" customWidth="1"/>
     <col min="7406" max="7406" width="42" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7407" max="7407" width="5.5" style="36" customWidth="1"/>
     <col min="7408" max="7409" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7411" max="7446" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7447" max="7447" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7448" max="7448" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7450" max="7659" width="8.85546875" style="36"/>
-    <col min="7660" max="7660" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7661" max="7661" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7410" max="7410" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7411" max="7446" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7447" max="7447" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7448" max="7448" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7449" max="7449" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7450" max="7659" width="8.83203125" style="36"/>
+    <col min="7660" max="7660" width="1.5" style="36" customWidth="1"/>
+    <col min="7661" max="7661" width="1.33203125" style="36" customWidth="1"/>
     <col min="7662" max="7662" width="42" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7663" max="7663" width="5.5" style="36" customWidth="1"/>
     <col min="7664" max="7665" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7667" max="7702" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7703" max="7703" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7704" max="7704" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7706" max="7915" width="8.85546875" style="36"/>
-    <col min="7916" max="7916" width="1.42578125" style="36" customWidth="1"/>
-    <col min="7917" max="7917" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7666" max="7666" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7667" max="7702" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7703" max="7703" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7704" max="7704" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7705" max="7705" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7706" max="7915" width="8.83203125" style="36"/>
+    <col min="7916" max="7916" width="1.5" style="36" customWidth="1"/>
+    <col min="7917" max="7917" width="1.33203125" style="36" customWidth="1"/>
     <col min="7918" max="7918" width="42" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="5.42578125" style="36" customWidth="1"/>
+    <col min="7919" max="7919" width="5.5" style="36" customWidth="1"/>
     <col min="7920" max="7921" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.7109375" style="36" customWidth="1"/>
-    <col min="7923" max="7958" width="3.28515625" style="36" customWidth="1"/>
-    <col min="7959" max="7959" width="1.7109375" style="36" customWidth="1"/>
-    <col min="7960" max="7960" width="25.7109375" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="31.28515625" style="36" customWidth="1"/>
-    <col min="7962" max="8171" width="8.85546875" style="36"/>
-    <col min="8172" max="8172" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8173" max="8173" width="1.28515625" style="36" customWidth="1"/>
+    <col min="7922" max="7922" width="2.6640625" style="36" customWidth="1"/>
+    <col min="7923" max="7958" width="3.33203125" style="36" customWidth="1"/>
+    <col min="7959" max="7959" width="1.6640625" style="36" customWidth="1"/>
+    <col min="7960" max="7960" width="25.6640625" style="36" customWidth="1"/>
+    <col min="7961" max="7961" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7962" max="8171" width="8.83203125" style="36"/>
+    <col min="8172" max="8172" width="1.5" style="36" customWidth="1"/>
+    <col min="8173" max="8173" width="1.33203125" style="36" customWidth="1"/>
     <col min="8174" max="8174" width="42" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8175" max="8175" width="5.5" style="36" customWidth="1"/>
     <col min="8176" max="8177" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8179" max="8214" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8215" max="8215" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8216" max="8216" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8218" max="8427" width="8.85546875" style="36"/>
-    <col min="8428" max="8428" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8429" max="8429" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8178" max="8178" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8179" max="8214" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8215" max="8215" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8216" max="8216" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8217" max="8217" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8218" max="8427" width="8.83203125" style="36"/>
+    <col min="8428" max="8428" width="1.5" style="36" customWidth="1"/>
+    <col min="8429" max="8429" width="1.33203125" style="36" customWidth="1"/>
     <col min="8430" max="8430" width="42" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8431" max="8431" width="5.5" style="36" customWidth="1"/>
     <col min="8432" max="8433" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8435" max="8470" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8471" max="8471" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8472" max="8472" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8474" max="8683" width="8.85546875" style="36"/>
-    <col min="8684" max="8684" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8685" max="8685" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8434" max="8434" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8435" max="8470" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8471" max="8471" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8472" max="8472" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8473" max="8473" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8474" max="8683" width="8.83203125" style="36"/>
+    <col min="8684" max="8684" width="1.5" style="36" customWidth="1"/>
+    <col min="8685" max="8685" width="1.33203125" style="36" customWidth="1"/>
     <col min="8686" max="8686" width="42" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8687" max="8687" width="5.5" style="36" customWidth="1"/>
     <col min="8688" max="8689" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8691" max="8726" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8727" max="8727" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8728" max="8728" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8730" max="8939" width="8.85546875" style="36"/>
-    <col min="8940" max="8940" width="1.42578125" style="36" customWidth="1"/>
-    <col min="8941" max="8941" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8690" max="8690" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8691" max="8726" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8727" max="8727" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8728" max="8728" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8729" max="8729" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8730" max="8939" width="8.83203125" style="36"/>
+    <col min="8940" max="8940" width="1.5" style="36" customWidth="1"/>
+    <col min="8941" max="8941" width="1.33203125" style="36" customWidth="1"/>
     <col min="8942" max="8942" width="42" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="5.42578125" style="36" customWidth="1"/>
+    <col min="8943" max="8943" width="5.5" style="36" customWidth="1"/>
     <col min="8944" max="8945" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.7109375" style="36" customWidth="1"/>
-    <col min="8947" max="8982" width="3.28515625" style="36" customWidth="1"/>
-    <col min="8983" max="8983" width="1.7109375" style="36" customWidth="1"/>
-    <col min="8984" max="8984" width="25.7109375" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="31.28515625" style="36" customWidth="1"/>
-    <col min="8986" max="9195" width="8.85546875" style="36"/>
-    <col min="9196" max="9196" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9197" max="9197" width="1.28515625" style="36" customWidth="1"/>
+    <col min="8946" max="8946" width="2.6640625" style="36" customWidth="1"/>
+    <col min="8947" max="8982" width="3.33203125" style="36" customWidth="1"/>
+    <col min="8983" max="8983" width="1.6640625" style="36" customWidth="1"/>
+    <col min="8984" max="8984" width="25.6640625" style="36" customWidth="1"/>
+    <col min="8985" max="8985" width="31.33203125" style="36" customWidth="1"/>
+    <col min="8986" max="9195" width="8.83203125" style="36"/>
+    <col min="9196" max="9196" width="1.5" style="36" customWidth="1"/>
+    <col min="9197" max="9197" width="1.33203125" style="36" customWidth="1"/>
     <col min="9198" max="9198" width="42" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9199" max="9199" width="5.5" style="36" customWidth="1"/>
     <col min="9200" max="9201" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9203" max="9238" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9239" max="9239" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9240" max="9240" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9242" max="9451" width="8.85546875" style="36"/>
-    <col min="9452" max="9452" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9453" max="9453" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9202" max="9202" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9203" max="9238" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9239" max="9239" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9240" max="9240" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9241" max="9241" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9242" max="9451" width="8.83203125" style="36"/>
+    <col min="9452" max="9452" width="1.5" style="36" customWidth="1"/>
+    <col min="9453" max="9453" width="1.33203125" style="36" customWidth="1"/>
     <col min="9454" max="9454" width="42" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9455" max="9455" width="5.5" style="36" customWidth="1"/>
     <col min="9456" max="9457" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9459" max="9494" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9495" max="9495" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9496" max="9496" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9498" max="9707" width="8.85546875" style="36"/>
-    <col min="9708" max="9708" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9709" max="9709" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9458" max="9458" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9459" max="9494" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9495" max="9495" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9496" max="9496" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9497" max="9497" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9498" max="9707" width="8.83203125" style="36"/>
+    <col min="9708" max="9708" width="1.5" style="36" customWidth="1"/>
+    <col min="9709" max="9709" width="1.33203125" style="36" customWidth="1"/>
     <col min="9710" max="9710" width="42" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9711" max="9711" width="5.5" style="36" customWidth="1"/>
     <col min="9712" max="9713" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9715" max="9750" width="3.28515625" style="36" customWidth="1"/>
-    <col min="9751" max="9751" width="1.7109375" style="36" customWidth="1"/>
-    <col min="9752" max="9752" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="31.28515625" style="36" customWidth="1"/>
-    <col min="9754" max="9963" width="8.85546875" style="36"/>
-    <col min="9964" max="9964" width="1.42578125" style="36" customWidth="1"/>
-    <col min="9965" max="9965" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9714" max="9714" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9715" max="9750" width="3.33203125" style="36" customWidth="1"/>
+    <col min="9751" max="9751" width="1.6640625" style="36" customWidth="1"/>
+    <col min="9752" max="9752" width="25.6640625" style="36" customWidth="1"/>
+    <col min="9753" max="9753" width="31.33203125" style="36" customWidth="1"/>
+    <col min="9754" max="9963" width="8.83203125" style="36"/>
+    <col min="9964" max="9964" width="1.5" style="36" customWidth="1"/>
+    <col min="9965" max="9965" width="1.33203125" style="36" customWidth="1"/>
     <col min="9966" max="9966" width="42" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="5.42578125" style="36" customWidth="1"/>
+    <col min="9967" max="9967" width="5.5" style="36" customWidth="1"/>
     <col min="9968" max="9969" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9971" max="10006" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10007" max="10007" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10008" max="10008" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10010" max="10219" width="8.85546875" style="36"/>
-    <col min="10220" max="10220" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10221" max="10221" width="1.28515625" style="36" customWidth="1"/>
+    <col min="9970" max="9970" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9971" max="10006" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10007" max="10007" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10008" max="10008" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10009" max="10009" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10010" max="10219" width="8.83203125" style="36"/>
+    <col min="10220" max="10220" width="1.5" style="36" customWidth="1"/>
+    <col min="10221" max="10221" width="1.33203125" style="36" customWidth="1"/>
     <col min="10222" max="10222" width="42" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10223" max="10223" width="5.5" style="36" customWidth="1"/>
     <col min="10224" max="10225" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10227" max="10262" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10263" max="10263" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10264" max="10264" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10266" max="10475" width="8.85546875" style="36"/>
-    <col min="10476" max="10476" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10477" max="10477" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10226" max="10226" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10227" max="10262" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10263" max="10263" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10264" max="10264" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10265" max="10265" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10266" max="10475" width="8.83203125" style="36"/>
+    <col min="10476" max="10476" width="1.5" style="36" customWidth="1"/>
+    <col min="10477" max="10477" width="1.33203125" style="36" customWidth="1"/>
     <col min="10478" max="10478" width="42" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10479" max="10479" width="5.5" style="36" customWidth="1"/>
     <col min="10480" max="10481" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10483" max="10518" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10519" max="10519" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10520" max="10520" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10522" max="10731" width="8.85546875" style="36"/>
-    <col min="10732" max="10732" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10733" max="10733" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10482" max="10482" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10483" max="10518" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10519" max="10519" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10520" max="10520" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10521" max="10521" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10522" max="10731" width="8.83203125" style="36"/>
+    <col min="10732" max="10732" width="1.5" style="36" customWidth="1"/>
+    <col min="10733" max="10733" width="1.33203125" style="36" customWidth="1"/>
     <col min="10734" max="10734" width="42" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10735" max="10735" width="5.5" style="36" customWidth="1"/>
     <col min="10736" max="10737" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10739" max="10774" width="3.28515625" style="36" customWidth="1"/>
-    <col min="10775" max="10775" width="1.7109375" style="36" customWidth="1"/>
-    <col min="10776" max="10776" width="25.7109375" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="31.28515625" style="36" customWidth="1"/>
-    <col min="10778" max="10987" width="8.85546875" style="36"/>
-    <col min="10988" max="10988" width="1.42578125" style="36" customWidth="1"/>
-    <col min="10989" max="10989" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10738" max="10738" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10739" max="10774" width="3.33203125" style="36" customWidth="1"/>
+    <col min="10775" max="10775" width="1.6640625" style="36" customWidth="1"/>
+    <col min="10776" max="10776" width="25.6640625" style="36" customWidth="1"/>
+    <col min="10777" max="10777" width="31.33203125" style="36" customWidth="1"/>
+    <col min="10778" max="10987" width="8.83203125" style="36"/>
+    <col min="10988" max="10988" width="1.5" style="36" customWidth="1"/>
+    <col min="10989" max="10989" width="1.33203125" style="36" customWidth="1"/>
     <col min="10990" max="10990" width="42" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="5.42578125" style="36" customWidth="1"/>
+    <col min="10991" max="10991" width="5.5" style="36" customWidth="1"/>
     <col min="10992" max="10993" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.7109375" style="36" customWidth="1"/>
-    <col min="10995" max="11030" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11031" max="11031" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11032" max="11032" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11034" max="11243" width="8.85546875" style="36"/>
-    <col min="11244" max="11244" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11245" max="11245" width="1.28515625" style="36" customWidth="1"/>
+    <col min="10994" max="10994" width="2.6640625" style="36" customWidth="1"/>
+    <col min="10995" max="11030" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11031" max="11031" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11032" max="11032" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11033" max="11033" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11034" max="11243" width="8.83203125" style="36"/>
+    <col min="11244" max="11244" width="1.5" style="36" customWidth="1"/>
+    <col min="11245" max="11245" width="1.33203125" style="36" customWidth="1"/>
     <col min="11246" max="11246" width="42" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11247" max="11247" width="5.5" style="36" customWidth="1"/>
     <col min="11248" max="11249" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11251" max="11286" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11287" max="11287" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11288" max="11288" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11290" max="11499" width="8.85546875" style="36"/>
-    <col min="11500" max="11500" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11501" max="11501" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11250" max="11250" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11251" max="11286" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11287" max="11287" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11288" max="11288" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11289" max="11289" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11290" max="11499" width="8.83203125" style="36"/>
+    <col min="11500" max="11500" width="1.5" style="36" customWidth="1"/>
+    <col min="11501" max="11501" width="1.33203125" style="36" customWidth="1"/>
     <col min="11502" max="11502" width="42" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11503" max="11503" width="5.5" style="36" customWidth="1"/>
     <col min="11504" max="11505" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11507" max="11542" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11543" max="11543" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11544" max="11544" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11546" max="11755" width="8.85546875" style="36"/>
-    <col min="11756" max="11756" width="1.42578125" style="36" customWidth="1"/>
-    <col min="11757" max="11757" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11506" max="11506" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11507" max="11542" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11543" max="11543" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11544" max="11544" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11545" max="11545" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11546" max="11755" width="8.83203125" style="36"/>
+    <col min="11756" max="11756" width="1.5" style="36" customWidth="1"/>
+    <col min="11757" max="11757" width="1.33203125" style="36" customWidth="1"/>
     <col min="11758" max="11758" width="42" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11759" max="11759" width="5.5" style="36" customWidth="1"/>
     <col min="11760" max="11761" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.7109375" style="36" customWidth="1"/>
-    <col min="11763" max="11798" width="3.28515625" style="36" customWidth="1"/>
-    <col min="11799" max="11799" width="1.7109375" style="36" customWidth="1"/>
-    <col min="11800" max="11800" width="25.7109375" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="31.28515625" style="36" customWidth="1"/>
-    <col min="11802" max="12011" width="8.85546875" style="36"/>
-    <col min="12012" max="12012" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12013" max="12013" width="1.28515625" style="36" customWidth="1"/>
+    <col min="11762" max="11762" width="2.6640625" style="36" customWidth="1"/>
+    <col min="11763" max="11798" width="3.33203125" style="36" customWidth="1"/>
+    <col min="11799" max="11799" width="1.6640625" style="36" customWidth="1"/>
+    <col min="11800" max="11800" width="25.6640625" style="36" customWidth="1"/>
+    <col min="11801" max="11801" width="31.33203125" style="36" customWidth="1"/>
+    <col min="11802" max="12011" width="8.83203125" style="36"/>
+    <col min="12012" max="12012" width="1.5" style="36" customWidth="1"/>
+    <col min="12013" max="12013" width="1.33203125" style="36" customWidth="1"/>
     <col min="12014" max="12014" width="42" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12015" max="12015" width="5.5" style="36" customWidth="1"/>
     <col min="12016" max="12017" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12019" max="12054" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12055" max="12055" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12056" max="12056" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12058" max="12267" width="8.85546875" style="36"/>
-    <col min="12268" max="12268" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12269" max="12269" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12018" max="12018" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12019" max="12054" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12055" max="12055" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12056" max="12056" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12057" max="12057" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12058" max="12267" width="8.83203125" style="36"/>
+    <col min="12268" max="12268" width="1.5" style="36" customWidth="1"/>
+    <col min="12269" max="12269" width="1.33203125" style="36" customWidth="1"/>
     <col min="12270" max="12270" width="42" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12271" max="12271" width="5.5" style="36" customWidth="1"/>
     <col min="12272" max="12273" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12275" max="12310" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12311" max="12311" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12312" max="12312" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12314" max="12523" width="8.85546875" style="36"/>
-    <col min="12524" max="12524" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12525" max="12525" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12274" max="12274" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12275" max="12310" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12311" max="12311" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12312" max="12312" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12313" max="12313" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12314" max="12523" width="8.83203125" style="36"/>
+    <col min="12524" max="12524" width="1.5" style="36" customWidth="1"/>
+    <col min="12525" max="12525" width="1.33203125" style="36" customWidth="1"/>
     <col min="12526" max="12526" width="42" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12527" max="12527" width="5.5" style="36" customWidth="1"/>
     <col min="12528" max="12529" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12531" max="12566" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12567" max="12567" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12568" max="12568" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12570" max="12779" width="8.85546875" style="36"/>
-    <col min="12780" max="12780" width="1.42578125" style="36" customWidth="1"/>
-    <col min="12781" max="12781" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12530" max="12530" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12531" max="12566" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12567" max="12567" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12568" max="12568" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12569" max="12569" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12570" max="12779" width="8.83203125" style="36"/>
+    <col min="12780" max="12780" width="1.5" style="36" customWidth="1"/>
+    <col min="12781" max="12781" width="1.33203125" style="36" customWidth="1"/>
     <col min="12782" max="12782" width="42" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="5.42578125" style="36" customWidth="1"/>
+    <col min="12783" max="12783" width="5.5" style="36" customWidth="1"/>
     <col min="12784" max="12785" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.7109375" style="36" customWidth="1"/>
-    <col min="12787" max="12822" width="3.28515625" style="36" customWidth="1"/>
-    <col min="12823" max="12823" width="1.7109375" style="36" customWidth="1"/>
-    <col min="12824" max="12824" width="25.7109375" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="31.28515625" style="36" customWidth="1"/>
-    <col min="12826" max="13035" width="8.85546875" style="36"/>
-    <col min="13036" max="13036" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13037" max="13037" width="1.28515625" style="36" customWidth="1"/>
+    <col min="12786" max="12786" width="2.6640625" style="36" customWidth="1"/>
+    <col min="12787" max="12822" width="3.33203125" style="36" customWidth="1"/>
+    <col min="12823" max="12823" width="1.6640625" style="36" customWidth="1"/>
+    <col min="12824" max="12824" width="25.6640625" style="36" customWidth="1"/>
+    <col min="12825" max="12825" width="31.33203125" style="36" customWidth="1"/>
+    <col min="12826" max="13035" width="8.83203125" style="36"/>
+    <col min="13036" max="13036" width="1.5" style="36" customWidth="1"/>
+    <col min="13037" max="13037" width="1.33203125" style="36" customWidth="1"/>
     <col min="13038" max="13038" width="42" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13039" max="13039" width="5.5" style="36" customWidth="1"/>
     <col min="13040" max="13041" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13043" max="13078" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13079" max="13079" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13080" max="13080" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13082" max="13291" width="8.85546875" style="36"/>
-    <col min="13292" max="13292" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13293" max="13293" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13042" max="13042" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13043" max="13078" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13079" max="13079" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13080" max="13080" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13081" max="13081" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13082" max="13291" width="8.83203125" style="36"/>
+    <col min="13292" max="13292" width="1.5" style="36" customWidth="1"/>
+    <col min="13293" max="13293" width="1.33203125" style="36" customWidth="1"/>
     <col min="13294" max="13294" width="42" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13295" max="13295" width="5.5" style="36" customWidth="1"/>
     <col min="13296" max="13297" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13299" max="13334" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13335" max="13335" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13336" max="13336" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13338" max="13547" width="8.85546875" style="36"/>
-    <col min="13548" max="13548" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13549" max="13549" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13298" max="13298" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13299" max="13334" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13335" max="13335" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13336" max="13336" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13337" max="13337" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13338" max="13547" width="8.83203125" style="36"/>
+    <col min="13548" max="13548" width="1.5" style="36" customWidth="1"/>
+    <col min="13549" max="13549" width="1.33203125" style="36" customWidth="1"/>
     <col min="13550" max="13550" width="42" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13551" max="13551" width="5.5" style="36" customWidth="1"/>
     <col min="13552" max="13553" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13555" max="13590" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13591" max="13591" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13592" max="13592" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13594" max="13803" width="8.85546875" style="36"/>
-    <col min="13804" max="13804" width="1.42578125" style="36" customWidth="1"/>
-    <col min="13805" max="13805" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13554" max="13554" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13555" max="13590" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13591" max="13591" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13592" max="13592" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13593" max="13593" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13594" max="13803" width="8.83203125" style="36"/>
+    <col min="13804" max="13804" width="1.5" style="36" customWidth="1"/>
+    <col min="13805" max="13805" width="1.33203125" style="36" customWidth="1"/>
     <col min="13806" max="13806" width="42" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="5.42578125" style="36" customWidth="1"/>
+    <col min="13807" max="13807" width="5.5" style="36" customWidth="1"/>
     <col min="13808" max="13809" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.7109375" style="36" customWidth="1"/>
-    <col min="13811" max="13846" width="3.28515625" style="36" customWidth="1"/>
-    <col min="13847" max="13847" width="1.7109375" style="36" customWidth="1"/>
-    <col min="13848" max="13848" width="25.7109375" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="31.28515625" style="36" customWidth="1"/>
-    <col min="13850" max="14059" width="8.85546875" style="36"/>
-    <col min="14060" max="14060" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14061" max="14061" width="1.28515625" style="36" customWidth="1"/>
+    <col min="13810" max="13810" width="2.6640625" style="36" customWidth="1"/>
+    <col min="13811" max="13846" width="3.33203125" style="36" customWidth="1"/>
+    <col min="13847" max="13847" width="1.6640625" style="36" customWidth="1"/>
+    <col min="13848" max="13848" width="25.6640625" style="36" customWidth="1"/>
+    <col min="13849" max="13849" width="31.33203125" style="36" customWidth="1"/>
+    <col min="13850" max="14059" width="8.83203125" style="36"/>
+    <col min="14060" max="14060" width="1.5" style="36" customWidth="1"/>
+    <col min="14061" max="14061" width="1.33203125" style="36" customWidth="1"/>
     <col min="14062" max="14062" width="42" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14063" max="14063" width="5.5" style="36" customWidth="1"/>
     <col min="14064" max="14065" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14067" max="14102" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14103" max="14103" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14104" max="14104" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14106" max="14315" width="8.85546875" style="36"/>
-    <col min="14316" max="14316" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14317" max="14317" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14066" max="14066" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14067" max="14102" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14103" max="14103" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14104" max="14104" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14105" max="14105" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14106" max="14315" width="8.83203125" style="36"/>
+    <col min="14316" max="14316" width="1.5" style="36" customWidth="1"/>
+    <col min="14317" max="14317" width="1.33203125" style="36" customWidth="1"/>
     <col min="14318" max="14318" width="42" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14319" max="14319" width="5.5" style="36" customWidth="1"/>
     <col min="14320" max="14321" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14323" max="14358" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14359" max="14359" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14360" max="14360" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14362" max="14571" width="8.85546875" style="36"/>
-    <col min="14572" max="14572" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14573" max="14573" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14322" max="14322" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14323" max="14358" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14359" max="14359" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14360" max="14360" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14361" max="14361" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14362" max="14571" width="8.83203125" style="36"/>
+    <col min="14572" max="14572" width="1.5" style="36" customWidth="1"/>
+    <col min="14573" max="14573" width="1.33203125" style="36" customWidth="1"/>
     <col min="14574" max="14574" width="42" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14575" max="14575" width="5.5" style="36" customWidth="1"/>
     <col min="14576" max="14577" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14579" max="14614" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14615" max="14615" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14616" max="14616" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14618" max="14827" width="8.85546875" style="36"/>
-    <col min="14828" max="14828" width="1.42578125" style="36" customWidth="1"/>
-    <col min="14829" max="14829" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14578" max="14578" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14579" max="14614" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14615" max="14615" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14616" max="14616" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14617" max="14617" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14618" max="14827" width="8.83203125" style="36"/>
+    <col min="14828" max="14828" width="1.5" style="36" customWidth="1"/>
+    <col min="14829" max="14829" width="1.33203125" style="36" customWidth="1"/>
     <col min="14830" max="14830" width="42" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="5.42578125" style="36" customWidth="1"/>
+    <col min="14831" max="14831" width="5.5" style="36" customWidth="1"/>
     <col min="14832" max="14833" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.7109375" style="36" customWidth="1"/>
-    <col min="14835" max="14870" width="3.28515625" style="36" customWidth="1"/>
-    <col min="14871" max="14871" width="1.7109375" style="36" customWidth="1"/>
-    <col min="14872" max="14872" width="25.7109375" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="31.28515625" style="36" customWidth="1"/>
-    <col min="14874" max="15083" width="8.85546875" style="36"/>
-    <col min="15084" max="15084" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15085" max="15085" width="1.28515625" style="36" customWidth="1"/>
+    <col min="14834" max="14834" width="2.6640625" style="36" customWidth="1"/>
+    <col min="14835" max="14870" width="3.33203125" style="36" customWidth="1"/>
+    <col min="14871" max="14871" width="1.6640625" style="36" customWidth="1"/>
+    <col min="14872" max="14872" width="25.6640625" style="36" customWidth="1"/>
+    <col min="14873" max="14873" width="31.33203125" style="36" customWidth="1"/>
+    <col min="14874" max="15083" width="8.83203125" style="36"/>
+    <col min="15084" max="15084" width="1.5" style="36" customWidth="1"/>
+    <col min="15085" max="15085" width="1.33203125" style="36" customWidth="1"/>
     <col min="15086" max="15086" width="42" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15087" max="15087" width="5.5" style="36" customWidth="1"/>
     <col min="15088" max="15089" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15091" max="15126" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15127" max="15127" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15128" max="15128" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15130" max="15339" width="8.85546875" style="36"/>
-    <col min="15340" max="15340" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15341" max="15341" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15090" max="15090" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15091" max="15126" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15127" max="15127" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15128" max="15128" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15129" max="15129" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15130" max="15339" width="8.83203125" style="36"/>
+    <col min="15340" max="15340" width="1.5" style="36" customWidth="1"/>
+    <col min="15341" max="15341" width="1.33203125" style="36" customWidth="1"/>
     <col min="15342" max="15342" width="42" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15343" max="15343" width="5.5" style="36" customWidth="1"/>
     <col min="15344" max="15345" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15347" max="15382" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15383" max="15383" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15384" max="15384" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15386" max="15595" width="8.85546875" style="36"/>
-    <col min="15596" max="15596" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15597" max="15597" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15346" max="15346" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15347" max="15382" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15383" max="15383" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15384" max="15384" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15385" max="15385" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15386" max="15595" width="8.83203125" style="36"/>
+    <col min="15596" max="15596" width="1.5" style="36" customWidth="1"/>
+    <col min="15597" max="15597" width="1.33203125" style="36" customWidth="1"/>
     <col min="15598" max="15598" width="42" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15599" max="15599" width="5.5" style="36" customWidth="1"/>
     <col min="15600" max="15601" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15603" max="15638" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15639" max="15639" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15640" max="15640" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15642" max="15851" width="8.85546875" style="36"/>
-    <col min="15852" max="15852" width="1.42578125" style="36" customWidth="1"/>
-    <col min="15853" max="15853" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15602" max="15602" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15603" max="15638" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15639" max="15639" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15640" max="15640" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15641" max="15641" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15642" max="15851" width="8.83203125" style="36"/>
+    <col min="15852" max="15852" width="1.5" style="36" customWidth="1"/>
+    <col min="15853" max="15853" width="1.33203125" style="36" customWidth="1"/>
     <col min="15854" max="15854" width="42" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="5.42578125" style="36" customWidth="1"/>
+    <col min="15855" max="15855" width="5.5" style="36" customWidth="1"/>
     <col min="15856" max="15857" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.7109375" style="36" customWidth="1"/>
-    <col min="15859" max="15894" width="3.28515625" style="36" customWidth="1"/>
-    <col min="15895" max="15895" width="1.7109375" style="36" customWidth="1"/>
-    <col min="15896" max="15896" width="25.7109375" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="31.28515625" style="36" customWidth="1"/>
-    <col min="15898" max="16107" width="8.85546875" style="36"/>
-    <col min="16108" max="16108" width="1.42578125" style="36" customWidth="1"/>
-    <col min="16109" max="16109" width="1.28515625" style="36" customWidth="1"/>
+    <col min="15858" max="15858" width="2.6640625" style="36" customWidth="1"/>
+    <col min="15859" max="15894" width="3.33203125" style="36" customWidth="1"/>
+    <col min="15895" max="15895" width="1.6640625" style="36" customWidth="1"/>
+    <col min="15896" max="15896" width="25.6640625" style="36" customWidth="1"/>
+    <col min="15897" max="15897" width="31.33203125" style="36" customWidth="1"/>
+    <col min="15898" max="16107" width="8.83203125" style="36"/>
+    <col min="16108" max="16108" width="1.5" style="36" customWidth="1"/>
+    <col min="16109" max="16109" width="1.33203125" style="36" customWidth="1"/>
     <col min="16110" max="16110" width="42" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="5.42578125" style="36" customWidth="1"/>
+    <col min="16111" max="16111" width="5.5" style="36" customWidth="1"/>
     <col min="16112" max="16113" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.7109375" style="36" customWidth="1"/>
-    <col min="16115" max="16150" width="3.28515625" style="36" customWidth="1"/>
-    <col min="16151" max="16151" width="1.7109375" style="36" customWidth="1"/>
-    <col min="16152" max="16152" width="25.7109375" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="31.28515625" style="36" customWidth="1"/>
-    <col min="16154" max="16384" width="8.85546875" style="36"/>
+    <col min="16114" max="16114" width="2.6640625" style="36" customWidth="1"/>
+    <col min="16115" max="16150" width="3.33203125" style="36" customWidth="1"/>
+    <col min="16151" max="16151" width="1.6640625" style="36" customWidth="1"/>
+    <col min="16152" max="16152" width="25.6640625" style="36" customWidth="1"/>
+    <col min="16153" max="16153" width="31.33203125" style="36" customWidth="1"/>
+    <col min="16154" max="16384" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="65" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="36"/>
     </row>
-    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="69" t="s">
+    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="121" t="s">
         <v>73</v>
       </c>
       <c r="AD3" s="36"/>
@@ -7487,14 +7482,14 @@
       <c r="AG3" s="36"/>
       <c r="AH3" s="36"/>
     </row>
-    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="90" t="s">
+    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B4" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="125" t="s">
         <v>63</v>
       </c>
       <c r="AD4" s="36"/>
@@ -7503,14 +7498,14 @@
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
     </row>
-    <row r="5" spans="2:34" ht="30" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="90" t="s">
+    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B5" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="125" t="s">
         <v>63</v>
       </c>
       <c r="AD5" s="36"/>
@@ -7519,14 +7514,14 @@
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
     </row>
-    <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="90" t="s">
+    <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B6" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="125" t="s">
         <v>63</v>
       </c>
       <c r="AD6" s="36"/>
@@ -7535,15 +7530,15 @@
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
     </row>
-    <row r="7" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>63</v>
+    <row r="7" spans="2:34" ht="32" x14ac:dyDescent="0.15">
+      <c r="B7" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="126" t="s">
+        <v>64</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -7551,15 +7546,15 @@
       <c r="AG7" s="36"/>
       <c r="AH7" s="36"/>
     </row>
-    <row r="8" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>63</v>
+    <row r="8" spans="2:34" ht="32" x14ac:dyDescent="0.15">
+      <c r="B8" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>64</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -7567,15 +7562,15 @@
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
     </row>
-    <row r="9" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>63</v>
+    <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B9" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>64</v>
       </c>
       <c r="AD9" s="36"/>
       <c r="AE9" s="36"/>
@@ -7583,39 +7578,27 @@
       <c r="AG9" s="36"/>
       <c r="AH9" s="36"/>
     </row>
-    <row r="10" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="90" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="124"/>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
     </row>
-    <row r="11" spans="2:34" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>64</v>
-      </c>
+    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="124"/>
       <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
       <c r="AG11" s="36"/>
       <c r="AH11" s="36"/>
     </row>
-    <row r="12" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
@@ -7625,7 +7608,7 @@
       <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
     </row>
-    <row r="13" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
@@ -7635,91 +7618,89 @@
       <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
     </row>
-    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
     </row>
-    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="50"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
     </row>
-    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
     </row>
-    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="50"/>
       <c r="C25" s="20"/>
     </row>
-    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B26" s="50"/>
     </row>
-    <row r="27" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="BG-246"/>
-    <hyperlink ref="B5" r:id="rId2" display="BG-95"/>
-    <hyperlink ref="B6" r:id="rId3" display="BG-88"/>
-    <hyperlink ref="B7" r:id="rId4" display="BG-145"/>
-    <hyperlink ref="B8" r:id="rId5" display="BG-238"/>
-    <hyperlink ref="B9" r:id="rId6" display="BG-241"/>
-    <hyperlink ref="B10" r:id="rId7" display="BG-296"/>
-    <hyperlink ref="B11" r:id="rId8" display="BG-22"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId8"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -328,9 +328,6 @@
     <t>Crash , associating when bluetooth turned off</t>
   </si>
   <si>
-    <t>Crash during association</t>
-  </si>
-  <si>
     <t>Thijs Winter</t>
   </si>
   <si>
@@ -455,18 +452,9 @@
     <t>BL-88</t>
   </si>
   <si>
-    <t>BL-238</t>
-  </si>
-  <si>
     <t>BL-22</t>
   </si>
   <si>
-    <t>BL-385</t>
-  </si>
-  <si>
-    <t>NPE when disconnecting BtGatt</t>
-  </si>
-  <si>
     <t>BL-386</t>
   </si>
   <si>
@@ -474,6 +462,18 @@
   </si>
   <si>
     <t>Conclusion: The build cannot be released to clients due to 3 major  defects.</t>
+  </si>
+  <si>
+    <t>BL-390</t>
+  </si>
+  <si>
+    <t>NPE when calling readRssi()</t>
+  </si>
+  <si>
+    <t>BL-392</t>
+  </si>
+  <si>
+    <t>BlueLib doesn't build on a clean development environment</t>
   </si>
 </sst>
 </file>
@@ -804,7 +804,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1024,6 +1024,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1202,6 +1217,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1269,30 +1308,6 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2434,11 +2449,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2459,10 +2474,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2504,10 +2519,10 @@
       <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2522,10 +2537,10 @@
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2538,15 +2553,15 @@
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
+        <v>78</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2665,11 +2680,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2678,11 +2693,11 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
@@ -2734,27 +2749,27 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="99"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -2767,8 +2782,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -2848,7 +2863,7 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2973,19 +2988,19 @@
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>75</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -2998,19 +3013,19 @@
     </row>
     <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>79</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>80</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>82</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>83</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3023,19 +3038,19 @@
     </row>
     <row r="10" spans="2:14" ht="56" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="E10" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>87</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -5585,7 +5600,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
@@ -5603,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -5705,19 +5720,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
+      <c r="B4" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
@@ -5736,29 +5751,29 @@
       <c r="B6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="111"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
@@ -5767,17 +5782,17 @@
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="115" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="117"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
@@ -5786,17 +5801,17 @@
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="106"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
@@ -5805,10 +5820,10 @@
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -5819,17 +5834,17 @@
     </row>
     <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="103"/>
+        <v>64</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="66"/>
@@ -6652,11 +6667,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
@@ -6665,7 +6680,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="78">
         <v>0</v>
@@ -6674,7 +6689,7 @@
     </row>
     <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="79" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="80">
         <v>0</v>
@@ -6683,7 +6698,7 @@
     </row>
     <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="82">
         <v>3</v>
@@ -6692,7 +6707,7 @@
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="84">
         <v>3</v>
@@ -6701,7 +6716,7 @@
     </row>
     <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="86">
         <v>0</v>
@@ -6715,7 +6730,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6749,7 +6764,7 @@
   <dimension ref="B1:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7467,14 +7482,14 @@
       <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="D3" s="89" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="121" t="s">
-        <v>73</v>
       </c>
       <c r="AD3" s="36"/>
       <c r="AE3" s="36"/>
@@ -7483,14 +7498,14 @@
       <c r="AH3" s="36"/>
     </row>
     <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B4" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="125" t="s">
-        <v>63</v>
+      <c r="D4" s="93" t="s">
+        <v>62</v>
       </c>
       <c r="AD4" s="36"/>
       <c r="AE4" s="36"/>
@@ -7499,14 +7514,14 @@
       <c r="AH4" s="36"/>
     </row>
     <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B5" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>63</v>
+      <c r="B5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>62</v>
       </c>
       <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
@@ -7515,14 +7530,14 @@
       <c r="AH5" s="36"/>
     </row>
     <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B6" s="122" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>63</v>
+      <c r="B6" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>62</v>
       </c>
       <c r="AD6" s="36"/>
       <c r="AE6" s="36"/>
@@ -7531,14 +7546,14 @@
       <c r="AH6" s="36"/>
     </row>
     <row r="7" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B7" s="122" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="123" t="s">
+      <c r="B7" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="126" t="s">
-        <v>64</v>
+      <c r="D7" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -7547,14 +7562,14 @@
       <c r="AH7" s="36"/>
     </row>
     <row r="8" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B8" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="126" t="s">
-        <v>64</v>
+      <c r="B8" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -7563,14 +7578,14 @@
       <c r="AH8" s="36"/>
     </row>
     <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B9" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>64</v>
+      <c r="B9" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>63</v>
       </c>
       <c r="AD9" s="36"/>
       <c r="AE9" s="36"/>
@@ -7579,9 +7594,9 @@
       <c r="AH9" s="36"/>
     </row>
     <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B10" s="119"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="124"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="90"/>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
@@ -7589,9 +7604,9 @@
       <c r="AH10" s="36"/>
     </row>
     <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="124"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="90"/>
       <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/Android-ShineLib/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310216383/Philips/android-shinelib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22520" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,6 +56,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>1.1</t>
   </si>
@@ -474,6 +477,33 @@
   </si>
   <si>
     <t>BlueLib doesn't build on a clean development environment</t>
+  </si>
+  <si>
+    <t>BL-395</t>
+  </si>
+  <si>
+    <t>IndexOutOfBoundsException in BlueLib</t>
+  </si>
+  <si>
+    <t>BL-396</t>
+  </si>
+  <si>
+    <t>NullPointerException in BlueLib using example App</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>2016-SEP-21</t>
+  </si>
+  <si>
+    <t>Peter Fortuin</t>
+  </si>
+  <si>
+    <t>2.0.2 Release</t>
+  </si>
+  <si>
+    <t>Anomalies updated</t>
   </si>
 </sst>
 </file>
@@ -804,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1039,6 +1069,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1047,7 +1105,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1217,17 +1275,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1239,6 +1288,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,6 +1363,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -2399,7 +2454,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2553,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
@@ -2863,8 +2918,8 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3062,11 +3117,21 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>105</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -5949,7 +6014,7 @@
   <dimension ref="B1:AJ11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6701,7 +6766,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="39"/>
     </row>
@@ -6710,7 +6775,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="39"/>
     </row>
@@ -6763,8 +6828,8 @@
   </sheetPr>
   <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7482,13 +7547,13 @@
       <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="87" t="s">
         <v>72</v>
       </c>
       <c r="AD3" s="36"/>
@@ -7498,13 +7563,13 @@
       <c r="AH3" s="36"/>
     </row>
     <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="90" t="s">
         <v>62</v>
       </c>
       <c r="AD4" s="36"/>
@@ -7514,13 +7579,13 @@
       <c r="AH4" s="36"/>
     </row>
     <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="90" t="s">
         <v>62</v>
       </c>
       <c r="AD5" s="36"/>
@@ -7530,13 +7595,13 @@
       <c r="AH5" s="36"/>
     </row>
     <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="90" t="s">
         <v>62</v>
       </c>
       <c r="AD6" s="36"/>
@@ -7545,15 +7610,15 @@
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
     </row>
-    <row r="7" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B7" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>63</v>
+    <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -7562,13 +7627,13 @@
       <c r="AH7" s="36"/>
     </row>
     <row r="8" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B8" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="94" t="s">
+      <c r="B8" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>63</v>
       </c>
       <c r="AD8" s="36"/>
@@ -7577,14 +7642,14 @@
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
     </row>
-    <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B9" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="94" t="s">
+    <row r="9" spans="2:34" ht="32" x14ac:dyDescent="0.15">
+      <c r="B9" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="91" t="s">
         <v>63</v>
       </c>
       <c r="AD9" s="36"/>
@@ -7594,19 +7659,31 @@
       <c r="AH9" s="36"/>
     </row>
     <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="90"/>
+      <c r="B10" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>63</v>
+      </c>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
     </row>
-    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="90"/>
+    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>63</v>
+      </c>
       <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
@@ -7705,17 +7782,19 @@
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B7" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId7"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId9"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310216383/Philips/android-shinelib/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/android-shinelib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22520" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>1.1</t>
   </si>
@@ -504,6 +501,18 @@
   </si>
   <si>
     <t>Anomalies updated</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>2016-SEP-27</t>
+  </si>
+  <si>
+    <t>2.0.3 Release</t>
+  </si>
+  <si>
+    <t>No changes needed.</t>
   </si>
 </sst>
 </file>
@@ -1295,6 +1304,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1363,7 +1373,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -2504,11 +2513,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2574,10 +2583,10 @@
       <c r="C12" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
@@ -2592,10 +2601,10 @@
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2610,8 +2619,8 @@
       <c r="C14" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
@@ -2735,11 +2744,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2748,11 +2757,11 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
@@ -2804,27 +2813,27 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="100"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -2837,8 +2846,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -2919,7 +2928,7 @@
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3117,19 +3126,19 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="95" t="s">
         <v>105</v>
       </c>
       <c r="G11" s="17"/>
@@ -3142,11 +3151,21 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>109</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -5785,19 +5804,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
@@ -5816,29 +5835,29 @@
       <c r="B6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
@@ -5849,15 +5868,15 @@
       <c r="B8" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
@@ -5868,15 +5887,15 @@
       <c r="B9" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
@@ -5901,15 +5920,15 @@
       <c r="B11" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="66"/>
@@ -6732,11 +6751,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310193817/Development/Git/android-shinelib/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310088528p/dev/android-shinelib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="-2260" yWindow="-19500" windowWidth="28800" windowHeight="15940" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="ListYN" localSheetId="5">#REF!</definedName>
     <definedName name="ListYN" localSheetId="4">#REF!</definedName>
     <definedName name="ListYN">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$F$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Anomalies!$A$1:$F$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Document Introduction'!$A$1:$G$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Introduction!$A$1:$M$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Maturity Grid'!$A$1:$E$23</definedName>
@@ -56,6 +56,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>1.1</t>
   </si>
@@ -242,9 +245,6 @@
     <t>2016-JUL-11</t>
   </si>
   <si>
-    <t>draft</t>
-  </si>
-  <si>
     <t>NatKuz-20160711-01V01</t>
   </si>
   <si>
@@ -325,9 +325,6 @@
     <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
   </si>
   <si>
-    <t>Crash , associating when bluetooth turned off</t>
-  </si>
-  <si>
     <t>Thijs Winter</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>BL-95</t>
   </si>
   <si>
-    <t>BL-88</t>
-  </si>
-  <si>
     <t>BL-22</t>
   </si>
   <si>
@@ -461,21 +455,12 @@
     <t>Reconnect fails with Nexus 5, 4.4.2</t>
   </si>
   <si>
-    <t>Conclusion: The build cannot be released to clients due to 3 major  defects.</t>
-  </si>
-  <si>
     <t>BL-390</t>
   </si>
   <si>
     <t>NPE when calling readRssi()</t>
   </si>
   <si>
-    <t>BL-392</t>
-  </si>
-  <si>
-    <t>BlueLib doesn't build on a clean development environment</t>
-  </si>
-  <si>
     <t>BL-395</t>
   </si>
   <si>
@@ -513,13 +498,49 @@
   </si>
   <si>
     <t>No changes needed.</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conclusion: The build </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>can</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> be released.</t>
+    </r>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>2016-DEC-20</t>
+  </si>
+  <si>
+    <t>Bas Flaton</t>
+  </si>
+  <si>
+    <t>Updated to correctly reflect 2.0.3 release anomalies after review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +806,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1293,9 +1319,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1372,6 +1395,9 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2463,7 +2489,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2513,11 +2539,11 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -2538,10 +2564,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>20</v>
@@ -2581,17 +2607,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="97"/>
+      <c r="E12" s="96"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,15 +2627,15 @@
       <c r="C13" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="97"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2617,15 +2643,15 @@
         <v>14</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+        <v>105</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>35</v>
@@ -2744,11 +2770,11 @@
       <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="31" t="s">
@@ -2757,11 +2783,11 @@
       <c r="C7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
+      <c r="D7" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
@@ -2771,7 +2797,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="54" t="s">
         <v>6</v>
@@ -2783,7 +2809,7 @@
     <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
       <c r="C9" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -2813,27 +2839,27 @@
       <c r="D12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="109"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="D13" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="99"/>
     </row>
     <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
       <c r="C14" s="31"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
@@ -2846,8 +2872,8 @@
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="50"/>
@@ -2928,7 +2954,7 @@
   <dimension ref="B1:N179"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3027,19 +3053,19 @@
     </row>
     <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3052,19 +3078,19 @@
     </row>
     <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>76</v>
-      </c>
       <c r="F8" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3077,19 +3103,19 @@
     </row>
     <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>81</v>
-      </c>
       <c r="F9" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3100,21 +3126,21 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" ht="42" x14ac:dyDescent="0.15">
       <c r="B10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="E10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="35" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>86</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3126,20 +3152,20 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>105</v>
+      <c r="B11" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>99</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3151,20 +3177,20 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>109</v>
+      <c r="B12" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>103</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3175,12 +3201,22 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="B13" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="94" t="s">
+        <v>103</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -5804,19 +5840,19 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
+      <c r="B4" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
@@ -5835,29 +5871,29 @@
       <c r="B6" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="120"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="123"/>
+        <v>58</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
       <c r="O7" s="53"/>
@@ -5866,17 +5902,17 @@
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
+        <v>59</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="125"/>
       <c r="M8" s="53"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
@@ -5885,17 +5921,17 @@
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="114"/>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
       <c r="O9" s="53"/>
@@ -5904,10 +5940,10 @@
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -5918,17 +5954,17 @@
     </row>
     <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="66"/>
@@ -6030,10 +6066,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AJ11"/>
+  <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6042,13 +6078,12 @@
     <col min="2" max="2" width="31.5" style="37" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" style="37" customWidth="1"/>
     <col min="4" max="4" width="47.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="38" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="38" customWidth="1"/>
-    <col min="27" max="27" width="10" style="38" customWidth="1"/>
-    <col min="28" max="36" width="8.83203125" style="38"/>
-    <col min="37" max="237" width="8.83203125" style="36"/>
+    <col min="5" max="5" width="17.33203125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="36" customWidth="1"/>
+    <col min="8" max="26" width="3.33203125" style="36" customWidth="1"/>
+    <col min="27" max="27" width="10" style="36" customWidth="1"/>
+    <col min="28" max="237" width="8.83203125" style="36"/>
     <col min="238" max="238" width="1.5" style="36" customWidth="1"/>
     <col min="239" max="239" width="1.33203125" style="36" customWidth="1"/>
     <col min="240" max="240" width="42" style="36" customWidth="1"/>
@@ -6751,11 +6786,11 @@
     </row>
     <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="39"/>
@@ -6764,7 +6799,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="78">
         <v>0</v>
@@ -6773,7 +6808,7 @@
     </row>
     <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="80">
         <v>0</v>
@@ -6782,25 +6817,25 @@
     </row>
     <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="82">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="39"/>
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="39"/>
     </row>
     <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="86">
         <v>0</v>
@@ -6814,7 +6849,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="40" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6845,10 +6880,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AH27"/>
+  <dimension ref="B1:AH25"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7567,13 +7602,13 @@
     </row>
     <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>72</v>
       </c>
       <c r="AD3" s="36"/>
       <c r="AE3" s="36"/>
@@ -7583,13 +7618,13 @@
     </row>
     <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
       <c r="B4" s="88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="36"/>
       <c r="AE4" s="36"/>
@@ -7597,15 +7632,15 @@
       <c r="AG4" s="36"/>
       <c r="AH4" s="36"/>
     </row>
-    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B5" s="88" t="s">
-        <v>94</v>
+    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="91" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
@@ -7613,15 +7648,15 @@
       <c r="AG5" s="36"/>
       <c r="AH5" s="36"/>
     </row>
-    <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:34" ht="32" x14ac:dyDescent="0.15">
       <c r="B6" s="88" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="36"/>
       <c r="AE6" s="36"/>
@@ -7629,15 +7664,15 @@
       <c r="AG6" s="36"/>
       <c r="AH6" s="36"/>
     </row>
-    <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7" s="92" t="s">
-        <v>98</v>
+    <row r="7" spans="2:34" ht="32" x14ac:dyDescent="0.15">
+      <c r="B7" s="88" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD7" s="36"/>
       <c r="AE7" s="36"/>
@@ -7645,15 +7680,15 @@
       <c r="AG7" s="36"/>
       <c r="AH7" s="36"/>
     </row>
-    <row r="8" spans="2:34" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.15">
       <c r="B8" s="88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="91" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -7661,15 +7696,15 @@
       <c r="AG8" s="36"/>
       <c r="AH8" s="36"/>
     </row>
-    <row r="9" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B9" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>63</v>
+    <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="AD9" s="36"/>
       <c r="AE9" s="36"/>
@@ -7677,32 +7712,20 @@
       <c r="AG9" s="36"/>
       <c r="AH9" s="36"/>
     </row>
-    <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B10" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="89" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="91" t="s">
-        <v>63</v>
-      </c>
+    <row r="10" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
       <c r="AF10" s="36"/>
       <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
     </row>
-    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="91" t="s">
-        <v>63</v>
-      </c>
+    <row r="11" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
       <c r="AF11" s="36"/>
@@ -7710,24 +7733,14 @@
       <c r="AH11" s="36"/>
     </row>
     <row r="12" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
     </row>
     <row r="13" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
     </row>
     <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="50"/>
@@ -7776,44 +7789,32 @@
     </row>
     <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="50"/>
-      <c r="C25" s="20"/>
-    </row>
-    <row r="26" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B26" s="50"/>
-    </row>
-    <row r="27" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
     <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId9"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId8"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310088528p/dev/android-shinelib/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_users\Gaal_CoCo-s\components\Bluelib-Shinelib\Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2260" yWindow="-19500" windowWidth="28800" windowHeight="15940" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="-2265" yWindow="-19500" windowWidth="28800" windowHeight="15945" tabRatio="689"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,9 +56,6 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Repository</t>
-  </si>
-  <si>
-    <t>&lt;state document archive&gt;</t>
   </si>
   <si>
     <t>Document title:</t>
@@ -251,9 +245,6 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>internal</t>
-  </si>
-  <si>
     <t>Natalia Kuznetsova</t>
   </si>
   <si>
@@ -325,9 +316,6 @@
     <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
   </si>
   <si>
-    <t>Thijs Winter</t>
-  </si>
-  <si>
     <t>Blocker</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
   </si>
   <si>
     <t>Changed severity classification</t>
-  </si>
-  <si>
-    <t>Domain leader connectivity</t>
   </si>
   <si>
     <t>0.3</t>
@@ -535,12 +520,24 @@
   <si>
     <t>Updated to correctly reflect 2.0.3 release anomalies after review</t>
   </si>
+  <si>
+    <t>https://bitbucket.atlas.philips.com/projects/EHSHN/repos/android-shinelib/browse/Documents/External/</t>
+  </si>
+  <si>
+    <t>Ernest Anglès Isern</t>
+  </si>
+  <si>
+    <t>Lead Architect Connectivity / Chief Product Owner</t>
+  </si>
+  <si>
+    <t>For internal use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +808,11 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1140,7 +1142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1203,9 +1205,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1328,6 +1327,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1396,8 +1398,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2097,6 +2102,9 @@
       <sheetName val=" Ref, Terms, Abbr"/>
       <sheetName val="Authorship, Rev, Appr &amp; Rev"/>
       <sheetName val="List"/>
+      <sheetName val="options"/>
+      <sheetName val="Lists"/>
+      <sheetName val="DO NOT MODIFY"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2136,6 +2144,9 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2483,53 +2494,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2538,7 +2549,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
@@ -2546,39 +2557,39 @@
       <c r="F6" s="95"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="57" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="29" t="s">
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>24</v>
+      <c r="E8" s="127" t="s">
+        <v>107</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2586,7 +2597,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2594,7 +2605,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2602,79 +2613,79 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="63" t="s">
-        <v>47</v>
+      <c r="C12" s="62" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="96"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="63" t="s">
-        <v>46</v>
+      <c r="C13" s="62" t="s">
+        <v>104</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="97"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="63" t="s">
-        <v>105</v>
+      <c r="C14" s="62" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="63" t="s">
-        <v>107</v>
+      <c r="C15" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2682,7 +2693,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2697,13 +2708,18 @@
     <mergeCell ref="D13:E14"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
-    <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
+    <oddFooter>&amp;L&amp;12&amp;F
+Version 1.0
+&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
@@ -2714,208 +2730,208 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="99" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
-        <v>45</v>
+    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="104" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="105"/>
       <c r="F6" s="106"/>
     </row>
-    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31" t="s">
+    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="107"/>
       <c r="F7" s="107"/>
     </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="33"/>
-      <c r="C9" s="64" t="s">
-        <v>54</v>
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="63" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>36</v>
+      <c r="D12" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="108" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="108"/>
     </row>
-    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="D13" s="49" t="s">
+    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="31"/>
+      <c r="D13" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="98" t="s">
-        <v>41</v>
-      </c>
       <c r="F13" s="99"/>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
-      <c r="C14" s="31"/>
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="18"/>
       <c r="E14" s="100"/>
       <c r="F14" s="101"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="57"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="102"/>
       <c r="F16" s="103"/>
     </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-    </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-    </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+    </row>
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -2948,29 +2964,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
-        <v>45</v>
+    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="64" t="s">
+        <v>44</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2978,7 +2994,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -2986,7 +3002,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2994,9 +3010,9 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -3011,7 +3027,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3026,21 +3042,21 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3051,21 +3067,21 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B7" s="63" t="s">
+    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>55</v>
+      <c r="E7" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -3076,21 +3092,21 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>80</v>
+    <row r="8" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3101,21 +3117,21 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3126,21 +3142,21 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="42" x14ac:dyDescent="0.15">
-      <c r="B10" s="35" t="s">
+    <row r="10" spans="2:14" ht="57" x14ac:dyDescent="0.2">
+      <c r="B10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>84</v>
+      <c r="F10" s="34" t="s">
+        <v>80</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3151,21 +3167,21 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="94" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="94" t="s">
-        <v>99</v>
+      <c r="F11" s="93" t="s">
+        <v>95</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3176,21 +3192,21 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="94" t="s">
-        <v>103</v>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3201,21 +3217,21 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.15">
-      <c r="B13" s="94" t="s">
+    <row r="13" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="94" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="127" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="94" t="s">
-        <v>103</v>
+      <c r="E13" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="93" t="s">
+        <v>99</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -3226,7 +3242,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -3241,7 +3257,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3256,7 +3272,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3271,7 +3287,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3286,7 +3302,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3301,7 +3317,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3316,7 +3332,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3331,7 +3347,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3346,7 +3362,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3361,7 +3377,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3376,7 +3392,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3391,7 +3407,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3406,7 +3422,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3421,7 +3437,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3436,7 +3452,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3451,7 +3467,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3466,7 +3482,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3481,7 +3497,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3496,7 +3512,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3511,7 +3527,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3526,7 +3542,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3541,7 +3557,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3556,7 +3572,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3571,7 +3587,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3586,7 +3602,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3601,7 +3617,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3616,7 +3632,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3631,7 +3647,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3646,7 +3662,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3661,7 +3677,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3676,7 +3692,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3691,7 +3707,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3706,7 +3722,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3721,7 +3737,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3736,7 +3752,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3751,7 +3767,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3766,7 +3782,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3781,7 +3797,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3796,7 +3812,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3811,7 +3827,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3826,7 +3842,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3841,7 +3857,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3856,7 +3872,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3871,7 +3887,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3886,7 +3902,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3901,7 +3917,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3916,7 +3932,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -3931,7 +3947,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -3946,7 +3962,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -3961,7 +3977,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -3976,7 +3992,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -3991,7 +4007,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -4006,7 +4022,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -4021,7 +4037,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4036,7 +4052,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -4051,7 +4067,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -4066,7 +4082,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -4081,7 +4097,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -4096,7 +4112,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -4111,7 +4127,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -4126,7 +4142,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4141,7 +4157,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4156,7 +4172,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4171,7 +4187,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4186,7 +4202,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4201,7 +4217,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4216,7 +4232,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4231,7 +4247,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4246,7 +4262,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4261,7 +4277,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4276,7 +4292,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4291,7 +4307,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4306,7 +4322,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4321,7 +4337,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4336,7 +4352,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4351,7 +4367,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4366,7 +4382,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4381,7 +4397,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4396,7 +4412,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4411,7 +4427,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4426,7 +4442,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4441,7 +4457,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4456,7 +4472,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4471,7 +4487,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4486,7 +4502,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4501,7 +4517,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4516,7 +4532,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4531,7 +4547,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4546,7 +4562,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4561,7 +4577,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4576,7 +4592,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4591,7 +4607,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4606,7 +4622,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4621,7 +4637,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4636,7 +4652,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4651,7 +4667,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4666,7 +4682,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4681,7 +4697,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4696,7 +4712,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4711,7 +4727,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4726,7 +4742,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4741,7 +4757,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4756,7 +4772,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4771,7 +4787,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4786,7 +4802,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4801,7 +4817,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4816,7 +4832,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4831,7 +4847,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4846,7 +4862,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4861,7 +4877,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4876,7 +4892,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4891,7 +4907,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4906,7 +4922,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4921,7 +4937,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -4936,7 +4952,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -4951,7 +4967,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -4966,7 +4982,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4981,7 +4997,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -4996,7 +5012,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5011,7 +5027,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -5026,7 +5042,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -5041,7 +5057,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -5056,7 +5072,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -5071,7 +5087,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -5086,7 +5102,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -5101,7 +5117,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -5116,7 +5132,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5131,7 +5147,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5146,7 +5162,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5161,7 +5177,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5176,7 +5192,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5191,7 +5207,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5206,7 +5222,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5221,7 +5237,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5236,7 +5252,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5251,7 +5267,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5266,7 +5282,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5281,7 +5297,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5296,7 +5312,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5311,7 +5327,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5326,7 +5342,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5341,7 +5357,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5356,7 +5372,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5371,7 +5387,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5386,7 +5402,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5401,7 +5417,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5416,7 +5432,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5431,7 +5447,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5446,7 +5462,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5461,7 +5477,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5476,7 +5492,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5491,7 +5507,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5506,7 +5522,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5521,7 +5537,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5536,7 +5552,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5551,7 +5567,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5566,7 +5582,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5581,7 +5597,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5596,7 +5612,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5611,7 +5627,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5626,7 +5642,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5641,7 +5657,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5656,7 +5672,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5671,7 +5687,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5686,7 +5702,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5701,7 +5717,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5738,95 +5754,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="6" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-    </row>
-    <row r="2" spans="2:37" s="36" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" s="35" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+    </row>
+    <row r="2" spans="2:37" s="35" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C2" s="21"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="38"/>
-      <c r="AK2" s="38"/>
-    </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+    </row>
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5839,9 +5855,9 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="115" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="116"/>
       <c r="D4" s="116"/>
@@ -5854,22 +5870,22 @@
       <c r="K4" s="116"/>
       <c r="L4" s="116"/>
     </row>
-    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B6" s="67" t="s">
-        <v>39</v>
+    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="117" t="s">
         <v>9</v>
@@ -5881,12 +5897,12 @@
       <c r="H6" s="118"/>
       <c r="I6" s="119"/>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B7" s="76" t="s">
-        <v>58</v>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="75" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="120" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
@@ -5894,18 +5910,18 @@
       <c r="G7" s="121"/>
       <c r="H7" s="121"/>
       <c r="I7" s="122"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B8" s="69" t="s">
-        <v>59</v>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="124"/>
       <c r="E8" s="124"/>
@@ -5913,18 +5929,18 @@
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
       <c r="I8" s="125"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-    </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B9" s="70" t="s">
-        <v>60</v>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="69" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="112" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="113"/>
       <c r="E9" s="113"/>
@@ -5932,32 +5948,32 @@
       <c r="G9" s="113"/>
       <c r="H9" s="113"/>
       <c r="I9" s="114"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-    </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="B10" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-    </row>
-    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
-        <v>62</v>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+    </row>
+    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" s="110"/>
       <c r="E11" s="110"/>
@@ -5966,75 +5982,75 @@
       <c r="H11" s="110"/>
       <c r="I11" s="111"/>
     </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C12" s="66"/>
-    </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C13" s="66"/>
-    </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C14" s="66"/>
-    </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="66"/>
-    </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
-      <c r="C16" s="66"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
-    </row>
-    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-    </row>
-    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="46"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C12" s="65"/>
+    </row>
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C13" s="65"/>
+    </row>
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="65"/>
+    </row>
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C15" s="65"/>
+    </row>
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="65"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="45"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6063,793 +6079,793 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="36" customWidth="1"/>
-    <col min="8" max="26" width="3.33203125" style="36" customWidth="1"/>
-    <col min="27" max="27" width="10" style="36" customWidth="1"/>
-    <col min="28" max="237" width="8.83203125" style="36"/>
-    <col min="238" max="238" width="1.5" style="36" customWidth="1"/>
-    <col min="239" max="239" width="1.33203125" style="36" customWidth="1"/>
-    <col min="240" max="240" width="42" style="36" customWidth="1"/>
-    <col min="241" max="241" width="5.5" style="36" customWidth="1"/>
-    <col min="242" max="243" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.6640625" style="36" customWidth="1"/>
-    <col min="245" max="280" width="3.33203125" style="36" customWidth="1"/>
-    <col min="281" max="281" width="1.6640625" style="36" customWidth="1"/>
-    <col min="282" max="282" width="25.6640625" style="36" customWidth="1"/>
-    <col min="283" max="283" width="31.33203125" style="36" customWidth="1"/>
-    <col min="284" max="493" width="8.83203125" style="36"/>
-    <col min="494" max="494" width="1.5" style="36" customWidth="1"/>
-    <col min="495" max="495" width="1.33203125" style="36" customWidth="1"/>
-    <col min="496" max="496" width="42" style="36" customWidth="1"/>
-    <col min="497" max="497" width="5.5" style="36" customWidth="1"/>
-    <col min="498" max="499" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.6640625" style="36" customWidth="1"/>
-    <col min="501" max="536" width="3.33203125" style="36" customWidth="1"/>
-    <col min="537" max="537" width="1.6640625" style="36" customWidth="1"/>
-    <col min="538" max="538" width="25.6640625" style="36" customWidth="1"/>
-    <col min="539" max="539" width="31.33203125" style="36" customWidth="1"/>
-    <col min="540" max="749" width="8.83203125" style="36"/>
-    <col min="750" max="750" width="1.5" style="36" customWidth="1"/>
-    <col min="751" max="751" width="1.33203125" style="36" customWidth="1"/>
-    <col min="752" max="752" width="42" style="36" customWidth="1"/>
-    <col min="753" max="753" width="5.5" style="36" customWidth="1"/>
-    <col min="754" max="755" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.6640625" style="36" customWidth="1"/>
-    <col min="757" max="792" width="3.33203125" style="36" customWidth="1"/>
-    <col min="793" max="793" width="1.6640625" style="36" customWidth="1"/>
-    <col min="794" max="794" width="25.6640625" style="36" customWidth="1"/>
-    <col min="795" max="795" width="31.33203125" style="36" customWidth="1"/>
-    <col min="796" max="1005" width="8.83203125" style="36"/>
-    <col min="1006" max="1006" width="1.5" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1008" max="1008" width="42" style="36" customWidth="1"/>
-    <col min="1009" max="1009" width="5.5" style="36" customWidth="1"/>
-    <col min="1010" max="1011" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1013" max="1048" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1050" max="1050" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1051" max="1051" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1052" max="1261" width="8.83203125" style="36"/>
-    <col min="1262" max="1262" width="1.5" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1264" max="1264" width="42" style="36" customWidth="1"/>
-    <col min="1265" max="1265" width="5.5" style="36" customWidth="1"/>
-    <col min="1266" max="1267" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1269" max="1304" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1306" max="1306" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1307" max="1307" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1308" max="1517" width="8.83203125" style="36"/>
-    <col min="1518" max="1518" width="1.5" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1520" max="1520" width="42" style="36" customWidth="1"/>
-    <col min="1521" max="1521" width="5.5" style="36" customWidth="1"/>
-    <col min="1522" max="1523" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1525" max="1560" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1562" max="1562" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1563" max="1563" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1564" max="1773" width="8.83203125" style="36"/>
-    <col min="1774" max="1774" width="1.5" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1776" max="1776" width="42" style="36" customWidth="1"/>
-    <col min="1777" max="1777" width="5.5" style="36" customWidth="1"/>
-    <col min="1778" max="1779" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1781" max="1816" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1818" max="1818" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1819" max="1819" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1820" max="2029" width="8.83203125" style="36"/>
-    <col min="2030" max="2030" width="1.5" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2032" max="2032" width="42" style="36" customWidth="1"/>
-    <col min="2033" max="2033" width="5.5" style="36" customWidth="1"/>
-    <col min="2034" max="2035" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2037" max="2072" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2074" max="2074" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2075" max="2075" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2076" max="2285" width="8.83203125" style="36"/>
-    <col min="2286" max="2286" width="1.5" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2288" max="2288" width="42" style="36" customWidth="1"/>
-    <col min="2289" max="2289" width="5.5" style="36" customWidth="1"/>
-    <col min="2290" max="2291" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2293" max="2328" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2330" max="2330" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2331" max="2331" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2332" max="2541" width="8.83203125" style="36"/>
-    <col min="2542" max="2542" width="1.5" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2544" max="2544" width="42" style="36" customWidth="1"/>
-    <col min="2545" max="2545" width="5.5" style="36" customWidth="1"/>
-    <col min="2546" max="2547" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2549" max="2584" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2586" max="2586" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2587" max="2587" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2588" max="2797" width="8.83203125" style="36"/>
-    <col min="2798" max="2798" width="1.5" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2800" max="2800" width="42" style="36" customWidth="1"/>
-    <col min="2801" max="2801" width="5.5" style="36" customWidth="1"/>
-    <col min="2802" max="2803" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2805" max="2840" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2842" max="2842" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2843" max="2843" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2844" max="3053" width="8.83203125" style="36"/>
-    <col min="3054" max="3054" width="1.5" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3056" max="3056" width="42" style="36" customWidth="1"/>
-    <col min="3057" max="3057" width="5.5" style="36" customWidth="1"/>
-    <col min="3058" max="3059" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3061" max="3096" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3098" max="3098" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3099" max="3099" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3100" max="3309" width="8.83203125" style="36"/>
-    <col min="3310" max="3310" width="1.5" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3312" max="3312" width="42" style="36" customWidth="1"/>
-    <col min="3313" max="3313" width="5.5" style="36" customWidth="1"/>
-    <col min="3314" max="3315" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3317" max="3352" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3354" max="3354" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3355" max="3355" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3356" max="3565" width="8.83203125" style="36"/>
-    <col min="3566" max="3566" width="1.5" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3568" max="3568" width="42" style="36" customWidth="1"/>
-    <col min="3569" max="3569" width="5.5" style="36" customWidth="1"/>
-    <col min="3570" max="3571" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3573" max="3608" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3610" max="3610" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3611" max="3611" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3612" max="3821" width="8.83203125" style="36"/>
-    <col min="3822" max="3822" width="1.5" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3824" max="3824" width="42" style="36" customWidth="1"/>
-    <col min="3825" max="3825" width="5.5" style="36" customWidth="1"/>
-    <col min="3826" max="3827" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3829" max="3864" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3866" max="3866" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3867" max="3867" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3868" max="4077" width="8.83203125" style="36"/>
-    <col min="4078" max="4078" width="1.5" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4080" max="4080" width="42" style="36" customWidth="1"/>
-    <col min="4081" max="4081" width="5.5" style="36" customWidth="1"/>
-    <col min="4082" max="4083" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4085" max="4120" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4122" max="4122" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4123" max="4123" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4124" max="4333" width="8.83203125" style="36"/>
-    <col min="4334" max="4334" width="1.5" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4336" max="4336" width="42" style="36" customWidth="1"/>
-    <col min="4337" max="4337" width="5.5" style="36" customWidth="1"/>
-    <col min="4338" max="4339" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4341" max="4376" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4378" max="4378" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4379" max="4379" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4380" max="4589" width="8.83203125" style="36"/>
-    <col min="4590" max="4590" width="1.5" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4592" max="4592" width="42" style="36" customWidth="1"/>
-    <col min="4593" max="4593" width="5.5" style="36" customWidth="1"/>
-    <col min="4594" max="4595" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4597" max="4632" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4634" max="4634" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4635" max="4635" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4636" max="4845" width="8.83203125" style="36"/>
-    <col min="4846" max="4846" width="1.5" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4848" max="4848" width="42" style="36" customWidth="1"/>
-    <col min="4849" max="4849" width="5.5" style="36" customWidth="1"/>
-    <col min="4850" max="4851" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4853" max="4888" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4890" max="4890" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4891" max="4891" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4892" max="5101" width="8.83203125" style="36"/>
-    <col min="5102" max="5102" width="1.5" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5104" max="5104" width="42" style="36" customWidth="1"/>
-    <col min="5105" max="5105" width="5.5" style="36" customWidth="1"/>
-    <col min="5106" max="5107" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5109" max="5144" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5146" max="5146" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5147" max="5147" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5148" max="5357" width="8.83203125" style="36"/>
-    <col min="5358" max="5358" width="1.5" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5360" max="5360" width="42" style="36" customWidth="1"/>
-    <col min="5361" max="5361" width="5.5" style="36" customWidth="1"/>
-    <col min="5362" max="5363" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5365" max="5400" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5402" max="5402" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5403" max="5403" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5404" max="5613" width="8.83203125" style="36"/>
-    <col min="5614" max="5614" width="1.5" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5616" max="5616" width="42" style="36" customWidth="1"/>
-    <col min="5617" max="5617" width="5.5" style="36" customWidth="1"/>
-    <col min="5618" max="5619" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5621" max="5656" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5658" max="5658" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5659" max="5659" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5660" max="5869" width="8.83203125" style="36"/>
-    <col min="5870" max="5870" width="1.5" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5872" max="5872" width="42" style="36" customWidth="1"/>
-    <col min="5873" max="5873" width="5.5" style="36" customWidth="1"/>
-    <col min="5874" max="5875" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5877" max="5912" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5914" max="5914" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5915" max="5915" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5916" max="6125" width="8.83203125" style="36"/>
-    <col min="6126" max="6126" width="1.5" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6128" max="6128" width="42" style="36" customWidth="1"/>
-    <col min="6129" max="6129" width="5.5" style="36" customWidth="1"/>
-    <col min="6130" max="6131" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6133" max="6168" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6170" max="6170" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6171" max="6171" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6172" max="6381" width="8.83203125" style="36"/>
-    <col min="6382" max="6382" width="1.5" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6384" max="6384" width="42" style="36" customWidth="1"/>
-    <col min="6385" max="6385" width="5.5" style="36" customWidth="1"/>
-    <col min="6386" max="6387" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6389" max="6424" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6426" max="6426" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6427" max="6427" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6428" max="6637" width="8.83203125" style="36"/>
-    <col min="6638" max="6638" width="1.5" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6640" max="6640" width="42" style="36" customWidth="1"/>
-    <col min="6641" max="6641" width="5.5" style="36" customWidth="1"/>
-    <col min="6642" max="6643" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6645" max="6680" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6682" max="6682" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6683" max="6683" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6684" max="6893" width="8.83203125" style="36"/>
-    <col min="6894" max="6894" width="1.5" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6896" max="6896" width="42" style="36" customWidth="1"/>
-    <col min="6897" max="6897" width="5.5" style="36" customWidth="1"/>
-    <col min="6898" max="6899" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6901" max="6936" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6938" max="6938" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6939" max="6939" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6940" max="7149" width="8.83203125" style="36"/>
-    <col min="7150" max="7150" width="1.5" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7152" max="7152" width="42" style="36" customWidth="1"/>
-    <col min="7153" max="7153" width="5.5" style="36" customWidth="1"/>
-    <col min="7154" max="7155" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7157" max="7192" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7194" max="7194" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7195" max="7195" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7196" max="7405" width="8.83203125" style="36"/>
-    <col min="7406" max="7406" width="1.5" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7408" max="7408" width="42" style="36" customWidth="1"/>
-    <col min="7409" max="7409" width="5.5" style="36" customWidth="1"/>
-    <col min="7410" max="7411" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7413" max="7448" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7450" max="7450" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7451" max="7451" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7452" max="7661" width="8.83203125" style="36"/>
-    <col min="7662" max="7662" width="1.5" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7664" max="7664" width="42" style="36" customWidth="1"/>
-    <col min="7665" max="7665" width="5.5" style="36" customWidth="1"/>
-    <col min="7666" max="7667" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7669" max="7704" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7706" max="7706" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7707" max="7707" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7708" max="7917" width="8.83203125" style="36"/>
-    <col min="7918" max="7918" width="1.5" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7920" max="7920" width="42" style="36" customWidth="1"/>
-    <col min="7921" max="7921" width="5.5" style="36" customWidth="1"/>
-    <col min="7922" max="7923" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7925" max="7960" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7962" max="7962" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7963" max="7963" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7964" max="8173" width="8.83203125" style="36"/>
-    <col min="8174" max="8174" width="1.5" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8176" max="8176" width="42" style="36" customWidth="1"/>
-    <col min="8177" max="8177" width="5.5" style="36" customWidth="1"/>
-    <col min="8178" max="8179" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8181" max="8216" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8218" max="8218" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8219" max="8219" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8220" max="8429" width="8.83203125" style="36"/>
-    <col min="8430" max="8430" width="1.5" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8432" max="8432" width="42" style="36" customWidth="1"/>
-    <col min="8433" max="8433" width="5.5" style="36" customWidth="1"/>
-    <col min="8434" max="8435" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8437" max="8472" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8474" max="8474" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8475" max="8475" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8476" max="8685" width="8.83203125" style="36"/>
-    <col min="8686" max="8686" width="1.5" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8688" max="8688" width="42" style="36" customWidth="1"/>
-    <col min="8689" max="8689" width="5.5" style="36" customWidth="1"/>
-    <col min="8690" max="8691" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8693" max="8728" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8730" max="8730" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8731" max="8731" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8732" max="8941" width="8.83203125" style="36"/>
-    <col min="8942" max="8942" width="1.5" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8944" max="8944" width="42" style="36" customWidth="1"/>
-    <col min="8945" max="8945" width="5.5" style="36" customWidth="1"/>
-    <col min="8946" max="8947" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8949" max="8984" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8986" max="8986" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8987" max="8987" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8988" max="9197" width="8.83203125" style="36"/>
-    <col min="9198" max="9198" width="1.5" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9200" max="9200" width="42" style="36" customWidth="1"/>
-    <col min="9201" max="9201" width="5.5" style="36" customWidth="1"/>
-    <col min="9202" max="9203" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9205" max="9240" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9242" max="9242" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9243" max="9243" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9244" max="9453" width="8.83203125" style="36"/>
-    <col min="9454" max="9454" width="1.5" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9456" max="9456" width="42" style="36" customWidth="1"/>
-    <col min="9457" max="9457" width="5.5" style="36" customWidth="1"/>
-    <col min="9458" max="9459" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9461" max="9496" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9498" max="9498" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9499" max="9499" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9500" max="9709" width="8.83203125" style="36"/>
-    <col min="9710" max="9710" width="1.5" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9712" max="9712" width="42" style="36" customWidth="1"/>
-    <col min="9713" max="9713" width="5.5" style="36" customWidth="1"/>
-    <col min="9714" max="9715" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9717" max="9752" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9754" max="9754" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9755" max="9755" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9756" max="9965" width="8.83203125" style="36"/>
-    <col min="9966" max="9966" width="1.5" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9968" max="9968" width="42" style="36" customWidth="1"/>
-    <col min="9969" max="9969" width="5.5" style="36" customWidth="1"/>
-    <col min="9970" max="9971" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9973" max="10008" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10010" max="10010" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10011" max="10011" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10012" max="10221" width="8.83203125" style="36"/>
-    <col min="10222" max="10222" width="1.5" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10224" max="10224" width="42" style="36" customWidth="1"/>
-    <col min="10225" max="10225" width="5.5" style="36" customWidth="1"/>
-    <col min="10226" max="10227" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10229" max="10264" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10266" max="10266" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10267" max="10267" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10268" max="10477" width="8.83203125" style="36"/>
-    <col min="10478" max="10478" width="1.5" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10480" max="10480" width="42" style="36" customWidth="1"/>
-    <col min="10481" max="10481" width="5.5" style="36" customWidth="1"/>
-    <col min="10482" max="10483" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10485" max="10520" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10522" max="10522" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10523" max="10523" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10524" max="10733" width="8.83203125" style="36"/>
-    <col min="10734" max="10734" width="1.5" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10736" max="10736" width="42" style="36" customWidth="1"/>
-    <col min="10737" max="10737" width="5.5" style="36" customWidth="1"/>
-    <col min="10738" max="10739" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10741" max="10776" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10778" max="10778" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10779" max="10779" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10780" max="10989" width="8.83203125" style="36"/>
-    <col min="10990" max="10990" width="1.5" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10992" max="10992" width="42" style="36" customWidth="1"/>
-    <col min="10993" max="10993" width="5.5" style="36" customWidth="1"/>
-    <col min="10994" max="10995" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10997" max="11032" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11034" max="11034" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11035" max="11035" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11036" max="11245" width="8.83203125" style="36"/>
-    <col min="11246" max="11246" width="1.5" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11248" max="11248" width="42" style="36" customWidth="1"/>
-    <col min="11249" max="11249" width="5.5" style="36" customWidth="1"/>
-    <col min="11250" max="11251" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11253" max="11288" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11290" max="11290" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11291" max="11291" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11292" max="11501" width="8.83203125" style="36"/>
-    <col min="11502" max="11502" width="1.5" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11504" max="11504" width="42" style="36" customWidth="1"/>
-    <col min="11505" max="11505" width="5.5" style="36" customWidth="1"/>
-    <col min="11506" max="11507" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11509" max="11544" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11546" max="11546" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11547" max="11547" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11548" max="11757" width="8.83203125" style="36"/>
-    <col min="11758" max="11758" width="1.5" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11760" max="11760" width="42" style="36" customWidth="1"/>
-    <col min="11761" max="11761" width="5.5" style="36" customWidth="1"/>
-    <col min="11762" max="11763" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11765" max="11800" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11802" max="11802" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11803" max="11803" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11804" max="12013" width="8.83203125" style="36"/>
-    <col min="12014" max="12014" width="1.5" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12016" max="12016" width="42" style="36" customWidth="1"/>
-    <col min="12017" max="12017" width="5.5" style="36" customWidth="1"/>
-    <col min="12018" max="12019" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12021" max="12056" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12058" max="12058" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12059" max="12059" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12060" max="12269" width="8.83203125" style="36"/>
-    <col min="12270" max="12270" width="1.5" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12272" max="12272" width="42" style="36" customWidth="1"/>
-    <col min="12273" max="12273" width="5.5" style="36" customWidth="1"/>
-    <col min="12274" max="12275" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12277" max="12312" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12314" max="12314" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12315" max="12315" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12316" max="12525" width="8.83203125" style="36"/>
-    <col min="12526" max="12526" width="1.5" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12528" max="12528" width="42" style="36" customWidth="1"/>
-    <col min="12529" max="12529" width="5.5" style="36" customWidth="1"/>
-    <col min="12530" max="12531" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12533" max="12568" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12570" max="12570" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12571" max="12571" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12572" max="12781" width="8.83203125" style="36"/>
-    <col min="12782" max="12782" width="1.5" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12784" max="12784" width="42" style="36" customWidth="1"/>
-    <col min="12785" max="12785" width="5.5" style="36" customWidth="1"/>
-    <col min="12786" max="12787" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12789" max="12824" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12826" max="12826" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12827" max="12827" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12828" max="13037" width="8.83203125" style="36"/>
-    <col min="13038" max="13038" width="1.5" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13040" max="13040" width="42" style="36" customWidth="1"/>
-    <col min="13041" max="13041" width="5.5" style="36" customWidth="1"/>
-    <col min="13042" max="13043" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13045" max="13080" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13082" max="13082" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13083" max="13083" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13084" max="13293" width="8.83203125" style="36"/>
-    <col min="13294" max="13294" width="1.5" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13296" max="13296" width="42" style="36" customWidth="1"/>
-    <col min="13297" max="13297" width="5.5" style="36" customWidth="1"/>
-    <col min="13298" max="13299" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13301" max="13336" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13338" max="13338" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13339" max="13339" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13340" max="13549" width="8.83203125" style="36"/>
-    <col min="13550" max="13550" width="1.5" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13552" max="13552" width="42" style="36" customWidth="1"/>
-    <col min="13553" max="13553" width="5.5" style="36" customWidth="1"/>
-    <col min="13554" max="13555" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13557" max="13592" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13594" max="13594" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13595" max="13595" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13596" max="13805" width="8.83203125" style="36"/>
-    <col min="13806" max="13806" width="1.5" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13808" max="13808" width="42" style="36" customWidth="1"/>
-    <col min="13809" max="13809" width="5.5" style="36" customWidth="1"/>
-    <col min="13810" max="13811" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13813" max="13848" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13850" max="13850" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13851" max="13851" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13852" max="14061" width="8.83203125" style="36"/>
-    <col min="14062" max="14062" width="1.5" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14064" max="14064" width="42" style="36" customWidth="1"/>
-    <col min="14065" max="14065" width="5.5" style="36" customWidth="1"/>
-    <col min="14066" max="14067" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14069" max="14104" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14106" max="14106" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14107" max="14107" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14108" max="14317" width="8.83203125" style="36"/>
-    <col min="14318" max="14318" width="1.5" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14320" max="14320" width="42" style="36" customWidth="1"/>
-    <col min="14321" max="14321" width="5.5" style="36" customWidth="1"/>
-    <col min="14322" max="14323" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14325" max="14360" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14362" max="14362" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14363" max="14363" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14364" max="14573" width="8.83203125" style="36"/>
-    <col min="14574" max="14574" width="1.5" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14576" max="14576" width="42" style="36" customWidth="1"/>
-    <col min="14577" max="14577" width="5.5" style="36" customWidth="1"/>
-    <col min="14578" max="14579" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14581" max="14616" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14618" max="14618" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14619" max="14619" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14620" max="14829" width="8.83203125" style="36"/>
-    <col min="14830" max="14830" width="1.5" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14832" max="14832" width="42" style="36" customWidth="1"/>
-    <col min="14833" max="14833" width="5.5" style="36" customWidth="1"/>
-    <col min="14834" max="14835" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14837" max="14872" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14874" max="14874" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14875" max="14875" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14876" max="15085" width="8.83203125" style="36"/>
-    <col min="15086" max="15086" width="1.5" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15088" max="15088" width="42" style="36" customWidth="1"/>
-    <col min="15089" max="15089" width="5.5" style="36" customWidth="1"/>
-    <col min="15090" max="15091" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15093" max="15128" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15130" max="15130" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15131" max="15131" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15132" max="15341" width="8.83203125" style="36"/>
-    <col min="15342" max="15342" width="1.5" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15344" max="15344" width="42" style="36" customWidth="1"/>
-    <col min="15345" max="15345" width="5.5" style="36" customWidth="1"/>
-    <col min="15346" max="15347" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15349" max="15384" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15386" max="15386" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15387" max="15387" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15388" max="15597" width="8.83203125" style="36"/>
-    <col min="15598" max="15598" width="1.5" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15600" max="15600" width="42" style="36" customWidth="1"/>
-    <col min="15601" max="15601" width="5.5" style="36" customWidth="1"/>
-    <col min="15602" max="15603" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15605" max="15640" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15642" max="15642" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15643" max="15643" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15644" max="15853" width="8.83203125" style="36"/>
-    <col min="15854" max="15854" width="1.5" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15856" max="15856" width="42" style="36" customWidth="1"/>
-    <col min="15857" max="15857" width="5.5" style="36" customWidth="1"/>
-    <col min="15858" max="15859" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15861" max="15896" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15898" max="15898" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15899" max="15899" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15900" max="16109" width="8.83203125" style="36"/>
-    <col min="16110" max="16110" width="1.5" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="1.33203125" style="36" customWidth="1"/>
-    <col min="16112" max="16112" width="42" style="36" customWidth="1"/>
-    <col min="16113" max="16113" width="5.5" style="36" customWidth="1"/>
-    <col min="16114" max="16115" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.6640625" style="36" customWidth="1"/>
-    <col min="16117" max="16152" width="3.33203125" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="1.6640625" style="36" customWidth="1"/>
-    <col min="16154" max="16154" width="25.6640625" style="36" customWidth="1"/>
-    <col min="16155" max="16155" width="31.33203125" style="36" customWidth="1"/>
-    <col min="16156" max="16384" width="8.83203125" style="36"/>
+    <col min="1" max="1" width="9.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="35" customWidth="1"/>
+    <col min="8" max="26" width="3.28515625" style="35" customWidth="1"/>
+    <col min="27" max="27" width="10" style="35" customWidth="1"/>
+    <col min="28" max="237" width="8.85546875" style="35"/>
+    <col min="238" max="238" width="1.42578125" style="35" customWidth="1"/>
+    <col min="239" max="239" width="1.28515625" style="35" customWidth="1"/>
+    <col min="240" max="240" width="42" style="35" customWidth="1"/>
+    <col min="241" max="241" width="5.42578125" style="35" customWidth="1"/>
+    <col min="242" max="243" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="244" max="244" width="2.7109375" style="35" customWidth="1"/>
+    <col min="245" max="280" width="3.28515625" style="35" customWidth="1"/>
+    <col min="281" max="281" width="1.7109375" style="35" customWidth="1"/>
+    <col min="282" max="282" width="25.7109375" style="35" customWidth="1"/>
+    <col min="283" max="283" width="31.28515625" style="35" customWidth="1"/>
+    <col min="284" max="493" width="8.85546875" style="35"/>
+    <col min="494" max="494" width="1.42578125" style="35" customWidth="1"/>
+    <col min="495" max="495" width="1.28515625" style="35" customWidth="1"/>
+    <col min="496" max="496" width="42" style="35" customWidth="1"/>
+    <col min="497" max="497" width="5.42578125" style="35" customWidth="1"/>
+    <col min="498" max="499" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="500" max="500" width="2.7109375" style="35" customWidth="1"/>
+    <col min="501" max="536" width="3.28515625" style="35" customWidth="1"/>
+    <col min="537" max="537" width="1.7109375" style="35" customWidth="1"/>
+    <col min="538" max="538" width="25.7109375" style="35" customWidth="1"/>
+    <col min="539" max="539" width="31.28515625" style="35" customWidth="1"/>
+    <col min="540" max="749" width="8.85546875" style="35"/>
+    <col min="750" max="750" width="1.42578125" style="35" customWidth="1"/>
+    <col min="751" max="751" width="1.28515625" style="35" customWidth="1"/>
+    <col min="752" max="752" width="42" style="35" customWidth="1"/>
+    <col min="753" max="753" width="5.42578125" style="35" customWidth="1"/>
+    <col min="754" max="755" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="756" max="756" width="2.7109375" style="35" customWidth="1"/>
+    <col min="757" max="792" width="3.28515625" style="35" customWidth="1"/>
+    <col min="793" max="793" width="1.7109375" style="35" customWidth="1"/>
+    <col min="794" max="794" width="25.7109375" style="35" customWidth="1"/>
+    <col min="795" max="795" width="31.28515625" style="35" customWidth="1"/>
+    <col min="796" max="1005" width="8.85546875" style="35"/>
+    <col min="1006" max="1006" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1007" max="1007" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1008" max="1008" width="42" style="35" customWidth="1"/>
+    <col min="1009" max="1009" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1010" max="1011" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1012" max="1012" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1013" max="1048" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1049" max="1049" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1050" max="1050" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1051" max="1051" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1052" max="1261" width="8.85546875" style="35"/>
+    <col min="1262" max="1262" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1263" max="1263" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1264" max="1264" width="42" style="35" customWidth="1"/>
+    <col min="1265" max="1265" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1266" max="1267" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1268" max="1268" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1269" max="1304" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1305" max="1305" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1306" max="1306" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1307" max="1307" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1308" max="1517" width="8.85546875" style="35"/>
+    <col min="1518" max="1518" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1519" max="1519" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1520" max="1520" width="42" style="35" customWidth="1"/>
+    <col min="1521" max="1521" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1522" max="1523" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1524" max="1524" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1525" max="1560" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1561" max="1561" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1562" max="1562" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1563" max="1563" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1564" max="1773" width="8.85546875" style="35"/>
+    <col min="1774" max="1774" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1775" max="1775" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1776" max="1776" width="42" style="35" customWidth="1"/>
+    <col min="1777" max="1777" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1778" max="1779" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1780" max="1780" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1781" max="1816" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1817" max="1817" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1818" max="1818" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1819" max="1819" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1820" max="2029" width="8.85546875" style="35"/>
+    <col min="2030" max="2030" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2031" max="2031" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2032" max="2032" width="42" style="35" customWidth="1"/>
+    <col min="2033" max="2033" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2034" max="2035" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2036" max="2036" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2037" max="2072" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2073" max="2073" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2074" max="2074" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2075" max="2075" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2076" max="2285" width="8.85546875" style="35"/>
+    <col min="2286" max="2286" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2287" max="2287" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2288" max="2288" width="42" style="35" customWidth="1"/>
+    <col min="2289" max="2289" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2290" max="2291" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2292" max="2292" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2293" max="2328" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2329" max="2329" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2330" max="2330" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2331" max="2331" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2332" max="2541" width="8.85546875" style="35"/>
+    <col min="2542" max="2542" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2543" max="2543" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2544" max="2544" width="42" style="35" customWidth="1"/>
+    <col min="2545" max="2545" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2546" max="2547" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2548" max="2548" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2549" max="2584" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2585" max="2585" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2586" max="2586" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2587" max="2587" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2588" max="2797" width="8.85546875" style="35"/>
+    <col min="2798" max="2798" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2799" max="2799" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2800" max="2800" width="42" style="35" customWidth="1"/>
+    <col min="2801" max="2801" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2802" max="2803" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2804" max="2804" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2805" max="2840" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2841" max="2841" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2842" max="2842" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2843" max="2843" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2844" max="3053" width="8.85546875" style="35"/>
+    <col min="3054" max="3054" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3055" max="3055" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3056" max="3056" width="42" style="35" customWidth="1"/>
+    <col min="3057" max="3057" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3058" max="3059" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3060" max="3060" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3061" max="3096" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3097" max="3097" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3098" max="3098" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3099" max="3099" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3100" max="3309" width="8.85546875" style="35"/>
+    <col min="3310" max="3310" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3311" max="3311" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3312" max="3312" width="42" style="35" customWidth="1"/>
+    <col min="3313" max="3313" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3314" max="3315" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3316" max="3316" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3317" max="3352" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3353" max="3353" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3354" max="3354" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3355" max="3355" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3356" max="3565" width="8.85546875" style="35"/>
+    <col min="3566" max="3566" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3567" max="3567" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3568" max="3568" width="42" style="35" customWidth="1"/>
+    <col min="3569" max="3569" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3570" max="3571" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3572" max="3572" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3573" max="3608" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3609" max="3609" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3610" max="3610" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3611" max="3611" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3612" max="3821" width="8.85546875" style="35"/>
+    <col min="3822" max="3822" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3823" max="3823" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3824" max="3824" width="42" style="35" customWidth="1"/>
+    <col min="3825" max="3825" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3826" max="3827" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3828" max="3828" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3829" max="3864" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3865" max="3865" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3866" max="3866" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3867" max="3867" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3868" max="4077" width="8.85546875" style="35"/>
+    <col min="4078" max="4078" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4079" max="4079" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4080" max="4080" width="42" style="35" customWidth="1"/>
+    <col min="4081" max="4081" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4082" max="4083" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4084" max="4084" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4085" max="4120" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4121" max="4121" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4122" max="4122" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4123" max="4123" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4124" max="4333" width="8.85546875" style="35"/>
+    <col min="4334" max="4334" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4335" max="4335" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4336" max="4336" width="42" style="35" customWidth="1"/>
+    <col min="4337" max="4337" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4338" max="4339" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4340" max="4340" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4341" max="4376" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4377" max="4377" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4378" max="4378" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4379" max="4379" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4380" max="4589" width="8.85546875" style="35"/>
+    <col min="4590" max="4590" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4591" max="4591" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4592" max="4592" width="42" style="35" customWidth="1"/>
+    <col min="4593" max="4593" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4594" max="4595" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4596" max="4596" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4597" max="4632" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4633" max="4633" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4634" max="4634" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4635" max="4635" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4636" max="4845" width="8.85546875" style="35"/>
+    <col min="4846" max="4846" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4847" max="4847" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4848" max="4848" width="42" style="35" customWidth="1"/>
+    <col min="4849" max="4849" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4850" max="4851" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4852" max="4852" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4853" max="4888" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4889" max="4889" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4890" max="4890" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4891" max="4891" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4892" max="5101" width="8.85546875" style="35"/>
+    <col min="5102" max="5102" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5103" max="5103" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5104" max="5104" width="42" style="35" customWidth="1"/>
+    <col min="5105" max="5105" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5106" max="5107" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5108" max="5108" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5109" max="5144" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5145" max="5145" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5146" max="5146" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5147" max="5147" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5148" max="5357" width="8.85546875" style="35"/>
+    <col min="5358" max="5358" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5359" max="5359" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5360" max="5360" width="42" style="35" customWidth="1"/>
+    <col min="5361" max="5361" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5362" max="5363" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5364" max="5364" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5365" max="5400" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5401" max="5401" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5402" max="5402" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5403" max="5403" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5404" max="5613" width="8.85546875" style="35"/>
+    <col min="5614" max="5614" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5615" max="5615" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5616" max="5616" width="42" style="35" customWidth="1"/>
+    <col min="5617" max="5617" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5618" max="5619" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5620" max="5620" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5621" max="5656" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5657" max="5657" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5658" max="5658" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5659" max="5659" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5660" max="5869" width="8.85546875" style="35"/>
+    <col min="5870" max="5870" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5871" max="5871" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5872" max="5872" width="42" style="35" customWidth="1"/>
+    <col min="5873" max="5873" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5874" max="5875" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5876" max="5876" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5877" max="5912" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5913" max="5913" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5914" max="5914" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5915" max="5915" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5916" max="6125" width="8.85546875" style="35"/>
+    <col min="6126" max="6126" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6127" max="6127" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6128" max="6128" width="42" style="35" customWidth="1"/>
+    <col min="6129" max="6129" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6130" max="6131" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6132" max="6132" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6133" max="6168" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6169" max="6169" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6170" max="6170" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6171" max="6171" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6172" max="6381" width="8.85546875" style="35"/>
+    <col min="6382" max="6382" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6383" max="6383" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6384" max="6384" width="42" style="35" customWidth="1"/>
+    <col min="6385" max="6385" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6386" max="6387" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6388" max="6388" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6389" max="6424" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6425" max="6425" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6426" max="6426" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6427" max="6427" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6428" max="6637" width="8.85546875" style="35"/>
+    <col min="6638" max="6638" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6639" max="6639" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6640" max="6640" width="42" style="35" customWidth="1"/>
+    <col min="6641" max="6641" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6642" max="6643" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6644" max="6644" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6645" max="6680" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6681" max="6681" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6682" max="6682" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6683" max="6683" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6684" max="6893" width="8.85546875" style="35"/>
+    <col min="6894" max="6894" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6895" max="6895" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6896" max="6896" width="42" style="35" customWidth="1"/>
+    <col min="6897" max="6897" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6898" max="6899" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6900" max="6900" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6901" max="6936" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6937" max="6937" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6938" max="6938" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6939" max="6939" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6940" max="7149" width="8.85546875" style="35"/>
+    <col min="7150" max="7150" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7151" max="7151" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7152" max="7152" width="42" style="35" customWidth="1"/>
+    <col min="7153" max="7153" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7154" max="7155" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7156" max="7156" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7157" max="7192" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7193" max="7193" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7194" max="7194" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7195" max="7195" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7196" max="7405" width="8.85546875" style="35"/>
+    <col min="7406" max="7406" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7407" max="7407" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7408" max="7408" width="42" style="35" customWidth="1"/>
+    <col min="7409" max="7409" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7410" max="7411" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7412" max="7412" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7413" max="7448" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7449" max="7449" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7450" max="7450" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7451" max="7451" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7452" max="7661" width="8.85546875" style="35"/>
+    <col min="7662" max="7662" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7663" max="7663" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7664" max="7664" width="42" style="35" customWidth="1"/>
+    <col min="7665" max="7665" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7666" max="7667" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7668" max="7668" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7669" max="7704" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7705" max="7705" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7706" max="7706" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7707" max="7707" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7708" max="7917" width="8.85546875" style="35"/>
+    <col min="7918" max="7918" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7919" max="7919" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7920" max="7920" width="42" style="35" customWidth="1"/>
+    <col min="7921" max="7921" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7922" max="7923" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7924" max="7924" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7925" max="7960" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7961" max="7961" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7962" max="7962" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7963" max="7963" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7964" max="8173" width="8.85546875" style="35"/>
+    <col min="8174" max="8174" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8175" max="8175" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8176" max="8176" width="42" style="35" customWidth="1"/>
+    <col min="8177" max="8177" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8178" max="8179" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8180" max="8180" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8181" max="8216" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8217" max="8217" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8218" max="8218" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8219" max="8219" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8220" max="8429" width="8.85546875" style="35"/>
+    <col min="8430" max="8430" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8431" max="8431" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8432" max="8432" width="42" style="35" customWidth="1"/>
+    <col min="8433" max="8433" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8434" max="8435" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8436" max="8436" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8437" max="8472" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8473" max="8473" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8474" max="8474" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8475" max="8475" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8476" max="8685" width="8.85546875" style="35"/>
+    <col min="8686" max="8686" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8687" max="8687" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8688" max="8688" width="42" style="35" customWidth="1"/>
+    <col min="8689" max="8689" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8690" max="8691" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8692" max="8692" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8693" max="8728" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8729" max="8729" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8730" max="8730" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8731" max="8731" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8732" max="8941" width="8.85546875" style="35"/>
+    <col min="8942" max="8942" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8943" max="8943" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8944" max="8944" width="42" style="35" customWidth="1"/>
+    <col min="8945" max="8945" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8946" max="8947" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8948" max="8948" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8949" max="8984" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8985" max="8985" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8986" max="8986" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8987" max="8987" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8988" max="9197" width="8.85546875" style="35"/>
+    <col min="9198" max="9198" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9199" max="9199" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9200" max="9200" width="42" style="35" customWidth="1"/>
+    <col min="9201" max="9201" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9202" max="9203" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9204" max="9204" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9205" max="9240" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9241" max="9241" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9242" max="9242" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9243" max="9243" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9244" max="9453" width="8.85546875" style="35"/>
+    <col min="9454" max="9454" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9455" max="9455" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9456" max="9456" width="42" style="35" customWidth="1"/>
+    <col min="9457" max="9457" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9458" max="9459" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9460" max="9460" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9461" max="9496" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9497" max="9497" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9498" max="9498" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9499" max="9499" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9500" max="9709" width="8.85546875" style="35"/>
+    <col min="9710" max="9710" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9711" max="9711" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9712" max="9712" width="42" style="35" customWidth="1"/>
+    <col min="9713" max="9713" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9714" max="9715" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9716" max="9716" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9717" max="9752" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9753" max="9753" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9754" max="9754" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9755" max="9755" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9756" max="9965" width="8.85546875" style="35"/>
+    <col min="9966" max="9966" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9967" max="9967" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9968" max="9968" width="42" style="35" customWidth="1"/>
+    <col min="9969" max="9969" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9970" max="9971" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9972" max="9972" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9973" max="10008" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10009" max="10009" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10010" max="10010" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10011" max="10011" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10012" max="10221" width="8.85546875" style="35"/>
+    <col min="10222" max="10222" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10223" max="10223" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10224" max="10224" width="42" style="35" customWidth="1"/>
+    <col min="10225" max="10225" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10226" max="10227" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10228" max="10228" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10229" max="10264" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10265" max="10265" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10266" max="10266" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10267" max="10267" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10268" max="10477" width="8.85546875" style="35"/>
+    <col min="10478" max="10478" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10479" max="10479" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10480" max="10480" width="42" style="35" customWidth="1"/>
+    <col min="10481" max="10481" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10482" max="10483" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10484" max="10484" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10485" max="10520" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10521" max="10521" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10522" max="10522" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10523" max="10523" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10524" max="10733" width="8.85546875" style="35"/>
+    <col min="10734" max="10734" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10735" max="10735" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10736" max="10736" width="42" style="35" customWidth="1"/>
+    <col min="10737" max="10737" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10738" max="10739" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10740" max="10740" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10741" max="10776" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10777" max="10777" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10778" max="10778" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10779" max="10779" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10780" max="10989" width="8.85546875" style="35"/>
+    <col min="10990" max="10990" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10991" max="10991" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10992" max="10992" width="42" style="35" customWidth="1"/>
+    <col min="10993" max="10993" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10994" max="10995" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10996" max="10996" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10997" max="11032" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11033" max="11033" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11034" max="11034" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11035" max="11035" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11036" max="11245" width="8.85546875" style="35"/>
+    <col min="11246" max="11246" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11247" max="11247" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11248" max="11248" width="42" style="35" customWidth="1"/>
+    <col min="11249" max="11249" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11250" max="11251" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11252" max="11252" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11253" max="11288" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11289" max="11289" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11290" max="11290" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11291" max="11291" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11292" max="11501" width="8.85546875" style="35"/>
+    <col min="11502" max="11502" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11503" max="11503" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11504" max="11504" width="42" style="35" customWidth="1"/>
+    <col min="11505" max="11505" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11506" max="11507" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11508" max="11508" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11509" max="11544" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11545" max="11545" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11546" max="11546" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11547" max="11547" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11548" max="11757" width="8.85546875" style="35"/>
+    <col min="11758" max="11758" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11759" max="11759" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11760" max="11760" width="42" style="35" customWidth="1"/>
+    <col min="11761" max="11761" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11762" max="11763" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11764" max="11764" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11765" max="11800" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11801" max="11801" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11802" max="11802" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11803" max="11803" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11804" max="12013" width="8.85546875" style="35"/>
+    <col min="12014" max="12014" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12015" max="12015" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12016" max="12016" width="42" style="35" customWidth="1"/>
+    <col min="12017" max="12017" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12018" max="12019" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12020" max="12020" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12021" max="12056" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12057" max="12057" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12058" max="12058" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12059" max="12059" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12060" max="12269" width="8.85546875" style="35"/>
+    <col min="12270" max="12270" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12271" max="12271" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12272" max="12272" width="42" style="35" customWidth="1"/>
+    <col min="12273" max="12273" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12274" max="12275" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12276" max="12276" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12277" max="12312" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12313" max="12313" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12314" max="12314" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12315" max="12315" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12316" max="12525" width="8.85546875" style="35"/>
+    <col min="12526" max="12526" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12527" max="12527" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12528" max="12528" width="42" style="35" customWidth="1"/>
+    <col min="12529" max="12529" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12530" max="12531" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12532" max="12532" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12533" max="12568" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12569" max="12569" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12570" max="12570" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12571" max="12571" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12572" max="12781" width="8.85546875" style="35"/>
+    <col min="12782" max="12782" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12783" max="12783" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12784" max="12784" width="42" style="35" customWidth="1"/>
+    <col min="12785" max="12785" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12786" max="12787" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12788" max="12788" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12789" max="12824" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12825" max="12825" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12826" max="12826" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12827" max="12827" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12828" max="13037" width="8.85546875" style="35"/>
+    <col min="13038" max="13038" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13039" max="13039" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13040" max="13040" width="42" style="35" customWidth="1"/>
+    <col min="13041" max="13041" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13042" max="13043" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13044" max="13044" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13045" max="13080" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13081" max="13081" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13082" max="13082" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13083" max="13083" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13084" max="13293" width="8.85546875" style="35"/>
+    <col min="13294" max="13294" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13295" max="13295" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13296" max="13296" width="42" style="35" customWidth="1"/>
+    <col min="13297" max="13297" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13298" max="13299" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13300" max="13300" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13301" max="13336" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13337" max="13337" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13338" max="13338" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13339" max="13339" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13340" max="13549" width="8.85546875" style="35"/>
+    <col min="13550" max="13550" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13551" max="13551" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13552" max="13552" width="42" style="35" customWidth="1"/>
+    <col min="13553" max="13553" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13554" max="13555" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13556" max="13556" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13557" max="13592" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13593" max="13593" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13594" max="13594" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13595" max="13595" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13596" max="13805" width="8.85546875" style="35"/>
+    <col min="13806" max="13806" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13807" max="13807" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13808" max="13808" width="42" style="35" customWidth="1"/>
+    <col min="13809" max="13809" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13810" max="13811" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13812" max="13812" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13813" max="13848" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13849" max="13849" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13850" max="13850" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13851" max="13851" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13852" max="14061" width="8.85546875" style="35"/>
+    <col min="14062" max="14062" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14063" max="14063" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14064" max="14064" width="42" style="35" customWidth="1"/>
+    <col min="14065" max="14065" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14066" max="14067" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14068" max="14068" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14069" max="14104" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14105" max="14105" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14106" max="14106" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14107" max="14107" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14108" max="14317" width="8.85546875" style="35"/>
+    <col min="14318" max="14318" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14319" max="14319" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14320" max="14320" width="42" style="35" customWidth="1"/>
+    <col min="14321" max="14321" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14322" max="14323" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14324" max="14324" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14325" max="14360" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14361" max="14361" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14362" max="14362" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14363" max="14363" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14364" max="14573" width="8.85546875" style="35"/>
+    <col min="14574" max="14574" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14575" max="14575" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14576" max="14576" width="42" style="35" customWidth="1"/>
+    <col min="14577" max="14577" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14578" max="14579" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14580" max="14580" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14581" max="14616" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14617" max="14617" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14618" max="14618" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14619" max="14619" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14620" max="14829" width="8.85546875" style="35"/>
+    <col min="14830" max="14830" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14831" max="14831" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14832" max="14832" width="42" style="35" customWidth="1"/>
+    <col min="14833" max="14833" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14834" max="14835" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14836" max="14836" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14837" max="14872" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14873" max="14873" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14874" max="14874" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14875" max="14875" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14876" max="15085" width="8.85546875" style="35"/>
+    <col min="15086" max="15086" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15087" max="15087" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15088" max="15088" width="42" style="35" customWidth="1"/>
+    <col min="15089" max="15089" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15090" max="15091" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15092" max="15092" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15093" max="15128" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15129" max="15129" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15130" max="15130" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15131" max="15131" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15132" max="15341" width="8.85546875" style="35"/>
+    <col min="15342" max="15342" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15343" max="15343" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15344" max="15344" width="42" style="35" customWidth="1"/>
+    <col min="15345" max="15345" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15346" max="15347" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15348" max="15348" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15349" max="15384" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15385" max="15385" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15386" max="15386" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15387" max="15387" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15388" max="15597" width="8.85546875" style="35"/>
+    <col min="15598" max="15598" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15599" max="15599" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15600" max="15600" width="42" style="35" customWidth="1"/>
+    <col min="15601" max="15601" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15602" max="15603" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15604" max="15604" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15605" max="15640" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15641" max="15641" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15642" max="15642" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15643" max="15643" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15644" max="15853" width="8.85546875" style="35"/>
+    <col min="15854" max="15854" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15855" max="15855" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15856" max="15856" width="42" style="35" customWidth="1"/>
+    <col min="15857" max="15857" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15858" max="15859" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15860" max="15860" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15861" max="15896" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15897" max="15897" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15898" max="15898" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15899" max="15899" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15900" max="16109" width="8.85546875" style="35"/>
+    <col min="16110" max="16110" width="1.42578125" style="35" customWidth="1"/>
+    <col min="16111" max="16111" width="1.28515625" style="35" customWidth="1"/>
+    <col min="16112" max="16112" width="42" style="35" customWidth="1"/>
+    <col min="16113" max="16113" width="5.42578125" style="35" customWidth="1"/>
+    <col min="16114" max="16115" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="16116" max="16116" width="2.7109375" style="35" customWidth="1"/>
+    <col min="16117" max="16152" width="3.28515625" style="35" customWidth="1"/>
+    <col min="16153" max="16153" width="1.7109375" style="35" customWidth="1"/>
+    <col min="16154" max="16154" width="25.7109375" style="35" customWidth="1"/>
+    <col min="16155" max="16155" width="31.28515625" style="35" customWidth="1"/>
+    <col min="16156" max="16384" width="8.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="126" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="126"/>
       <c r="D3" s="126"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="77" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="77">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C8" s="83">
+        <v>6</v>
+      </c>
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="85">
         <v>0</v>
       </c>
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="80">
-        <v>0</v>
-      </c>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="82">
-        <v>0</v>
-      </c>
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="84">
-        <v>6</v>
-      </c>
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="86">
-        <v>0</v>
-      </c>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="68"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
-        <v>106</v>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6877,925 +6893,925 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH25"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="68.5" style="37" customWidth="1"/>
-    <col min="4" max="4" width="8" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="38" customWidth="1"/>
-    <col min="6" max="24" width="3.33203125" style="38" customWidth="1"/>
-    <col min="25" max="25" width="10" style="38" customWidth="1"/>
-    <col min="26" max="34" width="8.83203125" style="38"/>
-    <col min="35" max="235" width="8.83203125" style="36"/>
-    <col min="236" max="236" width="1.5" style="36" customWidth="1"/>
-    <col min="237" max="237" width="1.33203125" style="36" customWidth="1"/>
-    <col min="238" max="238" width="42" style="36" customWidth="1"/>
-    <col min="239" max="239" width="5.5" style="36" customWidth="1"/>
-    <col min="240" max="241" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.6640625" style="36" customWidth="1"/>
-    <col min="243" max="278" width="3.33203125" style="36" customWidth="1"/>
-    <col min="279" max="279" width="1.6640625" style="36" customWidth="1"/>
-    <col min="280" max="280" width="25.6640625" style="36" customWidth="1"/>
-    <col min="281" max="281" width="31.33203125" style="36" customWidth="1"/>
-    <col min="282" max="491" width="8.83203125" style="36"/>
-    <col min="492" max="492" width="1.5" style="36" customWidth="1"/>
-    <col min="493" max="493" width="1.33203125" style="36" customWidth="1"/>
-    <col min="494" max="494" width="42" style="36" customWidth="1"/>
-    <col min="495" max="495" width="5.5" style="36" customWidth="1"/>
-    <col min="496" max="497" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.6640625" style="36" customWidth="1"/>
-    <col min="499" max="534" width="3.33203125" style="36" customWidth="1"/>
-    <col min="535" max="535" width="1.6640625" style="36" customWidth="1"/>
-    <col min="536" max="536" width="25.6640625" style="36" customWidth="1"/>
-    <col min="537" max="537" width="31.33203125" style="36" customWidth="1"/>
-    <col min="538" max="747" width="8.83203125" style="36"/>
-    <col min="748" max="748" width="1.5" style="36" customWidth="1"/>
-    <col min="749" max="749" width="1.33203125" style="36" customWidth="1"/>
-    <col min="750" max="750" width="42" style="36" customWidth="1"/>
-    <col min="751" max="751" width="5.5" style="36" customWidth="1"/>
-    <col min="752" max="753" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.6640625" style="36" customWidth="1"/>
-    <col min="755" max="790" width="3.33203125" style="36" customWidth="1"/>
-    <col min="791" max="791" width="1.6640625" style="36" customWidth="1"/>
-    <col min="792" max="792" width="25.6640625" style="36" customWidth="1"/>
-    <col min="793" max="793" width="31.33203125" style="36" customWidth="1"/>
-    <col min="794" max="1003" width="8.83203125" style="36"/>
-    <col min="1004" max="1004" width="1.5" style="36" customWidth="1"/>
-    <col min="1005" max="1005" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1006" max="1006" width="42" style="36" customWidth="1"/>
-    <col min="1007" max="1007" width="5.5" style="36" customWidth="1"/>
-    <col min="1008" max="1009" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1011" max="1046" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1047" max="1047" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1048" max="1048" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1049" max="1049" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1050" max="1259" width="8.83203125" style="36"/>
-    <col min="1260" max="1260" width="1.5" style="36" customWidth="1"/>
-    <col min="1261" max="1261" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1262" max="1262" width="42" style="36" customWidth="1"/>
-    <col min="1263" max="1263" width="5.5" style="36" customWidth="1"/>
-    <col min="1264" max="1265" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1267" max="1302" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1303" max="1303" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1304" max="1304" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1305" max="1305" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1306" max="1515" width="8.83203125" style="36"/>
-    <col min="1516" max="1516" width="1.5" style="36" customWidth="1"/>
-    <col min="1517" max="1517" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1518" max="1518" width="42" style="36" customWidth="1"/>
-    <col min="1519" max="1519" width="5.5" style="36" customWidth="1"/>
-    <col min="1520" max="1521" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1523" max="1558" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1559" max="1559" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1560" max="1560" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1561" max="1561" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1562" max="1771" width="8.83203125" style="36"/>
-    <col min="1772" max="1772" width="1.5" style="36" customWidth="1"/>
-    <col min="1773" max="1773" width="1.33203125" style="36" customWidth="1"/>
-    <col min="1774" max="1774" width="42" style="36" customWidth="1"/>
-    <col min="1775" max="1775" width="5.5" style="36" customWidth="1"/>
-    <col min="1776" max="1777" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.6640625" style="36" customWidth="1"/>
-    <col min="1779" max="1814" width="3.33203125" style="36" customWidth="1"/>
-    <col min="1815" max="1815" width="1.6640625" style="36" customWidth="1"/>
-    <col min="1816" max="1816" width="25.6640625" style="36" customWidth="1"/>
-    <col min="1817" max="1817" width="31.33203125" style="36" customWidth="1"/>
-    <col min="1818" max="2027" width="8.83203125" style="36"/>
-    <col min="2028" max="2028" width="1.5" style="36" customWidth="1"/>
-    <col min="2029" max="2029" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2030" max="2030" width="42" style="36" customWidth="1"/>
-    <col min="2031" max="2031" width="5.5" style="36" customWidth="1"/>
-    <col min="2032" max="2033" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2035" max="2070" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2071" max="2071" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2072" max="2072" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2073" max="2073" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2074" max="2283" width="8.83203125" style="36"/>
-    <col min="2284" max="2284" width="1.5" style="36" customWidth="1"/>
-    <col min="2285" max="2285" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2286" max="2286" width="42" style="36" customWidth="1"/>
-    <col min="2287" max="2287" width="5.5" style="36" customWidth="1"/>
-    <col min="2288" max="2289" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2291" max="2326" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2327" max="2327" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2328" max="2328" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2329" max="2329" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2330" max="2539" width="8.83203125" style="36"/>
-    <col min="2540" max="2540" width="1.5" style="36" customWidth="1"/>
-    <col min="2541" max="2541" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2542" max="2542" width="42" style="36" customWidth="1"/>
-    <col min="2543" max="2543" width="5.5" style="36" customWidth="1"/>
-    <col min="2544" max="2545" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2547" max="2582" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2583" max="2583" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2584" max="2584" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2585" max="2585" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2586" max="2795" width="8.83203125" style="36"/>
-    <col min="2796" max="2796" width="1.5" style="36" customWidth="1"/>
-    <col min="2797" max="2797" width="1.33203125" style="36" customWidth="1"/>
-    <col min="2798" max="2798" width="42" style="36" customWidth="1"/>
-    <col min="2799" max="2799" width="5.5" style="36" customWidth="1"/>
-    <col min="2800" max="2801" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2803" max="2838" width="3.33203125" style="36" customWidth="1"/>
-    <col min="2839" max="2839" width="1.6640625" style="36" customWidth="1"/>
-    <col min="2840" max="2840" width="25.6640625" style="36" customWidth="1"/>
-    <col min="2841" max="2841" width="31.33203125" style="36" customWidth="1"/>
-    <col min="2842" max="3051" width="8.83203125" style="36"/>
-    <col min="3052" max="3052" width="1.5" style="36" customWidth="1"/>
-    <col min="3053" max="3053" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3054" max="3054" width="42" style="36" customWidth="1"/>
-    <col min="3055" max="3055" width="5.5" style="36" customWidth="1"/>
-    <col min="3056" max="3057" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3059" max="3094" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3095" max="3095" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3096" max="3096" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3097" max="3097" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3098" max="3307" width="8.83203125" style="36"/>
-    <col min="3308" max="3308" width="1.5" style="36" customWidth="1"/>
-    <col min="3309" max="3309" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3310" max="3310" width="42" style="36" customWidth="1"/>
-    <col min="3311" max="3311" width="5.5" style="36" customWidth="1"/>
-    <col min="3312" max="3313" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3315" max="3350" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3351" max="3351" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3352" max="3352" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3353" max="3353" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3354" max="3563" width="8.83203125" style="36"/>
-    <col min="3564" max="3564" width="1.5" style="36" customWidth="1"/>
-    <col min="3565" max="3565" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3566" max="3566" width="42" style="36" customWidth="1"/>
-    <col min="3567" max="3567" width="5.5" style="36" customWidth="1"/>
-    <col min="3568" max="3569" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3571" max="3606" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3607" max="3607" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3608" max="3608" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3609" max="3609" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3610" max="3819" width="8.83203125" style="36"/>
-    <col min="3820" max="3820" width="1.5" style="36" customWidth="1"/>
-    <col min="3821" max="3821" width="1.33203125" style="36" customWidth="1"/>
-    <col min="3822" max="3822" width="42" style="36" customWidth="1"/>
-    <col min="3823" max="3823" width="5.5" style="36" customWidth="1"/>
-    <col min="3824" max="3825" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3827" max="3862" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3863" max="3863" width="1.6640625" style="36" customWidth="1"/>
-    <col min="3864" max="3864" width="25.6640625" style="36" customWidth="1"/>
-    <col min="3865" max="3865" width="31.33203125" style="36" customWidth="1"/>
-    <col min="3866" max="4075" width="8.83203125" style="36"/>
-    <col min="4076" max="4076" width="1.5" style="36" customWidth="1"/>
-    <col min="4077" max="4077" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4078" max="4078" width="42" style="36" customWidth="1"/>
-    <col min="4079" max="4079" width="5.5" style="36" customWidth="1"/>
-    <col min="4080" max="4081" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4083" max="4118" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4119" max="4119" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4120" max="4120" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4121" max="4121" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4122" max="4331" width="8.83203125" style="36"/>
-    <col min="4332" max="4332" width="1.5" style="36" customWidth="1"/>
-    <col min="4333" max="4333" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4334" max="4334" width="42" style="36" customWidth="1"/>
-    <col min="4335" max="4335" width="5.5" style="36" customWidth="1"/>
-    <col min="4336" max="4337" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4339" max="4374" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4375" max="4375" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4376" max="4376" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4377" max="4377" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4378" max="4587" width="8.83203125" style="36"/>
-    <col min="4588" max="4588" width="1.5" style="36" customWidth="1"/>
-    <col min="4589" max="4589" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4590" max="4590" width="42" style="36" customWidth="1"/>
-    <col min="4591" max="4591" width="5.5" style="36" customWidth="1"/>
-    <col min="4592" max="4593" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4595" max="4630" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4631" max="4631" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4632" max="4632" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4633" max="4633" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4634" max="4843" width="8.83203125" style="36"/>
-    <col min="4844" max="4844" width="1.5" style="36" customWidth="1"/>
-    <col min="4845" max="4845" width="1.33203125" style="36" customWidth="1"/>
-    <col min="4846" max="4846" width="42" style="36" customWidth="1"/>
-    <col min="4847" max="4847" width="5.5" style="36" customWidth="1"/>
-    <col min="4848" max="4849" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.6640625" style="36" customWidth="1"/>
-    <col min="4851" max="4886" width="3.33203125" style="36" customWidth="1"/>
-    <col min="4887" max="4887" width="1.6640625" style="36" customWidth="1"/>
-    <col min="4888" max="4888" width="25.6640625" style="36" customWidth="1"/>
-    <col min="4889" max="4889" width="31.33203125" style="36" customWidth="1"/>
-    <col min="4890" max="5099" width="8.83203125" style="36"/>
-    <col min="5100" max="5100" width="1.5" style="36" customWidth="1"/>
-    <col min="5101" max="5101" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5102" max="5102" width="42" style="36" customWidth="1"/>
-    <col min="5103" max="5103" width="5.5" style="36" customWidth="1"/>
-    <col min="5104" max="5105" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5107" max="5142" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5143" max="5143" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5144" max="5144" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5145" max="5145" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5146" max="5355" width="8.83203125" style="36"/>
-    <col min="5356" max="5356" width="1.5" style="36" customWidth="1"/>
-    <col min="5357" max="5357" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5358" max="5358" width="42" style="36" customWidth="1"/>
-    <col min="5359" max="5359" width="5.5" style="36" customWidth="1"/>
-    <col min="5360" max="5361" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5363" max="5398" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5399" max="5399" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5400" max="5400" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5401" max="5401" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5402" max="5611" width="8.83203125" style="36"/>
-    <col min="5612" max="5612" width="1.5" style="36" customWidth="1"/>
-    <col min="5613" max="5613" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5614" max="5614" width="42" style="36" customWidth="1"/>
-    <col min="5615" max="5615" width="5.5" style="36" customWidth="1"/>
-    <col min="5616" max="5617" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5619" max="5654" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5655" max="5655" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5656" max="5656" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5657" max="5657" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5658" max="5867" width="8.83203125" style="36"/>
-    <col min="5868" max="5868" width="1.5" style="36" customWidth="1"/>
-    <col min="5869" max="5869" width="1.33203125" style="36" customWidth="1"/>
-    <col min="5870" max="5870" width="42" style="36" customWidth="1"/>
-    <col min="5871" max="5871" width="5.5" style="36" customWidth="1"/>
-    <col min="5872" max="5873" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.6640625" style="36" customWidth="1"/>
-    <col min="5875" max="5910" width="3.33203125" style="36" customWidth="1"/>
-    <col min="5911" max="5911" width="1.6640625" style="36" customWidth="1"/>
-    <col min="5912" max="5912" width="25.6640625" style="36" customWidth="1"/>
-    <col min="5913" max="5913" width="31.33203125" style="36" customWidth="1"/>
-    <col min="5914" max="6123" width="8.83203125" style="36"/>
-    <col min="6124" max="6124" width="1.5" style="36" customWidth="1"/>
-    <col min="6125" max="6125" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6126" max="6126" width="42" style="36" customWidth="1"/>
-    <col min="6127" max="6127" width="5.5" style="36" customWidth="1"/>
-    <col min="6128" max="6129" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6131" max="6166" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6167" max="6167" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6168" max="6168" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6169" max="6169" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6170" max="6379" width="8.83203125" style="36"/>
-    <col min="6380" max="6380" width="1.5" style="36" customWidth="1"/>
-    <col min="6381" max="6381" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6382" max="6382" width="42" style="36" customWidth="1"/>
-    <col min="6383" max="6383" width="5.5" style="36" customWidth="1"/>
-    <col min="6384" max="6385" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6387" max="6422" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6423" max="6423" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6424" max="6424" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6425" max="6425" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6426" max="6635" width="8.83203125" style="36"/>
-    <col min="6636" max="6636" width="1.5" style="36" customWidth="1"/>
-    <col min="6637" max="6637" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6638" max="6638" width="42" style="36" customWidth="1"/>
-    <col min="6639" max="6639" width="5.5" style="36" customWidth="1"/>
-    <col min="6640" max="6641" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6643" max="6678" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6679" max="6679" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6680" max="6680" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6681" max="6681" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6682" max="6891" width="8.83203125" style="36"/>
-    <col min="6892" max="6892" width="1.5" style="36" customWidth="1"/>
-    <col min="6893" max="6893" width="1.33203125" style="36" customWidth="1"/>
-    <col min="6894" max="6894" width="42" style="36" customWidth="1"/>
-    <col min="6895" max="6895" width="5.5" style="36" customWidth="1"/>
-    <col min="6896" max="6897" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.6640625" style="36" customWidth="1"/>
-    <col min="6899" max="6934" width="3.33203125" style="36" customWidth="1"/>
-    <col min="6935" max="6935" width="1.6640625" style="36" customWidth="1"/>
-    <col min="6936" max="6936" width="25.6640625" style="36" customWidth="1"/>
-    <col min="6937" max="6937" width="31.33203125" style="36" customWidth="1"/>
-    <col min="6938" max="7147" width="8.83203125" style="36"/>
-    <col min="7148" max="7148" width="1.5" style="36" customWidth="1"/>
-    <col min="7149" max="7149" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7150" max="7150" width="42" style="36" customWidth="1"/>
-    <col min="7151" max="7151" width="5.5" style="36" customWidth="1"/>
-    <col min="7152" max="7153" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7155" max="7190" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7191" max="7191" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7192" max="7192" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7193" max="7193" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7194" max="7403" width="8.83203125" style="36"/>
-    <col min="7404" max="7404" width="1.5" style="36" customWidth="1"/>
-    <col min="7405" max="7405" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7406" max="7406" width="42" style="36" customWidth="1"/>
-    <col min="7407" max="7407" width="5.5" style="36" customWidth="1"/>
-    <col min="7408" max="7409" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7411" max="7446" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7447" max="7447" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7448" max="7448" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7449" max="7449" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7450" max="7659" width="8.83203125" style="36"/>
-    <col min="7660" max="7660" width="1.5" style="36" customWidth="1"/>
-    <col min="7661" max="7661" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7662" max="7662" width="42" style="36" customWidth="1"/>
-    <col min="7663" max="7663" width="5.5" style="36" customWidth="1"/>
-    <col min="7664" max="7665" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7667" max="7702" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7703" max="7703" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7704" max="7704" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7705" max="7705" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7706" max="7915" width="8.83203125" style="36"/>
-    <col min="7916" max="7916" width="1.5" style="36" customWidth="1"/>
-    <col min="7917" max="7917" width="1.33203125" style="36" customWidth="1"/>
-    <col min="7918" max="7918" width="42" style="36" customWidth="1"/>
-    <col min="7919" max="7919" width="5.5" style="36" customWidth="1"/>
-    <col min="7920" max="7921" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.6640625" style="36" customWidth="1"/>
-    <col min="7923" max="7958" width="3.33203125" style="36" customWidth="1"/>
-    <col min="7959" max="7959" width="1.6640625" style="36" customWidth="1"/>
-    <col min="7960" max="7960" width="25.6640625" style="36" customWidth="1"/>
-    <col min="7961" max="7961" width="31.33203125" style="36" customWidth="1"/>
-    <col min="7962" max="8171" width="8.83203125" style="36"/>
-    <col min="8172" max="8172" width="1.5" style="36" customWidth="1"/>
-    <col min="8173" max="8173" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8174" max="8174" width="42" style="36" customWidth="1"/>
-    <col min="8175" max="8175" width="5.5" style="36" customWidth="1"/>
-    <col min="8176" max="8177" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8179" max="8214" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8215" max="8215" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8216" max="8216" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8217" max="8217" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8218" max="8427" width="8.83203125" style="36"/>
-    <col min="8428" max="8428" width="1.5" style="36" customWidth="1"/>
-    <col min="8429" max="8429" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8430" max="8430" width="42" style="36" customWidth="1"/>
-    <col min="8431" max="8431" width="5.5" style="36" customWidth="1"/>
-    <col min="8432" max="8433" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8435" max="8470" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8471" max="8471" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8472" max="8472" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8473" max="8473" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8474" max="8683" width="8.83203125" style="36"/>
-    <col min="8684" max="8684" width="1.5" style="36" customWidth="1"/>
-    <col min="8685" max="8685" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8686" max="8686" width="42" style="36" customWidth="1"/>
-    <col min="8687" max="8687" width="5.5" style="36" customWidth="1"/>
-    <col min="8688" max="8689" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8691" max="8726" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8727" max="8727" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8728" max="8728" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8729" max="8729" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8730" max="8939" width="8.83203125" style="36"/>
-    <col min="8940" max="8940" width="1.5" style="36" customWidth="1"/>
-    <col min="8941" max="8941" width="1.33203125" style="36" customWidth="1"/>
-    <col min="8942" max="8942" width="42" style="36" customWidth="1"/>
-    <col min="8943" max="8943" width="5.5" style="36" customWidth="1"/>
-    <col min="8944" max="8945" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.6640625" style="36" customWidth="1"/>
-    <col min="8947" max="8982" width="3.33203125" style="36" customWidth="1"/>
-    <col min="8983" max="8983" width="1.6640625" style="36" customWidth="1"/>
-    <col min="8984" max="8984" width="25.6640625" style="36" customWidth="1"/>
-    <col min="8985" max="8985" width="31.33203125" style="36" customWidth="1"/>
-    <col min="8986" max="9195" width="8.83203125" style="36"/>
-    <col min="9196" max="9196" width="1.5" style="36" customWidth="1"/>
-    <col min="9197" max="9197" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9198" max="9198" width="42" style="36" customWidth="1"/>
-    <col min="9199" max="9199" width="5.5" style="36" customWidth="1"/>
-    <col min="9200" max="9201" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9203" max="9238" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9239" max="9239" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9240" max="9240" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9241" max="9241" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9242" max="9451" width="8.83203125" style="36"/>
-    <col min="9452" max="9452" width="1.5" style="36" customWidth="1"/>
-    <col min="9453" max="9453" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9454" max="9454" width="42" style="36" customWidth="1"/>
-    <col min="9455" max="9455" width="5.5" style="36" customWidth="1"/>
-    <col min="9456" max="9457" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9459" max="9494" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9495" max="9495" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9496" max="9496" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9497" max="9497" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9498" max="9707" width="8.83203125" style="36"/>
-    <col min="9708" max="9708" width="1.5" style="36" customWidth="1"/>
-    <col min="9709" max="9709" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9710" max="9710" width="42" style="36" customWidth="1"/>
-    <col min="9711" max="9711" width="5.5" style="36" customWidth="1"/>
-    <col min="9712" max="9713" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9715" max="9750" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9751" max="9751" width="1.6640625" style="36" customWidth="1"/>
-    <col min="9752" max="9752" width="25.6640625" style="36" customWidth="1"/>
-    <col min="9753" max="9753" width="31.33203125" style="36" customWidth="1"/>
-    <col min="9754" max="9963" width="8.83203125" style="36"/>
-    <col min="9964" max="9964" width="1.5" style="36" customWidth="1"/>
-    <col min="9965" max="9965" width="1.33203125" style="36" customWidth="1"/>
-    <col min="9966" max="9966" width="42" style="36" customWidth="1"/>
-    <col min="9967" max="9967" width="5.5" style="36" customWidth="1"/>
-    <col min="9968" max="9969" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9971" max="10006" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10007" max="10007" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10008" max="10008" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10009" max="10009" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10010" max="10219" width="8.83203125" style="36"/>
-    <col min="10220" max="10220" width="1.5" style="36" customWidth="1"/>
-    <col min="10221" max="10221" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10222" max="10222" width="42" style="36" customWidth="1"/>
-    <col min="10223" max="10223" width="5.5" style="36" customWidth="1"/>
-    <col min="10224" max="10225" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10227" max="10262" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10263" max="10263" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10264" max="10264" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10265" max="10265" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10266" max="10475" width="8.83203125" style="36"/>
-    <col min="10476" max="10476" width="1.5" style="36" customWidth="1"/>
-    <col min="10477" max="10477" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10478" max="10478" width="42" style="36" customWidth="1"/>
-    <col min="10479" max="10479" width="5.5" style="36" customWidth="1"/>
-    <col min="10480" max="10481" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10483" max="10518" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10519" max="10519" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10520" max="10520" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10521" max="10521" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10522" max="10731" width="8.83203125" style="36"/>
-    <col min="10732" max="10732" width="1.5" style="36" customWidth="1"/>
-    <col min="10733" max="10733" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10734" max="10734" width="42" style="36" customWidth="1"/>
-    <col min="10735" max="10735" width="5.5" style="36" customWidth="1"/>
-    <col min="10736" max="10737" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10739" max="10774" width="3.33203125" style="36" customWidth="1"/>
-    <col min="10775" max="10775" width="1.6640625" style="36" customWidth="1"/>
-    <col min="10776" max="10776" width="25.6640625" style="36" customWidth="1"/>
-    <col min="10777" max="10777" width="31.33203125" style="36" customWidth="1"/>
-    <col min="10778" max="10987" width="8.83203125" style="36"/>
-    <col min="10988" max="10988" width="1.5" style="36" customWidth="1"/>
-    <col min="10989" max="10989" width="1.33203125" style="36" customWidth="1"/>
-    <col min="10990" max="10990" width="42" style="36" customWidth="1"/>
-    <col min="10991" max="10991" width="5.5" style="36" customWidth="1"/>
-    <col min="10992" max="10993" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.6640625" style="36" customWidth="1"/>
-    <col min="10995" max="11030" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11031" max="11031" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11032" max="11032" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11033" max="11033" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11034" max="11243" width="8.83203125" style="36"/>
-    <col min="11244" max="11244" width="1.5" style="36" customWidth="1"/>
-    <col min="11245" max="11245" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11246" max="11246" width="42" style="36" customWidth="1"/>
-    <col min="11247" max="11247" width="5.5" style="36" customWidth="1"/>
-    <col min="11248" max="11249" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11251" max="11286" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11287" max="11287" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11288" max="11288" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11289" max="11289" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11290" max="11499" width="8.83203125" style="36"/>
-    <col min="11500" max="11500" width="1.5" style="36" customWidth="1"/>
-    <col min="11501" max="11501" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11502" max="11502" width="42" style="36" customWidth="1"/>
-    <col min="11503" max="11503" width="5.5" style="36" customWidth="1"/>
-    <col min="11504" max="11505" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11507" max="11542" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11543" max="11543" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11544" max="11544" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11545" max="11545" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11546" max="11755" width="8.83203125" style="36"/>
-    <col min="11756" max="11756" width="1.5" style="36" customWidth="1"/>
-    <col min="11757" max="11757" width="1.33203125" style="36" customWidth="1"/>
-    <col min="11758" max="11758" width="42" style="36" customWidth="1"/>
-    <col min="11759" max="11759" width="5.5" style="36" customWidth="1"/>
-    <col min="11760" max="11761" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.6640625" style="36" customWidth="1"/>
-    <col min="11763" max="11798" width="3.33203125" style="36" customWidth="1"/>
-    <col min="11799" max="11799" width="1.6640625" style="36" customWidth="1"/>
-    <col min="11800" max="11800" width="25.6640625" style="36" customWidth="1"/>
-    <col min="11801" max="11801" width="31.33203125" style="36" customWidth="1"/>
-    <col min="11802" max="12011" width="8.83203125" style="36"/>
-    <col min="12012" max="12012" width="1.5" style="36" customWidth="1"/>
-    <col min="12013" max="12013" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12014" max="12014" width="42" style="36" customWidth="1"/>
-    <col min="12015" max="12015" width="5.5" style="36" customWidth="1"/>
-    <col min="12016" max="12017" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12019" max="12054" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12055" max="12055" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12056" max="12056" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12057" max="12057" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12058" max="12267" width="8.83203125" style="36"/>
-    <col min="12268" max="12268" width="1.5" style="36" customWidth="1"/>
-    <col min="12269" max="12269" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12270" max="12270" width="42" style="36" customWidth="1"/>
-    <col min="12271" max="12271" width="5.5" style="36" customWidth="1"/>
-    <col min="12272" max="12273" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12275" max="12310" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12311" max="12311" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12312" max="12312" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12313" max="12313" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12314" max="12523" width="8.83203125" style="36"/>
-    <col min="12524" max="12524" width="1.5" style="36" customWidth="1"/>
-    <col min="12525" max="12525" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12526" max="12526" width="42" style="36" customWidth="1"/>
-    <col min="12527" max="12527" width="5.5" style="36" customWidth="1"/>
-    <col min="12528" max="12529" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12531" max="12566" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12567" max="12567" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12568" max="12568" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12569" max="12569" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12570" max="12779" width="8.83203125" style="36"/>
-    <col min="12780" max="12780" width="1.5" style="36" customWidth="1"/>
-    <col min="12781" max="12781" width="1.33203125" style="36" customWidth="1"/>
-    <col min="12782" max="12782" width="42" style="36" customWidth="1"/>
-    <col min="12783" max="12783" width="5.5" style="36" customWidth="1"/>
-    <col min="12784" max="12785" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.6640625" style="36" customWidth="1"/>
-    <col min="12787" max="12822" width="3.33203125" style="36" customWidth="1"/>
-    <col min="12823" max="12823" width="1.6640625" style="36" customWidth="1"/>
-    <col min="12824" max="12824" width="25.6640625" style="36" customWidth="1"/>
-    <col min="12825" max="12825" width="31.33203125" style="36" customWidth="1"/>
-    <col min="12826" max="13035" width="8.83203125" style="36"/>
-    <col min="13036" max="13036" width="1.5" style="36" customWidth="1"/>
-    <col min="13037" max="13037" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13038" max="13038" width="42" style="36" customWidth="1"/>
-    <col min="13039" max="13039" width="5.5" style="36" customWidth="1"/>
-    <col min="13040" max="13041" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13043" max="13078" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13079" max="13079" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13080" max="13080" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13081" max="13081" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13082" max="13291" width="8.83203125" style="36"/>
-    <col min="13292" max="13292" width="1.5" style="36" customWidth="1"/>
-    <col min="13293" max="13293" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13294" max="13294" width="42" style="36" customWidth="1"/>
-    <col min="13295" max="13295" width="5.5" style="36" customWidth="1"/>
-    <col min="13296" max="13297" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13299" max="13334" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13335" max="13335" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13336" max="13336" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13337" max="13337" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13338" max="13547" width="8.83203125" style="36"/>
-    <col min="13548" max="13548" width="1.5" style="36" customWidth="1"/>
-    <col min="13549" max="13549" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13550" max="13550" width="42" style="36" customWidth="1"/>
-    <col min="13551" max="13551" width="5.5" style="36" customWidth="1"/>
-    <col min="13552" max="13553" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13555" max="13590" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13591" max="13591" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13592" max="13592" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13593" max="13593" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13594" max="13803" width="8.83203125" style="36"/>
-    <col min="13804" max="13804" width="1.5" style="36" customWidth="1"/>
-    <col min="13805" max="13805" width="1.33203125" style="36" customWidth="1"/>
-    <col min="13806" max="13806" width="42" style="36" customWidth="1"/>
-    <col min="13807" max="13807" width="5.5" style="36" customWidth="1"/>
-    <col min="13808" max="13809" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.6640625" style="36" customWidth="1"/>
-    <col min="13811" max="13846" width="3.33203125" style="36" customWidth="1"/>
-    <col min="13847" max="13847" width="1.6640625" style="36" customWidth="1"/>
-    <col min="13848" max="13848" width="25.6640625" style="36" customWidth="1"/>
-    <col min="13849" max="13849" width="31.33203125" style="36" customWidth="1"/>
-    <col min="13850" max="14059" width="8.83203125" style="36"/>
-    <col min="14060" max="14060" width="1.5" style="36" customWidth="1"/>
-    <col min="14061" max="14061" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14062" max="14062" width="42" style="36" customWidth="1"/>
-    <col min="14063" max="14063" width="5.5" style="36" customWidth="1"/>
-    <col min="14064" max="14065" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14067" max="14102" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14103" max="14103" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14104" max="14104" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14105" max="14105" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14106" max="14315" width="8.83203125" style="36"/>
-    <col min="14316" max="14316" width="1.5" style="36" customWidth="1"/>
-    <col min="14317" max="14317" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14318" max="14318" width="42" style="36" customWidth="1"/>
-    <col min="14319" max="14319" width="5.5" style="36" customWidth="1"/>
-    <col min="14320" max="14321" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14323" max="14358" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14359" max="14359" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14360" max="14360" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14361" max="14361" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14362" max="14571" width="8.83203125" style="36"/>
-    <col min="14572" max="14572" width="1.5" style="36" customWidth="1"/>
-    <col min="14573" max="14573" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14574" max="14574" width="42" style="36" customWidth="1"/>
-    <col min="14575" max="14575" width="5.5" style="36" customWidth="1"/>
-    <col min="14576" max="14577" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14579" max="14614" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14615" max="14615" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14616" max="14616" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14617" max="14617" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14618" max="14827" width="8.83203125" style="36"/>
-    <col min="14828" max="14828" width="1.5" style="36" customWidth="1"/>
-    <col min="14829" max="14829" width="1.33203125" style="36" customWidth="1"/>
-    <col min="14830" max="14830" width="42" style="36" customWidth="1"/>
-    <col min="14831" max="14831" width="5.5" style="36" customWidth="1"/>
-    <col min="14832" max="14833" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.6640625" style="36" customWidth="1"/>
-    <col min="14835" max="14870" width="3.33203125" style="36" customWidth="1"/>
-    <col min="14871" max="14871" width="1.6640625" style="36" customWidth="1"/>
-    <col min="14872" max="14872" width="25.6640625" style="36" customWidth="1"/>
-    <col min="14873" max="14873" width="31.33203125" style="36" customWidth="1"/>
-    <col min="14874" max="15083" width="8.83203125" style="36"/>
-    <col min="15084" max="15084" width="1.5" style="36" customWidth="1"/>
-    <col min="15085" max="15085" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15086" max="15086" width="42" style="36" customWidth="1"/>
-    <col min="15087" max="15087" width="5.5" style="36" customWidth="1"/>
-    <col min="15088" max="15089" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15091" max="15126" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15127" max="15127" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15128" max="15128" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15129" max="15129" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15130" max="15339" width="8.83203125" style="36"/>
-    <col min="15340" max="15340" width="1.5" style="36" customWidth="1"/>
-    <col min="15341" max="15341" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15342" max="15342" width="42" style="36" customWidth="1"/>
-    <col min="15343" max="15343" width="5.5" style="36" customWidth="1"/>
-    <col min="15344" max="15345" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15347" max="15382" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15383" max="15383" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15384" max="15384" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15385" max="15385" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15386" max="15595" width="8.83203125" style="36"/>
-    <col min="15596" max="15596" width="1.5" style="36" customWidth="1"/>
-    <col min="15597" max="15597" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15598" max="15598" width="42" style="36" customWidth="1"/>
-    <col min="15599" max="15599" width="5.5" style="36" customWidth="1"/>
-    <col min="15600" max="15601" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15603" max="15638" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15639" max="15639" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15640" max="15640" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15641" max="15641" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15642" max="15851" width="8.83203125" style="36"/>
-    <col min="15852" max="15852" width="1.5" style="36" customWidth="1"/>
-    <col min="15853" max="15853" width="1.33203125" style="36" customWidth="1"/>
-    <col min="15854" max="15854" width="42" style="36" customWidth="1"/>
-    <col min="15855" max="15855" width="5.5" style="36" customWidth="1"/>
-    <col min="15856" max="15857" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.6640625" style="36" customWidth="1"/>
-    <col min="15859" max="15894" width="3.33203125" style="36" customWidth="1"/>
-    <col min="15895" max="15895" width="1.6640625" style="36" customWidth="1"/>
-    <col min="15896" max="15896" width="25.6640625" style="36" customWidth="1"/>
-    <col min="15897" max="15897" width="31.33203125" style="36" customWidth="1"/>
-    <col min="15898" max="16107" width="8.83203125" style="36"/>
-    <col min="16108" max="16108" width="1.5" style="36" customWidth="1"/>
-    <col min="16109" max="16109" width="1.33203125" style="36" customWidth="1"/>
-    <col min="16110" max="16110" width="42" style="36" customWidth="1"/>
-    <col min="16111" max="16111" width="5.5" style="36" customWidth="1"/>
-    <col min="16112" max="16113" width="0" style="36" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.6640625" style="36" customWidth="1"/>
-    <col min="16115" max="16150" width="3.33203125" style="36" customWidth="1"/>
-    <col min="16151" max="16151" width="1.6640625" style="36" customWidth="1"/>
-    <col min="16152" max="16152" width="25.6640625" style="36" customWidth="1"/>
-    <col min="16153" max="16153" width="31.33203125" style="36" customWidth="1"/>
-    <col min="16154" max="16384" width="8.83203125" style="36"/>
+    <col min="1" max="1" width="6" style="35" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="37" customWidth="1"/>
+    <col min="6" max="24" width="3.28515625" style="37" customWidth="1"/>
+    <col min="25" max="25" width="10" style="37" customWidth="1"/>
+    <col min="26" max="34" width="8.85546875" style="37"/>
+    <col min="35" max="235" width="8.85546875" style="35"/>
+    <col min="236" max="236" width="1.42578125" style="35" customWidth="1"/>
+    <col min="237" max="237" width="1.28515625" style="35" customWidth="1"/>
+    <col min="238" max="238" width="42" style="35" customWidth="1"/>
+    <col min="239" max="239" width="5.42578125" style="35" customWidth="1"/>
+    <col min="240" max="241" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="242" max="242" width="2.7109375" style="35" customWidth="1"/>
+    <col min="243" max="278" width="3.28515625" style="35" customWidth="1"/>
+    <col min="279" max="279" width="1.7109375" style="35" customWidth="1"/>
+    <col min="280" max="280" width="25.7109375" style="35" customWidth="1"/>
+    <col min="281" max="281" width="31.28515625" style="35" customWidth="1"/>
+    <col min="282" max="491" width="8.85546875" style="35"/>
+    <col min="492" max="492" width="1.42578125" style="35" customWidth="1"/>
+    <col min="493" max="493" width="1.28515625" style="35" customWidth="1"/>
+    <col min="494" max="494" width="42" style="35" customWidth="1"/>
+    <col min="495" max="495" width="5.42578125" style="35" customWidth="1"/>
+    <col min="496" max="497" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="498" max="498" width="2.7109375" style="35" customWidth="1"/>
+    <col min="499" max="534" width="3.28515625" style="35" customWidth="1"/>
+    <col min="535" max="535" width="1.7109375" style="35" customWidth="1"/>
+    <col min="536" max="536" width="25.7109375" style="35" customWidth="1"/>
+    <col min="537" max="537" width="31.28515625" style="35" customWidth="1"/>
+    <col min="538" max="747" width="8.85546875" style="35"/>
+    <col min="748" max="748" width="1.42578125" style="35" customWidth="1"/>
+    <col min="749" max="749" width="1.28515625" style="35" customWidth="1"/>
+    <col min="750" max="750" width="42" style="35" customWidth="1"/>
+    <col min="751" max="751" width="5.42578125" style="35" customWidth="1"/>
+    <col min="752" max="753" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="754" max="754" width="2.7109375" style="35" customWidth="1"/>
+    <col min="755" max="790" width="3.28515625" style="35" customWidth="1"/>
+    <col min="791" max="791" width="1.7109375" style="35" customWidth="1"/>
+    <col min="792" max="792" width="25.7109375" style="35" customWidth="1"/>
+    <col min="793" max="793" width="31.28515625" style="35" customWidth="1"/>
+    <col min="794" max="1003" width="8.85546875" style="35"/>
+    <col min="1004" max="1004" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1005" max="1005" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1006" max="1006" width="42" style="35" customWidth="1"/>
+    <col min="1007" max="1007" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1008" max="1009" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1010" max="1010" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1011" max="1046" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1047" max="1047" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1048" max="1048" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1049" max="1049" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1050" max="1259" width="8.85546875" style="35"/>
+    <col min="1260" max="1260" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1261" max="1261" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1262" max="1262" width="42" style="35" customWidth="1"/>
+    <col min="1263" max="1263" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1264" max="1265" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1266" max="1266" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1267" max="1302" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1303" max="1303" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1304" max="1304" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1305" max="1305" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1306" max="1515" width="8.85546875" style="35"/>
+    <col min="1516" max="1516" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1517" max="1517" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1518" max="1518" width="42" style="35" customWidth="1"/>
+    <col min="1519" max="1519" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1520" max="1521" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1522" max="1522" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1523" max="1558" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1559" max="1559" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1560" max="1560" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1561" max="1561" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1562" max="1771" width="8.85546875" style="35"/>
+    <col min="1772" max="1772" width="1.42578125" style="35" customWidth="1"/>
+    <col min="1773" max="1773" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1774" max="1774" width="42" style="35" customWidth="1"/>
+    <col min="1775" max="1775" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1776" max="1777" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="1778" max="1778" width="2.7109375" style="35" customWidth="1"/>
+    <col min="1779" max="1814" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1815" max="1815" width="1.7109375" style="35" customWidth="1"/>
+    <col min="1816" max="1816" width="25.7109375" style="35" customWidth="1"/>
+    <col min="1817" max="1817" width="31.28515625" style="35" customWidth="1"/>
+    <col min="1818" max="2027" width="8.85546875" style="35"/>
+    <col min="2028" max="2028" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2029" max="2029" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2030" max="2030" width="42" style="35" customWidth="1"/>
+    <col min="2031" max="2031" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2032" max="2033" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2034" max="2034" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2035" max="2070" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2071" max="2071" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2072" max="2072" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2073" max="2073" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2074" max="2283" width="8.85546875" style="35"/>
+    <col min="2284" max="2284" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2285" max="2285" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2286" max="2286" width="42" style="35" customWidth="1"/>
+    <col min="2287" max="2287" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2288" max="2289" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2290" max="2290" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2291" max="2326" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2327" max="2327" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2328" max="2328" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2329" max="2329" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2330" max="2539" width="8.85546875" style="35"/>
+    <col min="2540" max="2540" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2541" max="2541" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2542" max="2542" width="42" style="35" customWidth="1"/>
+    <col min="2543" max="2543" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2544" max="2545" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2546" max="2546" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2547" max="2582" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2583" max="2583" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2584" max="2584" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2585" max="2585" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2586" max="2795" width="8.85546875" style="35"/>
+    <col min="2796" max="2796" width="1.42578125" style="35" customWidth="1"/>
+    <col min="2797" max="2797" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2798" max="2798" width="42" style="35" customWidth="1"/>
+    <col min="2799" max="2799" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2800" max="2801" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="2802" max="2802" width="2.7109375" style="35" customWidth="1"/>
+    <col min="2803" max="2838" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2839" max="2839" width="1.7109375" style="35" customWidth="1"/>
+    <col min="2840" max="2840" width="25.7109375" style="35" customWidth="1"/>
+    <col min="2841" max="2841" width="31.28515625" style="35" customWidth="1"/>
+    <col min="2842" max="3051" width="8.85546875" style="35"/>
+    <col min="3052" max="3052" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3053" max="3053" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3054" max="3054" width="42" style="35" customWidth="1"/>
+    <col min="3055" max="3055" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3056" max="3057" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3058" max="3058" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3059" max="3094" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3095" max="3095" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3096" max="3096" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3097" max="3097" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3098" max="3307" width="8.85546875" style="35"/>
+    <col min="3308" max="3308" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3309" max="3309" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3310" max="3310" width="42" style="35" customWidth="1"/>
+    <col min="3311" max="3311" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3312" max="3313" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3314" max="3314" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3315" max="3350" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3351" max="3351" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3352" max="3352" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3353" max="3353" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3354" max="3563" width="8.85546875" style="35"/>
+    <col min="3564" max="3564" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3565" max="3565" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3566" max="3566" width="42" style="35" customWidth="1"/>
+    <col min="3567" max="3567" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3568" max="3569" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3570" max="3570" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3571" max="3606" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3607" max="3607" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3608" max="3608" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3609" max="3609" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3610" max="3819" width="8.85546875" style="35"/>
+    <col min="3820" max="3820" width="1.42578125" style="35" customWidth="1"/>
+    <col min="3821" max="3821" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3822" max="3822" width="42" style="35" customWidth="1"/>
+    <col min="3823" max="3823" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3824" max="3825" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="3826" max="3826" width="2.7109375" style="35" customWidth="1"/>
+    <col min="3827" max="3862" width="3.28515625" style="35" customWidth="1"/>
+    <col min="3863" max="3863" width="1.7109375" style="35" customWidth="1"/>
+    <col min="3864" max="3864" width="25.7109375" style="35" customWidth="1"/>
+    <col min="3865" max="3865" width="31.28515625" style="35" customWidth="1"/>
+    <col min="3866" max="4075" width="8.85546875" style="35"/>
+    <col min="4076" max="4076" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4077" max="4077" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4078" max="4078" width="42" style="35" customWidth="1"/>
+    <col min="4079" max="4079" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4080" max="4081" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4082" max="4082" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4083" max="4118" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4119" max="4119" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4120" max="4120" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4121" max="4121" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4122" max="4331" width="8.85546875" style="35"/>
+    <col min="4332" max="4332" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4333" max="4333" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4334" max="4334" width="42" style="35" customWidth="1"/>
+    <col min="4335" max="4335" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4336" max="4337" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4338" max="4338" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4339" max="4374" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4375" max="4375" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4376" max="4376" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4377" max="4377" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4378" max="4587" width="8.85546875" style="35"/>
+    <col min="4588" max="4588" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4589" max="4589" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4590" max="4590" width="42" style="35" customWidth="1"/>
+    <col min="4591" max="4591" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4592" max="4593" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4594" max="4594" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4595" max="4630" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4631" max="4631" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4632" max="4632" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4633" max="4633" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4634" max="4843" width="8.85546875" style="35"/>
+    <col min="4844" max="4844" width="1.42578125" style="35" customWidth="1"/>
+    <col min="4845" max="4845" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4846" max="4846" width="42" style="35" customWidth="1"/>
+    <col min="4847" max="4847" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4848" max="4849" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="4850" max="4850" width="2.7109375" style="35" customWidth="1"/>
+    <col min="4851" max="4886" width="3.28515625" style="35" customWidth="1"/>
+    <col min="4887" max="4887" width="1.7109375" style="35" customWidth="1"/>
+    <col min="4888" max="4888" width="25.7109375" style="35" customWidth="1"/>
+    <col min="4889" max="4889" width="31.28515625" style="35" customWidth="1"/>
+    <col min="4890" max="5099" width="8.85546875" style="35"/>
+    <col min="5100" max="5100" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5101" max="5101" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5102" max="5102" width="42" style="35" customWidth="1"/>
+    <col min="5103" max="5103" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5104" max="5105" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5106" max="5106" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5107" max="5142" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5143" max="5143" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5144" max="5144" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5145" max="5145" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5146" max="5355" width="8.85546875" style="35"/>
+    <col min="5356" max="5356" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5357" max="5357" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5358" max="5358" width="42" style="35" customWidth="1"/>
+    <col min="5359" max="5359" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5360" max="5361" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5362" max="5362" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5363" max="5398" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5399" max="5399" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5400" max="5400" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5401" max="5401" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5402" max="5611" width="8.85546875" style="35"/>
+    <col min="5612" max="5612" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5613" max="5613" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5614" max="5614" width="42" style="35" customWidth="1"/>
+    <col min="5615" max="5615" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5616" max="5617" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5618" max="5618" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5619" max="5654" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5655" max="5655" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5656" max="5656" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5657" max="5657" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5658" max="5867" width="8.85546875" style="35"/>
+    <col min="5868" max="5868" width="1.42578125" style="35" customWidth="1"/>
+    <col min="5869" max="5869" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5870" max="5870" width="42" style="35" customWidth="1"/>
+    <col min="5871" max="5871" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5872" max="5873" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="5874" max="5874" width="2.7109375" style="35" customWidth="1"/>
+    <col min="5875" max="5910" width="3.28515625" style="35" customWidth="1"/>
+    <col min="5911" max="5911" width="1.7109375" style="35" customWidth="1"/>
+    <col min="5912" max="5912" width="25.7109375" style="35" customWidth="1"/>
+    <col min="5913" max="5913" width="31.28515625" style="35" customWidth="1"/>
+    <col min="5914" max="6123" width="8.85546875" style="35"/>
+    <col min="6124" max="6124" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6125" max="6125" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6126" max="6126" width="42" style="35" customWidth="1"/>
+    <col min="6127" max="6127" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6128" max="6129" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6130" max="6130" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6131" max="6166" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6167" max="6167" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6168" max="6168" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6169" max="6169" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6170" max="6379" width="8.85546875" style="35"/>
+    <col min="6380" max="6380" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6381" max="6381" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6382" max="6382" width="42" style="35" customWidth="1"/>
+    <col min="6383" max="6383" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6384" max="6385" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6386" max="6386" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6387" max="6422" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6423" max="6423" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6424" max="6424" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6425" max="6425" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6426" max="6635" width="8.85546875" style="35"/>
+    <col min="6636" max="6636" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6637" max="6637" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6638" max="6638" width="42" style="35" customWidth="1"/>
+    <col min="6639" max="6639" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6640" max="6641" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6642" max="6642" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6643" max="6678" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6679" max="6679" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6680" max="6680" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6681" max="6681" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6682" max="6891" width="8.85546875" style="35"/>
+    <col min="6892" max="6892" width="1.42578125" style="35" customWidth="1"/>
+    <col min="6893" max="6893" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6894" max="6894" width="42" style="35" customWidth="1"/>
+    <col min="6895" max="6895" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6896" max="6897" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6898" max="6898" width="2.7109375" style="35" customWidth="1"/>
+    <col min="6899" max="6934" width="3.28515625" style="35" customWidth="1"/>
+    <col min="6935" max="6935" width="1.7109375" style="35" customWidth="1"/>
+    <col min="6936" max="6936" width="25.7109375" style="35" customWidth="1"/>
+    <col min="6937" max="6937" width="31.28515625" style="35" customWidth="1"/>
+    <col min="6938" max="7147" width="8.85546875" style="35"/>
+    <col min="7148" max="7148" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7149" max="7149" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7150" max="7150" width="42" style="35" customWidth="1"/>
+    <col min="7151" max="7151" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7152" max="7153" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7154" max="7154" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7155" max="7190" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7191" max="7191" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7192" max="7192" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7193" max="7193" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7194" max="7403" width="8.85546875" style="35"/>
+    <col min="7404" max="7404" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7405" max="7405" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7406" max="7406" width="42" style="35" customWidth="1"/>
+    <col min="7407" max="7407" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7408" max="7409" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7410" max="7410" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7411" max="7446" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7447" max="7447" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7448" max="7448" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7449" max="7449" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7450" max="7659" width="8.85546875" style="35"/>
+    <col min="7660" max="7660" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7661" max="7661" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7662" max="7662" width="42" style="35" customWidth="1"/>
+    <col min="7663" max="7663" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7664" max="7665" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7666" max="7666" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7667" max="7702" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7703" max="7703" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7704" max="7704" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7705" max="7705" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7706" max="7915" width="8.85546875" style="35"/>
+    <col min="7916" max="7916" width="1.42578125" style="35" customWidth="1"/>
+    <col min="7917" max="7917" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7918" max="7918" width="42" style="35" customWidth="1"/>
+    <col min="7919" max="7919" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7920" max="7921" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="7922" max="7922" width="2.7109375" style="35" customWidth="1"/>
+    <col min="7923" max="7958" width="3.28515625" style="35" customWidth="1"/>
+    <col min="7959" max="7959" width="1.7109375" style="35" customWidth="1"/>
+    <col min="7960" max="7960" width="25.7109375" style="35" customWidth="1"/>
+    <col min="7961" max="7961" width="31.28515625" style="35" customWidth="1"/>
+    <col min="7962" max="8171" width="8.85546875" style="35"/>
+    <col min="8172" max="8172" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8173" max="8173" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8174" max="8174" width="42" style="35" customWidth="1"/>
+    <col min="8175" max="8175" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8176" max="8177" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8178" max="8178" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8179" max="8214" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8215" max="8215" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8216" max="8216" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8217" max="8217" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8218" max="8427" width="8.85546875" style="35"/>
+    <col min="8428" max="8428" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8429" max="8429" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8430" max="8430" width="42" style="35" customWidth="1"/>
+    <col min="8431" max="8431" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8432" max="8433" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8434" max="8434" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8435" max="8470" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8471" max="8471" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8472" max="8472" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8473" max="8473" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8474" max="8683" width="8.85546875" style="35"/>
+    <col min="8684" max="8684" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8685" max="8685" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8686" max="8686" width="42" style="35" customWidth="1"/>
+    <col min="8687" max="8687" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8688" max="8689" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8690" max="8690" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8691" max="8726" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8727" max="8727" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8728" max="8728" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8729" max="8729" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8730" max="8939" width="8.85546875" style="35"/>
+    <col min="8940" max="8940" width="1.42578125" style="35" customWidth="1"/>
+    <col min="8941" max="8941" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8942" max="8942" width="42" style="35" customWidth="1"/>
+    <col min="8943" max="8943" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8944" max="8945" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="8946" max="8946" width="2.7109375" style="35" customWidth="1"/>
+    <col min="8947" max="8982" width="3.28515625" style="35" customWidth="1"/>
+    <col min="8983" max="8983" width="1.7109375" style="35" customWidth="1"/>
+    <col min="8984" max="8984" width="25.7109375" style="35" customWidth="1"/>
+    <col min="8985" max="8985" width="31.28515625" style="35" customWidth="1"/>
+    <col min="8986" max="9195" width="8.85546875" style="35"/>
+    <col min="9196" max="9196" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9197" max="9197" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9198" max="9198" width="42" style="35" customWidth="1"/>
+    <col min="9199" max="9199" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9200" max="9201" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9202" max="9202" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9203" max="9238" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9239" max="9239" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9240" max="9240" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9241" max="9241" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9242" max="9451" width="8.85546875" style="35"/>
+    <col min="9452" max="9452" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9453" max="9453" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9454" max="9454" width="42" style="35" customWidth="1"/>
+    <col min="9455" max="9455" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9456" max="9457" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9458" max="9458" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9459" max="9494" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9495" max="9495" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9496" max="9496" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9497" max="9497" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9498" max="9707" width="8.85546875" style="35"/>
+    <col min="9708" max="9708" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9709" max="9709" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9710" max="9710" width="42" style="35" customWidth="1"/>
+    <col min="9711" max="9711" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9712" max="9713" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9714" max="9714" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9715" max="9750" width="3.28515625" style="35" customWidth="1"/>
+    <col min="9751" max="9751" width="1.7109375" style="35" customWidth="1"/>
+    <col min="9752" max="9752" width="25.7109375" style="35" customWidth="1"/>
+    <col min="9753" max="9753" width="31.28515625" style="35" customWidth="1"/>
+    <col min="9754" max="9963" width="8.85546875" style="35"/>
+    <col min="9964" max="9964" width="1.42578125" style="35" customWidth="1"/>
+    <col min="9965" max="9965" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9966" max="9966" width="42" style="35" customWidth="1"/>
+    <col min="9967" max="9967" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9968" max="9969" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="9970" max="9970" width="2.7109375" style="35" customWidth="1"/>
+    <col min="9971" max="10006" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10007" max="10007" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10008" max="10008" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10009" max="10009" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10010" max="10219" width="8.85546875" style="35"/>
+    <col min="10220" max="10220" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10221" max="10221" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10222" max="10222" width="42" style="35" customWidth="1"/>
+    <col min="10223" max="10223" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10224" max="10225" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10226" max="10226" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10227" max="10262" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10263" max="10263" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10264" max="10264" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10265" max="10265" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10266" max="10475" width="8.85546875" style="35"/>
+    <col min="10476" max="10476" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10477" max="10477" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10478" max="10478" width="42" style="35" customWidth="1"/>
+    <col min="10479" max="10479" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10480" max="10481" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10482" max="10482" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10483" max="10518" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10519" max="10519" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10520" max="10520" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10521" max="10521" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10522" max="10731" width="8.85546875" style="35"/>
+    <col min="10732" max="10732" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10733" max="10733" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10734" max="10734" width="42" style="35" customWidth="1"/>
+    <col min="10735" max="10735" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10736" max="10737" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10738" max="10738" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10739" max="10774" width="3.28515625" style="35" customWidth="1"/>
+    <col min="10775" max="10775" width="1.7109375" style="35" customWidth="1"/>
+    <col min="10776" max="10776" width="25.7109375" style="35" customWidth="1"/>
+    <col min="10777" max="10777" width="31.28515625" style="35" customWidth="1"/>
+    <col min="10778" max="10987" width="8.85546875" style="35"/>
+    <col min="10988" max="10988" width="1.42578125" style="35" customWidth="1"/>
+    <col min="10989" max="10989" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10990" max="10990" width="42" style="35" customWidth="1"/>
+    <col min="10991" max="10991" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10992" max="10993" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="10994" max="10994" width="2.7109375" style="35" customWidth="1"/>
+    <col min="10995" max="11030" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11031" max="11031" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11032" max="11032" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11033" max="11033" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11034" max="11243" width="8.85546875" style="35"/>
+    <col min="11244" max="11244" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11245" max="11245" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11246" max="11246" width="42" style="35" customWidth="1"/>
+    <col min="11247" max="11247" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11248" max="11249" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11250" max="11250" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11251" max="11286" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11287" max="11287" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11288" max="11288" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11289" max="11289" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11290" max="11499" width="8.85546875" style="35"/>
+    <col min="11500" max="11500" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11501" max="11501" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11502" max="11502" width="42" style="35" customWidth="1"/>
+    <col min="11503" max="11503" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11504" max="11505" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11506" max="11506" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11507" max="11542" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11543" max="11543" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11544" max="11544" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11545" max="11545" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11546" max="11755" width="8.85546875" style="35"/>
+    <col min="11756" max="11756" width="1.42578125" style="35" customWidth="1"/>
+    <col min="11757" max="11757" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11758" max="11758" width="42" style="35" customWidth="1"/>
+    <col min="11759" max="11759" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11760" max="11761" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="11762" max="11762" width="2.7109375" style="35" customWidth="1"/>
+    <col min="11763" max="11798" width="3.28515625" style="35" customWidth="1"/>
+    <col min="11799" max="11799" width="1.7109375" style="35" customWidth="1"/>
+    <col min="11800" max="11800" width="25.7109375" style="35" customWidth="1"/>
+    <col min="11801" max="11801" width="31.28515625" style="35" customWidth="1"/>
+    <col min="11802" max="12011" width="8.85546875" style="35"/>
+    <col min="12012" max="12012" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12013" max="12013" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12014" max="12014" width="42" style="35" customWidth="1"/>
+    <col min="12015" max="12015" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12016" max="12017" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12018" max="12018" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12019" max="12054" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12055" max="12055" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12056" max="12056" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12057" max="12057" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12058" max="12267" width="8.85546875" style="35"/>
+    <col min="12268" max="12268" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12269" max="12269" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12270" max="12270" width="42" style="35" customWidth="1"/>
+    <col min="12271" max="12271" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12272" max="12273" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12274" max="12274" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12275" max="12310" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12311" max="12311" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12312" max="12312" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12313" max="12313" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12314" max="12523" width="8.85546875" style="35"/>
+    <col min="12524" max="12524" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12525" max="12525" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12526" max="12526" width="42" style="35" customWidth="1"/>
+    <col min="12527" max="12527" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12528" max="12529" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12530" max="12530" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12531" max="12566" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12567" max="12567" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12568" max="12568" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12569" max="12569" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12570" max="12779" width="8.85546875" style="35"/>
+    <col min="12780" max="12780" width="1.42578125" style="35" customWidth="1"/>
+    <col min="12781" max="12781" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12782" max="12782" width="42" style="35" customWidth="1"/>
+    <col min="12783" max="12783" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12784" max="12785" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="12786" max="12786" width="2.7109375" style="35" customWidth="1"/>
+    <col min="12787" max="12822" width="3.28515625" style="35" customWidth="1"/>
+    <col min="12823" max="12823" width="1.7109375" style="35" customWidth="1"/>
+    <col min="12824" max="12824" width="25.7109375" style="35" customWidth="1"/>
+    <col min="12825" max="12825" width="31.28515625" style="35" customWidth="1"/>
+    <col min="12826" max="13035" width="8.85546875" style="35"/>
+    <col min="13036" max="13036" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13037" max="13037" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13038" max="13038" width="42" style="35" customWidth="1"/>
+    <col min="13039" max="13039" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13040" max="13041" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13042" max="13042" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13043" max="13078" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13079" max="13079" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13080" max="13080" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13081" max="13081" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13082" max="13291" width="8.85546875" style="35"/>
+    <col min="13292" max="13292" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13293" max="13293" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13294" max="13294" width="42" style="35" customWidth="1"/>
+    <col min="13295" max="13295" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13296" max="13297" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13298" max="13298" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13299" max="13334" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13335" max="13335" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13336" max="13336" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13337" max="13337" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13338" max="13547" width="8.85546875" style="35"/>
+    <col min="13548" max="13548" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13549" max="13549" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13550" max="13550" width="42" style="35" customWidth="1"/>
+    <col min="13551" max="13551" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13552" max="13553" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13554" max="13554" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13555" max="13590" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13591" max="13591" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13592" max="13592" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13593" max="13593" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13594" max="13803" width="8.85546875" style="35"/>
+    <col min="13804" max="13804" width="1.42578125" style="35" customWidth="1"/>
+    <col min="13805" max="13805" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13806" max="13806" width="42" style="35" customWidth="1"/>
+    <col min="13807" max="13807" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13808" max="13809" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="13810" max="13810" width="2.7109375" style="35" customWidth="1"/>
+    <col min="13811" max="13846" width="3.28515625" style="35" customWidth="1"/>
+    <col min="13847" max="13847" width="1.7109375" style="35" customWidth="1"/>
+    <col min="13848" max="13848" width="25.7109375" style="35" customWidth="1"/>
+    <col min="13849" max="13849" width="31.28515625" style="35" customWidth="1"/>
+    <col min="13850" max="14059" width="8.85546875" style="35"/>
+    <col min="14060" max="14060" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14061" max="14061" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14062" max="14062" width="42" style="35" customWidth="1"/>
+    <col min="14063" max="14063" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14064" max="14065" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14066" max="14066" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14067" max="14102" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14103" max="14103" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14104" max="14104" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14105" max="14105" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14106" max="14315" width="8.85546875" style="35"/>
+    <col min="14316" max="14316" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14317" max="14317" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14318" max="14318" width="42" style="35" customWidth="1"/>
+    <col min="14319" max="14319" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14320" max="14321" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14322" max="14322" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14323" max="14358" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14359" max="14359" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14360" max="14360" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14361" max="14361" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14362" max="14571" width="8.85546875" style="35"/>
+    <col min="14572" max="14572" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14573" max="14573" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14574" max="14574" width="42" style="35" customWidth="1"/>
+    <col min="14575" max="14575" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14576" max="14577" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14578" max="14578" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14579" max="14614" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14615" max="14615" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14616" max="14616" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14617" max="14617" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14618" max="14827" width="8.85546875" style="35"/>
+    <col min="14828" max="14828" width="1.42578125" style="35" customWidth="1"/>
+    <col min="14829" max="14829" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14830" max="14830" width="42" style="35" customWidth="1"/>
+    <col min="14831" max="14831" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14832" max="14833" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="14834" max="14834" width="2.7109375" style="35" customWidth="1"/>
+    <col min="14835" max="14870" width="3.28515625" style="35" customWidth="1"/>
+    <col min="14871" max="14871" width="1.7109375" style="35" customWidth="1"/>
+    <col min="14872" max="14872" width="25.7109375" style="35" customWidth="1"/>
+    <col min="14873" max="14873" width="31.28515625" style="35" customWidth="1"/>
+    <col min="14874" max="15083" width="8.85546875" style="35"/>
+    <col min="15084" max="15084" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15085" max="15085" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15086" max="15086" width="42" style="35" customWidth="1"/>
+    <col min="15087" max="15087" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15088" max="15089" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15090" max="15090" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15091" max="15126" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15127" max="15127" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15128" max="15128" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15129" max="15129" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15130" max="15339" width="8.85546875" style="35"/>
+    <col min="15340" max="15340" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15341" max="15341" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15342" max="15342" width="42" style="35" customWidth="1"/>
+    <col min="15343" max="15343" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15344" max="15345" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15346" max="15346" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15347" max="15382" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15383" max="15383" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15384" max="15384" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15385" max="15385" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15386" max="15595" width="8.85546875" style="35"/>
+    <col min="15596" max="15596" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15597" max="15597" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15598" max="15598" width="42" style="35" customWidth="1"/>
+    <col min="15599" max="15599" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15600" max="15601" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15602" max="15602" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15603" max="15638" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15639" max="15639" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15640" max="15640" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15641" max="15641" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15642" max="15851" width="8.85546875" style="35"/>
+    <col min="15852" max="15852" width="1.42578125" style="35" customWidth="1"/>
+    <col min="15853" max="15853" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15854" max="15854" width="42" style="35" customWidth="1"/>
+    <col min="15855" max="15855" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15856" max="15857" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="15858" max="15858" width="2.7109375" style="35" customWidth="1"/>
+    <col min="15859" max="15894" width="3.28515625" style="35" customWidth="1"/>
+    <col min="15895" max="15895" width="1.7109375" style="35" customWidth="1"/>
+    <col min="15896" max="15896" width="25.7109375" style="35" customWidth="1"/>
+    <col min="15897" max="15897" width="31.28515625" style="35" customWidth="1"/>
+    <col min="15898" max="16107" width="8.85546875" style="35"/>
+    <col min="16108" max="16108" width="1.42578125" style="35" customWidth="1"/>
+    <col min="16109" max="16109" width="1.28515625" style="35" customWidth="1"/>
+    <col min="16110" max="16110" width="42" style="35" customWidth="1"/>
+    <col min="16111" max="16111" width="5.42578125" style="35" customWidth="1"/>
+    <col min="16112" max="16113" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="16114" max="16114" width="2.7109375" style="35" customWidth="1"/>
+    <col min="16115" max="16150" width="3.28515625" style="35" customWidth="1"/>
+    <col min="16151" max="16151" width="1.7109375" style="35" customWidth="1"/>
+    <col min="16152" max="16152" width="25.7109375" style="35" customWidth="1"/>
+    <col min="16153" max="16153" width="31.28515625" style="35" customWidth="1"/>
+    <col min="16154" max="16384" width="8.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="36"/>
-    </row>
-    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="87" t="s">
+    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="35"/>
+    </row>
+    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+    </row>
+    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+    </row>
+    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+    </row>
+    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+    </row>
+    <row r="7" spans="2:34" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-    </row>
-    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B4" s="88" t="s">
+      <c r="D7" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+    </row>
+    <row r="8" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+    </row>
+    <row r="9" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C9" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-    </row>
-    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-    </row>
-    <row r="6" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B6" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-    </row>
-    <row r="7" spans="2:34" ht="32" x14ac:dyDescent="0.15">
-      <c r="B7" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-    </row>
-    <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.15">
-      <c r="B8" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-    </row>
-    <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-    </row>
-    <row r="10" spans="2:34" ht="14" x14ac:dyDescent="0.15">
+      <c r="D9" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+    </row>
+    <row r="10" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-    </row>
-    <row r="11" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-    </row>
-    <row r="12" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-    </row>
-    <row r="16" spans="2:34" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-    </row>
-    <row r="17" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-    </row>
-    <row r="18" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-    </row>
-    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-    </row>
-    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-    </row>
-    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-    </row>
-    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-    </row>
-    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+    </row>
+    <row r="11" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+    </row>
+    <row r="12" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="49"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B24" s="50"/>
-    </row>
-    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
+    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
@@ -7825,6 +7841,15 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
   <p:Name>02 Departmental document</p:Name>
   <p:Description/>
@@ -7845,62 +7870,7 @@
 </p:Policy>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
-    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
-    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Document_x0020_author>
-    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
-    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
-    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
-    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
-    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
-    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
-    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
-    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
-    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
-    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName>Jacobs, Frans</DisplayName>
-        <AccountId>1</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </Approver>
-    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Reviewers>
-    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
-    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
-    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
-    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
-{_ModerationStatus}</DLCPolicyLabelClientValue>
-    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
-Approved</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="02 Departmental document" ma:contentTypeID="0x0101001E9AF57F6A6FB1498E6BAB1704371DB9020048B3E13A56EC2B4880B8E17388254DB6" ma:contentTypeVersion="42" ma:contentTypeDescription="A document under departmental control" ma:contentTypeScope="" ma:versionID="28e15f56482d8af7e67347cbef2a0996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5db227b6-3c56-4158-ad71-bd648583e357" xmlns:ns3="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa83b77159cc0e9c22a0bfa7b50ba950" ns2:_="" ns3:_="">
     <xsd:import namespace="5db227b6-3c56-4158-ad71-bd648583e357"/>
@@ -8290,7 +8260,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <View_x0020_CRM xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_CRM>
+    <View_x0020_Qua xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Qua>
+    <Document_x0020_author xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Document_x0020_author>
+    <Document_x0020_type xmlns="5db227b6-3c56-4158-ad71-bd648583e357">Template</Document_x0020_type>
+    <View_x0020_Eng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_Eng>
+    <View_x0020_Production xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</View_x0020_Production>
+    <Relevant_x0020_to_x0020_ISO_x0020_13485 xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Relevant_x0020_to_x0020_ISO_x0020_13485>
+    <PInS_x0020_department xmlns="5db227b6-3c56-4158-ad71-bd648583e357">140 Software</PInS_x0020_department>
+    <Doc_x0020_nr. xmlns="5db227b6-3c56-4158-ad71-bd648583e357">BMS-REA-719</Doc_x0020_nr.>
+    <DLCPolicyLabelLock xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a" xsi:nil="true"/>
+    <Linked_x0020_to_x0020_PQRS xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">false</Linked_x0020_to_x0020_PQRS>
+    <Safety_x0020_relevant xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</Safety_x0020_relevant>
+    <Approver xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName>Jacobs, Frans</DisplayName>
+        <AccountId>1</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </Approver>
+    <Reviewers xmlns="5db227b6-3c56-4158-ad71-bd648583e357">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Reviewers>
+    <Process xmlns="5db227b6-3c56-4158-ad71-bd648583e357">04 Realisation</Process>
+    <View_x0020_PL xmlns="5db227b6-3c56-4158-ad71-bd648583e357">true</View_x0020_PL>
+    <View_x0020_Mng xmlns="5db227b6-3c56-4158-ad71-bd648583e357">false</View_x0020_Mng>
+    <DLCPolicyLabelClientValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">{_UIVersionString}
+{_ModerationStatus}</DLCPolicyLabelClientValue>
+    <DLCPolicyLabelValue xmlns="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a">1.0
+Approved</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0ECFB5-0E65-4944-A2C3-A12752EA8F83}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="office.server.policy"/>
@@ -8298,26 +8322,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F20991C-9C75-4A23-AD56-83877EA734AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
-    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3331877D-A973-4A26-8E19-E1DD744074D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8334,4 +8339,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1320B1-D764-4C81-9B48-5F60482C3805}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5db227b6-3c56-4158-ad71-bd648583e357"/>
+    <ds:schemaRef ds:uri="ce34623b-5c11-4b5b-b0d3-7d70f0a3097a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28021"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_users\Gaal_CoCo-s\components\Bluelib-Shinelib\Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/310216383/Philips/android-shinelib/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2265" yWindow="-19500" windowWidth="28800" windowHeight="15945" tabRatio="689"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -56,6 +56,9 @@
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
   <si>
     <t>1.1</t>
   </si>
@@ -313,9 +316,6 @@
     <t>Document creation</t>
   </si>
   <si>
-    <t>Association with LifeSense BPM can fail unexpectedly on some Android combos</t>
-  </si>
-  <si>
     <t>Blocker</t>
   </si>
   <si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
   </si>
   <si>
     <t>0.2</t>
@@ -428,36 +425,6 @@
 Fixed links to new naming.</t>
   </si>
   <si>
-    <t>BL-95</t>
-  </si>
-  <si>
-    <t>BL-22</t>
-  </si>
-  <si>
-    <t>BL-386</t>
-  </si>
-  <si>
-    <t>Reconnect fails with Nexus 5, 4.4.2</t>
-  </si>
-  <si>
-    <t>BL-390</t>
-  </si>
-  <si>
-    <t>NPE when calling readRssi()</t>
-  </si>
-  <si>
-    <t>BL-395</t>
-  </si>
-  <si>
-    <t>IndexOutOfBoundsException in BlueLib</t>
-  </si>
-  <si>
-    <t>BL-396</t>
-  </si>
-  <si>
-    <t>NullPointerException in BlueLib using example App</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -532,14 +499,117 @@
   <si>
     <t>For internal use</t>
   </si>
+  <si>
+    <t>DE13270</t>
+  </si>
+  <si>
+    <t>[Android] Thermometer Pairing issues Android N</t>
+  </si>
+  <si>
+    <t>DE14423</t>
+  </si>
+  <si>
+    <t>[Android] Future timestamp is displayed during thermometer reading sync</t>
+  </si>
+  <si>
+    <t>DE14605</t>
+  </si>
+  <si>
+    <t>Bug 32982: [iOS] The "BT not on" error message does not appear when you try to sync Moonshine with BT off</t>
+  </si>
+  <si>
+    <t>DE14608</t>
+  </si>
+  <si>
+    <t>[Android] BlueLib doesn't build on a clean development environment</t>
+  </si>
+  <si>
+    <t>DE14613</t>
+  </si>
+  <si>
+    <t>Bug 43674: [Android] Crash observed when syncing continously</t>
+  </si>
+  <si>
+    <t>DE14614</t>
+  </si>
+  <si>
+    <t>[Android] DiCommChannel is not resilient against leading garbage</t>
+  </si>
+  <si>
+    <t>DE14615</t>
+  </si>
+  <si>
+    <t>[Android] NullPointerException in BlueLib using example App</t>
+  </si>
+  <si>
+    <t>DE14616</t>
+  </si>
+  <si>
+    <t>[Android] IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>DE14617</t>
+  </si>
+  <si>
+    <t>[Android] NPE when calling readRssi()</t>
+  </si>
+  <si>
+    <t>DE14618</t>
+  </si>
+  <si>
+    <t>[Android] Reconnect fails with Nexus 5, 4.4.2</t>
+  </si>
+  <si>
+    <t>DE14619</t>
+  </si>
+  <si>
+    <t>[iOS] The bluetooth on/off update is not triggered</t>
+  </si>
+  <si>
+    <t>DE14620</t>
+  </si>
+  <si>
+    <t>[Android] SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
+  </si>
+  <si>
+    <t>DE14677</t>
+  </si>
+  <si>
+    <t>[Android] App crashes on launch of the application</t>
+  </si>
+  <si>
+    <t>DE15010</t>
+  </si>
+  <si>
+    <t>TFS-49782 [Android] App Crashes on launch after the app upgrade</t>
+  </si>
+  <si>
+    <t>DE15038</t>
+  </si>
+  <si>
+    <t>[Android] TFS-40215:After Unpairing Moonshine and Pairing it back to same User is failing.</t>
+  </si>
+  <si>
+    <t>2017-FEB-28</t>
+  </si>
+  <si>
+    <t>2.3.2 Release</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -814,6 +884,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -871,7 +952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1091,318 +1172,272 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2494,27 +2529,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
-    </sheetView>
+    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="6" customWidth="1"/>
     <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2526,21 +2559,21 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="D2" s="4"/>
       <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="F4" s="6"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
@@ -2549,15 +2582,15 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="26" t="s">
         <v>22</v>
       </c>
@@ -2573,23 +2606,23 @@
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="127" t="s">
-        <v>107</v>
+      <c r="E8" s="89" t="s">
+        <v>95</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2597,7 +2630,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -2605,7 +2638,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -2613,35 +2646,35 @@
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="96"/>
+      <c r="E12" s="97"/>
       <c r="F12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="97"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="28" t="s">
         <v>17</v>
       </c>
@@ -2649,28 +2682,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -2685,7 +2718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2693,7 +2726,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2707,12 +2740,12 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E14"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="100" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="100" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F
@@ -2730,27 +2763,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="99" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="99" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="50.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="61" t="s">
         <v>44</v>
       </c>
@@ -2758,54 +2791,54 @@
       <c r="E1" s="6"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="28" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-    </row>
-    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+    </row>
+    <row r="7" spans="2:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-    </row>
-    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+    </row>
+    <row r="8" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2855,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
       <c r="C9" s="63" t="s">
         <v>52</v>
@@ -2831,21 +2864,21 @@
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="32"/>
       <c r="C10" s="30"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
       <c r="C11" s="30"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="31" t="s">
         <v>19</v>
       </c>
@@ -2855,83 +2888,83 @@
       <c r="D12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="108"/>
-    </row>
-    <row r="13" spans="2:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="109"/>
+    </row>
+    <row r="13" spans="2:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="D13" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="99"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="100"/>
+    </row>
+    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="30"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="101"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-    </row>
-    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
     </row>
-    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="49"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="49"/>
     </row>
-    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="3"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="3"/>
       <c r="C31" s="5"/>
@@ -2946,7 +2979,7 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="E12:F12"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -2964,27 +2997,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="64" t="s">
         <v>44</v>
       </c>
@@ -2994,7 +3025,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="21"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3002,7 +3033,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="2:14" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B3" s="21"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3010,7 +3041,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3058,7 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -3042,7 +3073,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:14" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>31</v>
       </c>
@@ -3067,7 +3098,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="62" t="s">
         <v>47</v>
       </c>
@@ -3092,21 +3123,21 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="62" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -3117,21 +3148,21 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="62" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -3142,21 +3173,21 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:14" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" ht="56" x14ac:dyDescent="0.15">
       <c r="B10" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="E10" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>80</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -3167,21 +3198,21 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>95</v>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>83</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -3192,21 +3223,21 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="93" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>99</v>
+      <c r="E12" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>87</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -3217,21 +3248,21 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>99</v>
+    <row r="13" spans="2:14" ht="26" x14ac:dyDescent="0.15">
+      <c r="B13" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="87" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -3242,12 +3273,22 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>130</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -3257,7 +3298,7 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -3272,7 +3313,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -3287,7 +3328,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3302,7 +3343,7 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -3317,7 +3358,7 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3332,7 +3373,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -3347,7 +3388,7 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -3362,7 +3403,7 @@
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -3377,7 +3418,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -3392,7 +3433,7 @@
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -3407,7 +3448,7 @@
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -3422,7 +3463,7 @@
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3437,7 +3478,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -3452,7 +3493,7 @@
       <c r="M27" s="17"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -3467,7 +3508,7 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -3482,7 +3523,7 @@
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -3497,7 +3538,7 @@
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3512,7 +3553,7 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3527,7 +3568,7 @@
       <c r="M32" s="17"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3542,7 +3583,7 @@
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3557,7 +3598,7 @@
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3572,7 +3613,7 @@
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -3587,7 +3628,7 @@
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3602,7 +3643,7 @@
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -3617,7 +3658,7 @@
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -3632,7 +3673,7 @@
       <c r="M39" s="17"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -3647,7 +3688,7 @@
       <c r="M40" s="17"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -3662,7 +3703,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -3677,7 +3718,7 @@
       <c r="M42" s="17"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -3692,7 +3733,7 @@
       <c r="M43" s="17"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -3707,7 +3748,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -3722,7 +3763,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -3737,7 +3778,7 @@
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -3752,7 +3793,7 @@
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -3767,7 +3808,7 @@
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -3782,7 +3823,7 @@
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -3797,7 +3838,7 @@
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -3812,7 +3853,7 @@
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -3827,7 +3868,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -3842,7 +3883,7 @@
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -3857,7 +3898,7 @@
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -3872,7 +3913,7 @@
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -3887,7 +3928,7 @@
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -3902,7 +3943,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -3917,7 +3958,7 @@
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -3932,7 +3973,7 @@
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -3947,7 +3988,7 @@
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -3962,7 +4003,7 @@
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -3977,7 +4018,7 @@
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -3992,7 +4033,7 @@
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -4007,7 +4048,7 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -4022,7 +4063,7 @@
       <c r="M65" s="17"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -4037,7 +4078,7 @@
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -4052,7 +4093,7 @@
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -4067,7 +4108,7 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -4082,7 +4123,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -4097,7 +4138,7 @@
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -4112,7 +4153,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -4127,7 +4168,7 @@
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -4142,7 +4183,7 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
@@ -4157,7 +4198,7 @@
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -4172,7 +4213,7 @@
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -4187,7 +4228,7 @@
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -4202,7 +4243,7 @@
       <c r="M77" s="17"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -4217,7 +4258,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -4232,7 +4273,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -4247,7 +4288,7 @@
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -4262,7 +4303,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -4277,7 +4318,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -4292,7 +4333,7 @@
       <c r="M83" s="17"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -4307,7 +4348,7 @@
       <c r="M84" s="17"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -4322,7 +4363,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -4337,7 +4378,7 @@
       <c r="M86" s="17"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -4352,7 +4393,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -4367,7 +4408,7 @@
       <c r="M88" s="17"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -4382,7 +4423,7 @@
       <c r="M89" s="17"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -4397,7 +4438,7 @@
       <c r="M90" s="17"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -4412,7 +4453,7 @@
       <c r="M91" s="17"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
@@ -4427,7 +4468,7 @@
       <c r="M92" s="17"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -4442,7 +4483,7 @@
       <c r="M93" s="17"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -4457,7 +4498,7 @@
       <c r="M94" s="17"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -4472,7 +4513,7 @@
       <c r="M95" s="17"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -4487,7 +4528,7 @@
       <c r="M96" s="17"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="17"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -4502,7 +4543,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -4517,7 +4558,7 @@
       <c r="M98" s="17"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="17"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -4532,7 +4573,7 @@
       <c r="M99" s="17"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -4547,7 +4588,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
@@ -4562,7 +4603,7 @@
       <c r="M101" s="17"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
@@ -4577,7 +4618,7 @@
       <c r="M102" s="17"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B103" s="17"/>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -4592,7 +4633,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
@@ -4607,7 +4648,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
@@ -4622,7 +4663,7 @@
       <c r="M105" s="17"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
@@ -4637,7 +4678,7 @@
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -4652,7 +4693,7 @@
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -4667,7 +4708,7 @@
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -4682,7 +4723,7 @@
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -4697,7 +4738,7 @@
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="17"/>
@@ -4712,7 +4753,7 @@
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -4727,7 +4768,7 @@
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -4742,7 +4783,7 @@
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="17"/>
@@ -4757,7 +4798,7 @@
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
       <c r="D115" s="17"/>
@@ -4772,7 +4813,7 @@
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
       <c r="D116" s="17"/>
@@ -4787,7 +4828,7 @@
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
       <c r="D117" s="17"/>
@@ -4802,7 +4843,7 @@
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
@@ -4817,7 +4858,7 @@
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -4832,7 +4873,7 @@
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
@@ -4847,7 +4888,7 @@
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
       <c r="D121" s="17"/>
@@ -4862,7 +4903,7 @@
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="17"/>
@@ -4877,7 +4918,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -4892,7 +4933,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="17"/>
@@ -4907,7 +4948,7 @@
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="17"/>
@@ -4922,7 +4963,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="17"/>
@@ -4937,7 +4978,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -4952,7 +4993,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
       <c r="D128" s="17"/>
@@ -4967,7 +5008,7 @@
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
       <c r="D129" s="17"/>
@@ -4982,7 +5023,7 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
@@ -4997,7 +5038,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
       <c r="D131" s="17"/>
@@ -5012,7 +5053,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
       <c r="D132" s="17"/>
@@ -5027,7 +5068,7 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
       <c r="D133" s="17"/>
@@ -5042,7 +5083,7 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
       <c r="D134" s="17"/>
@@ -5057,7 +5098,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
       <c r="D135" s="17"/>
@@ -5072,7 +5113,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
       <c r="D136" s="17"/>
@@ -5087,7 +5128,7 @@
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
       <c r="D137" s="17"/>
@@ -5102,7 +5143,7 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
       <c r="D138" s="17"/>
@@ -5117,7 +5158,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
       <c r="D139" s="17"/>
@@ -5132,7 +5173,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
       <c r="D140" s="17"/>
@@ -5147,7 +5188,7 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
       <c r="D141" s="17"/>
@@ -5162,7 +5203,7 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
       <c r="D142" s="17"/>
@@ -5177,7 +5218,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
       <c r="D143" s="17"/>
@@ -5192,7 +5233,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
       <c r="D144" s="17"/>
@@ -5207,7 +5248,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
       <c r="D145" s="17"/>
@@ -5222,7 +5263,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
       <c r="D146" s="17"/>
@@ -5237,7 +5278,7 @@
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
       <c r="D147" s="17"/>
@@ -5252,7 +5293,7 @@
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
       <c r="D148" s="17"/>
@@ -5267,7 +5308,7 @@
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
       <c r="D149" s="17"/>
@@ -5282,7 +5323,7 @@
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
       <c r="D150" s="17"/>
@@ -5297,7 +5338,7 @@
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
@@ -5312,7 +5353,7 @@
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
       <c r="D152" s="17"/>
@@ -5327,7 +5368,7 @@
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -5342,7 +5383,7 @@
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
       <c r="D154" s="17"/>
@@ -5357,7 +5398,7 @@
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -5372,7 +5413,7 @@
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
@@ -5387,7 +5428,7 @@
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
       <c r="D157" s="17"/>
@@ -5402,7 +5443,7 @@
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
       <c r="D158" s="17"/>
@@ -5417,7 +5458,7 @@
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
       <c r="D159" s="17"/>
@@ -5432,7 +5473,7 @@
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
       <c r="D160" s="17"/>
@@ -5447,7 +5488,7 @@
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
       <c r="D161" s="17"/>
@@ -5462,7 +5503,7 @@
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
       <c r="D162" s="17"/>
@@ -5477,7 +5518,7 @@
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
       <c r="D163" s="17"/>
@@ -5492,7 +5533,7 @@
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
@@ -5507,7 +5548,7 @@
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
       <c r="D165" s="17"/>
@@ -5522,7 +5563,7 @@
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
@@ -5537,7 +5578,7 @@
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
       <c r="D167" s="17"/>
@@ -5552,7 +5593,7 @@
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
       <c r="D168" s="17"/>
@@ -5567,7 +5608,7 @@
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
       <c r="D169" s="17"/>
@@ -5582,7 +5623,7 @@
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
       <c r="D170" s="17"/>
@@ -5597,7 +5638,7 @@
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
       <c r="D171" s="17"/>
@@ -5612,7 +5653,7 @@
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
       <c r="D172" s="17"/>
@@ -5627,7 +5668,7 @@
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
       <c r="D173" s="17"/>
@@ -5642,7 +5683,7 @@
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
       <c r="D174" s="17"/>
@@ -5657,7 +5698,7 @@
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
       <c r="D175" s="17"/>
@@ -5672,7 +5713,7 @@
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
       <c r="D176" s="17"/>
@@ -5687,7 +5728,7 @@
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
       <c r="D177" s="17"/>
@@ -5702,7 +5743,7 @@
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
       <c r="D178" s="17"/>
@@ -5717,7 +5758,7 @@
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
       <c r="D179" s="17"/>
@@ -5734,7 +5775,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" scale="91" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -5754,17 +5795,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="6" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" s="35" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:37" s="35" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="61" t="s">
         <v>44</v>
       </c>
@@ -5803,7 +5844,7 @@
       <c r="AJ1" s="37"/>
       <c r="AK1" s="37"/>
     </row>
-    <row r="2" spans="2:37" s="35" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:37" s="35" customFormat="1" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="21"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
@@ -5840,7 +5881,7 @@
       <c r="AJ2" s="37"/>
       <c r="AK2" s="37"/>
     </row>
-    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>37</v>
       </c>
@@ -5855,22 +5896,22 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="2:37" ht="120.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-    </row>
-    <row r="5" spans="2:37" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37" ht="120.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+    </row>
+    <row r="5" spans="2:37" ht="18.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="46"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -5883,83 +5924,83 @@
       <c r="K5" s="47"/>
       <c r="L5" s="47"/>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-    </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="120"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B7" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
+        <v>54</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B8" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B9" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
       <c r="M9" s="52"/>
       <c r="N9" s="52"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B10" s="70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
@@ -5968,39 +6009,39 @@
       <c r="H10" s="72"/>
       <c r="I10" s="73"/>
     </row>
-    <row r="11" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-    </row>
-    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
+    </row>
+    <row r="12" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C12" s="65"/>
     </row>
-    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C13" s="65"/>
     </row>
-    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C14" s="65"/>
     </row>
-    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C15" s="65"/>
     </row>
-    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" ht="18" x14ac:dyDescent="0.2">
       <c r="C16" s="65"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="51"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -6013,7 +6054,7 @@
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -6026,7 +6067,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -6039,7 +6080,7 @@
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="45"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -6061,7 +6102,7 @@
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6079,793 +6120,793 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="35" customWidth="1"/>
-    <col min="8" max="26" width="3.28515625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="35" customWidth="1"/>
+    <col min="8" max="26" width="3.33203125" style="35" customWidth="1"/>
     <col min="27" max="27" width="10" style="35" customWidth="1"/>
-    <col min="28" max="237" width="8.85546875" style="35"/>
-    <col min="238" max="238" width="1.42578125" style="35" customWidth="1"/>
-    <col min="239" max="239" width="1.28515625" style="35" customWidth="1"/>
+    <col min="28" max="237" width="8.83203125" style="35"/>
+    <col min="238" max="238" width="1.5" style="35" customWidth="1"/>
+    <col min="239" max="239" width="1.33203125" style="35" customWidth="1"/>
     <col min="240" max="240" width="42" style="35" customWidth="1"/>
-    <col min="241" max="241" width="5.42578125" style="35" customWidth="1"/>
+    <col min="241" max="241" width="5.5" style="35" customWidth="1"/>
     <col min="242" max="243" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="244" max="244" width="2.7109375" style="35" customWidth="1"/>
-    <col min="245" max="280" width="3.28515625" style="35" customWidth="1"/>
-    <col min="281" max="281" width="1.7109375" style="35" customWidth="1"/>
-    <col min="282" max="282" width="25.7109375" style="35" customWidth="1"/>
-    <col min="283" max="283" width="31.28515625" style="35" customWidth="1"/>
-    <col min="284" max="493" width="8.85546875" style="35"/>
-    <col min="494" max="494" width="1.42578125" style="35" customWidth="1"/>
-    <col min="495" max="495" width="1.28515625" style="35" customWidth="1"/>
+    <col min="244" max="244" width="2.6640625" style="35" customWidth="1"/>
+    <col min="245" max="280" width="3.33203125" style="35" customWidth="1"/>
+    <col min="281" max="281" width="1.6640625" style="35" customWidth="1"/>
+    <col min="282" max="282" width="25.6640625" style="35" customWidth="1"/>
+    <col min="283" max="283" width="31.33203125" style="35" customWidth="1"/>
+    <col min="284" max="493" width="8.83203125" style="35"/>
+    <col min="494" max="494" width="1.5" style="35" customWidth="1"/>
+    <col min="495" max="495" width="1.33203125" style="35" customWidth="1"/>
     <col min="496" max="496" width="42" style="35" customWidth="1"/>
-    <col min="497" max="497" width="5.42578125" style="35" customWidth="1"/>
+    <col min="497" max="497" width="5.5" style="35" customWidth="1"/>
     <col min="498" max="499" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="500" max="500" width="2.7109375" style="35" customWidth="1"/>
-    <col min="501" max="536" width="3.28515625" style="35" customWidth="1"/>
-    <col min="537" max="537" width="1.7109375" style="35" customWidth="1"/>
-    <col min="538" max="538" width="25.7109375" style="35" customWidth="1"/>
-    <col min="539" max="539" width="31.28515625" style="35" customWidth="1"/>
-    <col min="540" max="749" width="8.85546875" style="35"/>
-    <col min="750" max="750" width="1.42578125" style="35" customWidth="1"/>
-    <col min="751" max="751" width="1.28515625" style="35" customWidth="1"/>
+    <col min="500" max="500" width="2.6640625" style="35" customWidth="1"/>
+    <col min="501" max="536" width="3.33203125" style="35" customWidth="1"/>
+    <col min="537" max="537" width="1.6640625" style="35" customWidth="1"/>
+    <col min="538" max="538" width="25.6640625" style="35" customWidth="1"/>
+    <col min="539" max="539" width="31.33203125" style="35" customWidth="1"/>
+    <col min="540" max="749" width="8.83203125" style="35"/>
+    <col min="750" max="750" width="1.5" style="35" customWidth="1"/>
+    <col min="751" max="751" width="1.33203125" style="35" customWidth="1"/>
     <col min="752" max="752" width="42" style="35" customWidth="1"/>
-    <col min="753" max="753" width="5.42578125" style="35" customWidth="1"/>
+    <col min="753" max="753" width="5.5" style="35" customWidth="1"/>
     <col min="754" max="755" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="756" max="756" width="2.7109375" style="35" customWidth="1"/>
-    <col min="757" max="792" width="3.28515625" style="35" customWidth="1"/>
-    <col min="793" max="793" width="1.7109375" style="35" customWidth="1"/>
-    <col min="794" max="794" width="25.7109375" style="35" customWidth="1"/>
-    <col min="795" max="795" width="31.28515625" style="35" customWidth="1"/>
-    <col min="796" max="1005" width="8.85546875" style="35"/>
-    <col min="1006" max="1006" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1007" max="1007" width="1.28515625" style="35" customWidth="1"/>
+    <col min="756" max="756" width="2.6640625" style="35" customWidth="1"/>
+    <col min="757" max="792" width="3.33203125" style="35" customWidth="1"/>
+    <col min="793" max="793" width="1.6640625" style="35" customWidth="1"/>
+    <col min="794" max="794" width="25.6640625" style="35" customWidth="1"/>
+    <col min="795" max="795" width="31.33203125" style="35" customWidth="1"/>
+    <col min="796" max="1005" width="8.83203125" style="35"/>
+    <col min="1006" max="1006" width="1.5" style="35" customWidth="1"/>
+    <col min="1007" max="1007" width="1.33203125" style="35" customWidth="1"/>
     <col min="1008" max="1008" width="42" style="35" customWidth="1"/>
-    <col min="1009" max="1009" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1009" max="1009" width="5.5" style="35" customWidth="1"/>
     <col min="1010" max="1011" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1012" max="1012" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1013" max="1048" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1049" max="1049" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1050" max="1050" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1051" max="1051" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1052" max="1261" width="8.85546875" style="35"/>
-    <col min="1262" max="1262" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1263" max="1263" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1012" max="1012" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1013" max="1048" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1049" max="1049" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1050" max="1050" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1051" max="1051" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1052" max="1261" width="8.83203125" style="35"/>
+    <col min="1262" max="1262" width="1.5" style="35" customWidth="1"/>
+    <col min="1263" max="1263" width="1.33203125" style="35" customWidth="1"/>
     <col min="1264" max="1264" width="42" style="35" customWidth="1"/>
-    <col min="1265" max="1265" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1265" max="1265" width="5.5" style="35" customWidth="1"/>
     <col min="1266" max="1267" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1268" max="1268" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1269" max="1304" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1305" max="1305" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1306" max="1306" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1307" max="1307" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1308" max="1517" width="8.85546875" style="35"/>
-    <col min="1518" max="1518" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1519" max="1519" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1268" max="1268" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1269" max="1304" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1305" max="1305" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1306" max="1306" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1307" max="1307" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1308" max="1517" width="8.83203125" style="35"/>
+    <col min="1518" max="1518" width="1.5" style="35" customWidth="1"/>
+    <col min="1519" max="1519" width="1.33203125" style="35" customWidth="1"/>
     <col min="1520" max="1520" width="42" style="35" customWidth="1"/>
-    <col min="1521" max="1521" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1521" max="1521" width="5.5" style="35" customWidth="1"/>
     <col min="1522" max="1523" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1524" max="1524" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1525" max="1560" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1561" max="1561" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1562" max="1562" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1563" max="1563" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1564" max="1773" width="8.85546875" style="35"/>
-    <col min="1774" max="1774" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1775" max="1775" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1524" max="1524" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1525" max="1560" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1561" max="1561" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1562" max="1562" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1563" max="1563" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1564" max="1773" width="8.83203125" style="35"/>
+    <col min="1774" max="1774" width="1.5" style="35" customWidth="1"/>
+    <col min="1775" max="1775" width="1.33203125" style="35" customWidth="1"/>
     <col min="1776" max="1776" width="42" style="35" customWidth="1"/>
-    <col min="1777" max="1777" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1777" max="1777" width="5.5" style="35" customWidth="1"/>
     <col min="1778" max="1779" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1780" max="1780" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1781" max="1816" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1817" max="1817" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1818" max="1818" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1819" max="1819" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1820" max="2029" width="8.85546875" style="35"/>
-    <col min="2030" max="2030" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2031" max="2031" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1780" max="1780" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1781" max="1816" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1817" max="1817" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1818" max="1818" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1819" max="1819" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1820" max="2029" width="8.83203125" style="35"/>
+    <col min="2030" max="2030" width="1.5" style="35" customWidth="1"/>
+    <col min="2031" max="2031" width="1.33203125" style="35" customWidth="1"/>
     <col min="2032" max="2032" width="42" style="35" customWidth="1"/>
-    <col min="2033" max="2033" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2033" max="2033" width="5.5" style="35" customWidth="1"/>
     <col min="2034" max="2035" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2036" max="2036" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2037" max="2072" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2073" max="2073" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2074" max="2074" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2075" max="2075" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2076" max="2285" width="8.85546875" style="35"/>
-    <col min="2286" max="2286" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2287" max="2287" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2036" max="2036" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2037" max="2072" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2073" max="2073" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2074" max="2074" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2075" max="2075" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2076" max="2285" width="8.83203125" style="35"/>
+    <col min="2286" max="2286" width="1.5" style="35" customWidth="1"/>
+    <col min="2287" max="2287" width="1.33203125" style="35" customWidth="1"/>
     <col min="2288" max="2288" width="42" style="35" customWidth="1"/>
-    <col min="2289" max="2289" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2289" max="2289" width="5.5" style="35" customWidth="1"/>
     <col min="2290" max="2291" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2292" max="2292" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2293" max="2328" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2329" max="2329" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2330" max="2330" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2331" max="2331" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2332" max="2541" width="8.85546875" style="35"/>
-    <col min="2542" max="2542" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2543" max="2543" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2292" max="2292" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2293" max="2328" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2329" max="2329" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2330" max="2330" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2331" max="2331" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2332" max="2541" width="8.83203125" style="35"/>
+    <col min="2542" max="2542" width="1.5" style="35" customWidth="1"/>
+    <col min="2543" max="2543" width="1.33203125" style="35" customWidth="1"/>
     <col min="2544" max="2544" width="42" style="35" customWidth="1"/>
-    <col min="2545" max="2545" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2545" max="2545" width="5.5" style="35" customWidth="1"/>
     <col min="2546" max="2547" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2548" max="2548" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2549" max="2584" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2585" max="2585" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2586" max="2586" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2587" max="2587" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2588" max="2797" width="8.85546875" style="35"/>
-    <col min="2798" max="2798" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2799" max="2799" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2548" max="2548" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2549" max="2584" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2585" max="2585" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2586" max="2586" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2587" max="2587" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2588" max="2797" width="8.83203125" style="35"/>
+    <col min="2798" max="2798" width="1.5" style="35" customWidth="1"/>
+    <col min="2799" max="2799" width="1.33203125" style="35" customWidth="1"/>
     <col min="2800" max="2800" width="42" style="35" customWidth="1"/>
-    <col min="2801" max="2801" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2801" max="2801" width="5.5" style="35" customWidth="1"/>
     <col min="2802" max="2803" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2804" max="2804" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2805" max="2840" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2841" max="2841" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2842" max="2842" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2843" max="2843" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2844" max="3053" width="8.85546875" style="35"/>
-    <col min="3054" max="3054" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3055" max="3055" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2804" max="2804" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2805" max="2840" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2841" max="2841" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2842" max="2842" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2843" max="2843" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2844" max="3053" width="8.83203125" style="35"/>
+    <col min="3054" max="3054" width="1.5" style="35" customWidth="1"/>
+    <col min="3055" max="3055" width="1.33203125" style="35" customWidth="1"/>
     <col min="3056" max="3056" width="42" style="35" customWidth="1"/>
-    <col min="3057" max="3057" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3057" max="3057" width="5.5" style="35" customWidth="1"/>
     <col min="3058" max="3059" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3060" max="3060" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3061" max="3096" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3097" max="3097" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3098" max="3098" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3099" max="3099" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3100" max="3309" width="8.85546875" style="35"/>
-    <col min="3310" max="3310" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3311" max="3311" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3060" max="3060" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3061" max="3096" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3097" max="3097" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3098" max="3098" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3099" max="3099" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3100" max="3309" width="8.83203125" style="35"/>
+    <col min="3310" max="3310" width="1.5" style="35" customWidth="1"/>
+    <col min="3311" max="3311" width="1.33203125" style="35" customWidth="1"/>
     <col min="3312" max="3312" width="42" style="35" customWidth="1"/>
-    <col min="3313" max="3313" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3313" max="3313" width="5.5" style="35" customWidth="1"/>
     <col min="3314" max="3315" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3316" max="3316" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3317" max="3352" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3353" max="3353" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3354" max="3354" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3355" max="3355" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3356" max="3565" width="8.85546875" style="35"/>
-    <col min="3566" max="3566" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3567" max="3567" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3316" max="3316" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3317" max="3352" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3353" max="3353" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3354" max="3354" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3355" max="3355" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3356" max="3565" width="8.83203125" style="35"/>
+    <col min="3566" max="3566" width="1.5" style="35" customWidth="1"/>
+    <col min="3567" max="3567" width="1.33203125" style="35" customWidth="1"/>
     <col min="3568" max="3568" width="42" style="35" customWidth="1"/>
-    <col min="3569" max="3569" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3569" max="3569" width="5.5" style="35" customWidth="1"/>
     <col min="3570" max="3571" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3572" max="3572" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3573" max="3608" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3609" max="3609" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3610" max="3610" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3611" max="3611" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3612" max="3821" width="8.85546875" style="35"/>
-    <col min="3822" max="3822" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3823" max="3823" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3572" max="3572" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3573" max="3608" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3609" max="3609" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3610" max="3610" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3611" max="3611" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3612" max="3821" width="8.83203125" style="35"/>
+    <col min="3822" max="3822" width="1.5" style="35" customWidth="1"/>
+    <col min="3823" max="3823" width="1.33203125" style="35" customWidth="1"/>
     <col min="3824" max="3824" width="42" style="35" customWidth="1"/>
-    <col min="3825" max="3825" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3825" max="3825" width="5.5" style="35" customWidth="1"/>
     <col min="3826" max="3827" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3828" max="3828" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3829" max="3864" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3865" max="3865" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3866" max="3866" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3867" max="3867" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3868" max="4077" width="8.85546875" style="35"/>
-    <col min="4078" max="4078" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4079" max="4079" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3828" max="3828" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3829" max="3864" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3865" max="3865" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3866" max="3866" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3867" max="3867" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3868" max="4077" width="8.83203125" style="35"/>
+    <col min="4078" max="4078" width="1.5" style="35" customWidth="1"/>
+    <col min="4079" max="4079" width="1.33203125" style="35" customWidth="1"/>
     <col min="4080" max="4080" width="42" style="35" customWidth="1"/>
-    <col min="4081" max="4081" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4081" max="4081" width="5.5" style="35" customWidth="1"/>
     <col min="4082" max="4083" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4084" max="4084" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4085" max="4120" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4121" max="4121" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4122" max="4122" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4123" max="4123" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4124" max="4333" width="8.85546875" style="35"/>
-    <col min="4334" max="4334" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4335" max="4335" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4084" max="4084" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4085" max="4120" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4121" max="4121" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4122" max="4122" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4123" max="4123" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4124" max="4333" width="8.83203125" style="35"/>
+    <col min="4334" max="4334" width="1.5" style="35" customWidth="1"/>
+    <col min="4335" max="4335" width="1.33203125" style="35" customWidth="1"/>
     <col min="4336" max="4336" width="42" style="35" customWidth="1"/>
-    <col min="4337" max="4337" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4337" max="4337" width="5.5" style="35" customWidth="1"/>
     <col min="4338" max="4339" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4340" max="4340" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4341" max="4376" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4377" max="4377" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4378" max="4378" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4379" max="4379" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4380" max="4589" width="8.85546875" style="35"/>
-    <col min="4590" max="4590" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4591" max="4591" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4340" max="4340" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4341" max="4376" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4377" max="4377" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4378" max="4378" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4379" max="4379" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4380" max="4589" width="8.83203125" style="35"/>
+    <col min="4590" max="4590" width="1.5" style="35" customWidth="1"/>
+    <col min="4591" max="4591" width="1.33203125" style="35" customWidth="1"/>
     <col min="4592" max="4592" width="42" style="35" customWidth="1"/>
-    <col min="4593" max="4593" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4593" max="4593" width="5.5" style="35" customWidth="1"/>
     <col min="4594" max="4595" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4596" max="4596" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4597" max="4632" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4633" max="4633" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4634" max="4634" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4635" max="4635" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4636" max="4845" width="8.85546875" style="35"/>
-    <col min="4846" max="4846" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4847" max="4847" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4596" max="4596" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4597" max="4632" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4633" max="4633" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4634" max="4634" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4635" max="4635" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4636" max="4845" width="8.83203125" style="35"/>
+    <col min="4846" max="4846" width="1.5" style="35" customWidth="1"/>
+    <col min="4847" max="4847" width="1.33203125" style="35" customWidth="1"/>
     <col min="4848" max="4848" width="42" style="35" customWidth="1"/>
-    <col min="4849" max="4849" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4849" max="4849" width="5.5" style="35" customWidth="1"/>
     <col min="4850" max="4851" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4852" max="4852" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4853" max="4888" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4889" max="4889" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4890" max="4890" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4891" max="4891" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4892" max="5101" width="8.85546875" style="35"/>
-    <col min="5102" max="5102" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5103" max="5103" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4852" max="4852" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4853" max="4888" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4889" max="4889" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4890" max="4890" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4891" max="4891" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4892" max="5101" width="8.83203125" style="35"/>
+    <col min="5102" max="5102" width="1.5" style="35" customWidth="1"/>
+    <col min="5103" max="5103" width="1.33203125" style="35" customWidth="1"/>
     <col min="5104" max="5104" width="42" style="35" customWidth="1"/>
-    <col min="5105" max="5105" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5105" max="5105" width="5.5" style="35" customWidth="1"/>
     <col min="5106" max="5107" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5108" max="5108" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5109" max="5144" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5145" max="5145" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5146" max="5146" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5147" max="5147" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5148" max="5357" width="8.85546875" style="35"/>
-    <col min="5358" max="5358" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5359" max="5359" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5108" max="5108" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5109" max="5144" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5145" max="5145" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5146" max="5146" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5147" max="5147" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5148" max="5357" width="8.83203125" style="35"/>
+    <col min="5358" max="5358" width="1.5" style="35" customWidth="1"/>
+    <col min="5359" max="5359" width="1.33203125" style="35" customWidth="1"/>
     <col min="5360" max="5360" width="42" style="35" customWidth="1"/>
-    <col min="5361" max="5361" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5361" max="5361" width="5.5" style="35" customWidth="1"/>
     <col min="5362" max="5363" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5364" max="5364" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5365" max="5400" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5401" max="5401" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5402" max="5402" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5403" max="5403" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5404" max="5613" width="8.85546875" style="35"/>
-    <col min="5614" max="5614" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5615" max="5615" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5364" max="5364" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5365" max="5400" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5401" max="5401" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5402" max="5402" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5403" max="5403" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5404" max="5613" width="8.83203125" style="35"/>
+    <col min="5614" max="5614" width="1.5" style="35" customWidth="1"/>
+    <col min="5615" max="5615" width="1.33203125" style="35" customWidth="1"/>
     <col min="5616" max="5616" width="42" style="35" customWidth="1"/>
-    <col min="5617" max="5617" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5617" max="5617" width="5.5" style="35" customWidth="1"/>
     <col min="5618" max="5619" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5620" max="5620" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5621" max="5656" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5657" max="5657" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5658" max="5658" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5659" max="5659" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5660" max="5869" width="8.85546875" style="35"/>
-    <col min="5870" max="5870" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5871" max="5871" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5620" max="5620" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5621" max="5656" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5657" max="5657" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5658" max="5658" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5659" max="5659" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5660" max="5869" width="8.83203125" style="35"/>
+    <col min="5870" max="5870" width="1.5" style="35" customWidth="1"/>
+    <col min="5871" max="5871" width="1.33203125" style="35" customWidth="1"/>
     <col min="5872" max="5872" width="42" style="35" customWidth="1"/>
-    <col min="5873" max="5873" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5873" max="5873" width="5.5" style="35" customWidth="1"/>
     <col min="5874" max="5875" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5876" max="5876" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5877" max="5912" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5913" max="5913" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5914" max="5914" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5915" max="5915" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5916" max="6125" width="8.85546875" style="35"/>
-    <col min="6126" max="6126" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6127" max="6127" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5876" max="5876" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5877" max="5912" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5913" max="5913" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5914" max="5914" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5915" max="5915" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5916" max="6125" width="8.83203125" style="35"/>
+    <col min="6126" max="6126" width="1.5" style="35" customWidth="1"/>
+    <col min="6127" max="6127" width="1.33203125" style="35" customWidth="1"/>
     <col min="6128" max="6128" width="42" style="35" customWidth="1"/>
-    <col min="6129" max="6129" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6129" max="6129" width="5.5" style="35" customWidth="1"/>
     <col min="6130" max="6131" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6132" max="6132" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6133" max="6168" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6169" max="6169" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6170" max="6170" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6171" max="6171" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6172" max="6381" width="8.85546875" style="35"/>
-    <col min="6382" max="6382" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6383" max="6383" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6132" max="6132" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6133" max="6168" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6169" max="6169" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6170" max="6170" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6171" max="6171" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6172" max="6381" width="8.83203125" style="35"/>
+    <col min="6382" max="6382" width="1.5" style="35" customWidth="1"/>
+    <col min="6383" max="6383" width="1.33203125" style="35" customWidth="1"/>
     <col min="6384" max="6384" width="42" style="35" customWidth="1"/>
-    <col min="6385" max="6385" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6385" max="6385" width="5.5" style="35" customWidth="1"/>
     <col min="6386" max="6387" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6388" max="6388" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6389" max="6424" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6425" max="6425" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6426" max="6426" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6427" max="6427" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6428" max="6637" width="8.85546875" style="35"/>
-    <col min="6638" max="6638" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6639" max="6639" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6388" max="6388" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6389" max="6424" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6425" max="6425" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6426" max="6426" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6427" max="6427" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6428" max="6637" width="8.83203125" style="35"/>
+    <col min="6638" max="6638" width="1.5" style="35" customWidth="1"/>
+    <col min="6639" max="6639" width="1.33203125" style="35" customWidth="1"/>
     <col min="6640" max="6640" width="42" style="35" customWidth="1"/>
-    <col min="6641" max="6641" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6641" max="6641" width="5.5" style="35" customWidth="1"/>
     <col min="6642" max="6643" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6644" max="6644" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6645" max="6680" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6681" max="6681" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6682" max="6682" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6683" max="6683" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6684" max="6893" width="8.85546875" style="35"/>
-    <col min="6894" max="6894" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6895" max="6895" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6644" max="6644" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6645" max="6680" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6681" max="6681" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6682" max="6682" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6683" max="6683" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6684" max="6893" width="8.83203125" style="35"/>
+    <col min="6894" max="6894" width="1.5" style="35" customWidth="1"/>
+    <col min="6895" max="6895" width="1.33203125" style="35" customWidth="1"/>
     <col min="6896" max="6896" width="42" style="35" customWidth="1"/>
-    <col min="6897" max="6897" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6897" max="6897" width="5.5" style="35" customWidth="1"/>
     <col min="6898" max="6899" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6900" max="6900" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6901" max="6936" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6937" max="6937" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6938" max="6938" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6939" max="6939" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6940" max="7149" width="8.85546875" style="35"/>
-    <col min="7150" max="7150" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7151" max="7151" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6900" max="6900" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6901" max="6936" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6937" max="6937" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6938" max="6938" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6939" max="6939" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6940" max="7149" width="8.83203125" style="35"/>
+    <col min="7150" max="7150" width="1.5" style="35" customWidth="1"/>
+    <col min="7151" max="7151" width="1.33203125" style="35" customWidth="1"/>
     <col min="7152" max="7152" width="42" style="35" customWidth="1"/>
-    <col min="7153" max="7153" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7153" max="7153" width="5.5" style="35" customWidth="1"/>
     <col min="7154" max="7155" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7156" max="7156" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7157" max="7192" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7193" max="7193" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7194" max="7194" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7195" max="7195" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7196" max="7405" width="8.85546875" style="35"/>
-    <col min="7406" max="7406" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7407" max="7407" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7156" max="7156" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7157" max="7192" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7193" max="7193" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7194" max="7194" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7195" max="7195" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7196" max="7405" width="8.83203125" style="35"/>
+    <col min="7406" max="7406" width="1.5" style="35" customWidth="1"/>
+    <col min="7407" max="7407" width="1.33203125" style="35" customWidth="1"/>
     <col min="7408" max="7408" width="42" style="35" customWidth="1"/>
-    <col min="7409" max="7409" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7409" max="7409" width="5.5" style="35" customWidth="1"/>
     <col min="7410" max="7411" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7412" max="7412" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7413" max="7448" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7449" max="7449" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7450" max="7450" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7451" max="7451" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7452" max="7661" width="8.85546875" style="35"/>
-    <col min="7662" max="7662" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7663" max="7663" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7412" max="7412" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7413" max="7448" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7449" max="7449" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7450" max="7450" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7451" max="7451" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7452" max="7661" width="8.83203125" style="35"/>
+    <col min="7662" max="7662" width="1.5" style="35" customWidth="1"/>
+    <col min="7663" max="7663" width="1.33203125" style="35" customWidth="1"/>
     <col min="7664" max="7664" width="42" style="35" customWidth="1"/>
-    <col min="7665" max="7665" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7665" max="7665" width="5.5" style="35" customWidth="1"/>
     <col min="7666" max="7667" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7668" max="7668" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7669" max="7704" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7705" max="7705" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7706" max="7706" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7707" max="7707" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7708" max="7917" width="8.85546875" style="35"/>
-    <col min="7918" max="7918" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7919" max="7919" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7668" max="7668" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7669" max="7704" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7705" max="7705" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7706" max="7706" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7707" max="7707" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7708" max="7917" width="8.83203125" style="35"/>
+    <col min="7918" max="7918" width="1.5" style="35" customWidth="1"/>
+    <col min="7919" max="7919" width="1.33203125" style="35" customWidth="1"/>
     <col min="7920" max="7920" width="42" style="35" customWidth="1"/>
-    <col min="7921" max="7921" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7921" max="7921" width="5.5" style="35" customWidth="1"/>
     <col min="7922" max="7923" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7924" max="7924" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7925" max="7960" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7961" max="7961" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7962" max="7962" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7963" max="7963" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7964" max="8173" width="8.85546875" style="35"/>
-    <col min="8174" max="8174" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8175" max="8175" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7924" max="7924" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7925" max="7960" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7961" max="7961" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7962" max="7962" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7963" max="7963" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7964" max="8173" width="8.83203125" style="35"/>
+    <col min="8174" max="8174" width="1.5" style="35" customWidth="1"/>
+    <col min="8175" max="8175" width="1.33203125" style="35" customWidth="1"/>
     <col min="8176" max="8176" width="42" style="35" customWidth="1"/>
-    <col min="8177" max="8177" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8177" max="8177" width="5.5" style="35" customWidth="1"/>
     <col min="8178" max="8179" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8180" max="8180" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8181" max="8216" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8217" max="8217" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8218" max="8218" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8219" max="8219" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8220" max="8429" width="8.85546875" style="35"/>
-    <col min="8430" max="8430" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8431" max="8431" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8180" max="8180" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8181" max="8216" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8217" max="8217" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8218" max="8218" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8219" max="8219" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8220" max="8429" width="8.83203125" style="35"/>
+    <col min="8430" max="8430" width="1.5" style="35" customWidth="1"/>
+    <col min="8431" max="8431" width="1.33203125" style="35" customWidth="1"/>
     <col min="8432" max="8432" width="42" style="35" customWidth="1"/>
-    <col min="8433" max="8433" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8433" max="8433" width="5.5" style="35" customWidth="1"/>
     <col min="8434" max="8435" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8436" max="8436" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8437" max="8472" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8473" max="8473" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8474" max="8474" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8475" max="8475" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8476" max="8685" width="8.85546875" style="35"/>
-    <col min="8686" max="8686" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8687" max="8687" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8436" max="8436" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8437" max="8472" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8473" max="8473" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8474" max="8474" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8475" max="8475" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8476" max="8685" width="8.83203125" style="35"/>
+    <col min="8686" max="8686" width="1.5" style="35" customWidth="1"/>
+    <col min="8687" max="8687" width="1.33203125" style="35" customWidth="1"/>
     <col min="8688" max="8688" width="42" style="35" customWidth="1"/>
-    <col min="8689" max="8689" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8689" max="8689" width="5.5" style="35" customWidth="1"/>
     <col min="8690" max="8691" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8692" max="8692" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8693" max="8728" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8729" max="8729" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8730" max="8730" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8731" max="8731" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8732" max="8941" width="8.85546875" style="35"/>
-    <col min="8942" max="8942" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8943" max="8943" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8692" max="8692" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8693" max="8728" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8729" max="8729" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8730" max="8730" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8731" max="8731" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8732" max="8941" width="8.83203125" style="35"/>
+    <col min="8942" max="8942" width="1.5" style="35" customWidth="1"/>
+    <col min="8943" max="8943" width="1.33203125" style="35" customWidth="1"/>
     <col min="8944" max="8944" width="42" style="35" customWidth="1"/>
-    <col min="8945" max="8945" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8945" max="8945" width="5.5" style="35" customWidth="1"/>
     <col min="8946" max="8947" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8948" max="8948" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8949" max="8984" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8985" max="8985" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8986" max="8986" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8987" max="8987" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8988" max="9197" width="8.85546875" style="35"/>
-    <col min="9198" max="9198" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9199" max="9199" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8948" max="8948" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8949" max="8984" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8985" max="8985" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8986" max="8986" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8987" max="8987" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8988" max="9197" width="8.83203125" style="35"/>
+    <col min="9198" max="9198" width="1.5" style="35" customWidth="1"/>
+    <col min="9199" max="9199" width="1.33203125" style="35" customWidth="1"/>
     <col min="9200" max="9200" width="42" style="35" customWidth="1"/>
-    <col min="9201" max="9201" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9201" max="9201" width="5.5" style="35" customWidth="1"/>
     <col min="9202" max="9203" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9204" max="9204" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9205" max="9240" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9241" max="9241" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9242" max="9242" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9243" max="9243" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9244" max="9453" width="8.85546875" style="35"/>
-    <col min="9454" max="9454" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9455" max="9455" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9204" max="9204" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9205" max="9240" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9241" max="9241" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9242" max="9242" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9243" max="9243" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9244" max="9453" width="8.83203125" style="35"/>
+    <col min="9454" max="9454" width="1.5" style="35" customWidth="1"/>
+    <col min="9455" max="9455" width="1.33203125" style="35" customWidth="1"/>
     <col min="9456" max="9456" width="42" style="35" customWidth="1"/>
-    <col min="9457" max="9457" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9457" max="9457" width="5.5" style="35" customWidth="1"/>
     <col min="9458" max="9459" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9460" max="9460" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9461" max="9496" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9497" max="9497" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9498" max="9498" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9499" max="9499" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9500" max="9709" width="8.85546875" style="35"/>
-    <col min="9710" max="9710" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9711" max="9711" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9460" max="9460" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9461" max="9496" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9497" max="9497" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9498" max="9498" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9499" max="9499" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9500" max="9709" width="8.83203125" style="35"/>
+    <col min="9710" max="9710" width="1.5" style="35" customWidth="1"/>
+    <col min="9711" max="9711" width="1.33203125" style="35" customWidth="1"/>
     <col min="9712" max="9712" width="42" style="35" customWidth="1"/>
-    <col min="9713" max="9713" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9713" max="9713" width="5.5" style="35" customWidth="1"/>
     <col min="9714" max="9715" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9716" max="9716" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9717" max="9752" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9753" max="9753" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9754" max="9754" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9755" max="9755" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9756" max="9965" width="8.85546875" style="35"/>
-    <col min="9966" max="9966" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9967" max="9967" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9716" max="9716" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9717" max="9752" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9753" max="9753" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9754" max="9754" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9755" max="9755" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9756" max="9965" width="8.83203125" style="35"/>
+    <col min="9966" max="9966" width="1.5" style="35" customWidth="1"/>
+    <col min="9967" max="9967" width="1.33203125" style="35" customWidth="1"/>
     <col min="9968" max="9968" width="42" style="35" customWidth="1"/>
-    <col min="9969" max="9969" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9969" max="9969" width="5.5" style="35" customWidth="1"/>
     <col min="9970" max="9971" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9972" max="9972" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9973" max="10008" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10009" max="10009" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10010" max="10010" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10011" max="10011" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10012" max="10221" width="8.85546875" style="35"/>
-    <col min="10222" max="10222" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10223" max="10223" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9972" max="9972" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9973" max="10008" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10009" max="10009" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10010" max="10010" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10011" max="10011" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10012" max="10221" width="8.83203125" style="35"/>
+    <col min="10222" max="10222" width="1.5" style="35" customWidth="1"/>
+    <col min="10223" max="10223" width="1.33203125" style="35" customWidth="1"/>
     <col min="10224" max="10224" width="42" style="35" customWidth="1"/>
-    <col min="10225" max="10225" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10225" max="10225" width="5.5" style="35" customWidth="1"/>
     <col min="10226" max="10227" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10228" max="10228" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10229" max="10264" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10265" max="10265" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10266" max="10266" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10267" max="10267" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10268" max="10477" width="8.85546875" style="35"/>
-    <col min="10478" max="10478" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10479" max="10479" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10228" max="10228" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10229" max="10264" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10265" max="10265" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10266" max="10266" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10267" max="10267" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10268" max="10477" width="8.83203125" style="35"/>
+    <col min="10478" max="10478" width="1.5" style="35" customWidth="1"/>
+    <col min="10479" max="10479" width="1.33203125" style="35" customWidth="1"/>
     <col min="10480" max="10480" width="42" style="35" customWidth="1"/>
-    <col min="10481" max="10481" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10481" max="10481" width="5.5" style="35" customWidth="1"/>
     <col min="10482" max="10483" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10484" max="10484" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10485" max="10520" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10521" max="10521" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10522" max="10522" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10523" max="10523" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10524" max="10733" width="8.85546875" style="35"/>
-    <col min="10734" max="10734" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10735" max="10735" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10484" max="10484" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10485" max="10520" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10521" max="10521" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10522" max="10522" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10523" max="10523" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10524" max="10733" width="8.83203125" style="35"/>
+    <col min="10734" max="10734" width="1.5" style="35" customWidth="1"/>
+    <col min="10735" max="10735" width="1.33203125" style="35" customWidth="1"/>
     <col min="10736" max="10736" width="42" style="35" customWidth="1"/>
-    <col min="10737" max="10737" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10737" max="10737" width="5.5" style="35" customWidth="1"/>
     <col min="10738" max="10739" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10740" max="10740" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10741" max="10776" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10777" max="10777" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10778" max="10778" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10779" max="10779" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10780" max="10989" width="8.85546875" style="35"/>
-    <col min="10990" max="10990" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10991" max="10991" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10740" max="10740" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10741" max="10776" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10777" max="10777" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10778" max="10778" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10779" max="10779" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10780" max="10989" width="8.83203125" style="35"/>
+    <col min="10990" max="10990" width="1.5" style="35" customWidth="1"/>
+    <col min="10991" max="10991" width="1.33203125" style="35" customWidth="1"/>
     <col min="10992" max="10992" width="42" style="35" customWidth="1"/>
-    <col min="10993" max="10993" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10993" max="10993" width="5.5" style="35" customWidth="1"/>
     <col min="10994" max="10995" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10996" max="10996" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10997" max="11032" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11033" max="11033" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11034" max="11034" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11035" max="11035" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11036" max="11245" width="8.85546875" style="35"/>
-    <col min="11246" max="11246" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11247" max="11247" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10996" max="10996" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10997" max="11032" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11033" max="11033" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11034" max="11034" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11035" max="11035" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11036" max="11245" width="8.83203125" style="35"/>
+    <col min="11246" max="11246" width="1.5" style="35" customWidth="1"/>
+    <col min="11247" max="11247" width="1.33203125" style="35" customWidth="1"/>
     <col min="11248" max="11248" width="42" style="35" customWidth="1"/>
-    <col min="11249" max="11249" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11249" max="11249" width="5.5" style="35" customWidth="1"/>
     <col min="11250" max="11251" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11252" max="11252" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11253" max="11288" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11289" max="11289" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11290" max="11290" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11291" max="11291" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11292" max="11501" width="8.85546875" style="35"/>
-    <col min="11502" max="11502" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11503" max="11503" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11252" max="11252" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11253" max="11288" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11289" max="11289" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11290" max="11290" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11291" max="11291" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11292" max="11501" width="8.83203125" style="35"/>
+    <col min="11502" max="11502" width="1.5" style="35" customWidth="1"/>
+    <col min="11503" max="11503" width="1.33203125" style="35" customWidth="1"/>
     <col min="11504" max="11504" width="42" style="35" customWidth="1"/>
-    <col min="11505" max="11505" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11505" max="11505" width="5.5" style="35" customWidth="1"/>
     <col min="11506" max="11507" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11508" max="11508" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11509" max="11544" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11545" max="11545" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11546" max="11546" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11547" max="11547" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11548" max="11757" width="8.85546875" style="35"/>
-    <col min="11758" max="11758" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11759" max="11759" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11508" max="11508" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11509" max="11544" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11545" max="11545" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11546" max="11546" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11547" max="11547" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11548" max="11757" width="8.83203125" style="35"/>
+    <col min="11758" max="11758" width="1.5" style="35" customWidth="1"/>
+    <col min="11759" max="11759" width="1.33203125" style="35" customWidth="1"/>
     <col min="11760" max="11760" width="42" style="35" customWidth="1"/>
-    <col min="11761" max="11761" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11761" max="11761" width="5.5" style="35" customWidth="1"/>
     <col min="11762" max="11763" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11764" max="11764" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11765" max="11800" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11801" max="11801" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11802" max="11802" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11803" max="11803" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11804" max="12013" width="8.85546875" style="35"/>
-    <col min="12014" max="12014" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12015" max="12015" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11764" max="11764" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11765" max="11800" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11801" max="11801" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11802" max="11802" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11803" max="11803" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11804" max="12013" width="8.83203125" style="35"/>
+    <col min="12014" max="12014" width="1.5" style="35" customWidth="1"/>
+    <col min="12015" max="12015" width="1.33203125" style="35" customWidth="1"/>
     <col min="12016" max="12016" width="42" style="35" customWidth="1"/>
-    <col min="12017" max="12017" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12017" max="12017" width="5.5" style="35" customWidth="1"/>
     <col min="12018" max="12019" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12020" max="12020" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12021" max="12056" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12057" max="12057" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12058" max="12058" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12059" max="12059" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12060" max="12269" width="8.85546875" style="35"/>
-    <col min="12270" max="12270" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12271" max="12271" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12020" max="12020" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12021" max="12056" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12057" max="12057" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12058" max="12058" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12059" max="12059" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12060" max="12269" width="8.83203125" style="35"/>
+    <col min="12270" max="12270" width="1.5" style="35" customWidth="1"/>
+    <col min="12271" max="12271" width="1.33203125" style="35" customWidth="1"/>
     <col min="12272" max="12272" width="42" style="35" customWidth="1"/>
-    <col min="12273" max="12273" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12273" max="12273" width="5.5" style="35" customWidth="1"/>
     <col min="12274" max="12275" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12276" max="12276" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12277" max="12312" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12313" max="12313" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12314" max="12314" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12315" max="12315" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12316" max="12525" width="8.85546875" style="35"/>
-    <col min="12526" max="12526" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12527" max="12527" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12276" max="12276" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12277" max="12312" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12313" max="12313" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12314" max="12314" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12315" max="12315" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12316" max="12525" width="8.83203125" style="35"/>
+    <col min="12526" max="12526" width="1.5" style="35" customWidth="1"/>
+    <col min="12527" max="12527" width="1.33203125" style="35" customWidth="1"/>
     <col min="12528" max="12528" width="42" style="35" customWidth="1"/>
-    <col min="12529" max="12529" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12529" max="12529" width="5.5" style="35" customWidth="1"/>
     <col min="12530" max="12531" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12532" max="12532" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12533" max="12568" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12569" max="12569" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12570" max="12570" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12571" max="12571" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12572" max="12781" width="8.85546875" style="35"/>
-    <col min="12782" max="12782" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12783" max="12783" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12532" max="12532" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12533" max="12568" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12569" max="12569" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12570" max="12570" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12571" max="12571" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12572" max="12781" width="8.83203125" style="35"/>
+    <col min="12782" max="12782" width="1.5" style="35" customWidth="1"/>
+    <col min="12783" max="12783" width="1.33203125" style="35" customWidth="1"/>
     <col min="12784" max="12784" width="42" style="35" customWidth="1"/>
-    <col min="12785" max="12785" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12785" max="12785" width="5.5" style="35" customWidth="1"/>
     <col min="12786" max="12787" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12788" max="12788" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12789" max="12824" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12825" max="12825" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12826" max="12826" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12827" max="12827" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12828" max="13037" width="8.85546875" style="35"/>
-    <col min="13038" max="13038" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13039" max="13039" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12788" max="12788" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12789" max="12824" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12825" max="12825" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12826" max="12826" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12827" max="12827" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12828" max="13037" width="8.83203125" style="35"/>
+    <col min="13038" max="13038" width="1.5" style="35" customWidth="1"/>
+    <col min="13039" max="13039" width="1.33203125" style="35" customWidth="1"/>
     <col min="13040" max="13040" width="42" style="35" customWidth="1"/>
-    <col min="13041" max="13041" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13041" max="13041" width="5.5" style="35" customWidth="1"/>
     <col min="13042" max="13043" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13044" max="13044" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13045" max="13080" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13081" max="13081" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13082" max="13082" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13083" max="13083" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13084" max="13293" width="8.85546875" style="35"/>
-    <col min="13294" max="13294" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13295" max="13295" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13044" max="13044" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13045" max="13080" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13081" max="13081" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13082" max="13082" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13083" max="13083" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13084" max="13293" width="8.83203125" style="35"/>
+    <col min="13294" max="13294" width="1.5" style="35" customWidth="1"/>
+    <col min="13295" max="13295" width="1.33203125" style="35" customWidth="1"/>
     <col min="13296" max="13296" width="42" style="35" customWidth="1"/>
-    <col min="13297" max="13297" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13297" max="13297" width="5.5" style="35" customWidth="1"/>
     <col min="13298" max="13299" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13300" max="13300" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13301" max="13336" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13337" max="13337" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13338" max="13338" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13339" max="13339" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13340" max="13549" width="8.85546875" style="35"/>
-    <col min="13550" max="13550" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13551" max="13551" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13300" max="13300" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13301" max="13336" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13337" max="13337" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13338" max="13338" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13339" max="13339" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13340" max="13549" width="8.83203125" style="35"/>
+    <col min="13550" max="13550" width="1.5" style="35" customWidth="1"/>
+    <col min="13551" max="13551" width="1.33203125" style="35" customWidth="1"/>
     <col min="13552" max="13552" width="42" style="35" customWidth="1"/>
-    <col min="13553" max="13553" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13553" max="13553" width="5.5" style="35" customWidth="1"/>
     <col min="13554" max="13555" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13556" max="13556" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13557" max="13592" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13593" max="13593" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13594" max="13594" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13595" max="13595" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13596" max="13805" width="8.85546875" style="35"/>
-    <col min="13806" max="13806" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13807" max="13807" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13556" max="13556" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13557" max="13592" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13593" max="13593" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13594" max="13594" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13595" max="13595" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13596" max="13805" width="8.83203125" style="35"/>
+    <col min="13806" max="13806" width="1.5" style="35" customWidth="1"/>
+    <col min="13807" max="13807" width="1.33203125" style="35" customWidth="1"/>
     <col min="13808" max="13808" width="42" style="35" customWidth="1"/>
-    <col min="13809" max="13809" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13809" max="13809" width="5.5" style="35" customWidth="1"/>
     <col min="13810" max="13811" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13812" max="13812" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13813" max="13848" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13849" max="13849" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13850" max="13850" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13851" max="13851" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13852" max="14061" width="8.85546875" style="35"/>
-    <col min="14062" max="14062" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14063" max="14063" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13812" max="13812" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13813" max="13848" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13849" max="13849" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13850" max="13850" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13851" max="13851" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13852" max="14061" width="8.83203125" style="35"/>
+    <col min="14062" max="14062" width="1.5" style="35" customWidth="1"/>
+    <col min="14063" max="14063" width="1.33203125" style="35" customWidth="1"/>
     <col min="14064" max="14064" width="42" style="35" customWidth="1"/>
-    <col min="14065" max="14065" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14065" max="14065" width="5.5" style="35" customWidth="1"/>
     <col min="14066" max="14067" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14068" max="14068" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14069" max="14104" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14105" max="14105" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14106" max="14106" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14107" max="14107" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14108" max="14317" width="8.85546875" style="35"/>
-    <col min="14318" max="14318" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14319" max="14319" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14068" max="14068" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14069" max="14104" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14105" max="14105" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14106" max="14106" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14107" max="14107" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14108" max="14317" width="8.83203125" style="35"/>
+    <col min="14318" max="14318" width="1.5" style="35" customWidth="1"/>
+    <col min="14319" max="14319" width="1.33203125" style="35" customWidth="1"/>
     <col min="14320" max="14320" width="42" style="35" customWidth="1"/>
-    <col min="14321" max="14321" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14321" max="14321" width="5.5" style="35" customWidth="1"/>
     <col min="14322" max="14323" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14324" max="14324" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14325" max="14360" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14361" max="14361" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14362" max="14362" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14363" max="14363" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14364" max="14573" width="8.85546875" style="35"/>
-    <col min="14574" max="14574" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14575" max="14575" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14324" max="14324" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14325" max="14360" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14361" max="14361" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14362" max="14362" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14363" max="14363" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14364" max="14573" width="8.83203125" style="35"/>
+    <col min="14574" max="14574" width="1.5" style="35" customWidth="1"/>
+    <col min="14575" max="14575" width="1.33203125" style="35" customWidth="1"/>
     <col min="14576" max="14576" width="42" style="35" customWidth="1"/>
-    <col min="14577" max="14577" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14577" max="14577" width="5.5" style="35" customWidth="1"/>
     <col min="14578" max="14579" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14580" max="14580" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14581" max="14616" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14617" max="14617" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14618" max="14618" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14619" max="14619" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14620" max="14829" width="8.85546875" style="35"/>
-    <col min="14830" max="14830" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14831" max="14831" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14580" max="14580" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14581" max="14616" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14617" max="14617" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14618" max="14618" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14619" max="14619" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14620" max="14829" width="8.83203125" style="35"/>
+    <col min="14830" max="14830" width="1.5" style="35" customWidth="1"/>
+    <col min="14831" max="14831" width="1.33203125" style="35" customWidth="1"/>
     <col min="14832" max="14832" width="42" style="35" customWidth="1"/>
-    <col min="14833" max="14833" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14833" max="14833" width="5.5" style="35" customWidth="1"/>
     <col min="14834" max="14835" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14836" max="14836" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14837" max="14872" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14873" max="14873" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14874" max="14874" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14875" max="14875" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14876" max="15085" width="8.85546875" style="35"/>
-    <col min="15086" max="15086" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15087" max="15087" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14836" max="14836" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14837" max="14872" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14873" max="14873" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14874" max="14874" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14875" max="14875" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14876" max="15085" width="8.83203125" style="35"/>
+    <col min="15086" max="15086" width="1.5" style="35" customWidth="1"/>
+    <col min="15087" max="15087" width="1.33203125" style="35" customWidth="1"/>
     <col min="15088" max="15088" width="42" style="35" customWidth="1"/>
-    <col min="15089" max="15089" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15089" max="15089" width="5.5" style="35" customWidth="1"/>
     <col min="15090" max="15091" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15092" max="15092" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15093" max="15128" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15129" max="15129" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15130" max="15130" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15131" max="15131" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15132" max="15341" width="8.85546875" style="35"/>
-    <col min="15342" max="15342" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15343" max="15343" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15092" max="15092" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15093" max="15128" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15129" max="15129" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15130" max="15130" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15131" max="15131" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15132" max="15341" width="8.83203125" style="35"/>
+    <col min="15342" max="15342" width="1.5" style="35" customWidth="1"/>
+    <col min="15343" max="15343" width="1.33203125" style="35" customWidth="1"/>
     <col min="15344" max="15344" width="42" style="35" customWidth="1"/>
-    <col min="15345" max="15345" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15345" max="15345" width="5.5" style="35" customWidth="1"/>
     <col min="15346" max="15347" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15348" max="15348" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15349" max="15384" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15385" max="15385" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15386" max="15386" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15387" max="15387" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15388" max="15597" width="8.85546875" style="35"/>
-    <col min="15598" max="15598" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15599" max="15599" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15348" max="15348" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15349" max="15384" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15385" max="15385" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15386" max="15386" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15387" max="15387" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15388" max="15597" width="8.83203125" style="35"/>
+    <col min="15598" max="15598" width="1.5" style="35" customWidth="1"/>
+    <col min="15599" max="15599" width="1.33203125" style="35" customWidth="1"/>
     <col min="15600" max="15600" width="42" style="35" customWidth="1"/>
-    <col min="15601" max="15601" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15601" max="15601" width="5.5" style="35" customWidth="1"/>
     <col min="15602" max="15603" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15604" max="15604" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15605" max="15640" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15641" max="15641" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15642" max="15642" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15643" max="15643" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15644" max="15853" width="8.85546875" style="35"/>
-    <col min="15854" max="15854" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15855" max="15855" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15604" max="15604" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15605" max="15640" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15641" max="15641" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15642" max="15642" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15643" max="15643" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15644" max="15853" width="8.83203125" style="35"/>
+    <col min="15854" max="15854" width="1.5" style="35" customWidth="1"/>
+    <col min="15855" max="15855" width="1.33203125" style="35" customWidth="1"/>
     <col min="15856" max="15856" width="42" style="35" customWidth="1"/>
-    <col min="15857" max="15857" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15857" max="15857" width="5.5" style="35" customWidth="1"/>
     <col min="15858" max="15859" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15860" max="15860" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15861" max="15896" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15897" max="15897" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15898" max="15898" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15899" max="15899" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15900" max="16109" width="8.85546875" style="35"/>
-    <col min="16110" max="16110" width="1.42578125" style="35" customWidth="1"/>
-    <col min="16111" max="16111" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15860" max="15860" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15861" max="15896" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15897" max="15897" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15898" max="15898" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15899" max="15899" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15900" max="16109" width="8.83203125" style="35"/>
+    <col min="16110" max="16110" width="1.5" style="35" customWidth="1"/>
+    <col min="16111" max="16111" width="1.33203125" style="35" customWidth="1"/>
     <col min="16112" max="16112" width="42" style="35" customWidth="1"/>
-    <col min="16113" max="16113" width="5.42578125" style="35" customWidth="1"/>
+    <col min="16113" max="16113" width="5.5" style="35" customWidth="1"/>
     <col min="16114" max="16115" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="16116" max="16116" width="2.7109375" style="35" customWidth="1"/>
-    <col min="16117" max="16152" width="3.28515625" style="35" customWidth="1"/>
-    <col min="16153" max="16153" width="1.7109375" style="35" customWidth="1"/>
-    <col min="16154" max="16154" width="25.7109375" style="35" customWidth="1"/>
-    <col min="16155" max="16155" width="31.28515625" style="35" customWidth="1"/>
-    <col min="16156" max="16384" width="8.85546875" style="35"/>
+    <col min="16116" max="16116" width="2.6640625" style="35" customWidth="1"/>
+    <col min="16117" max="16152" width="3.33203125" style="35" customWidth="1"/>
+    <col min="16153" max="16153" width="1.6640625" style="35" customWidth="1"/>
+    <col min="16154" max="16154" width="25.6640625" style="35" customWidth="1"/>
+    <col min="16155" max="16155" width="31.33203125" style="35" customWidth="1"/>
+    <col min="16156" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="126" t="s">
+    <row r="2" spans="2:4" ht="30.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="77">
         <v>0</v>
       </c>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="79">
         <v>0</v>
       </c>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="81">
+        <v>3</v>
+      </c>
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C8" s="83">
         <v>0</v>
       </c>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="84" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" s="83">
-        <v>6</v>
-      </c>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="84" t="s">
-        <v>59</v>
       </c>
       <c r="C9" s="85">
         <v>0</v>
       </c>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="67"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6875,7 +6916,7 @@
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
   <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -6893,738 +6934,738 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH25"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="35" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="36" customWidth="1"/>
+    <col min="3" max="3" width="68.5" style="36" customWidth="1"/>
     <col min="4" max="4" width="8" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="37" customWidth="1"/>
-    <col min="6" max="24" width="3.28515625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="37" customWidth="1"/>
+    <col min="6" max="24" width="3.33203125" style="37" customWidth="1"/>
     <col min="25" max="25" width="10" style="37" customWidth="1"/>
-    <col min="26" max="34" width="8.85546875" style="37"/>
-    <col min="35" max="235" width="8.85546875" style="35"/>
-    <col min="236" max="236" width="1.42578125" style="35" customWidth="1"/>
-    <col min="237" max="237" width="1.28515625" style="35" customWidth="1"/>
+    <col min="26" max="34" width="8.83203125" style="37"/>
+    <col min="35" max="235" width="8.83203125" style="35"/>
+    <col min="236" max="236" width="1.5" style="35" customWidth="1"/>
+    <col min="237" max="237" width="1.33203125" style="35" customWidth="1"/>
     <col min="238" max="238" width="42" style="35" customWidth="1"/>
-    <col min="239" max="239" width="5.42578125" style="35" customWidth="1"/>
+    <col min="239" max="239" width="5.5" style="35" customWidth="1"/>
     <col min="240" max="241" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="242" max="242" width="2.7109375" style="35" customWidth="1"/>
-    <col min="243" max="278" width="3.28515625" style="35" customWidth="1"/>
-    <col min="279" max="279" width="1.7109375" style="35" customWidth="1"/>
-    <col min="280" max="280" width="25.7109375" style="35" customWidth="1"/>
-    <col min="281" max="281" width="31.28515625" style="35" customWidth="1"/>
-    <col min="282" max="491" width="8.85546875" style="35"/>
-    <col min="492" max="492" width="1.42578125" style="35" customWidth="1"/>
-    <col min="493" max="493" width="1.28515625" style="35" customWidth="1"/>
+    <col min="242" max="242" width="2.6640625" style="35" customWidth="1"/>
+    <col min="243" max="278" width="3.33203125" style="35" customWidth="1"/>
+    <col min="279" max="279" width="1.6640625" style="35" customWidth="1"/>
+    <col min="280" max="280" width="25.6640625" style="35" customWidth="1"/>
+    <col min="281" max="281" width="31.33203125" style="35" customWidth="1"/>
+    <col min="282" max="491" width="8.83203125" style="35"/>
+    <col min="492" max="492" width="1.5" style="35" customWidth="1"/>
+    <col min="493" max="493" width="1.33203125" style="35" customWidth="1"/>
     <col min="494" max="494" width="42" style="35" customWidth="1"/>
-    <col min="495" max="495" width="5.42578125" style="35" customWidth="1"/>
+    <col min="495" max="495" width="5.5" style="35" customWidth="1"/>
     <col min="496" max="497" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="498" max="498" width="2.7109375" style="35" customWidth="1"/>
-    <col min="499" max="534" width="3.28515625" style="35" customWidth="1"/>
-    <col min="535" max="535" width="1.7109375" style="35" customWidth="1"/>
-    <col min="536" max="536" width="25.7109375" style="35" customWidth="1"/>
-    <col min="537" max="537" width="31.28515625" style="35" customWidth="1"/>
-    <col min="538" max="747" width="8.85546875" style="35"/>
-    <col min="748" max="748" width="1.42578125" style="35" customWidth="1"/>
-    <col min="749" max="749" width="1.28515625" style="35" customWidth="1"/>
+    <col min="498" max="498" width="2.6640625" style="35" customWidth="1"/>
+    <col min="499" max="534" width="3.33203125" style="35" customWidth="1"/>
+    <col min="535" max="535" width="1.6640625" style="35" customWidth="1"/>
+    <col min="536" max="536" width="25.6640625" style="35" customWidth="1"/>
+    <col min="537" max="537" width="31.33203125" style="35" customWidth="1"/>
+    <col min="538" max="747" width="8.83203125" style="35"/>
+    <col min="748" max="748" width="1.5" style="35" customWidth="1"/>
+    <col min="749" max="749" width="1.33203125" style="35" customWidth="1"/>
     <col min="750" max="750" width="42" style="35" customWidth="1"/>
-    <col min="751" max="751" width="5.42578125" style="35" customWidth="1"/>
+    <col min="751" max="751" width="5.5" style="35" customWidth="1"/>
     <col min="752" max="753" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="754" max="754" width="2.7109375" style="35" customWidth="1"/>
-    <col min="755" max="790" width="3.28515625" style="35" customWidth="1"/>
-    <col min="791" max="791" width="1.7109375" style="35" customWidth="1"/>
-    <col min="792" max="792" width="25.7109375" style="35" customWidth="1"/>
-    <col min="793" max="793" width="31.28515625" style="35" customWidth="1"/>
-    <col min="794" max="1003" width="8.85546875" style="35"/>
-    <col min="1004" max="1004" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1005" max="1005" width="1.28515625" style="35" customWidth="1"/>
+    <col min="754" max="754" width="2.6640625" style="35" customWidth="1"/>
+    <col min="755" max="790" width="3.33203125" style="35" customWidth="1"/>
+    <col min="791" max="791" width="1.6640625" style="35" customWidth="1"/>
+    <col min="792" max="792" width="25.6640625" style="35" customWidth="1"/>
+    <col min="793" max="793" width="31.33203125" style="35" customWidth="1"/>
+    <col min="794" max="1003" width="8.83203125" style="35"/>
+    <col min="1004" max="1004" width="1.5" style="35" customWidth="1"/>
+    <col min="1005" max="1005" width="1.33203125" style="35" customWidth="1"/>
     <col min="1006" max="1006" width="42" style="35" customWidth="1"/>
-    <col min="1007" max="1007" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1007" max="1007" width="5.5" style="35" customWidth="1"/>
     <col min="1008" max="1009" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1010" max="1010" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1011" max="1046" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1047" max="1047" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1048" max="1048" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1049" max="1049" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1050" max="1259" width="8.85546875" style="35"/>
-    <col min="1260" max="1260" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1261" max="1261" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1010" max="1010" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1011" max="1046" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1047" max="1047" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1048" max="1048" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1049" max="1049" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1050" max="1259" width="8.83203125" style="35"/>
+    <col min="1260" max="1260" width="1.5" style="35" customWidth="1"/>
+    <col min="1261" max="1261" width="1.33203125" style="35" customWidth="1"/>
     <col min="1262" max="1262" width="42" style="35" customWidth="1"/>
-    <col min="1263" max="1263" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1263" max="1263" width="5.5" style="35" customWidth="1"/>
     <col min="1264" max="1265" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1266" max="1266" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1267" max="1302" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1303" max="1303" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1304" max="1304" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1305" max="1305" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1306" max="1515" width="8.85546875" style="35"/>
-    <col min="1516" max="1516" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1517" max="1517" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1266" max="1266" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1267" max="1302" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1303" max="1303" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1304" max="1304" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1305" max="1305" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1306" max="1515" width="8.83203125" style="35"/>
+    <col min="1516" max="1516" width="1.5" style="35" customWidth="1"/>
+    <col min="1517" max="1517" width="1.33203125" style="35" customWidth="1"/>
     <col min="1518" max="1518" width="42" style="35" customWidth="1"/>
-    <col min="1519" max="1519" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1519" max="1519" width="5.5" style="35" customWidth="1"/>
     <col min="1520" max="1521" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1522" max="1522" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1523" max="1558" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1559" max="1559" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1560" max="1560" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1561" max="1561" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1562" max="1771" width="8.85546875" style="35"/>
-    <col min="1772" max="1772" width="1.42578125" style="35" customWidth="1"/>
-    <col min="1773" max="1773" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1522" max="1522" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1523" max="1558" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1559" max="1559" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1560" max="1560" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1561" max="1561" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1562" max="1771" width="8.83203125" style="35"/>
+    <col min="1772" max="1772" width="1.5" style="35" customWidth="1"/>
+    <col min="1773" max="1773" width="1.33203125" style="35" customWidth="1"/>
     <col min="1774" max="1774" width="42" style="35" customWidth="1"/>
-    <col min="1775" max="1775" width="5.42578125" style="35" customWidth="1"/>
+    <col min="1775" max="1775" width="5.5" style="35" customWidth="1"/>
     <col min="1776" max="1777" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="1778" max="1778" width="2.7109375" style="35" customWidth="1"/>
-    <col min="1779" max="1814" width="3.28515625" style="35" customWidth="1"/>
-    <col min="1815" max="1815" width="1.7109375" style="35" customWidth="1"/>
-    <col min="1816" max="1816" width="25.7109375" style="35" customWidth="1"/>
-    <col min="1817" max="1817" width="31.28515625" style="35" customWidth="1"/>
-    <col min="1818" max="2027" width="8.85546875" style="35"/>
-    <col min="2028" max="2028" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2029" max="2029" width="1.28515625" style="35" customWidth="1"/>
+    <col min="1778" max="1778" width="2.6640625" style="35" customWidth="1"/>
+    <col min="1779" max="1814" width="3.33203125" style="35" customWidth="1"/>
+    <col min="1815" max="1815" width="1.6640625" style="35" customWidth="1"/>
+    <col min="1816" max="1816" width="25.6640625" style="35" customWidth="1"/>
+    <col min="1817" max="1817" width="31.33203125" style="35" customWidth="1"/>
+    <col min="1818" max="2027" width="8.83203125" style="35"/>
+    <col min="2028" max="2028" width="1.5" style="35" customWidth="1"/>
+    <col min="2029" max="2029" width="1.33203125" style="35" customWidth="1"/>
     <col min="2030" max="2030" width="42" style="35" customWidth="1"/>
-    <col min="2031" max="2031" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2031" max="2031" width="5.5" style="35" customWidth="1"/>
     <col min="2032" max="2033" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2034" max="2034" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2035" max="2070" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2071" max="2071" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2072" max="2072" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2073" max="2073" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2074" max="2283" width="8.85546875" style="35"/>
-    <col min="2284" max="2284" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2285" max="2285" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2034" max="2034" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2035" max="2070" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2071" max="2071" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2072" max="2072" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2073" max="2073" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2074" max="2283" width="8.83203125" style="35"/>
+    <col min="2284" max="2284" width="1.5" style="35" customWidth="1"/>
+    <col min="2285" max="2285" width="1.33203125" style="35" customWidth="1"/>
     <col min="2286" max="2286" width="42" style="35" customWidth="1"/>
-    <col min="2287" max="2287" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2287" max="2287" width="5.5" style="35" customWidth="1"/>
     <col min="2288" max="2289" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2290" max="2290" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2291" max="2326" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2327" max="2327" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2328" max="2328" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2329" max="2329" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2330" max="2539" width="8.85546875" style="35"/>
-    <col min="2540" max="2540" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2541" max="2541" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2290" max="2290" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2291" max="2326" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2327" max="2327" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2328" max="2328" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2329" max="2329" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2330" max="2539" width="8.83203125" style="35"/>
+    <col min="2540" max="2540" width="1.5" style="35" customWidth="1"/>
+    <col min="2541" max="2541" width="1.33203125" style="35" customWidth="1"/>
     <col min="2542" max="2542" width="42" style="35" customWidth="1"/>
-    <col min="2543" max="2543" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2543" max="2543" width="5.5" style="35" customWidth="1"/>
     <col min="2544" max="2545" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2546" max="2546" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2547" max="2582" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2583" max="2583" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2584" max="2584" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2585" max="2585" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2586" max="2795" width="8.85546875" style="35"/>
-    <col min="2796" max="2796" width="1.42578125" style="35" customWidth="1"/>
-    <col min="2797" max="2797" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2546" max="2546" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2547" max="2582" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2583" max="2583" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2584" max="2584" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2585" max="2585" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2586" max="2795" width="8.83203125" style="35"/>
+    <col min="2796" max="2796" width="1.5" style="35" customWidth="1"/>
+    <col min="2797" max="2797" width="1.33203125" style="35" customWidth="1"/>
     <col min="2798" max="2798" width="42" style="35" customWidth="1"/>
-    <col min="2799" max="2799" width="5.42578125" style="35" customWidth="1"/>
+    <col min="2799" max="2799" width="5.5" style="35" customWidth="1"/>
     <col min="2800" max="2801" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="2802" max="2802" width="2.7109375" style="35" customWidth="1"/>
-    <col min="2803" max="2838" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2839" max="2839" width="1.7109375" style="35" customWidth="1"/>
-    <col min="2840" max="2840" width="25.7109375" style="35" customWidth="1"/>
-    <col min="2841" max="2841" width="31.28515625" style="35" customWidth="1"/>
-    <col min="2842" max="3051" width="8.85546875" style="35"/>
-    <col min="3052" max="3052" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3053" max="3053" width="1.28515625" style="35" customWidth="1"/>
+    <col min="2802" max="2802" width="2.6640625" style="35" customWidth="1"/>
+    <col min="2803" max="2838" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2839" max="2839" width="1.6640625" style="35" customWidth="1"/>
+    <col min="2840" max="2840" width="25.6640625" style="35" customWidth="1"/>
+    <col min="2841" max="2841" width="31.33203125" style="35" customWidth="1"/>
+    <col min="2842" max="3051" width="8.83203125" style="35"/>
+    <col min="3052" max="3052" width="1.5" style="35" customWidth="1"/>
+    <col min="3053" max="3053" width="1.33203125" style="35" customWidth="1"/>
     <col min="3054" max="3054" width="42" style="35" customWidth="1"/>
-    <col min="3055" max="3055" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3055" max="3055" width="5.5" style="35" customWidth="1"/>
     <col min="3056" max="3057" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3058" max="3058" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3059" max="3094" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3095" max="3095" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3096" max="3096" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3097" max="3097" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3098" max="3307" width="8.85546875" style="35"/>
-    <col min="3308" max="3308" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3309" max="3309" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3058" max="3058" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3059" max="3094" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3095" max="3095" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3096" max="3096" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3097" max="3097" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3098" max="3307" width="8.83203125" style="35"/>
+    <col min="3308" max="3308" width="1.5" style="35" customWidth="1"/>
+    <col min="3309" max="3309" width="1.33203125" style="35" customWidth="1"/>
     <col min="3310" max="3310" width="42" style="35" customWidth="1"/>
-    <col min="3311" max="3311" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3311" max="3311" width="5.5" style="35" customWidth="1"/>
     <col min="3312" max="3313" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3314" max="3314" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3315" max="3350" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3351" max="3351" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3352" max="3352" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3353" max="3353" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3354" max="3563" width="8.85546875" style="35"/>
-    <col min="3564" max="3564" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3565" max="3565" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3314" max="3314" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3315" max="3350" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3351" max="3351" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3352" max="3352" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3353" max="3353" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3354" max="3563" width="8.83203125" style="35"/>
+    <col min="3564" max="3564" width="1.5" style="35" customWidth="1"/>
+    <col min="3565" max="3565" width="1.33203125" style="35" customWidth="1"/>
     <col min="3566" max="3566" width="42" style="35" customWidth="1"/>
-    <col min="3567" max="3567" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3567" max="3567" width="5.5" style="35" customWidth="1"/>
     <col min="3568" max="3569" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3570" max="3570" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3571" max="3606" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3607" max="3607" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3608" max="3608" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3609" max="3609" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3610" max="3819" width="8.85546875" style="35"/>
-    <col min="3820" max="3820" width="1.42578125" style="35" customWidth="1"/>
-    <col min="3821" max="3821" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3570" max="3570" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3571" max="3606" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3607" max="3607" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3608" max="3608" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3609" max="3609" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3610" max="3819" width="8.83203125" style="35"/>
+    <col min="3820" max="3820" width="1.5" style="35" customWidth="1"/>
+    <col min="3821" max="3821" width="1.33203125" style="35" customWidth="1"/>
     <col min="3822" max="3822" width="42" style="35" customWidth="1"/>
-    <col min="3823" max="3823" width="5.42578125" style="35" customWidth="1"/>
+    <col min="3823" max="3823" width="5.5" style="35" customWidth="1"/>
     <col min="3824" max="3825" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="3826" max="3826" width="2.7109375" style="35" customWidth="1"/>
-    <col min="3827" max="3862" width="3.28515625" style="35" customWidth="1"/>
-    <col min="3863" max="3863" width="1.7109375" style="35" customWidth="1"/>
-    <col min="3864" max="3864" width="25.7109375" style="35" customWidth="1"/>
-    <col min="3865" max="3865" width="31.28515625" style="35" customWidth="1"/>
-    <col min="3866" max="4075" width="8.85546875" style="35"/>
-    <col min="4076" max="4076" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4077" max="4077" width="1.28515625" style="35" customWidth="1"/>
+    <col min="3826" max="3826" width="2.6640625" style="35" customWidth="1"/>
+    <col min="3827" max="3862" width="3.33203125" style="35" customWidth="1"/>
+    <col min="3863" max="3863" width="1.6640625" style="35" customWidth="1"/>
+    <col min="3864" max="3864" width="25.6640625" style="35" customWidth="1"/>
+    <col min="3865" max="3865" width="31.33203125" style="35" customWidth="1"/>
+    <col min="3866" max="4075" width="8.83203125" style="35"/>
+    <col min="4076" max="4076" width="1.5" style="35" customWidth="1"/>
+    <col min="4077" max="4077" width="1.33203125" style="35" customWidth="1"/>
     <col min="4078" max="4078" width="42" style="35" customWidth="1"/>
-    <col min="4079" max="4079" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4079" max="4079" width="5.5" style="35" customWidth="1"/>
     <col min="4080" max="4081" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4082" max="4082" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4083" max="4118" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4119" max="4119" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4120" max="4120" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4121" max="4121" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4122" max="4331" width="8.85546875" style="35"/>
-    <col min="4332" max="4332" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4333" max="4333" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4082" max="4082" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4083" max="4118" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4119" max="4119" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4120" max="4120" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4121" max="4121" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4122" max="4331" width="8.83203125" style="35"/>
+    <col min="4332" max="4332" width="1.5" style="35" customWidth="1"/>
+    <col min="4333" max="4333" width="1.33203125" style="35" customWidth="1"/>
     <col min="4334" max="4334" width="42" style="35" customWidth="1"/>
-    <col min="4335" max="4335" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4335" max="4335" width="5.5" style="35" customWidth="1"/>
     <col min="4336" max="4337" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4338" max="4338" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4339" max="4374" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4375" max="4375" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4376" max="4376" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4377" max="4377" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4378" max="4587" width="8.85546875" style="35"/>
-    <col min="4588" max="4588" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4589" max="4589" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4338" max="4338" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4339" max="4374" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4375" max="4375" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4376" max="4376" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4377" max="4377" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4378" max="4587" width="8.83203125" style="35"/>
+    <col min="4588" max="4588" width="1.5" style="35" customWidth="1"/>
+    <col min="4589" max="4589" width="1.33203125" style="35" customWidth="1"/>
     <col min="4590" max="4590" width="42" style="35" customWidth="1"/>
-    <col min="4591" max="4591" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4591" max="4591" width="5.5" style="35" customWidth="1"/>
     <col min="4592" max="4593" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4594" max="4594" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4595" max="4630" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4631" max="4631" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4632" max="4632" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4633" max="4633" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4634" max="4843" width="8.85546875" style="35"/>
-    <col min="4844" max="4844" width="1.42578125" style="35" customWidth="1"/>
-    <col min="4845" max="4845" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4594" max="4594" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4595" max="4630" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4631" max="4631" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4632" max="4632" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4633" max="4633" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4634" max="4843" width="8.83203125" style="35"/>
+    <col min="4844" max="4844" width="1.5" style="35" customWidth="1"/>
+    <col min="4845" max="4845" width="1.33203125" style="35" customWidth="1"/>
     <col min="4846" max="4846" width="42" style="35" customWidth="1"/>
-    <col min="4847" max="4847" width="5.42578125" style="35" customWidth="1"/>
+    <col min="4847" max="4847" width="5.5" style="35" customWidth="1"/>
     <col min="4848" max="4849" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="4850" max="4850" width="2.7109375" style="35" customWidth="1"/>
-    <col min="4851" max="4886" width="3.28515625" style="35" customWidth="1"/>
-    <col min="4887" max="4887" width="1.7109375" style="35" customWidth="1"/>
-    <col min="4888" max="4888" width="25.7109375" style="35" customWidth="1"/>
-    <col min="4889" max="4889" width="31.28515625" style="35" customWidth="1"/>
-    <col min="4890" max="5099" width="8.85546875" style="35"/>
-    <col min="5100" max="5100" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5101" max="5101" width="1.28515625" style="35" customWidth="1"/>
+    <col min="4850" max="4850" width="2.6640625" style="35" customWidth="1"/>
+    <col min="4851" max="4886" width="3.33203125" style="35" customWidth="1"/>
+    <col min="4887" max="4887" width="1.6640625" style="35" customWidth="1"/>
+    <col min="4888" max="4888" width="25.6640625" style="35" customWidth="1"/>
+    <col min="4889" max="4889" width="31.33203125" style="35" customWidth="1"/>
+    <col min="4890" max="5099" width="8.83203125" style="35"/>
+    <col min="5100" max="5100" width="1.5" style="35" customWidth="1"/>
+    <col min="5101" max="5101" width="1.33203125" style="35" customWidth="1"/>
     <col min="5102" max="5102" width="42" style="35" customWidth="1"/>
-    <col min="5103" max="5103" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5103" max="5103" width="5.5" style="35" customWidth="1"/>
     <col min="5104" max="5105" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5106" max="5106" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5107" max="5142" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5143" max="5143" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5144" max="5144" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5145" max="5145" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5146" max="5355" width="8.85546875" style="35"/>
-    <col min="5356" max="5356" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5357" max="5357" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5106" max="5106" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5107" max="5142" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5143" max="5143" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5144" max="5144" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5145" max="5145" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5146" max="5355" width="8.83203125" style="35"/>
+    <col min="5356" max="5356" width="1.5" style="35" customWidth="1"/>
+    <col min="5357" max="5357" width="1.33203125" style="35" customWidth="1"/>
     <col min="5358" max="5358" width="42" style="35" customWidth="1"/>
-    <col min="5359" max="5359" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5359" max="5359" width="5.5" style="35" customWidth="1"/>
     <col min="5360" max="5361" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5362" max="5362" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5363" max="5398" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5399" max="5399" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5400" max="5400" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5401" max="5401" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5402" max="5611" width="8.85546875" style="35"/>
-    <col min="5612" max="5612" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5613" max="5613" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5362" max="5362" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5363" max="5398" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5399" max="5399" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5400" max="5400" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5401" max="5401" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5402" max="5611" width="8.83203125" style="35"/>
+    <col min="5612" max="5612" width="1.5" style="35" customWidth="1"/>
+    <col min="5613" max="5613" width="1.33203125" style="35" customWidth="1"/>
     <col min="5614" max="5614" width="42" style="35" customWidth="1"/>
-    <col min="5615" max="5615" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5615" max="5615" width="5.5" style="35" customWidth="1"/>
     <col min="5616" max="5617" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5618" max="5618" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5619" max="5654" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5655" max="5655" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5656" max="5656" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5657" max="5657" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5658" max="5867" width="8.85546875" style="35"/>
-    <col min="5868" max="5868" width="1.42578125" style="35" customWidth="1"/>
-    <col min="5869" max="5869" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5618" max="5618" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5619" max="5654" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5655" max="5655" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5656" max="5656" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5657" max="5657" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5658" max="5867" width="8.83203125" style="35"/>
+    <col min="5868" max="5868" width="1.5" style="35" customWidth="1"/>
+    <col min="5869" max="5869" width="1.33203125" style="35" customWidth="1"/>
     <col min="5870" max="5870" width="42" style="35" customWidth="1"/>
-    <col min="5871" max="5871" width="5.42578125" style="35" customWidth="1"/>
+    <col min="5871" max="5871" width="5.5" style="35" customWidth="1"/>
     <col min="5872" max="5873" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="5874" max="5874" width="2.7109375" style="35" customWidth="1"/>
-    <col min="5875" max="5910" width="3.28515625" style="35" customWidth="1"/>
-    <col min="5911" max="5911" width="1.7109375" style="35" customWidth="1"/>
-    <col min="5912" max="5912" width="25.7109375" style="35" customWidth="1"/>
-    <col min="5913" max="5913" width="31.28515625" style="35" customWidth="1"/>
-    <col min="5914" max="6123" width="8.85546875" style="35"/>
-    <col min="6124" max="6124" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6125" max="6125" width="1.28515625" style="35" customWidth="1"/>
+    <col min="5874" max="5874" width="2.6640625" style="35" customWidth="1"/>
+    <col min="5875" max="5910" width="3.33203125" style="35" customWidth="1"/>
+    <col min="5911" max="5911" width="1.6640625" style="35" customWidth="1"/>
+    <col min="5912" max="5912" width="25.6640625" style="35" customWidth="1"/>
+    <col min="5913" max="5913" width="31.33203125" style="35" customWidth="1"/>
+    <col min="5914" max="6123" width="8.83203125" style="35"/>
+    <col min="6124" max="6124" width="1.5" style="35" customWidth="1"/>
+    <col min="6125" max="6125" width="1.33203125" style="35" customWidth="1"/>
     <col min="6126" max="6126" width="42" style="35" customWidth="1"/>
-    <col min="6127" max="6127" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6127" max="6127" width="5.5" style="35" customWidth="1"/>
     <col min="6128" max="6129" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6130" max="6130" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6131" max="6166" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6167" max="6167" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6168" max="6168" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6169" max="6169" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6170" max="6379" width="8.85546875" style="35"/>
-    <col min="6380" max="6380" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6381" max="6381" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6130" max="6130" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6131" max="6166" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6167" max="6167" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6168" max="6168" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6169" max="6169" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6170" max="6379" width="8.83203125" style="35"/>
+    <col min="6380" max="6380" width="1.5" style="35" customWidth="1"/>
+    <col min="6381" max="6381" width="1.33203125" style="35" customWidth="1"/>
     <col min="6382" max="6382" width="42" style="35" customWidth="1"/>
-    <col min="6383" max="6383" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6383" max="6383" width="5.5" style="35" customWidth="1"/>
     <col min="6384" max="6385" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6386" max="6386" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6387" max="6422" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6423" max="6423" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6424" max="6424" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6425" max="6425" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6426" max="6635" width="8.85546875" style="35"/>
-    <col min="6636" max="6636" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6637" max="6637" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6386" max="6386" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6387" max="6422" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6423" max="6423" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6424" max="6424" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6425" max="6425" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6426" max="6635" width="8.83203125" style="35"/>
+    <col min="6636" max="6636" width="1.5" style="35" customWidth="1"/>
+    <col min="6637" max="6637" width="1.33203125" style="35" customWidth="1"/>
     <col min="6638" max="6638" width="42" style="35" customWidth="1"/>
-    <col min="6639" max="6639" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6639" max="6639" width="5.5" style="35" customWidth="1"/>
     <col min="6640" max="6641" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6642" max="6642" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6643" max="6678" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6679" max="6679" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6680" max="6680" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6681" max="6681" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6682" max="6891" width="8.85546875" style="35"/>
-    <col min="6892" max="6892" width="1.42578125" style="35" customWidth="1"/>
-    <col min="6893" max="6893" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6642" max="6642" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6643" max="6678" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6679" max="6679" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6680" max="6680" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6681" max="6681" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6682" max="6891" width="8.83203125" style="35"/>
+    <col min="6892" max="6892" width="1.5" style="35" customWidth="1"/>
+    <col min="6893" max="6893" width="1.33203125" style="35" customWidth="1"/>
     <col min="6894" max="6894" width="42" style="35" customWidth="1"/>
-    <col min="6895" max="6895" width="5.42578125" style="35" customWidth="1"/>
+    <col min="6895" max="6895" width="5.5" style="35" customWidth="1"/>
     <col min="6896" max="6897" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="6898" max="6898" width="2.7109375" style="35" customWidth="1"/>
-    <col min="6899" max="6934" width="3.28515625" style="35" customWidth="1"/>
-    <col min="6935" max="6935" width="1.7109375" style="35" customWidth="1"/>
-    <col min="6936" max="6936" width="25.7109375" style="35" customWidth="1"/>
-    <col min="6937" max="6937" width="31.28515625" style="35" customWidth="1"/>
-    <col min="6938" max="7147" width="8.85546875" style="35"/>
-    <col min="7148" max="7148" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7149" max="7149" width="1.28515625" style="35" customWidth="1"/>
+    <col min="6898" max="6898" width="2.6640625" style="35" customWidth="1"/>
+    <col min="6899" max="6934" width="3.33203125" style="35" customWidth="1"/>
+    <col min="6935" max="6935" width="1.6640625" style="35" customWidth="1"/>
+    <col min="6936" max="6936" width="25.6640625" style="35" customWidth="1"/>
+    <col min="6937" max="6937" width="31.33203125" style="35" customWidth="1"/>
+    <col min="6938" max="7147" width="8.83203125" style="35"/>
+    <col min="7148" max="7148" width="1.5" style="35" customWidth="1"/>
+    <col min="7149" max="7149" width="1.33203125" style="35" customWidth="1"/>
     <col min="7150" max="7150" width="42" style="35" customWidth="1"/>
-    <col min="7151" max="7151" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7151" max="7151" width="5.5" style="35" customWidth="1"/>
     <col min="7152" max="7153" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7154" max="7154" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7155" max="7190" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7191" max="7191" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7192" max="7192" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7193" max="7193" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7194" max="7403" width="8.85546875" style="35"/>
-    <col min="7404" max="7404" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7405" max="7405" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7154" max="7154" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7155" max="7190" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7191" max="7191" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7192" max="7192" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7193" max="7193" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7194" max="7403" width="8.83203125" style="35"/>
+    <col min="7404" max="7404" width="1.5" style="35" customWidth="1"/>
+    <col min="7405" max="7405" width="1.33203125" style="35" customWidth="1"/>
     <col min="7406" max="7406" width="42" style="35" customWidth="1"/>
-    <col min="7407" max="7407" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7407" max="7407" width="5.5" style="35" customWidth="1"/>
     <col min="7408" max="7409" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7410" max="7410" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7411" max="7446" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7447" max="7447" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7448" max="7448" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7449" max="7449" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7450" max="7659" width="8.85546875" style="35"/>
-    <col min="7660" max="7660" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7661" max="7661" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7410" max="7410" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7411" max="7446" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7447" max="7447" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7448" max="7448" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7449" max="7449" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7450" max="7659" width="8.83203125" style="35"/>
+    <col min="7660" max="7660" width="1.5" style="35" customWidth="1"/>
+    <col min="7661" max="7661" width="1.33203125" style="35" customWidth="1"/>
     <col min="7662" max="7662" width="42" style="35" customWidth="1"/>
-    <col min="7663" max="7663" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7663" max="7663" width="5.5" style="35" customWidth="1"/>
     <col min="7664" max="7665" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7666" max="7666" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7667" max="7702" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7703" max="7703" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7704" max="7704" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7705" max="7705" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7706" max="7915" width="8.85546875" style="35"/>
-    <col min="7916" max="7916" width="1.42578125" style="35" customWidth="1"/>
-    <col min="7917" max="7917" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7666" max="7666" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7667" max="7702" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7703" max="7703" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7704" max="7704" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7705" max="7705" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7706" max="7915" width="8.83203125" style="35"/>
+    <col min="7916" max="7916" width="1.5" style="35" customWidth="1"/>
+    <col min="7917" max="7917" width="1.33203125" style="35" customWidth="1"/>
     <col min="7918" max="7918" width="42" style="35" customWidth="1"/>
-    <col min="7919" max="7919" width="5.42578125" style="35" customWidth="1"/>
+    <col min="7919" max="7919" width="5.5" style="35" customWidth="1"/>
     <col min="7920" max="7921" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="7922" max="7922" width="2.7109375" style="35" customWidth="1"/>
-    <col min="7923" max="7958" width="3.28515625" style="35" customWidth="1"/>
-    <col min="7959" max="7959" width="1.7109375" style="35" customWidth="1"/>
-    <col min="7960" max="7960" width="25.7109375" style="35" customWidth="1"/>
-    <col min="7961" max="7961" width="31.28515625" style="35" customWidth="1"/>
-    <col min="7962" max="8171" width="8.85546875" style="35"/>
-    <col min="8172" max="8172" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8173" max="8173" width="1.28515625" style="35" customWidth="1"/>
+    <col min="7922" max="7922" width="2.6640625" style="35" customWidth="1"/>
+    <col min="7923" max="7958" width="3.33203125" style="35" customWidth="1"/>
+    <col min="7959" max="7959" width="1.6640625" style="35" customWidth="1"/>
+    <col min="7960" max="7960" width="25.6640625" style="35" customWidth="1"/>
+    <col min="7961" max="7961" width="31.33203125" style="35" customWidth="1"/>
+    <col min="7962" max="8171" width="8.83203125" style="35"/>
+    <col min="8172" max="8172" width="1.5" style="35" customWidth="1"/>
+    <col min="8173" max="8173" width="1.33203125" style="35" customWidth="1"/>
     <col min="8174" max="8174" width="42" style="35" customWidth="1"/>
-    <col min="8175" max="8175" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8175" max="8175" width="5.5" style="35" customWidth="1"/>
     <col min="8176" max="8177" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8178" max="8178" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8179" max="8214" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8215" max="8215" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8216" max="8216" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8217" max="8217" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8218" max="8427" width="8.85546875" style="35"/>
-    <col min="8428" max="8428" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8429" max="8429" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8178" max="8178" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8179" max="8214" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8215" max="8215" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8216" max="8216" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8217" max="8217" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8218" max="8427" width="8.83203125" style="35"/>
+    <col min="8428" max="8428" width="1.5" style="35" customWidth="1"/>
+    <col min="8429" max="8429" width="1.33203125" style="35" customWidth="1"/>
     <col min="8430" max="8430" width="42" style="35" customWidth="1"/>
-    <col min="8431" max="8431" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8431" max="8431" width="5.5" style="35" customWidth="1"/>
     <col min="8432" max="8433" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8434" max="8434" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8435" max="8470" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8471" max="8471" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8472" max="8472" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8473" max="8473" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8474" max="8683" width="8.85546875" style="35"/>
-    <col min="8684" max="8684" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8685" max="8685" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8434" max="8434" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8435" max="8470" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8471" max="8471" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8472" max="8472" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8473" max="8473" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8474" max="8683" width="8.83203125" style="35"/>
+    <col min="8684" max="8684" width="1.5" style="35" customWidth="1"/>
+    <col min="8685" max="8685" width="1.33203125" style="35" customWidth="1"/>
     <col min="8686" max="8686" width="42" style="35" customWidth="1"/>
-    <col min="8687" max="8687" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8687" max="8687" width="5.5" style="35" customWidth="1"/>
     <col min="8688" max="8689" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8690" max="8690" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8691" max="8726" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8727" max="8727" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8728" max="8728" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8729" max="8729" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8730" max="8939" width="8.85546875" style="35"/>
-    <col min="8940" max="8940" width="1.42578125" style="35" customWidth="1"/>
-    <col min="8941" max="8941" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8690" max="8690" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8691" max="8726" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8727" max="8727" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8728" max="8728" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8729" max="8729" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8730" max="8939" width="8.83203125" style="35"/>
+    <col min="8940" max="8940" width="1.5" style="35" customWidth="1"/>
+    <col min="8941" max="8941" width="1.33203125" style="35" customWidth="1"/>
     <col min="8942" max="8942" width="42" style="35" customWidth="1"/>
-    <col min="8943" max="8943" width="5.42578125" style="35" customWidth="1"/>
+    <col min="8943" max="8943" width="5.5" style="35" customWidth="1"/>
     <col min="8944" max="8945" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="8946" max="8946" width="2.7109375" style="35" customWidth="1"/>
-    <col min="8947" max="8982" width="3.28515625" style="35" customWidth="1"/>
-    <col min="8983" max="8983" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8984" max="8984" width="25.7109375" style="35" customWidth="1"/>
-    <col min="8985" max="8985" width="31.28515625" style="35" customWidth="1"/>
-    <col min="8986" max="9195" width="8.85546875" style="35"/>
-    <col min="9196" max="9196" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9197" max="9197" width="1.28515625" style="35" customWidth="1"/>
+    <col min="8946" max="8946" width="2.6640625" style="35" customWidth="1"/>
+    <col min="8947" max="8982" width="3.33203125" style="35" customWidth="1"/>
+    <col min="8983" max="8983" width="1.6640625" style="35" customWidth="1"/>
+    <col min="8984" max="8984" width="25.6640625" style="35" customWidth="1"/>
+    <col min="8985" max="8985" width="31.33203125" style="35" customWidth="1"/>
+    <col min="8986" max="9195" width="8.83203125" style="35"/>
+    <col min="9196" max="9196" width="1.5" style="35" customWidth="1"/>
+    <col min="9197" max="9197" width="1.33203125" style="35" customWidth="1"/>
     <col min="9198" max="9198" width="42" style="35" customWidth="1"/>
-    <col min="9199" max="9199" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9199" max="9199" width="5.5" style="35" customWidth="1"/>
     <col min="9200" max="9201" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9202" max="9202" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9203" max="9238" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9239" max="9239" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9240" max="9240" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9241" max="9241" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9242" max="9451" width="8.85546875" style="35"/>
-    <col min="9452" max="9452" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9453" max="9453" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9202" max="9202" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9203" max="9238" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9239" max="9239" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9240" max="9240" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9241" max="9241" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9242" max="9451" width="8.83203125" style="35"/>
+    <col min="9452" max="9452" width="1.5" style="35" customWidth="1"/>
+    <col min="9453" max="9453" width="1.33203125" style="35" customWidth="1"/>
     <col min="9454" max="9454" width="42" style="35" customWidth="1"/>
-    <col min="9455" max="9455" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9455" max="9455" width="5.5" style="35" customWidth="1"/>
     <col min="9456" max="9457" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9458" max="9458" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9459" max="9494" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9495" max="9495" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9496" max="9496" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9497" max="9497" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9498" max="9707" width="8.85546875" style="35"/>
-    <col min="9708" max="9708" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9709" max="9709" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9458" max="9458" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9459" max="9494" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9495" max="9495" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9496" max="9496" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9497" max="9497" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9498" max="9707" width="8.83203125" style="35"/>
+    <col min="9708" max="9708" width="1.5" style="35" customWidth="1"/>
+    <col min="9709" max="9709" width="1.33203125" style="35" customWidth="1"/>
     <col min="9710" max="9710" width="42" style="35" customWidth="1"/>
-    <col min="9711" max="9711" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9711" max="9711" width="5.5" style="35" customWidth="1"/>
     <col min="9712" max="9713" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9714" max="9714" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9715" max="9750" width="3.28515625" style="35" customWidth="1"/>
-    <col min="9751" max="9751" width="1.7109375" style="35" customWidth="1"/>
-    <col min="9752" max="9752" width="25.7109375" style="35" customWidth="1"/>
-    <col min="9753" max="9753" width="31.28515625" style="35" customWidth="1"/>
-    <col min="9754" max="9963" width="8.85546875" style="35"/>
-    <col min="9964" max="9964" width="1.42578125" style="35" customWidth="1"/>
-    <col min="9965" max="9965" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9714" max="9714" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9715" max="9750" width="3.33203125" style="35" customWidth="1"/>
+    <col min="9751" max="9751" width="1.6640625" style="35" customWidth="1"/>
+    <col min="9752" max="9752" width="25.6640625" style="35" customWidth="1"/>
+    <col min="9753" max="9753" width="31.33203125" style="35" customWidth="1"/>
+    <col min="9754" max="9963" width="8.83203125" style="35"/>
+    <col min="9964" max="9964" width="1.5" style="35" customWidth="1"/>
+    <col min="9965" max="9965" width="1.33203125" style="35" customWidth="1"/>
     <col min="9966" max="9966" width="42" style="35" customWidth="1"/>
-    <col min="9967" max="9967" width="5.42578125" style="35" customWidth="1"/>
+    <col min="9967" max="9967" width="5.5" style="35" customWidth="1"/>
     <col min="9968" max="9969" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="9970" max="9970" width="2.7109375" style="35" customWidth="1"/>
-    <col min="9971" max="10006" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10007" max="10007" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10008" max="10008" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10009" max="10009" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10010" max="10219" width="8.85546875" style="35"/>
-    <col min="10220" max="10220" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10221" max="10221" width="1.28515625" style="35" customWidth="1"/>
+    <col min="9970" max="9970" width="2.6640625" style="35" customWidth="1"/>
+    <col min="9971" max="10006" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10007" max="10007" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10008" max="10008" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10009" max="10009" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10010" max="10219" width="8.83203125" style="35"/>
+    <col min="10220" max="10220" width="1.5" style="35" customWidth="1"/>
+    <col min="10221" max="10221" width="1.33203125" style="35" customWidth="1"/>
     <col min="10222" max="10222" width="42" style="35" customWidth="1"/>
-    <col min="10223" max="10223" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10223" max="10223" width="5.5" style="35" customWidth="1"/>
     <col min="10224" max="10225" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10226" max="10226" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10227" max="10262" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10263" max="10263" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10264" max="10264" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10265" max="10265" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10266" max="10475" width="8.85546875" style="35"/>
-    <col min="10476" max="10476" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10477" max="10477" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10226" max="10226" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10227" max="10262" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10263" max="10263" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10264" max="10264" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10265" max="10265" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10266" max="10475" width="8.83203125" style="35"/>
+    <col min="10476" max="10476" width="1.5" style="35" customWidth="1"/>
+    <col min="10477" max="10477" width="1.33203125" style="35" customWidth="1"/>
     <col min="10478" max="10478" width="42" style="35" customWidth="1"/>
-    <col min="10479" max="10479" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10479" max="10479" width="5.5" style="35" customWidth="1"/>
     <col min="10480" max="10481" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10482" max="10482" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10483" max="10518" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10519" max="10519" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10520" max="10520" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10521" max="10521" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10522" max="10731" width="8.85546875" style="35"/>
-    <col min="10732" max="10732" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10733" max="10733" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10482" max="10482" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10483" max="10518" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10519" max="10519" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10520" max="10520" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10521" max="10521" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10522" max="10731" width="8.83203125" style="35"/>
+    <col min="10732" max="10732" width="1.5" style="35" customWidth="1"/>
+    <col min="10733" max="10733" width="1.33203125" style="35" customWidth="1"/>
     <col min="10734" max="10734" width="42" style="35" customWidth="1"/>
-    <col min="10735" max="10735" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10735" max="10735" width="5.5" style="35" customWidth="1"/>
     <col min="10736" max="10737" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10738" max="10738" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10739" max="10774" width="3.28515625" style="35" customWidth="1"/>
-    <col min="10775" max="10775" width="1.7109375" style="35" customWidth="1"/>
-    <col min="10776" max="10776" width="25.7109375" style="35" customWidth="1"/>
-    <col min="10777" max="10777" width="31.28515625" style="35" customWidth="1"/>
-    <col min="10778" max="10987" width="8.85546875" style="35"/>
-    <col min="10988" max="10988" width="1.42578125" style="35" customWidth="1"/>
-    <col min="10989" max="10989" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10738" max="10738" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10739" max="10774" width="3.33203125" style="35" customWidth="1"/>
+    <col min="10775" max="10775" width="1.6640625" style="35" customWidth="1"/>
+    <col min="10776" max="10776" width="25.6640625" style="35" customWidth="1"/>
+    <col min="10777" max="10777" width="31.33203125" style="35" customWidth="1"/>
+    <col min="10778" max="10987" width="8.83203125" style="35"/>
+    <col min="10988" max="10988" width="1.5" style="35" customWidth="1"/>
+    <col min="10989" max="10989" width="1.33203125" style="35" customWidth="1"/>
     <col min="10990" max="10990" width="42" style="35" customWidth="1"/>
-    <col min="10991" max="10991" width="5.42578125" style="35" customWidth="1"/>
+    <col min="10991" max="10991" width="5.5" style="35" customWidth="1"/>
     <col min="10992" max="10993" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="10994" max="10994" width="2.7109375" style="35" customWidth="1"/>
-    <col min="10995" max="11030" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11031" max="11031" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11032" max="11032" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11033" max="11033" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11034" max="11243" width="8.85546875" style="35"/>
-    <col min="11244" max="11244" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11245" max="11245" width="1.28515625" style="35" customWidth="1"/>
+    <col min="10994" max="10994" width="2.6640625" style="35" customWidth="1"/>
+    <col min="10995" max="11030" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11031" max="11031" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11032" max="11032" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11033" max="11033" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11034" max="11243" width="8.83203125" style="35"/>
+    <col min="11244" max="11244" width="1.5" style="35" customWidth="1"/>
+    <col min="11245" max="11245" width="1.33203125" style="35" customWidth="1"/>
     <col min="11246" max="11246" width="42" style="35" customWidth="1"/>
-    <col min="11247" max="11247" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11247" max="11247" width="5.5" style="35" customWidth="1"/>
     <col min="11248" max="11249" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11250" max="11250" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11251" max="11286" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11287" max="11287" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11288" max="11288" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11289" max="11289" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11290" max="11499" width="8.85546875" style="35"/>
-    <col min="11500" max="11500" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11501" max="11501" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11250" max="11250" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11251" max="11286" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11287" max="11287" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11288" max="11288" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11289" max="11289" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11290" max="11499" width="8.83203125" style="35"/>
+    <col min="11500" max="11500" width="1.5" style="35" customWidth="1"/>
+    <col min="11501" max="11501" width="1.33203125" style="35" customWidth="1"/>
     <col min="11502" max="11502" width="42" style="35" customWidth="1"/>
-    <col min="11503" max="11503" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11503" max="11503" width="5.5" style="35" customWidth="1"/>
     <col min="11504" max="11505" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11506" max="11506" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11507" max="11542" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11543" max="11543" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11544" max="11544" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11545" max="11545" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11546" max="11755" width="8.85546875" style="35"/>
-    <col min="11756" max="11756" width="1.42578125" style="35" customWidth="1"/>
-    <col min="11757" max="11757" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11506" max="11506" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11507" max="11542" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11543" max="11543" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11544" max="11544" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11545" max="11545" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11546" max="11755" width="8.83203125" style="35"/>
+    <col min="11756" max="11756" width="1.5" style="35" customWidth="1"/>
+    <col min="11757" max="11757" width="1.33203125" style="35" customWidth="1"/>
     <col min="11758" max="11758" width="42" style="35" customWidth="1"/>
-    <col min="11759" max="11759" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11759" max="11759" width="5.5" style="35" customWidth="1"/>
     <col min="11760" max="11761" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="11762" max="11762" width="2.7109375" style="35" customWidth="1"/>
-    <col min="11763" max="11798" width="3.28515625" style="35" customWidth="1"/>
-    <col min="11799" max="11799" width="1.7109375" style="35" customWidth="1"/>
-    <col min="11800" max="11800" width="25.7109375" style="35" customWidth="1"/>
-    <col min="11801" max="11801" width="31.28515625" style="35" customWidth="1"/>
-    <col min="11802" max="12011" width="8.85546875" style="35"/>
-    <col min="12012" max="12012" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12013" max="12013" width="1.28515625" style="35" customWidth="1"/>
+    <col min="11762" max="11762" width="2.6640625" style="35" customWidth="1"/>
+    <col min="11763" max="11798" width="3.33203125" style="35" customWidth="1"/>
+    <col min="11799" max="11799" width="1.6640625" style="35" customWidth="1"/>
+    <col min="11800" max="11800" width="25.6640625" style="35" customWidth="1"/>
+    <col min="11801" max="11801" width="31.33203125" style="35" customWidth="1"/>
+    <col min="11802" max="12011" width="8.83203125" style="35"/>
+    <col min="12012" max="12012" width="1.5" style="35" customWidth="1"/>
+    <col min="12013" max="12013" width="1.33203125" style="35" customWidth="1"/>
     <col min="12014" max="12014" width="42" style="35" customWidth="1"/>
-    <col min="12015" max="12015" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12015" max="12015" width="5.5" style="35" customWidth="1"/>
     <col min="12016" max="12017" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12018" max="12018" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12019" max="12054" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12055" max="12055" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12056" max="12056" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12057" max="12057" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12058" max="12267" width="8.85546875" style="35"/>
-    <col min="12268" max="12268" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12269" max="12269" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12018" max="12018" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12019" max="12054" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12055" max="12055" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12056" max="12056" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12057" max="12057" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12058" max="12267" width="8.83203125" style="35"/>
+    <col min="12268" max="12268" width="1.5" style="35" customWidth="1"/>
+    <col min="12269" max="12269" width="1.33203125" style="35" customWidth="1"/>
     <col min="12270" max="12270" width="42" style="35" customWidth="1"/>
-    <col min="12271" max="12271" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12271" max="12271" width="5.5" style="35" customWidth="1"/>
     <col min="12272" max="12273" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12274" max="12274" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12275" max="12310" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12311" max="12311" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12312" max="12312" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12313" max="12313" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12314" max="12523" width="8.85546875" style="35"/>
-    <col min="12524" max="12524" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12525" max="12525" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12274" max="12274" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12275" max="12310" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12311" max="12311" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12312" max="12312" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12313" max="12313" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12314" max="12523" width="8.83203125" style="35"/>
+    <col min="12524" max="12524" width="1.5" style="35" customWidth="1"/>
+    <col min="12525" max="12525" width="1.33203125" style="35" customWidth="1"/>
     <col min="12526" max="12526" width="42" style="35" customWidth="1"/>
-    <col min="12527" max="12527" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12527" max="12527" width="5.5" style="35" customWidth="1"/>
     <col min="12528" max="12529" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12530" max="12530" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12531" max="12566" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12567" max="12567" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12568" max="12568" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12569" max="12569" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12570" max="12779" width="8.85546875" style="35"/>
-    <col min="12780" max="12780" width="1.42578125" style="35" customWidth="1"/>
-    <col min="12781" max="12781" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12530" max="12530" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12531" max="12566" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12567" max="12567" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12568" max="12568" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12569" max="12569" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12570" max="12779" width="8.83203125" style="35"/>
+    <col min="12780" max="12780" width="1.5" style="35" customWidth="1"/>
+    <col min="12781" max="12781" width="1.33203125" style="35" customWidth="1"/>
     <col min="12782" max="12782" width="42" style="35" customWidth="1"/>
-    <col min="12783" max="12783" width="5.42578125" style="35" customWidth="1"/>
+    <col min="12783" max="12783" width="5.5" style="35" customWidth="1"/>
     <col min="12784" max="12785" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="12786" max="12786" width="2.7109375" style="35" customWidth="1"/>
-    <col min="12787" max="12822" width="3.28515625" style="35" customWidth="1"/>
-    <col min="12823" max="12823" width="1.7109375" style="35" customWidth="1"/>
-    <col min="12824" max="12824" width="25.7109375" style="35" customWidth="1"/>
-    <col min="12825" max="12825" width="31.28515625" style="35" customWidth="1"/>
-    <col min="12826" max="13035" width="8.85546875" style="35"/>
-    <col min="13036" max="13036" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13037" max="13037" width="1.28515625" style="35" customWidth="1"/>
+    <col min="12786" max="12786" width="2.6640625" style="35" customWidth="1"/>
+    <col min="12787" max="12822" width="3.33203125" style="35" customWidth="1"/>
+    <col min="12823" max="12823" width="1.6640625" style="35" customWidth="1"/>
+    <col min="12824" max="12824" width="25.6640625" style="35" customWidth="1"/>
+    <col min="12825" max="12825" width="31.33203125" style="35" customWidth="1"/>
+    <col min="12826" max="13035" width="8.83203125" style="35"/>
+    <col min="13036" max="13036" width="1.5" style="35" customWidth="1"/>
+    <col min="13037" max="13037" width="1.33203125" style="35" customWidth="1"/>
     <col min="13038" max="13038" width="42" style="35" customWidth="1"/>
-    <col min="13039" max="13039" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13039" max="13039" width="5.5" style="35" customWidth="1"/>
     <col min="13040" max="13041" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13042" max="13042" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13043" max="13078" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13079" max="13079" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13080" max="13080" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13081" max="13081" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13082" max="13291" width="8.85546875" style="35"/>
-    <col min="13292" max="13292" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13293" max="13293" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13042" max="13042" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13043" max="13078" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13079" max="13079" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13080" max="13080" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13081" max="13081" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13082" max="13291" width="8.83203125" style="35"/>
+    <col min="13292" max="13292" width="1.5" style="35" customWidth="1"/>
+    <col min="13293" max="13293" width="1.33203125" style="35" customWidth="1"/>
     <col min="13294" max="13294" width="42" style="35" customWidth="1"/>
-    <col min="13295" max="13295" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13295" max="13295" width="5.5" style="35" customWidth="1"/>
     <col min="13296" max="13297" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13298" max="13298" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13299" max="13334" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13335" max="13335" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13336" max="13336" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13337" max="13337" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13338" max="13547" width="8.85546875" style="35"/>
-    <col min="13548" max="13548" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13549" max="13549" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13298" max="13298" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13299" max="13334" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13335" max="13335" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13336" max="13336" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13337" max="13337" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13338" max="13547" width="8.83203125" style="35"/>
+    <col min="13548" max="13548" width="1.5" style="35" customWidth="1"/>
+    <col min="13549" max="13549" width="1.33203125" style="35" customWidth="1"/>
     <col min="13550" max="13550" width="42" style="35" customWidth="1"/>
-    <col min="13551" max="13551" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13551" max="13551" width="5.5" style="35" customWidth="1"/>
     <col min="13552" max="13553" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13554" max="13554" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13555" max="13590" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13591" max="13591" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13592" max="13592" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13593" max="13593" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13594" max="13803" width="8.85546875" style="35"/>
-    <col min="13804" max="13804" width="1.42578125" style="35" customWidth="1"/>
-    <col min="13805" max="13805" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13554" max="13554" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13555" max="13590" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13591" max="13591" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13592" max="13592" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13593" max="13593" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13594" max="13803" width="8.83203125" style="35"/>
+    <col min="13804" max="13804" width="1.5" style="35" customWidth="1"/>
+    <col min="13805" max="13805" width="1.33203125" style="35" customWidth="1"/>
     <col min="13806" max="13806" width="42" style="35" customWidth="1"/>
-    <col min="13807" max="13807" width="5.42578125" style="35" customWidth="1"/>
+    <col min="13807" max="13807" width="5.5" style="35" customWidth="1"/>
     <col min="13808" max="13809" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="13810" max="13810" width="2.7109375" style="35" customWidth="1"/>
-    <col min="13811" max="13846" width="3.28515625" style="35" customWidth="1"/>
-    <col min="13847" max="13847" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13848" max="13848" width="25.7109375" style="35" customWidth="1"/>
-    <col min="13849" max="13849" width="31.28515625" style="35" customWidth="1"/>
-    <col min="13850" max="14059" width="8.85546875" style="35"/>
-    <col min="14060" max="14060" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14061" max="14061" width="1.28515625" style="35" customWidth="1"/>
+    <col min="13810" max="13810" width="2.6640625" style="35" customWidth="1"/>
+    <col min="13811" max="13846" width="3.33203125" style="35" customWidth="1"/>
+    <col min="13847" max="13847" width="1.6640625" style="35" customWidth="1"/>
+    <col min="13848" max="13848" width="25.6640625" style="35" customWidth="1"/>
+    <col min="13849" max="13849" width="31.33203125" style="35" customWidth="1"/>
+    <col min="13850" max="14059" width="8.83203125" style="35"/>
+    <col min="14060" max="14060" width="1.5" style="35" customWidth="1"/>
+    <col min="14061" max="14061" width="1.33203125" style="35" customWidth="1"/>
     <col min="14062" max="14062" width="42" style="35" customWidth="1"/>
-    <col min="14063" max="14063" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14063" max="14063" width="5.5" style="35" customWidth="1"/>
     <col min="14064" max="14065" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14066" max="14066" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14067" max="14102" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14103" max="14103" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14104" max="14104" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14105" max="14105" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14106" max="14315" width="8.85546875" style="35"/>
-    <col min="14316" max="14316" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14317" max="14317" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14066" max="14066" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14067" max="14102" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14103" max="14103" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14104" max="14104" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14105" max="14105" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14106" max="14315" width="8.83203125" style="35"/>
+    <col min="14316" max="14316" width="1.5" style="35" customWidth="1"/>
+    <col min="14317" max="14317" width="1.33203125" style="35" customWidth="1"/>
     <col min="14318" max="14318" width="42" style="35" customWidth="1"/>
-    <col min="14319" max="14319" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14319" max="14319" width="5.5" style="35" customWidth="1"/>
     <col min="14320" max="14321" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14322" max="14322" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14323" max="14358" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14359" max="14359" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14360" max="14360" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14361" max="14361" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14362" max="14571" width="8.85546875" style="35"/>
-    <col min="14572" max="14572" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14573" max="14573" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14322" max="14322" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14323" max="14358" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14359" max="14359" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14360" max="14360" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14361" max="14361" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14362" max="14571" width="8.83203125" style="35"/>
+    <col min="14572" max="14572" width="1.5" style="35" customWidth="1"/>
+    <col min="14573" max="14573" width="1.33203125" style="35" customWidth="1"/>
     <col min="14574" max="14574" width="42" style="35" customWidth="1"/>
-    <col min="14575" max="14575" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14575" max="14575" width="5.5" style="35" customWidth="1"/>
     <col min="14576" max="14577" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14578" max="14578" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14579" max="14614" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14615" max="14615" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14616" max="14616" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14617" max="14617" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14618" max="14827" width="8.85546875" style="35"/>
-    <col min="14828" max="14828" width="1.42578125" style="35" customWidth="1"/>
-    <col min="14829" max="14829" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14578" max="14578" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14579" max="14614" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14615" max="14615" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14616" max="14616" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14617" max="14617" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14618" max="14827" width="8.83203125" style="35"/>
+    <col min="14828" max="14828" width="1.5" style="35" customWidth="1"/>
+    <col min="14829" max="14829" width="1.33203125" style="35" customWidth="1"/>
     <col min="14830" max="14830" width="42" style="35" customWidth="1"/>
-    <col min="14831" max="14831" width="5.42578125" style="35" customWidth="1"/>
+    <col min="14831" max="14831" width="5.5" style="35" customWidth="1"/>
     <col min="14832" max="14833" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="14834" max="14834" width="2.7109375" style="35" customWidth="1"/>
-    <col min="14835" max="14870" width="3.28515625" style="35" customWidth="1"/>
-    <col min="14871" max="14871" width="1.7109375" style="35" customWidth="1"/>
-    <col min="14872" max="14872" width="25.7109375" style="35" customWidth="1"/>
-    <col min="14873" max="14873" width="31.28515625" style="35" customWidth="1"/>
-    <col min="14874" max="15083" width="8.85546875" style="35"/>
-    <col min="15084" max="15084" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15085" max="15085" width="1.28515625" style="35" customWidth="1"/>
+    <col min="14834" max="14834" width="2.6640625" style="35" customWidth="1"/>
+    <col min="14835" max="14870" width="3.33203125" style="35" customWidth="1"/>
+    <col min="14871" max="14871" width="1.6640625" style="35" customWidth="1"/>
+    <col min="14872" max="14872" width="25.6640625" style="35" customWidth="1"/>
+    <col min="14873" max="14873" width="31.33203125" style="35" customWidth="1"/>
+    <col min="14874" max="15083" width="8.83203125" style="35"/>
+    <col min="15084" max="15084" width="1.5" style="35" customWidth="1"/>
+    <col min="15085" max="15085" width="1.33203125" style="35" customWidth="1"/>
     <col min="15086" max="15086" width="42" style="35" customWidth="1"/>
-    <col min="15087" max="15087" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15087" max="15087" width="5.5" style="35" customWidth="1"/>
     <col min="15088" max="15089" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15090" max="15090" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15091" max="15126" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15127" max="15127" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15128" max="15128" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15129" max="15129" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15130" max="15339" width="8.85546875" style="35"/>
-    <col min="15340" max="15340" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15341" max="15341" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15090" max="15090" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15091" max="15126" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15127" max="15127" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15128" max="15128" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15129" max="15129" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15130" max="15339" width="8.83203125" style="35"/>
+    <col min="15340" max="15340" width="1.5" style="35" customWidth="1"/>
+    <col min="15341" max="15341" width="1.33203125" style="35" customWidth="1"/>
     <col min="15342" max="15342" width="42" style="35" customWidth="1"/>
-    <col min="15343" max="15343" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15343" max="15343" width="5.5" style="35" customWidth="1"/>
     <col min="15344" max="15345" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15346" max="15346" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15347" max="15382" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15383" max="15383" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15384" max="15384" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15385" max="15385" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15386" max="15595" width="8.85546875" style="35"/>
-    <col min="15596" max="15596" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15597" max="15597" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15346" max="15346" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15347" max="15382" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15383" max="15383" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15384" max="15384" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15385" max="15385" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15386" max="15595" width="8.83203125" style="35"/>
+    <col min="15596" max="15596" width="1.5" style="35" customWidth="1"/>
+    <col min="15597" max="15597" width="1.33203125" style="35" customWidth="1"/>
     <col min="15598" max="15598" width="42" style="35" customWidth="1"/>
-    <col min="15599" max="15599" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15599" max="15599" width="5.5" style="35" customWidth="1"/>
     <col min="15600" max="15601" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15602" max="15602" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15603" max="15638" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15639" max="15639" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15640" max="15640" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15641" max="15641" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15642" max="15851" width="8.85546875" style="35"/>
-    <col min="15852" max="15852" width="1.42578125" style="35" customWidth="1"/>
-    <col min="15853" max="15853" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15602" max="15602" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15603" max="15638" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15639" max="15639" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15640" max="15640" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15641" max="15641" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15642" max="15851" width="8.83203125" style="35"/>
+    <col min="15852" max="15852" width="1.5" style="35" customWidth="1"/>
+    <col min="15853" max="15853" width="1.33203125" style="35" customWidth="1"/>
     <col min="15854" max="15854" width="42" style="35" customWidth="1"/>
-    <col min="15855" max="15855" width="5.42578125" style="35" customWidth="1"/>
+    <col min="15855" max="15855" width="5.5" style="35" customWidth="1"/>
     <col min="15856" max="15857" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="15858" max="15858" width="2.7109375" style="35" customWidth="1"/>
-    <col min="15859" max="15894" width="3.28515625" style="35" customWidth="1"/>
-    <col min="15895" max="15895" width="1.7109375" style="35" customWidth="1"/>
-    <col min="15896" max="15896" width="25.7109375" style="35" customWidth="1"/>
-    <col min="15897" max="15897" width="31.28515625" style="35" customWidth="1"/>
-    <col min="15898" max="16107" width="8.85546875" style="35"/>
-    <col min="16108" max="16108" width="1.42578125" style="35" customWidth="1"/>
-    <col min="16109" max="16109" width="1.28515625" style="35" customWidth="1"/>
+    <col min="15858" max="15858" width="2.6640625" style="35" customWidth="1"/>
+    <col min="15859" max="15894" width="3.33203125" style="35" customWidth="1"/>
+    <col min="15895" max="15895" width="1.6640625" style="35" customWidth="1"/>
+    <col min="15896" max="15896" width="25.6640625" style="35" customWidth="1"/>
+    <col min="15897" max="15897" width="31.33203125" style="35" customWidth="1"/>
+    <col min="15898" max="16107" width="8.83203125" style="35"/>
+    <col min="16108" max="16108" width="1.5" style="35" customWidth="1"/>
+    <col min="16109" max="16109" width="1.33203125" style="35" customWidth="1"/>
     <col min="16110" max="16110" width="42" style="35" customWidth="1"/>
-    <col min="16111" max="16111" width="5.42578125" style="35" customWidth="1"/>
+    <col min="16111" max="16111" width="5.5" style="35" customWidth="1"/>
     <col min="16112" max="16113" width="0" style="35" hidden="1" customWidth="1"/>
-    <col min="16114" max="16114" width="2.7109375" style="35" customWidth="1"/>
-    <col min="16115" max="16150" width="3.28515625" style="35" customWidth="1"/>
-    <col min="16151" max="16151" width="1.7109375" style="35" customWidth="1"/>
-    <col min="16152" max="16152" width="25.7109375" style="35" customWidth="1"/>
-    <col min="16153" max="16153" width="31.28515625" style="35" customWidth="1"/>
-    <col min="16154" max="16384" width="8.85546875" style="35"/>
+    <col min="16114" max="16114" width="2.6640625" style="35" customWidth="1"/>
+    <col min="16115" max="16150" width="3.33203125" style="35" customWidth="1"/>
+    <col min="16151" max="16151" width="1.6640625" style="35" customWidth="1"/>
+    <col min="16152" max="16152" width="25.6640625" style="35" customWidth="1"/>
+    <col min="16153" max="16153" width="31.33203125" style="35" customWidth="1"/>
+    <col min="16154" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:34" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="64" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="2:34" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="2:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:34" ht="39.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="D3" s="86" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>67</v>
       </c>
       <c r="AD3" s="35"/>
       <c r="AE3" s="35"/>
@@ -7632,15 +7673,15 @@
       <c r="AG3" s="35"/>
       <c r="AH3" s="35"/>
     </row>
-    <row r="4" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>58</v>
+    <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
@@ -7648,15 +7689,15 @@
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
     </row>
-    <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>58</v>
+    <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>56</v>
       </c>
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
@@ -7664,173 +7705,195 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="2:34" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>58</v>
-      </c>
+    <row r="6" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="94"/>
       <c r="AD6" s="35"/>
       <c r="AE6" s="35"/>
       <c r="AF6" s="35"/>
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
     </row>
-    <row r="7" spans="2:34" ht="30" x14ac:dyDescent="0.2">
-      <c r="B7" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>58</v>
-      </c>
+    <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="94"/>
       <c r="AD7" s="35"/>
       <c r="AE7" s="35"/>
       <c r="AF7" s="35"/>
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
     </row>
-    <row r="8" spans="2:34" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>58</v>
-      </c>
+    <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="94"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
       <c r="AG8" s="35"/>
       <c r="AH8" s="35"/>
     </row>
-    <row r="9" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="91" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>58</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D9" s="94"/>
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35"/>
       <c r="AG9" s="35"/>
       <c r="AH9" s="35"/>
     </row>
-    <row r="10" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
+    <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="93"/>
       <c r="AD10" s="35"/>
       <c r="AE10" s="35"/>
       <c r="AF10" s="35"/>
       <c r="AG10" s="35"/>
       <c r="AH10" s="35"/>
     </row>
-    <row r="11" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
+    <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B11" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="93"/>
       <c r="AD11" s="35"/>
       <c r="AE11" s="35"/>
       <c r="AF11" s="35"/>
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
     </row>
-    <row r="12" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" spans="2:34" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-    </row>
-    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-    </row>
-    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-    </row>
-    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="93"/>
+    </row>
+    <row r="13" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="93"/>
+    </row>
+    <row r="14" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="93"/>
+    </row>
+    <row r="15" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="93"/>
+    </row>
+    <row r="16" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B17" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="93"/>
+    </row>
+    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B18" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="93"/>
+    </row>
+    <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
     </row>
-    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
     </row>
-    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
       <c r="D21" s="50"/>
     </row>
-    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
     </row>
-    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="49"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="49"/>
     </row>
-    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="49"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
-  <phoneticPr fontId="28" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-  </hyperlinks>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="1.2480314960000001" header="0.31496062992126" footer="0.31496063000000002"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId7"/>
+  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;24CDPP</oddHeader>
     <oddFooter>&amp;L&amp;12&amp;F_x000D_Version 0.3&amp;CInternal Use Only&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
   <si>
     <t>1.1</t>
   </si>
@@ -512,12 +512,6 @@
     <t>[Android] Future timestamp is displayed during thermometer reading sync</t>
   </si>
   <si>
-    <t>DE14605</t>
-  </si>
-  <si>
-    <t>Bug 32982: [iOS] The "BT not on" error message does not appear when you try to sync Moonshine with BT off</t>
-  </si>
-  <si>
     <t>DE14608</t>
   </si>
   <si>
@@ -558,12 +552,6 @@
   </si>
   <si>
     <t>[Android] Reconnect fails with Nexus 5, 4.4.2</t>
-  </si>
-  <si>
-    <t>DE14619</t>
-  </si>
-  <si>
-    <t>[iOS] The bluetooth on/off update is not triggered</t>
   </si>
   <si>
     <t>DE14620</t>
@@ -2669,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>44</v>
@@ -3002,7 +2990,7 @@
   </sheetPr>
   <dimension ref="B1:N179"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3278,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D14" s="87" t="s">
         <v>82</v>
@@ -3287,7 +3275,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -6939,8 +6927,8 @@
   </sheetPr>
   <dimension ref="B1:AH25"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7705,7 +7693,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="91" t="s">
         <v>103</v>
       </c>
@@ -7754,7 +7742,7 @@
       <c r="C9" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="94"/>
+      <c r="D9" s="93"/>
       <c r="AD9" s="35"/>
       <c r="AE9" s="35"/>
       <c r="AF9" s="35"/>
@@ -7798,7 +7786,7 @@
       </c>
       <c r="D12" s="93"/>
     </row>
-    <row r="13" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="91" t="s">
         <v>117</v>
       </c>
@@ -7814,9 +7802,11 @@
       <c r="C14" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="93"/>
-    </row>
-    <row r="15" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="D14" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="91" t="s">
         <v>121</v>
       </c>
@@ -7825,34 +7815,14 @@
       </c>
       <c r="D15" s="93"/>
     </row>
-    <row r="16" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="91" t="s">
         <v>123</v>
       </c>
       <c r="C16" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B17" s="91" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="93"/>
-    </row>
-    <row r="18" spans="2:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B18" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="93"/>
+      <c r="D16" s="93"/>
     </row>
     <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>

--- a/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
+++ b/Documents/External/Residual_Anomalies_BlueLib_Android_NatKuz-20160711-01V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22440" tabRatio="689" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Title Page" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>1.1</t>
   </si>
@@ -455,8 +455,110 @@
     <t>1.0</t>
   </si>
   <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>2016-DEC-20</t>
+  </si>
+  <si>
+    <t>Bas Flaton</t>
+  </si>
+  <si>
+    <t>Updated to correctly reflect 2.0.3 release anomalies after review</t>
+  </si>
+  <si>
+    <t>https://bitbucket.atlas.philips.com/projects/EHSHN/repos/android-shinelib/browse/Documents/External/</t>
+  </si>
+  <si>
+    <t>Ernest Anglès Isern</t>
+  </si>
+  <si>
+    <t>Lead Architect Connectivity / Chief Product Owner</t>
+  </si>
+  <si>
+    <t>For internal use</t>
+  </si>
+  <si>
+    <t>DE13270</t>
+  </si>
+  <si>
+    <t>[Android] Thermometer Pairing issues Android N</t>
+  </si>
+  <si>
+    <t>DE14608</t>
+  </si>
+  <si>
+    <t>[Android] BlueLib doesn't build on a clean development environment</t>
+  </si>
+  <si>
+    <t>DE14613</t>
+  </si>
+  <si>
+    <t>Bug 43674: [Android] Crash observed when syncing continously</t>
+  </si>
+  <si>
+    <t>DE14614</t>
+  </si>
+  <si>
+    <t>[Android] DiCommChannel is not resilient against leading garbage</t>
+  </si>
+  <si>
+    <t>DE14615</t>
+  </si>
+  <si>
+    <t>[Android] NullPointerException in BlueLib using example App</t>
+  </si>
+  <si>
+    <t>DE14616</t>
+  </si>
+  <si>
+    <t>[Android] IndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>DE14617</t>
+  </si>
+  <si>
+    <t>[Android] NPE when calling readRssi()</t>
+  </si>
+  <si>
+    <t>DE14618</t>
+  </si>
+  <si>
+    <t>[Android] Reconnect fails with Nexus 5, 4.4.2</t>
+  </si>
+  <si>
+    <t>DE14620</t>
+  </si>
+  <si>
+    <t>[Android] SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
+  </si>
+  <si>
+    <t>DE14677</t>
+  </si>
+  <si>
+    <t>[Android] App crashes on launch of the application</t>
+  </si>
+  <si>
+    <t>DE15010</t>
+  </si>
+  <si>
+    <t>TFS-49782 [Android] App Crashes on launch after the app upgrade</t>
+  </si>
+  <si>
+    <t>DE15038</t>
+  </si>
+  <si>
+    <t>[Android] TFS-40215:After Unpairing Moonshine and Pairing it back to same User is failing.</t>
+  </si>
+  <si>
+    <t>2017-FEB-28</t>
+  </si>
+  <si>
+    <t>2.3.2 Release</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Conclusion: The build </t>
+      <t xml:space="preserve">Conclusion: There are 2 major issues. Both are waiting for external input. The build </t>
     </r>
     <r>
       <rPr>
@@ -474,114 +576,6 @@
       </rPr>
       <t xml:space="preserve"> be released.</t>
     </r>
-  </si>
-  <si>
-    <t>approved</t>
-  </si>
-  <si>
-    <t>2016-DEC-20</t>
-  </si>
-  <si>
-    <t>Bas Flaton</t>
-  </si>
-  <si>
-    <t>Updated to correctly reflect 2.0.3 release anomalies after review</t>
-  </si>
-  <si>
-    <t>https://bitbucket.atlas.philips.com/projects/EHSHN/repos/android-shinelib/browse/Documents/External/</t>
-  </si>
-  <si>
-    <t>Ernest Anglès Isern</t>
-  </si>
-  <si>
-    <t>Lead Architect Connectivity / Chief Product Owner</t>
-  </si>
-  <si>
-    <t>For internal use</t>
-  </si>
-  <si>
-    <t>DE13270</t>
-  </si>
-  <si>
-    <t>[Android] Thermometer Pairing issues Android N</t>
-  </si>
-  <si>
-    <t>DE14423</t>
-  </si>
-  <si>
-    <t>[Android] Future timestamp is displayed during thermometer reading sync</t>
-  </si>
-  <si>
-    <t>DE14608</t>
-  </si>
-  <si>
-    <t>[Android] BlueLib doesn't build on a clean development environment</t>
-  </si>
-  <si>
-    <t>DE14613</t>
-  </si>
-  <si>
-    <t>Bug 43674: [Android] Crash observed when syncing continously</t>
-  </si>
-  <si>
-    <t>DE14614</t>
-  </si>
-  <si>
-    <t>[Android] DiCommChannel is not resilient against leading garbage</t>
-  </si>
-  <si>
-    <t>DE14615</t>
-  </si>
-  <si>
-    <t>[Android] NullPointerException in BlueLib using example App</t>
-  </si>
-  <si>
-    <t>DE14616</t>
-  </si>
-  <si>
-    <t>[Android] IndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t>DE14617</t>
-  </si>
-  <si>
-    <t>[Android] NPE when calling readRssi()</t>
-  </si>
-  <si>
-    <t>DE14618</t>
-  </si>
-  <si>
-    <t>[Android] Reconnect fails with Nexus 5, 4.4.2</t>
-  </si>
-  <si>
-    <t>DE14620</t>
-  </si>
-  <si>
-    <t>[Android] SHNDeviceImpl should actively disconnect when not all expected services are discovered</t>
-  </si>
-  <si>
-    <t>DE14677</t>
-  </si>
-  <si>
-    <t>[Android] App crashes on launch of the application</t>
-  </si>
-  <si>
-    <t>DE15010</t>
-  </si>
-  <si>
-    <t>TFS-49782 [Android] App Crashes on launch after the app upgrade</t>
-  </si>
-  <si>
-    <t>DE15038</t>
-  </si>
-  <si>
-    <t>[Android] TFS-40215:After Unpairing Moonshine and Pairing it back to same User is failing.</t>
-  </si>
-  <si>
-    <t>2017-FEB-28</t>
-  </si>
-  <si>
-    <t>2.3.2 Release</t>
   </si>
 </sst>
 </file>
@@ -2596,16 +2590,16 @@
     </row>
     <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>97</v>
       </c>
       <c r="D8" s="90" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23"/>
@@ -2649,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" s="98" t="s">
         <v>44</v>
@@ -2683,7 +2677,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2685,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>34</v>
@@ -3241,13 +3235,13 @@
         <v>89</v>
       </c>
       <c r="C13" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="E13" s="88" t="s">
         <v>93</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>94</v>
       </c>
       <c r="F13" s="87" t="s">
         <v>87</v>
@@ -3266,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="87" t="s">
         <v>82</v>
@@ -3275,7 +3269,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="87" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -6113,8 +6107,8 @@
   </sheetPr>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6865,7 +6859,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="38"/>
     </row>
@@ -6894,7 +6888,7 @@
     </row>
     <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="39" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -6927,8 +6921,8 @@
   </sheetPr>
   <dimension ref="B1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView view="pageLayout" zoomScale="140" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7663,10 +7657,10 @@
     </row>
     <row r="4" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>100</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>56</v>
@@ -7679,14 +7673,12 @@
     </row>
     <row r="5" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>56</v>
-      </c>
+      <c r="D5" s="94"/>
       <c r="AD5" s="35"/>
       <c r="AE5" s="35"/>
       <c r="AF5" s="35"/>
@@ -7695,10 +7687,10 @@
     </row>
     <row r="6" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>104</v>
       </c>
       <c r="D6" s="94"/>
       <c r="AD6" s="35"/>
@@ -7709,10 +7701,10 @@
     </row>
     <row r="7" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="92" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>106</v>
       </c>
       <c r="D7" s="94"/>
       <c r="AD7" s="35"/>
@@ -7723,12 +7715,12 @@
     </row>
     <row r="8" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="93"/>
       <c r="AD8" s="35"/>
       <c r="AE8" s="35"/>
       <c r="AF8" s="35"/>
@@ -7737,10 +7729,10 @@
     </row>
     <row r="9" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="92" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="92" t="s">
-        <v>110</v>
       </c>
       <c r="D9" s="93"/>
       <c r="AD9" s="35"/>
@@ -7751,10 +7743,10 @@
     </row>
     <row r="10" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="92" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>112</v>
       </c>
       <c r="D10" s="93"/>
       <c r="AD10" s="35"/>
@@ -7765,10 +7757,10 @@
     </row>
     <row r="11" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="92" t="s">
         <v>113</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>114</v>
       </c>
       <c r="D11" s="93"/>
       <c r="AD11" s="35"/>
@@ -7777,52 +7769,43 @@
       <c r="AG11" s="35"/>
       <c r="AH11" s="35"/>
     </row>
-    <row r="12" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:34" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="D12" s="93"/>
+    </row>
+    <row r="13" spans="2:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="93"/>
-    </row>
-    <row r="13" spans="2:34" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="93"/>
+      <c r="D13" s="95" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="2:34" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="D14" s="93"/>
+    </row>
+    <row r="15" spans="2:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="91" t="s">
+      <c r="C15" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="92" t="s">
-        <v>122</v>
-      </c>
       <c r="D15" s="93"/>
-    </row>
-    <row r="16" spans="2:34" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="93"/>
     </row>
     <row r="19" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
